--- a/00Dashboard.xlsx
+++ b/00Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlshe\Documents\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7C73D1-42C9-457E-AE96-4A731529C006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECC4D9B-0284-43DE-9107-B8AB741A8F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4588CD03-294E-421F-A4EF-704A3E6AC4BE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4588CD03-294E-421F-A4EF-704A3E6AC4BE}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Bond Yields" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,13 @@
     <externalReference r:id="rId31"/>
     <externalReference r:id="rId32"/>
     <externalReference r:id="rId33"/>
+    <externalReference r:id="rId34"/>
+    <externalReference r:id="rId35"/>
+    <externalReference r:id="rId36"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">All!$B$2:$V$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -155,7 +161,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="19">
+  <futureMetadata name="XLRICHVALUE" count="22">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -289,13 +295,34 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="59"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="62"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="63"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="19">
+  <valueMetadata count="22">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -353,12 +380,21 @@
     <bk>
       <rc t="2" v="18"/>
     </bk>
+    <bk>
+      <rc t="2" v="19"/>
+    </bk>
+    <bk>
+      <rc t="2" v="20"/>
+    </bk>
+    <bk>
+      <rc t="2" v="21"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
   <si>
     <t>U.S. T-Bonds</t>
   </si>
@@ -771,10 +807,28 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Geneva, Switzerland</t>
-  </si>
-  <si>
-    <t>Jean-Marc Chery</t>
+    <t>Toyota, Japan</t>
+  </si>
+  <si>
+    <t>Koji Sato</t>
+  </si>
+  <si>
+    <t>Automobiles</t>
+  </si>
+  <si>
+    <t>Mountain View, California</t>
+  </si>
+  <si>
+    <t>Sundar Pichai</t>
+  </si>
+  <si>
+    <t>Interactive Media and Services</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>Haviv Ilan</t>
   </si>
 </sst>
 </file>
@@ -895,7 +949,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,7 +1052,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1139,7 +1192,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2/21/2024</c:v>
+                  <c:v>3/15/2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1195,28 +1248,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.9799999999999997E-2</c:v>
+                  <c:v>5.0500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6399999999999997E-2</c:v>
+                  <c:v>4.7199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4299999999999999E-2</c:v>
+                  <c:v>4.5100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>4.3299999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.3299999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3200000000000002E-2</c:v>
+                  <c:v>4.3099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5900000000000003E-2</c:v>
+                  <c:v>4.5499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4900000000000002E-2</c:v>
+                  <c:v>4.4299999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,7 +1290,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2/21/2023</c:v>
+                  <c:v>3/15/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1293,28 +1346,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0700000000000002E-2</c:v>
+                  <c:v>4.19E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6699999999999998E-2</c:v>
+                  <c:v>3.9300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4400000000000002E-2</c:v>
+                  <c:v>3.8300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1599999999999998E-2</c:v>
+                  <c:v>3.5900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0800000000000003E-2</c:v>
+                  <c:v>3.5700000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.95E-2</c:v>
+                  <c:v>3.5099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1200000000000001E-2</c:v>
+                  <c:v>3.8199999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9800000000000002E-2</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,7 +2215,7 @@
         </row>
         <row r="65">
           <cell r="BB65">
-            <v>65.335353207723571</v>
+            <v>65.754155843270169</v>
           </cell>
         </row>
         <row r="66">
@@ -2184,7 +2237,7 @@
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>7.9644490125083622E-2</v>
+            <v>7.9122001050125471E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2274,17 +2327,17 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>95.1</v>
+            <v>94.4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>313</v>
+            <v>297</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>451</v>
+            <v>447</v>
           </cell>
         </row>
       </sheetData>
@@ -2299,7 +2352,7 @@
             <v>0.31966183022963557</v>
           </cell>
           <cell r="AV26">
-            <v>43.891925490081036</v>
+            <v>99.79887531818369</v>
           </cell>
         </row>
         <row r="27">
@@ -2316,7 +2369,7 @@
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>4.3864261049644818E-2</v>
+            <v>4.1769407639219235E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2432,31 +2485,41 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="C5">
-            <v>942.9</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>6083</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>2927</v>
+            <v>29.3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="22">
-          <cell r="AK22" t="e">
-            <v>#DIV/0!</v>
+        <row r="19">
+          <cell r="AK19">
+            <v>-0.1109279854349241</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AT25">
+            <v>-119.74897291383805</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AK26">
+            <v>0.34992408101268224</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AK27">
+            <v>-1.9502118471657514E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AK28">
+            <v>0.36638617478095792</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
-          <cell r="C18" t="e">
-            <v>#DIV/0!</v>
+          <cell r="C18">
+            <v>6.1315001319892676E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2466,6 +2529,37 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="DCF"/>
+      <sheetName val="WACC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="C7">
+            <v>6083</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>2927</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2533,7 +2627,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2593,74 +2687,6 @@
         <row r="18">
           <cell r="C18">
             <v>8.8789900307742461E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="WACC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>747.61</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="37">
-          <cell r="X37">
-            <v>0.43739157498748304</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="AJ42">
-            <v>179.69406171187131</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="X44">
-            <v>0.7324372209847696</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="X45">
-            <v>-2.4964743583708725E-2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="X46">
-            <v>9.6191708387241698E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="18">
-          <cell r="C18">
-            <v>6.2941209427912495E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2684,49 +2710,51 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>922.8</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>450</v>
+            <v>747.61</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>3691.8</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="17">
-          <cell r="AQ17">
-            <v>4.7074127139733024E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AQ24">
-            <v>0.6386813345096416</v>
-          </cell>
-          <cell r="AZ24">
-            <v>9.4495128429675077</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AQ25">
-            <v>0.13125438864982633</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AQ26">
-            <v>0.20402201999775299</v>
+        <row r="37">
+          <cell r="X37">
+            <v>0.43739157498748304</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AJ42">
+            <v>179.69406171187131</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="X44">
+            <v>0.7324372209847696</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="X45">
+            <v>-2.4964743583708725E-2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="X46">
+            <v>9.6191708387241698E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>8.3341765758214809E-2</v>
+            <v>6.2941209427912495E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2743,48 +2771,56 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="DCF"/>
+      <sheetName val="Model"/>
       <sheetName val="WACC"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="C5">
-            <v>29.3</v>
+        <row r="6">
+          <cell r="C6">
+            <v>922.8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>3691.8</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="19">
-          <cell r="AK19">
-            <v>-0.1109279854349241</v>
+        <row r="17">
+          <cell r="AQ17">
+            <v>4.7074127139733024E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AQ24">
+            <v>0.6386813345096416</v>
+          </cell>
+          <cell r="AZ24">
+            <v>9.4495128429675077</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="AT25">
-            <v>-119.74897291383805</v>
+          <cell r="AQ25">
+            <v>0.13125438864982633</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="AK26">
-            <v>0.34992408101268224</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AK27">
-            <v>-1.9502118471657514E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AK28">
-            <v>0.36638617478095792</v>
+          <cell r="AQ26">
+            <v>0.20402201999775299</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>6.1315001319892676E-2</v>
+            <v>8.3341765758214809E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2853,6 +2889,219 @@
         <row r="18">
           <cell r="C18">
             <v>6.2908523021171267E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="DCF"/>
+      <sheetName val="DDM"/>
+      <sheetName val="WACC"/>
+      <sheetName val="Historical Divs."/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="C19">
+            <v>1375.573444643212</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>51565.447199999995</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>230927.34039999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="28">
+          <cell r="AP28">
+            <v>0.18403064777276446</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AP34">
+            <v>0.16991347811227653</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AP35">
+            <v>7.3343493126959369E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AP36">
+            <v>0.32048257531959945</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="BE43">
+            <v>586.48012737999534</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="18">
+          <cell r="C18">
+            <v>3.9276503997873018E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="DCF"/>
+      <sheetName val="WACC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="D5">
+            <v>12602</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>141924</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>13253</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="AU19">
+            <v>8.6827702272695095E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="BH24">
+            <v>87.041639870124285</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AU26">
+            <v>0.56625047984020505</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AU27">
+            <v>0.27421810445226646</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AU28">
+            <v>0.13908559562280529</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="18">
+          <cell r="C18">
+            <v>8.1008901743441414E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="WACC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>915</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>8575</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>11223</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="AV19">
+            <v>5.0199999999999996</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AV23">
+            <v>-0.12527461553824648</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BH28">
+            <v>126.13627883623619</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AV31">
+            <v>0.62897425652149097</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AV32">
+            <v>0.41845995776014611</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AV33">
+            <v>0.12240496090590455</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="18">
+          <cell r="C18">
+            <v>7.7239621578546455E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3015,7 +3264,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>246.53351366994207</v>
+            <v>204.31700834081138</v>
           </cell>
         </row>
         <row r="5">
@@ -3035,23 +3284,23 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="58">
-          <cell r="AQ58">
+        <row r="54">
+          <cell r="AT54">
             <v>6.7280193590965709E-2</v>
           </cell>
         </row>
-        <row r="66">
-          <cell r="AQ66">
+        <row r="62">
+          <cell r="AT62">
             <v>0.24140463839525986</v>
           </cell>
         </row>
-        <row r="67">
-          <cell r="AQ67">
+        <row r="63">
+          <cell r="AT63">
             <v>3.3417908714208827E-2</v>
           </cell>
         </row>
-        <row r="68">
-          <cell r="AQ68">
+        <row r="64">
+          <cell r="AT64">
             <v>0.33638928067700985</v>
           </cell>
         </row>
@@ -3059,7 +3308,7 @@
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>3.7900355013211547E-2</v>
+            <v>4.7269084447106452E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3221,51 +3470,51 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="C5">
-            <v>452.41699999999997</v>
+            <v>444.29199999999997</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>7827.5039999999999</v>
+            <v>7137.8859999999995</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>14437.128000000001</v>
+            <v>14543.260999999999</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="33">
-          <cell r="AN33">
+        <row r="34">
+          <cell r="AR34">
             <v>6.45739131769969E-2</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="AU40">
-            <v>132.73278748475823</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="AN41">
-            <v>0.36098116662528418</v>
+          <cell r="BF40">
+            <v>210.62723063462789</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="AN42">
-            <v>0.15701470104110174</v>
+          <cell r="AR42">
+            <v>0.39370705238403253</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="AN43">
-            <v>7.3344030182061384E-2</v>
+          <cell r="AR43">
+            <v>0.17816647187855345</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="AR44">
+            <v>0.14665946292208726</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>6.4009731443713219E-2</v>
+            <v>8.5485106254227783E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3451,7 +3700,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="57">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="64">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1yjxm&amp;q=XNYS%3aNKE&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -3470,9 +3719,11 @@
     <v>4</v>
     <v>128.68</v>
     <v>88.66</v>
-    <v>1.1027</v>
-    <v>-2.34</v>
-    <v>-2.2968000000000002E-2</v>
+    <v>1.0904</v>
+    <v>-1.17</v>
+    <v>1.2959999999999998E-3</v>
+    <v>-1.248E-2</v>
+    <v>0.12</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
     <v>83700</v>
@@ -3480,24 +3731,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>101.77</v>
+    <v>93.86</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45356.041020126562</v>
+    <v>45377.999682221875</v>
     <v>0</v>
-    <v>99.01</v>
-    <v>150815243880</v>
+    <v>92.41</v>
+    <v>140269994760</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>101.65</v>
-    <v>29.062899999999999</v>
-    <v>101.88</v>
-    <v>99.54</v>
+    <v>93.74</v>
+    <v>27.570900000000002</v>
+    <v>93.75</v>
+    <v>92.58</v>
+    <v>92.7</v>
     <v>1515122000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>9263</v>
-    <v>8175437</v>
+    <v>10816947</v>
+    <v>10118137</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -3518,12 +3770,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>18.47</v>
+    <v>4</v>
+    <v>19.02</v>
     <v>12.414999999999999</v>
-    <v>1.2042999999999999</v>
-    <v>0.1</v>
-    <v>5.4819999999999999E-3</v>
+    <v>1.2051000000000001</v>
+    <v>0.16</v>
+    <v>5.3189999999999997E-4</v>
+    <v>8.5840000000000014E-3</v>
+    <v>0.01</v>
     <v>USD</v>
     <v>Levi Strauss &amp; Co. is an apparel company. The Company designs and markets jeans, casual wear and related accessories for men, women and children under the Levi's, Signatureby Levi Strauss &amp; Co., Denizen, Dockers and Beyond Yoga brands. The Company operates through three geographical segments: Americas, Europe, and Asia. It designs, markets and sells directly or through third parties and licensee's products that include jeans, casual and dress pants, tops, shorts, skirts, dresses, jackets, footwear, and related accessories for men, women and children around the world. The Company’s products are sold in more than 110 countries worldwide through a combination of chain retailers, department stores, online sites, and a global footprint of approximately 3,200 retail stores and shop-in-shops. Outside the United States, department stores, specialty retailers, franchised or other brand-dedicated stores and shop-in-shops are its primary distribution channels.</v>
     <v>19100</v>
@@ -3531,24 +3785,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1155 Battery St, SAN FRANCISCO, CA, 94111 US</v>
-    <v>18.395</v>
+    <v>18.989999999999998</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45355.976439803126</v>
+    <v>45377.973049860935</v>
     <v>3</v>
-    <v>18.16</v>
-    <v>7298975208</v>
+    <v>18.73</v>
+    <v>7482948960</v>
     <v>LEVI STRAUSS &amp; CO.</v>
     <v>LEVI STRAUSS &amp; CO.</v>
-    <v>18.22</v>
-    <v>29.335999999999999</v>
-    <v>18.239999999999998</v>
-    <v>18.34</v>
-    <v>397981200</v>
+    <v>18.82</v>
+    <v>29.815899999999999</v>
+    <v>18.64</v>
+    <v>18.8</v>
+    <v>18.809999999999999</v>
+    <v>398029200</v>
     <v>LEVI</v>
     <v>LEVI STRAUSS &amp; CO. (XNYS:LEVI)</v>
-    <v>28</v>
-    <v>1824070</v>
+    <v>1229937</v>
+    <v>1457211</v>
     <v>1970</v>
   </rv>
   <rv s="2">
@@ -3569,12 +3824,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>33.43</v>
-    <v>18.710699999999999</v>
+    <v>19.545000000000002</v>
     <v>0.71519999999999995</v>
-    <v>-0.04</v>
-    <v>-1.6569999999999998E-3</v>
+    <v>0.18</v>
+    <v>-1.1452E-2</v>
+    <v>7.417E-3</v>
+    <v>-0.28000000000000003</v>
     <v>USD</v>
     <v>Dropbox, Inc. provides tools to help distributed teams prioritize, get organized, and keep work moving securely from anywhere. Its products include Dropbox Passwords, Vault, Computer Backup, Dropbox Sign, DocSend, Dropbox Capture and FormSwift, among others. Dropbox Passwords allows users to sign into Websites and apps by creating and storing usernames and passwords across devices. Dropbox Vault helps secure and organize sensitive information in the cloud. Computer backup automatically syncs folders on a user's computer to the cloud. Dropbox Sign is an e-signature and document workflow platform that enables customers to easily sign, send and receive documents through its intuitive Web and mobile-based interfaces. DocSend is a secure document sharing and analytics platform. Dropbox Capture is an all-in-one visual communication tool that helps team members share their work and ideas asynchronously. Its customers include individuals, families, teams, and organizations of all sizes.</v>
     <v>2693</v>
@@ -3582,24 +3839,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1800 Owens Street, Suite 200, SAN FRANCISCO, CA, 94158 US</v>
-    <v>24.62</v>
+    <v>24.664999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45356.037409003904</v>
+    <v>45377.935575960153</v>
     <v>6</v>
-    <v>24.06</v>
-    <v>8290019220</v>
+    <v>24.27</v>
+    <v>8376015000</v>
     <v>DROPBOX, INC.</v>
     <v>DROPBOX, INC.</v>
-    <v>24.29</v>
-    <v>18.068899999999999</v>
-    <v>24.14</v>
-    <v>24.1</v>
+    <v>24.27</v>
+    <v>18.196400000000001</v>
+    <v>24.27</v>
+    <v>24.45</v>
+    <v>24.17</v>
     <v>343984200</v>
     <v>DBX</v>
     <v>DROPBOX, INC. (XNAS:DBX)</v>
-    <v>35</v>
-    <v>4953642</v>
+    <v>3046664</v>
+    <v>5252153</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -3620,37 +3878,40 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>24.085000000000001</v>
+    <v>4</v>
+    <v>23.01</v>
     <v>9.84</v>
-    <v>1.8620000000000001</v>
-    <v>-0.1</v>
-    <v>-6.9930000000000001E-3</v>
+    <v>1.8674999999999999</v>
+    <v>0</v>
+    <v>3.7131999999999998E-2</v>
+    <v>0</v>
+    <v>0.57999999999999996</v>
     <v>USD</v>
-    <v>Topgolf Callaway Brands Corp. is a golf and active lifestyle company. The Company provides golf entertainment experiences, designs, and manufactures premium golf equipment, and sells golf and active lifestyle apparel and other accessories through its family of brand names, which include Topgolf, Callaway Golf, Odyssey, TravisMathew, Jack Wolfskin, OGIO and Toptracer. It operates through three business segments: Topgolf, Golf Equipment, and Active Lifestyle. The Topgolf is a technology-enabled golf entertainment business. Its platform offers open-air golf and entertainment venues as well as its Toptracer ball-tracking technology and digital media platform. The Golf Equipment segment is engaged in designing, manufacturing, and selling a full line of golf equipment, which is comprised of the golf clubs and golf balls product groups. Under Active Lifestyle segment, the Company designs, develops and sells soft good products under the Callaway, TravisMathew, OGIO, and Jack Wolfskin brands.</v>
+    <v>Topgolf Callaway Brands Corp. is a golf and active lifestyle company. The Company provides golf entertainment experiences, designs, and manufactures golf equipment, and sells golf and active lifestyle apparel and other accessories through its family of brand names, which include Topgolf, Callaway Golf, Odyssey, TravisMathew, Jack Wolfskin, OGIO, Toptracer and World Golf Tour. Its segments include Topgolf, Golf Equipment, and Active Lifestyle. The Topgolf is a technology-enabled golf entertainment business. Its platform offers open-air golf and entertainment venues as well as its Toptracer ball-tracking technology and digital media platform. The Golf Equipment segment is engaged in designing, manufacturing, and selling a full line of golf equipment, which is comprised of the golf clubs and golf balls product groups. Under Active Lifestyle segment, the Company designs, develops and sells soft good products under the Callaway, TravisMathew, OGIO, and Jack Wolfskin brands.</v>
     <v>32000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>2180 RUTHERFORD RD, CARLSBAD, CA, 92008-7328 US</v>
-    <v>14.47</v>
+    <v>2180 RUTHERFORD RD, CARLSBAD, CA, 92008-8815 US</v>
+    <v>16.04</v>
     <v>Leisure Products</v>
     <v>Stock</v>
-    <v>45356.041338205468</v>
+    <v>45377.993036214844</v>
     <v>9</v>
-    <v>14.09</v>
-    <v>2620141400</v>
+    <v>15.58</v>
+    <v>2867800760</v>
     <v>TOPGOLF CALLAWAY BRANDS CORP.</v>
     <v>TOPGOLF CALLAWAY BRANDS CORP.</v>
-    <v>14.46</v>
-    <v>30.827300000000001</v>
-    <v>14.3</v>
-    <v>14.2</v>
+    <v>15.85</v>
+    <v>33.9101</v>
+    <v>15.62</v>
+    <v>15.62</v>
+    <v>16.2</v>
     <v>183598000</v>
     <v>MODG</v>
     <v>TOPGOLF CALLAWAY BRANDS CORP. (XNYS:MODG)</v>
-    <v>19</v>
-    <v>2861128</v>
+    <v>1368624</v>
+    <v>2736406</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -3672,36 +3933,39 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>60.4499</v>
-    <v>45.363300000000002</v>
-    <v>0.49830000000000002</v>
-    <v>0.56999999999999995</v>
-    <v>9.7000000000000003E-3</v>
+    <v>61.655000000000001</v>
+    <v>47.593299999999999</v>
+    <v>0.49969999999999998</v>
+    <v>-0.06</v>
+    <v>3.3050000000000001E-4</v>
+    <v>-9.905999999999999E-4</v>
+    <v>0.02</v>
     <v>USD</v>
-    <v>Walmart Inc. is a technology-powered omni-channel retailer. The Company provides the opportunity to shop in both retail stores and through e-commerce and to access its other service offerings. It offers an assortment of merchandise and services at everyday low prices (EDLP). It operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment is a mass merchandiser of consumer products, operating under the Walmart and Walmart Neighborhood Market brands, as well as walmart.com and other e-commerce brands. Walmart International segment includes various formats divided into two categories: retail and wholesale. These categories consist of many formats, including supercenters, supermarkets, hypermarkets, warehouse clubs (including Sam's Clubs) and cash &amp; carry, as well as e-commerce through walmart.com.mx, walmart.ca, flipkart.com, walmart.cn and other sites. Sam's Club segment is a membership-only warehouse club that also operates samsclub.com.</v>
+    <v>Walmart Inc. is a technology-powered omnichannel retailer. The Company is engaged in the operation of retail and wholesale stores and clubs, as well as e-commerce websites and mobile applications, located throughout the United States, Africa, Canada, Central America, Chile, China, India and Mexico. It operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment includes the Company's mass merchant concept in the United States, as well as e-commerce, which includes omni-channel initiatives and certain other business offerings such as advertising services through Walmart Connect. It operates under the Walmart and Walmart Neighborhood Market brands. The Walmart International segment consists of the Company's operations outside of the United States, as well as e-commerce and omni-channel initiatives. The Sam's Club segment includes the warehouse membership clubs in the United States, as well as e-commerce and omni-channel initiatives.</v>
     <v>2100000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
-    <v>59.39</v>
+    <v>60.83</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>45356.041603135935</v>
+    <v>45377.999685937502</v>
     <v>12</v>
-    <v>58.4</v>
-    <v>477772149360</v>
+    <v>60.23</v>
+    <v>487592544990</v>
     <v>WALMART INC.</v>
     <v>WALMART INC.</v>
-    <v>58.5</v>
-    <v>30.994599999999998</v>
-    <v>58.76</v>
-    <v>59.33</v>
-    <v>8052792000</v>
+    <v>60.46</v>
+    <v>41.453000000000003</v>
+    <v>60.57</v>
+    <v>60.51</v>
+    <v>60.53</v>
+    <v>8058049000</v>
     <v>WMT</v>
     <v>WALMART INC. (XNYS:WMT)</v>
-    <v>24861</v>
-    <v>24718372</v>
+    <v>13738342</v>
+    <v>24163672</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -3723,36 +3987,39 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>171.24</v>
+    <v>175.5299</v>
     <v>102.93</v>
-    <v>1.1227</v>
-    <v>-4.88</v>
-    <v>-3.1425000000000002E-2</v>
+    <v>1.131</v>
+    <v>-0.02</v>
+    <v>-2.8379999999999998E-3</v>
+    <v>-1.158E-4</v>
+    <v>-0.49</v>
     <v>USD</v>
-    <v>Target Corporation (Target) is a general merchandise retailer selling products to its guests through its stores and digital channels. The Company sells an assortment of general merchandise and food. The Company’s product categories include apparel and accessories, beauty and household essentials, food and beverage, hardlines, and home furnishing and decor. Its general merchandise stores offer an edited food assortment, including perishables, dry grocery, dairy and frozen items. The Company operates over 1,948 stores and has stores of approximately 170,000 square feet, which offer a full line of food items comparable to traditional supermarkets. Its small-format stores has over 50,000 square feet and offer curated general merchandise and food assortments. Its brands include Art Class, Smartly, Auden, JoyLab, Smith &amp; Hawken, Ava &amp; Viv, Kindfull, Sonia Kashuk, Casaluna, Market Pantry, Threshold, Cat &amp; Jack, Mondo Llama, Universal Thread, Cloud Island, More Than Magic, up &amp; up, and others.</v>
-    <v>440000</v>
+    <v>Target Corporation is a general merchandise retailer selling products to its guests through its stores and digital channels. The Company serves guests at nearly 2,000 stores and at Target.com. It offers to its customers, referred to as guests, everyday essentials and fashionable, differentiated merchandise at discounted prices. The majority of its stores offer a wide assortment of general merchandise and food. Its merchandise categories include apparel and accessories, beauty and household essentials, food and beverage, hardlines, and home furnishings and decor. Most of its stores larger than 170,000 square feet offer a variety of general merchandise and a full line of food items comparable to traditional supermarkets. Its digital channels include a wide merchandise and food assortment, including many items found in its stores, along with a complementary assortment sold by the Company and third parties. Its brands include A New Day, Ava &amp; Viv, Cloud Island, Favorite Day, and others.</v>
+    <v>415000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Nicollet Mall, MINNEAPOLIS, MN, 55403 US</v>
-    <v>154.77000000000001</v>
+    <v>174.2</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45356.041446353905</v>
+    <v>45377.99993255781</v>
     <v>15</v>
-    <v>150.08500000000001</v>
-    <v>69438551338</v>
+    <v>172.16</v>
+    <v>79706196128</v>
     <v>TARGET CORPORATION</v>
     <v>TARGET CORPORATION</v>
-    <v>153.19</v>
-    <v>19.172799999999999</v>
-    <v>155.29</v>
-    <v>150.41</v>
-    <v>461661800</v>
+    <v>172.63</v>
+    <v>19.310500000000001</v>
+    <v>172.66</v>
+    <v>172.64</v>
+    <v>172.15</v>
+    <v>461690200</v>
     <v>TGT</v>
     <v>TARGET CORPORATION (XNYS:TGT)</v>
-    <v>399514</v>
-    <v>3741485</v>
+    <v>3513108</v>
+    <v>4591102</v>
     <v>1902</v>
   </rv>
   <rv s="2">
@@ -3776,34 +4043,37 @@
     <v>4</v>
     <v>115.48</v>
     <v>89.21</v>
-    <v>0.98070000000000002</v>
-    <v>-0.7</v>
-    <v>-7.5139999999999998E-3</v>
+    <v>0.97389999999999999</v>
+    <v>-0.31</v>
+    <v>1.549E-3</v>
+    <v>-3.4189999999999997E-3</v>
+    <v>0.14000000000000001</v>
     <v>USD</v>
-    <v>Starbucks Corporation is a coffee company engaged in sourcing and roasting arabica coffee. The Company has more than 38,000 stores worldwide and is the roaster and retailer of specialty coffee in the world. It operates through three segments: North America, which is inclusive of the United States and Canada; International, which is inclusive of China, Japan, Asia Pacific, Europe, Middle East and Africa, Latin America, and Caribbean; and Channel Development. Its North America and International segments include both Company-operated and licensed stores. Its Channel Development segment includes roasted whole bean and ground coffees, Starbucks and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside of Company-operated and licensed stores. It also sells goods and services under various brands, including Teavana, Ethos, Starbucks Reserve and Princi.</v>
+    <v>Starbucks Corporations is a coffee company, which roasts, markets and retails specialty coffee in the world. The Company operates in 86 markets and has approximately 38,000 stores worldwide. It has three segments: North America, International and Channel Development. North America segment includes the United States and Canada. International segment includes China, Japan, Asia Pacific, Europe, Middle East and Africa, Latin America and Caribbean. North America and International segments include both the Company-operated and licensed stores. Channel Development segment includes roasted whole bean and ground coffees, Starbucks- and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside the Company-operated and licensed stores. A large portion of its Channel Development business operates under a licensed model of the Global Coffee Alliance with Nestle.</v>
     <v>381000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P O Box 34067, SEATTLE, WA, 98124-1067 US</v>
-    <v>93.32</v>
+    <v>91</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45355.911797036715</v>
+    <v>45377.998570185155</v>
     <v>18</v>
-    <v>92.04</v>
-    <v>105475800000</v>
+    <v>90.23</v>
+    <v>102701900000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>93.06</v>
-    <v>28.213999999999999</v>
-    <v>93.16</v>
-    <v>92.46</v>
+    <v>90.98</v>
+    <v>27.6678</v>
+    <v>90.67</v>
+    <v>90.36</v>
+    <v>90.5</v>
     <v>1132200000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>3336</v>
-    <v>9793675</v>
+    <v>6216108</v>
+    <v>7790142</v>
     <v>1985</v>
   </rv>
   <rv s="2">
@@ -3825,11 +4095,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>624.41999999999996</v>
-    <v>285.33010000000002</v>
-    <v>1.2195</v>
-    <v>-3.51</v>
-    <v>-5.6670000000000002E-3</v>
+    <v>634.38990000000001</v>
+    <v>315.62</v>
+    <v>1.2202</v>
+    <v>1.78</v>
+    <v>3.4329999999999999E-3</v>
+    <v>2.8370000000000001E-3</v>
+    <v>2.16</v>
     <v>USD</v>
     <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
     <v>13000</v>
@@ -3837,24 +4109,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>624.41999999999996</v>
+    <v>634.38990000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45356.041666446094</v>
+    <v>45377.999554664064</v>
     <v>21</v>
-    <v>615.08000000000004</v>
-    <v>266506344468</v>
+    <v>619.18359999999996</v>
+    <v>271777300000</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>621.55999999999995</v>
-    <v>51.2395</v>
-    <v>619.34</v>
-    <v>615.83000000000004</v>
+    <v>625.20000000000005</v>
+    <v>52.2072</v>
+    <v>627.46</v>
+    <v>629.24</v>
+    <v>631.4</v>
     <v>432759600</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>7551</v>
-    <v>3875696</v>
+    <v>2804453</v>
+    <v>3022831</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -3876,11 +4149,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>876.95</v>
-    <v>222.97</v>
-    <v>1.7204999999999999</v>
-    <v>29.58</v>
-    <v>3.5950999999999997E-2</v>
+    <v>974</v>
+    <v>258.5</v>
+    <v>1.7306999999999999</v>
+    <v>-24.41</v>
+    <v>9.6150000000000001E-4</v>
+    <v>-2.5693999999999998E-2</v>
+    <v>0.89</v>
     <v>USD</v>
     <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company accelerates computing to help solve the computational problems. The Company’s segments include Compute &amp; Networking and Graphics. Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI), cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; NVIDIA AI Enterprise and other software. The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>29600</v>
@@ -3888,24 +4163,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>876.95</v>
+    <v>963.75</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45356.041664710159</v>
+    <v>45377.999999154687</v>
     <v>24</v>
-    <v>837.19</v>
-    <v>2130925000000</v>
+    <v>925.02</v>
+    <v>2357225000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>841.3</v>
-    <v>71.452799999999996</v>
-    <v>822.79</v>
-    <v>852.37</v>
+    <v>958.51</v>
+    <v>79.642300000000006</v>
+    <v>950.02</v>
+    <v>925.61</v>
+    <v>926.5</v>
     <v>2500000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>902170</v>
-    <v>53543656</v>
+    <v>51364758</v>
+    <v>61999961</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -3929,9 +4205,11 @@
     <v>4</v>
     <v>42.22</v>
     <v>25.61</v>
-    <v>0.59250000000000003</v>
-    <v>-0.7</v>
-    <v>-2.6326000000000002E-2</v>
+    <v>0.59470000000000001</v>
+    <v>0.16</v>
+    <v>2.1749999999999999E-3</v>
+    <v>5.8330000000000005E-3</v>
+    <v>0.06</v>
     <v>USD</v>
     <v>Pfizer Inc. is a research-based global biopharmaceutical company. The Company is engaged in the discovery, development, manufacture, marketing, sale and distribution of biopharmaceutical products worldwide. Its Biopharma segment is engaged in the science-based biopharmaceutical business. Its Biopharma segment includes the Pfizer Oncology Division, the Pfizer U.S. Commercial Division, and the Pfizer International Commercial Division. Its product categories include oncology, primary care and specialty care. Its Oncology products include Ibrance, Xtandi, Inlyta, Bosulif, Lorbrena, Braftovi, Mektovi, Padcev, Adcetris, Talzenna, Tukysa, Elrexfio and Tivdak. Its primary care products include Eliquis, Nurtec ODT/Vydura, Comirnaty, the Prevnar family, Abrysvo, FSME/IMMUN-TicoVac, Paxlovid and Lucira by Pfizer. Its specialty care products include Xeljanz, Enbrel (outside the U.S. and Canada), Inflectra, Cibinqo, Litfulo, Vyndaqel family, Genotropin, Sulperazon, Zavicefta, Medrol and Panzyga.</v>
     <v>88000</v>
@@ -3939,24 +4217,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>66 HUDSON BOULEVARD EAST, NEW YORK, NY, 10001-2192 US</v>
-    <v>26.46</v>
+    <v>27.63</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45356.0415039</v>
+    <v>45377.999672476566</v>
     <v>27</v>
-    <v>25.61</v>
-    <v>146195082420</v>
+    <v>27.31</v>
+    <v>156229533780</v>
     <v>PFIZER INC.</v>
     <v>PFIZER INC.</v>
-    <v>26.3</v>
-    <v>72.066800000000001</v>
-    <v>26.59</v>
-    <v>25.89</v>
-    <v>5646778000</v>
+    <v>27.45</v>
+    <v>76.353499999999997</v>
+    <v>27.43</v>
+    <v>27.59</v>
+    <v>27.65</v>
+    <v>5662542000</v>
     <v>PFE</v>
     <v>PFIZER INC. (XNYS:PFE)</v>
-    <v>51922</v>
-    <v>45197950</v>
+    <v>38220263</v>
+    <v>44913136</v>
     <v>1942</v>
   </rv>
   <rv s="2">
@@ -3980,9 +4259,11 @@
     <v>4</v>
     <v>13.6175</v>
     <v>8.74</v>
-    <v>1.1388</v>
+    <v>1.1341000000000001</v>
     <v>-0.23</v>
-    <v>-1.8268E-2</v>
+    <v>8.6210000000000002E-3</v>
+    <v>-1.9442000000000001E-2</v>
+    <v>0.1</v>
     <v>USD</v>
     <v>Viatris Inc. (Viatris) is a global healthcare company. The Company's segments include Developed Markets, Greater China, JANZ, and Emerging Markets. Its Developed Markets segment comprises its operations primarily in North America and Europe. The Greater China segment includes its operations in mainland China, Taiwan and Hong Kong. The JANZ segment consists of its operations in Japan, Australia and New Zealand. The Emerging Markets segment encompasses its presence in more than 125 countries with developing markets and emerging economies, as well as the Company’s ARV franchise. Its portfolio comprises over 1,400 approved molecules across a range of key therapeutic areas, including key brands and complex generics. It operates around 40 manufacturing sites worldwide, which produce oral solid doses, injectables, complex dosage forms and active pharmaceutical ingredients. Its products include Lyrica, Lipitor, Creon, Influvac, Wixela Inhub, EpiPen Auto Injector, Fraxiparine and Yupelri.</v>
     <v>38000</v>
@@ -3990,24 +4271,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Mylan Boulevard, CANONSBURG, PA, 15317 US</v>
-    <v>12.6</v>
+    <v>11.945</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45356.024859409372</v>
+    <v>45377.963596168753</v>
     <v>30</v>
-    <v>12.23</v>
-    <v>14951500000</v>
+    <v>11.58</v>
+    <v>14060820000</v>
     <v>VIATRIS INC.</v>
     <v>VIATRIS INC.</v>
-    <v>12.59</v>
-    <v>291.99149999999997</v>
-    <v>12.59</v>
-    <v>12.36</v>
+    <v>11.88</v>
+    <v>279.4708</v>
+    <v>11.83</v>
+    <v>11.6</v>
+    <v>11.7</v>
     <v>1187569000</v>
     <v>VTRS</v>
     <v>VIATRIS INC. (XNAS:VTRS)</v>
-    <v>396</v>
-    <v>11065667</v>
+    <v>8223459</v>
+    <v>10994079</v>
     <v>2019</v>
   </rv>
   <rv s="2">
@@ -4017,23 +4299,25 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1sy77&amp;q=XNYS%3aFL&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
+  <rv s="3">
     <v>en-US</v>
     <v>a1sy77</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>0</v>
+    <v>5</v>
     <v>FOOT LOCKER, INC. (XNYS:FL)</v>
     <v>2</v>
-    <v>3</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>47</v>
+    <v>4</v>
+    <v>42.79</v>
     <v>14.84</v>
-    <v>1.4350000000000001</v>
-    <v>-0.69</v>
-    <v>-1.9942000000000001E-2</v>
+    <v>1.4092</v>
+    <v>1</v>
+    <v>-3.7220000000000005E-4</v>
+    <v>3.8655000000000002E-2</v>
+    <v>-0.01</v>
     <v>USD</v>
     <v>Foot Locker, Inc. is a retailer of shoes and apparel. The Company operates through three operating segments: North America, Europe, Middle East, and Africa (EMEA), and Asia Pacific. The Company's portfolio of brands includes Foot Locker, Kids Foot Locker, Champs Sports, Sidestep, WSS, and atmos. The Company uses its omni-channel capabilities to bridge the digital world and physical stores, including order-in-store, buy online and pickup-in-store, and buy online and ship-from-store, as well as e-commerce. The Company operates approximately 2,714 stores in 29 countries across North America, Europe, Australia, New Zealand, and Asia, and a franchised store presence in the Middle East and Asia. The Kids Foot Locker offers athletic footwear, apparel, and accessories for children. Champs Sports is a primarily mall-based specialty athletic footwear and apparel retailer in North America. It also operates Community and Power Stores across the geographies in which it operates.</v>
     <v>15200</v>
@@ -4041,24 +4325,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>330 West 34th Street, NEW YORK, NY, 10001 US</v>
-    <v>34.65</v>
+    <v>27.19</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45356.041445798437</v>
+    <v>45377.985586909374</v>
     <v>33</v>
-    <v>32.770000000000003</v>
-    <v>3193026977</v>
+    <v>26.175000000000001</v>
+    <v>2530127834</v>
     <v>FOOT LOCKER, INC.</v>
     <v>FOOT LOCKER, INC.</v>
-    <v>34.5</v>
-    <v>39.744</v>
-    <v>34.6</v>
-    <v>33.909999999999997</v>
+    <v>26.24</v>
+    <v>25.87</v>
+    <v>26.87</v>
+    <v>26.86</v>
     <v>94161810</v>
     <v>FL</v>
     <v>FOOT LOCKER, INC. (XNYS:FL)</v>
-    <v>1001</v>
-    <v>2800340</v>
+    <v>4247932</v>
+    <v>5319683</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -4079,37 +4363,40 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>86.11</v>
     <v>62.3001</v>
-    <v>1.5088999999999999</v>
-    <v>-0.38</v>
-    <v>-4.8770000000000003E-3</v>
+    <v>1.5048999999999999</v>
+    <v>-0.66</v>
+    <v>-7.4940000000000011E-4</v>
+    <v>-8.1759999999999992E-3</v>
+    <v>-0.06</v>
     <v>USD</v>
     <v>Best Buy Co., Inc. is engaged in personalizing and humanizing technology solutions. The Company operates through two segments: Domestic and International. Domestic segment is comprised of its operations in all states, districts and territories of the United States and its Best Buy Health business, and includes the brand names Best Buy, Best Buy Ads, Best Buy Business, Best Buy Health, CST, Current Health, Geek Squad, Lively, Magnolia, Pacific Kitchen and Home, TechLiquidators and Yardbird and the domain names bestbuy.com, currenthealth.com, lively.com, techliquidators.com and yardbird.com. International segment is comprised of all operations in Canada under the brand names Best Buy, Best Buy Mobile and Geek Squad and the domain name bestbuy.ca. Domestic and International segments product categories include Computing and Mobile Phones, Consumer Electronics, Appliances, Entertainment, Services and Other. Computing and Mobile Phones category includes computing, mobile phones, and others.</v>
-    <v>90000</v>
+    <v>85000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7601 Penn Ave S, RICHFIELD, MN, 55423 US</v>
-    <v>79.319900000000004</v>
+    <v>81.790000000000006</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45356.033515878909</v>
+    <v>45377.994657303127</v>
     <v>36</v>
-    <v>77.394999999999996</v>
-    <v>16783650000</v>
+    <v>80.004999999999995</v>
+    <v>17243434884</v>
     <v>Best Buy Co., Inc.</v>
     <v>Best Buy Co., Inc.</v>
-    <v>78.489999999999995</v>
-    <v>13.382300000000001</v>
-    <v>77.92</v>
-    <v>77.540000000000006</v>
-    <v>215396000</v>
+    <v>80.62</v>
+    <v>14.212199999999999</v>
+    <v>80.72</v>
+    <v>80.06</v>
+    <v>80</v>
+    <v>215381400</v>
     <v>BBY</v>
     <v>Best Buy Co., Inc. (XNYS:BBY)</v>
-    <v>348</v>
-    <v>3148160</v>
+    <v>2106669</v>
+    <v>3858472</v>
     <v>1966</v>
   </rv>
   <rv s="2">
@@ -4125,17 +4412,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>6</v>
+    <v>5</v>
     <v>BIG LOTS, INC. (XNYS:BIG)</v>
     <v>2</v>
-    <v>7</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>14.99</v>
+    <v>4</v>
+    <v>12.27</v>
     <v>3.47</v>
-    <v>2.3601999999999999</v>
-    <v>-0.2</v>
-    <v>-3.6764999999999999E-2</v>
+    <v>2.3309000000000002</v>
+    <v>-0.25</v>
+    <v>1.9178000000000001E-2</v>
+    <v>-6.4103000000000007E-2</v>
+    <v>7.0000000000000007E-2</v>
     <v>USD</v>
     <v>Big Lots, Inc. is a home discount retailer in the United States. It operates over 1,300 stores in 48 states and an ecommerce store. The Company's merchandise categories include Food; Consumables; Soft Home; Hard Home; Furniture; Seasonal; and Apparel, Electronics, &amp; Other. The Food category includes beverage and grocery, specialty foods and pet departments. The Consumables category includes health, beauty and cosmetics and chemical departments. The Soft Home category includes home organization, fashion bedding, utility bedding and area rugs departments. The Hard Home category includes small appliances, tabletop and toys departments. The Furniture category includes mattress, case goods, and home decor departments. The Seasonal category includes lawn and garden; summer; Christmas, and other holiday departments. The Apparel, Electronics, &amp; Other department includes apparel; electronics; jewelry; hosiery; and candy and snacks departments, and the assortments for the Lot and the Queue Line.</v>
     <v>10200</v>
@@ -4143,23 +4432,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>4900 E Dublin Granville Rd, COLUMBUS, OH, 43081-7651 US</v>
-    <v>5.5449999999999999</v>
+    <v>3.9950000000000001</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45356.028951770313</v>
+    <v>45377.999872789063</v>
     <v>39</v>
-    <v>5.1100000000000003</v>
-    <v>153094774</v>
+    <v>3.65</v>
+    <v>106640444</v>
     <v>BIG LOTS, INC.</v>
     <v>BIG LOTS, INC.</v>
-    <v>5.5</v>
-    <v>5.44</v>
-    <v>5.24</v>
+    <v>3.95</v>
+    <v>3.9</v>
+    <v>3.65</v>
+    <v>3.72</v>
     <v>29216560</v>
     <v>BIG</v>
     <v>BIG LOTS, INC. (XNYS:BIG)</v>
-    <v>501</v>
-    <v>1887215</v>
+    <v>1026161</v>
+    <v>1518091</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -4181,11 +4471,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>180.14</v>
-    <v>88.12</v>
-    <v>1.1680999999999999</v>
-    <v>-0.64</v>
-    <v>-3.5909999999999996E-3</v>
+    <v>181.41499999999999</v>
+    <v>96.29</v>
+    <v>1.1658999999999999</v>
+    <v>-1.41</v>
+    <v>4.4869999999999997E-3</v>
+    <v>-7.8459999999999988E-3</v>
+    <v>0.8</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content it has purchased for resale and products offered by third-party sellers. The Company’s segments include North America, International and Amazon Web Services (AWS). It serves consumers through its online and physical stores and focuses on selection, price, and convenience. Customers access its offerings through its Websites, mobile apps, Alexa, devices, streaming, and physically visiting its stores. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, Ring, Blink, and eero, and it develops and produces media content. It serves developers and enterprises of all sizes, including start-ups, government agencies, and academic institutions, through AWS, which offers a broad set of on-demand technology services, including compute, storage, database, analytics, and machine learning, and other services.</v>
     <v>1525000</v>
@@ -4193,24 +4485,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>180.14</v>
+    <v>180.45</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45355.911796851564</v>
+    <v>45377.999980323439</v>
     <v>42</v>
-    <v>177.49</v>
-    <v>1844590940400</v>
+    <v>177.95</v>
+    <v>1857991000000</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>177.53</v>
-    <v>61.459800000000001</v>
-    <v>178.22</v>
-    <v>177.58</v>
+    <v>180.15</v>
+    <v>62.196899999999999</v>
+    <v>179.71</v>
+    <v>178.3</v>
+    <v>179.1</v>
     <v>10387380000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>135769</v>
-    <v>50211307</v>
+    <v>29658982</v>
+    <v>38409332</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -4233,35 +4526,38 @@
     <v>Finance</v>
     <v>4</v>
     <v>199.62</v>
-    <v>147.6096</v>
-    <v>1.2878000000000001</v>
-    <v>-4.5599999999999996</v>
-    <v>-2.5381000000000001E-2</v>
+    <v>155.97999999999999</v>
+    <v>1.278</v>
+    <v>-1.1399999999999999</v>
+    <v>1.5319999999999999E-3</v>
+    <v>-6.6730000000000001E-3</v>
+    <v>0.26</v>
     <v>USD</v>
-    <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company's product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. The Company's products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, iPad Pro, iPad Air, iPad, iPad mini, Apple Watch Series 9, AirPods, AirPods Pro, AirPods Max and HomePod.</v>
+    <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. Its product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS, and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. Its products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, and others. It also provides DarwinAI, which specializes in visual quality inspection using its Explainable AI platform.</v>
     <v>161000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>176.9</v>
+    <v>171.42</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45356.041665428122</v>
+    <v>45377.99998130781</v>
     <v>45</v>
-    <v>173.79</v>
-    <v>2703873188000</v>
+    <v>169.58</v>
+    <v>2660327000000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>176.15</v>
-    <v>27.244599999999998</v>
-    <v>179.66</v>
-    <v>175.1</v>
+    <v>170</v>
+    <v>26.583400000000001</v>
+    <v>170.85</v>
+    <v>169.71</v>
+    <v>169.97</v>
     <v>15441880000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>471757</v>
-    <v>59010309</v>
+    <v>57388449</v>
+    <v>68929891</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -4284,35 +4580,38 @@
     <v>Finance</v>
     <v>4</v>
     <v>245.8699</v>
-    <v>114.1101</v>
-    <v>1.214</v>
-    <v>-11.72</v>
-    <v>-4.9557999999999998E-2</v>
+    <v>116.82</v>
+    <v>1.252</v>
+    <v>-3.06</v>
+    <v>6.9820000000000004E-3</v>
+    <v>-1.3509999999999999E-2</v>
+    <v>1.56</v>
     <v>USD</v>
-    <v>Duolingo, Inc. (Duolingo) is a technology company. The Company's flagship application, Duolingo, is a language learning application. The Duolingo language learning application is a way to learn languages. The Company offers courses in approximately 40 languages to more than 60 million monthly active users. The application is also available in the education category on both Google Play and the Apple App Store. Duolingo can also be accessed by desktop computers via a Web browser at www.duolingo.com. All course content on Duolingo can be accessed for free. Its subscription offering, Super Duolingo, offers learners additional features to enhance their learning experience. It also launched a family plan, which includes up to six subscribers under one annual plan. The Duolingo English Test is an online English proficiency assessment. Anyone with a computer, webcam and Internet connection can take the test from anywhere, at any time.</v>
+    <v>Duolingo, Inc. is a technology company, which provides a mobile learning platform. The flagship application, Duolingo, is a language learning application. Duolingo is available in the education category on both Google Play and the Apple App Store. Duolingo offers courses in over 40 languages to more than 85 million monthly active users. Duolingo can also be accessed via desktop computers via a Web browser at https://duolingo.com. Both math and music courses are integrated into the Duolingo App and are available on iOS devices. Course content on Duolingo can be accessed for free. Its subscription offering, Super Duolingo, offers learners additional features to enhance their learning experience. It also launched a family plan, which includes up to six subscribers under one annual plan. The Duolingo English Test is an online English proficiency assessment. Anyone with a computer, webcam and Internet connection can take the test from anywhere, at any time.</v>
     <v>720</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5900 PENN AVE, SECOND FLOOR, PITTSBURGH, PA, 15206 US</v>
-    <v>238.03</v>
+    <v>229.01</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45356.037577928124</v>
+    <v>45377.981758286718</v>
     <v>48</v>
-    <v>223</v>
-    <v>10050830000</v>
+    <v>218.39</v>
+    <v>9951051000</v>
     <v>DUOLINGO, INC.</v>
     <v>DUOLINGO, INC.</v>
-    <v>238</v>
-    <v>672.15909999999997</v>
-    <v>236.49</v>
-    <v>224.77</v>
+    <v>227.35</v>
+    <v>677.33249999999998</v>
+    <v>226.5</v>
+    <v>223.44</v>
+    <v>225</v>
     <v>42875830</v>
     <v>DUOL</v>
     <v>DUOLINGO, INC. (XNAS:DUOL)</v>
-    <v>134</v>
-    <v>775663</v>
+    <v>599394</v>
+    <v>827814</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -4333,12 +4632,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>13.46</v>
     <v>9.0150000000000006</v>
-    <v>1.8327</v>
-    <v>-0.2</v>
-    <v>-1.5785E-2</v>
+    <v>1.8203</v>
+    <v>7.0000000000000007E-2</v>
+    <v>0</v>
+    <v>6.045E-3</v>
+    <v>0</v>
     <v>USD</v>
     <v>Coty Inc. is a beauty company with portfolio of brands across fragrance, color cosmetics, and skin and body care. The Company has a diverse portfolio of brands, which includes both owned and licensed. Its brand portfolio is classified into two segments: Consumer beauty and Prestige. Consumer beauty brand portfolio includes Adidas, Beckham, Biocolor, Bozzano, Bourjois, Bruno Banani, CoverGirl, Jovan, Mexx, Monange, Nautica, Paixao, Rimmel, Risque, Sally Hansen, 007 James Bond. Prestige includes Burberry, Bottega Veneta, Calvin Klein, Cavalli, Chloe, Davidoff, Escada, Gucci, Hugo Boss, Jil Sander, Kylie Jenner, Lancaster, Marc Jacobs, Miu Miu, Orveda, SKKN BY KIM, Tiffany &amp; Co. Its mass beauty brands are primarily sold through hypermarkets, supermarkets, drug stores and pharmacies, mid-tier department stores, traditional food and drug retailers, and dedicated e-commerce retailers. The Company serves consumers around the world in approximately 125 countries and territories.</v>
     <v>11350</v>
@@ -4346,85 +4647,201 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>350 Fifth Avenue, NEW YORK, NY, 10118 US</v>
-    <v>12.81</v>
+    <v>11.82</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45356.040632303127</v>
+    <v>45377.999347082812</v>
     <v>51</v>
-    <v>12.44</v>
-    <v>11162756183</v>
+    <v>11.62</v>
+    <v>10366060000</v>
     <v>COTY INC.</v>
     <v>COTY INC.</v>
-    <v>12.67</v>
-    <v>35.911799999999999</v>
-    <v>12.67</v>
-    <v>12.47</v>
+    <v>11.72</v>
+    <v>33.348700000000001</v>
+    <v>11.58</v>
+    <v>11.65</v>
+    <v>11.65</v>
     <v>895168900</v>
     <v>COTY</v>
     <v>COTY INC. (XNYS:COTY)</v>
-    <v>2509853</v>
-    <v>4609053</v>
+    <v>2689975</v>
+    <v>3555690</v>
     <v>1995</v>
   </rv>
   <rv s="2">
     <v>52</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a23pkr&amp;q=XNYS%3aSTM&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a24bh7&amp;q=XNYS%3aTM&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
     <v>en-US</v>
-    <v>a23pkr</v>
+    <v>a24bh7</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
-    <v>STMicroelectronics NV (XNYS:STM)</v>
+    <v>TOYOTA MOTOR CORPORATION (XNYS:TM)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>55.85</v>
-    <v>37.21</v>
-    <v>1.7005999999999999</v>
-    <v>-0.61</v>
-    <v>-1.2931999999999999E-2</v>
+    <v>255.23</v>
+    <v>133.02000000000001</v>
+    <v>0.71830000000000005</v>
+    <v>1.31</v>
+    <v>4.2170000000000003E-3</v>
+    <v>5.1900000000000002E-3</v>
+    <v>1.07</v>
     <v>USD</v>
-    <v>STMicroelectronics N.V. is a Switzerland-based semiconductor company. It designs, develops, manufactures and markets a range of products, including discrete and standard commodity components, and application-specific integrated circuits (ASICs) for analog, digital and mixed-signal applications. The Company's segments include Automotive and Discrete Group (ADG), Analog, MEMS and Sensors Group (AMS), and Microcontrollers and Digital ICs Group (MDG). The ADG segment comprises all dedicated automotive Integrated Circuits (ICs), and discrete and power transistor products. The AMS segment includes low-power analog ICs for all markets, smart power products; Touch Screen Controllers, Low Power Connectivity solutions for Internet of Things (IoT), and power conversion products, among others. The AMS segment comprises general purpose and secure microcontrollers, and Electrically Erasable Programmable Read-Only Memory memories.</v>
-    <v>51370</v>
+    <v>Toyota Motor Corp is a Japan-based company engaged in the automobile business, finance business and other businesses. The Company operates in three business segments. The Automobile segment is engaged in the design, manufacture and sale of sedans, minivans, 2box, sports utility vehicles, trucks and related vehicles, as well as related parts and products. The Finance segment is engaged in finance and vehicle leasing business. The Other segment is engaged in the design, manufacture and sale of houses, as well as conduct information communication business. The Company is also engaged in the control of manufacturing and sales companies, as well as public relations and research activities business in North American and Europe. The Company also provides robots, basic research projects, marine and agribio business. The Company also provides electric vehicles and vehicles equipped with the new function Advanced Drive of driving support technology, driver assistance or connected cars services.</v>
+    <v>375235</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>Schiphol Boulevard 265, SCHIPHOL, NOORD-HOLLAND, 1118 BH NL</v>
-    <v>47.03</v>
-    <v>Semiconductors &amp; Semiconductor Equipment</v>
+    <v>1, Toyota-cho, TOYOTA-SHI, AICHI-KEN, 471-8571 JP</v>
+    <v>254.78989999999999</v>
+    <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45356.020827753906</v>
+    <v>45377.997856017966</v>
     <v>54</v>
-    <v>46.5</v>
-    <v>42617130000</v>
-    <v>STMicroelectronics NV</v>
-    <v>STMicroelectronics NV</v>
-    <v>47</v>
-    <v>10.438800000000001</v>
-    <v>47.17</v>
-    <v>46.56</v>
-    <v>911281900</v>
-    <v>STM</v>
-    <v>STMicroelectronics NV (XNYS:STM)</v>
-    <v>7545</v>
-    <v>3275857</v>
-    <v>1987</v>
+    <v>253.39</v>
+    <v>412669400000</v>
+    <v>TOYOTA MOTOR CORPORATION</v>
+    <v>TOYOTA MOTOR CORPORATION</v>
+    <v>253.89</v>
+    <v>10.706899999999999</v>
+    <v>252.41</v>
+    <v>253.72</v>
+    <v>254.79</v>
+    <v>1631499000</v>
+    <v>TM</v>
+    <v>TOYOTA MOTOR CORPORATION (XNYS:TM)</v>
+    <v>214946</v>
+    <v>293773</v>
+    <v>1937</v>
   </rv>
   <rv s="2">
     <v>55</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1u3rw&amp;q=XNAS%3aGOOGL&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1u3rw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>ALPHABET INC. (XNAS:GOOGL)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>153.78</v>
+    <v>99.74</v>
+    <v>1.0486</v>
+    <v>0.6</v>
+    <v>2.6550000000000002E-3</v>
+    <v>3.9979999999999998E-3</v>
+    <v>0.4</v>
+    <v>USD</v>
+    <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
+    <v>182502</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
+    <v>152.256</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45377.999997950785</v>
+    <v>57</v>
+    <v>149.97999999999999</v>
+    <v>1880194000000</v>
+    <v>ALPHABET INC.</v>
+    <v>ALPHABET INC.</v>
+    <v>150.22</v>
+    <v>25.873699999999999</v>
+    <v>150.07</v>
+    <v>150.66999999999999</v>
+    <v>151.07</v>
+    <v>12433000000</v>
+    <v>GOOGL</v>
+    <v>ALPHABET INC. (XNAS:GOOGL)</v>
+    <v>22149137</v>
+    <v>34573658</v>
+    <v>2015</v>
+  </rv>
+  <rv s="2">
+    <v>58</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a24p1h&amp;q=XNAS%3aTXN&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a24p1h</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>188.12</v>
+    <v>139.47999999999999</v>
+    <v>1.0299</v>
+    <v>-2.94</v>
+    <v>1.9650000000000002E-3</v>
+    <v>-1.7208000000000001E-2</v>
+    <v>0.33</v>
+    <v>USD</v>
+    <v>Texas Instruments Incorporated is a global semiconductor company. The Company designs, manufactures, tests, and sells analog and embedded processing chips for markets, such as industrial, automotive, personal electronics, communications equipment, and enterprise systems. The Company’s segments include Analog and Embedded Processing. The Analog segment includes product lines, such as Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Signal Chain includes products that sense, condition, and measure real-world signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs) and applications processors. The Company also offers DLP products (primarily used to project high-definition images), calculators and certain custom semiconductors known as application-specific integrated circuits (ASICs).</v>
+    <v>34000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
+    <v>171.86</v>
+    <v>Semiconductors &amp; Semiconductor Equipment</v>
+    <v>Stock</v>
+    <v>45377.995970983597</v>
+    <v>60</v>
+    <v>167.51</v>
+    <v>156833900000</v>
+    <v>TEXAS INSTRUMENTS INCORPORATED</v>
+    <v>TEXAS INSTRUMENTS INCORPORATED</v>
+    <v>171.44</v>
+    <v>24.166</v>
+    <v>170.85</v>
+    <v>167.91</v>
+    <v>168.24</v>
+    <v>909287700</v>
+    <v>TXN</v>
+    <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
+    <v>5898325</v>
+    <v>5479921</v>
+    <v>1938</v>
+  </rv>
+  <rv s="2">
+    <v>61</v>
+  </rv>
+  <rv s="4">
+    <v>13</v>
+    <v>3</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -4445,7 +4862,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -4466,6 +4885,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -4492,7 +4912,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -4512,6 +4934,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -4519,13 +4942,17 @@
     <k n="Volume average"/>
     <k n="Year incorporated"/>
   </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="2">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -4536,13 +4963,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -4569,7 +4999,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -4580,13 +5010,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -4613,7 +5046,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="8">
+  <spbData count="7">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -4651,20 +5084,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
-      <v>GMT</v>
-    </spb>
-    <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -4691,6 +5123,9 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -4735,6 +5170,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -4742,6 +5180,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="Low" t="i"/>
@@ -4763,6 +5204,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
 </spbStructures>
 </file>
@@ -5149,8 +5593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78598AC-1488-4768-97DC-A6CDF693DFF7}">
   <dimension ref="B3:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5170,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <v>45343</v>
+        <v>45366</v>
       </c>
       <c r="D3" s="25">
-        <v>44978</v>
+        <v>45000</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -5184,14 +5628,14 @@
         <v>44</v>
       </c>
       <c r="C4" s="29">
-        <v>5.5E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="D4" s="29">
-        <v>4.6300000000000001E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="E4" s="24">
-        <f t="shared" ref="E4:E6" si="0">C4/D4-1</f>
-        <v>0.18790496760259168</v>
+        <f t="shared" ref="E4:E7" si="0">C4/D4-1</f>
+        <v>0.30496453900709231</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -5199,14 +5643,14 @@
         <v>43</v>
       </c>
       <c r="C5" s="29">
-        <v>5.5E-2</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="D5" s="29">
-        <v>4.8300000000000003E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="E5" s="24">
         <f t="shared" si="0"/>
-        <v>0.13871635610766031</v>
+        <v>0.20175438596491224</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -5214,14 +5658,14 @@
         <v>45</v>
       </c>
       <c r="C6" s="29">
-        <v>5.4399999999999997E-2</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>4.8599999999999997E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="E6" s="24">
         <f t="shared" si="0"/>
-        <v>0.11934156378600824</v>
+        <v>0.15368421052631587</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -5229,26 +5673,29 @@
         <v>46</v>
       </c>
       <c r="C7" s="29">
-        <v>5.45E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="D7" s="29">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.11546391752577323</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="29">
-        <v>5.3199999999999997E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="D8" s="29">
-        <v>5.0700000000000002E-2</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E8" s="24">
         <f>C8/D8-1</f>
-        <v>4.9309664694279887E-2</v>
+        <v>0.13742071881606766</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -5256,14 +5703,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="23">
-        <v>4.9799999999999997E-2</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="D9" s="23">
-        <v>5.0700000000000002E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="E9" s="24">
         <f>C9/D9-1</f>
-        <v>-1.7751479289940919E-2</v>
+        <v>0.20525059665871126</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -5271,14 +5718,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="23">
-        <v>4.6399999999999997E-2</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="D10" s="23">
-        <v>4.6699999999999998E-2</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="E10" s="24">
         <f t="shared" ref="E10:E16" si="1">C10/D10-1</f>
-        <v>-6.4239828693790635E-3</v>
+        <v>0.20101781170483446</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -5286,14 +5733,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="23">
-        <v>4.4299999999999999E-2</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="D11" s="23">
-        <v>4.4400000000000002E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="E11" s="24">
         <f t="shared" si="1"/>
-        <v>-2.2522522522523403E-3</v>
+        <v>0.17754569190600522</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -5301,14 +5748,14 @@
         <v>5</v>
       </c>
       <c r="C12" s="23">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="D12" s="23">
-        <v>4.1599999999999998E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="E12" s="24">
         <f t="shared" si="1"/>
-        <v>3.3653846153846034E-2</v>
+        <v>0.20612813370473537</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -5319,11 +5766,11 @@
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="D13" s="23">
-        <v>4.0800000000000003E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="E13" s="24">
         <f t="shared" si="1"/>
-        <v>6.1274509803921351E-2</v>
+        <v>0.21288515406162456</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -5331,14 +5778,14 @@
         <v>7</v>
       </c>
       <c r="C14" s="23">
-        <v>4.3200000000000002E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="D14" s="23">
-        <v>3.95E-2</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="E14" s="24">
         <f t="shared" si="1"/>
-        <v>9.3670886075949422E-2</v>
+        <v>0.22792022792022792</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -5346,14 +5793,14 @@
         <v>8</v>
       </c>
       <c r="C15" s="23">
-        <v>4.5900000000000003E-2</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="D15" s="23">
-        <v>4.1200000000000001E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="E15" s="24">
         <f t="shared" si="1"/>
-        <v>0.11407766990291268</v>
+        <v>0.19109947643979064</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -5361,14 +5808,14 @@
         <v>9</v>
       </c>
       <c r="C16" s="23">
-        <v>4.4900000000000002E-2</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="D16" s="23">
-        <v>3.9800000000000002E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E16" s="24">
         <f t="shared" si="1"/>
-        <v>0.12814070351758788</v>
+        <v>0.19729729729729728</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -5432,10 +5879,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF90BC4-E965-4DE2-A39D-51F6BEEC192F}">
-  <dimension ref="B2:H2"/>
+  <dimension ref="B2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5468,6 +5915,12 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="e" cm="1" vm="22">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Materials")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5475,10 +5928,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF86481B-FD1F-4315-92D6-35E78A2AFF96}">
-  <dimension ref="B2:H2"/>
+  <dimension ref="B2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5511,6 +5964,12 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="e" cm="1" vm="22">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Real Estate")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5518,10 +5977,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD06BBC-4AD0-45B5-9DAC-428FB9D1FF41}">
-  <dimension ref="B2:H6"/>
+  <dimension ref="B2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5534,7 +5993,7 @@
     <col min="8" max="8" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
@@ -5557,64 +6016,278 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="e" vm="3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="e" cm="1" vm="3">
+        <f t="array" ref="B3:V6">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Information Technology")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="str">
+        <v>2007</v>
+      </c>
+      <c r="D3" s="32" t="str">
+        <v>San Francisco, CA</v>
+      </c>
+      <c r="E3" s="32" t="str">
+        <v>Andrew Houston</v>
+      </c>
+      <c r="F3" s="33">
+        <v>2693</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Information Technology</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Software</v>
+      </c>
+      <c r="I3">
+        <v>348.8</v>
+      </c>
+      <c r="J3">
+        <v>8528.16</v>
+      </c>
+      <c r="K3">
+        <v>-1025.3000000000002</v>
+      </c>
+      <c r="L3">
+        <v>9553.4599999999991</v>
+      </c>
+      <c r="M3">
+        <v>7.7390055146206782E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.80893801883951988</v>
+      </c>
+      <c r="O3">
+        <v>0.15333992859907947</v>
+      </c>
+      <c r="P3">
+        <v>-0.97988583854308287</v>
+      </c>
+      <c r="Q3">
+        <v>5.1466680590457232E-2</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>24.45</v>
+      </c>
+      <c r="U3">
+        <v>22.91548481095889</v>
+      </c>
+      <c r="V3">
+        <v>-6.2761357424994224E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="18">
+        <v>1993</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <v>Santa Clara, CA</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <v>Jen-Hsun Huang</v>
+      </c>
+      <c r="F4" s="11">
+        <v>29600</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <v>Information Technology</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Semiconductors and Semiconductor Equipment</v>
+      </c>
+      <c r="I4">
+        <v>2477</v>
+      </c>
+      <c r="J4">
+        <v>2292735.9700000002</v>
+      </c>
+      <c r="K4">
+        <v>2343</v>
+      </c>
+      <c r="L4">
+        <v>2290392.9700000002</v>
+      </c>
+      <c r="M4">
+        <v>2.2293230289069932E-3</v>
+      </c>
+      <c r="N4">
+        <v>0.56928894490991322</v>
+      </c>
+      <c r="O4">
+        <v>0.20679172536516646</v>
+      </c>
+      <c r="P4">
+        <v>-3.3604336043360432E-2</v>
+      </c>
+      <c r="Q4">
+        <v>7.4473901113322444E-2</v>
+      </c>
+      <c r="R4">
+        <v>0.16</v>
+      </c>
+      <c r="S4">
+        <v>1.7285897948379989E-4</v>
+      </c>
+      <c r="T4">
+        <v>925.61</v>
+      </c>
+      <c r="U4">
+        <v>81.506807987771182</v>
+      </c>
+      <c r="V4">
+        <v>-0.91194260218907408</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="26"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="18"/>
+      <c r="C5" s="26">
+        <v>1976</v>
+      </c>
+      <c r="D5" s="26" t="str">
+        <v>Cupertino, CA</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <v>Tim Cook</v>
+      </c>
+      <c r="F5" s="11">
+        <v>161000</v>
+      </c>
+      <c r="G5" s="10" t="str">
+        <v>Information Technology</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Technology, Hardware, Storage and Peripherals</v>
+      </c>
+      <c r="I5">
+        <v>15576.641</v>
+      </c>
+      <c r="J5">
+        <v>2643511.7441099999</v>
+      </c>
+      <c r="K5">
+        <v>-34940</v>
+      </c>
+      <c r="L5">
+        <v>2678451.7441099999</v>
+      </c>
+      <c r="M5">
+        <v>-2.800460530319937E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.44131129577207562</v>
+      </c>
+      <c r="O5">
+        <v>0.29821412265024722</v>
+      </c>
+      <c r="P5">
+        <v>0.14719174228036858</v>
+      </c>
+      <c r="Q5">
+        <v>8.8789900307742461E-2</v>
+      </c>
+      <c r="R5">
+        <v>0.96</v>
+      </c>
+      <c r="S5">
+        <v>5.6567085027399676E-3</v>
+      </c>
+      <c r="T5">
+        <v>169.71</v>
+      </c>
+      <c r="U5">
+        <v>82.423427496181077</v>
+      </c>
+      <c r="V5">
+        <v>-0.51432780922643873</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1930</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <v>Dallas, TX</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <v>Haviv Ilan</v>
+      </c>
+      <c r="F6" s="11">
+        <v>34000</v>
+      </c>
+      <c r="G6" s="18" t="str">
+        <v>Information Technology</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Semiconductors and Semiconductor Equipment</v>
+      </c>
+      <c r="I6">
+        <v>915</v>
+      </c>
+      <c r="J6">
+        <v>153637.65</v>
+      </c>
+      <c r="K6">
+        <v>-2648</v>
+      </c>
+      <c r="L6">
+        <v>156285.65</v>
+      </c>
+      <c r="M6">
+        <v>-0.12527461553824648</v>
+      </c>
+      <c r="N6">
+        <v>0.62897425652149097</v>
+      </c>
+      <c r="O6">
+        <v>0.41845995776014611</v>
+      </c>
+      <c r="P6">
+        <v>0.12240496090590455</v>
+      </c>
+      <c r="Q6">
+        <v>7.7239621578546455E-2</v>
+      </c>
+      <c r="R6">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="S6">
+        <v>2.9896968614138524E-2</v>
+      </c>
+      <c r="T6">
+        <v>167.91</v>
+      </c>
+      <c r="U6">
+        <v>126.13627883623619</v>
+      </c>
+      <c r="V6">
+        <v>-0.2487863805834305</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="DBX.xlsx" xr:uid="{8AD8603B-E8AE-4A4B-8621-BC6653D1F22C}"/>
-    <hyperlink ref="B4" r:id="rId2" display="NVDA.xlsx" xr:uid="{BE20ECE9-59BF-4F5C-AE59-7FF98B33415A}"/>
-    <hyperlink ref="B5" r:id="rId3" display="AAPL.xlsx" xr:uid="{F5274545-05FC-4522-9DCF-298B90473BD0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F3E4ED-422C-4C75-82FF-360B07D250CF}">
-  <dimension ref="B2:H2"/>
+  <dimension ref="B2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5646,6 +6319,12 @@
       </c>
       <c r="H2" s="33" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="e" cm="1" vm="22">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Utilities")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -5883,13 +6562,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C57CBD6-140C-4F1E-BA61-90A42EC2B8A9}">
-  <dimension ref="A2:W25"/>
+  <dimension ref="A2:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5897,14 +6576,14 @@
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.59765625" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.5" bestFit="1" customWidth="1"/>
@@ -6005,7 +6684,7 @@
       </c>
       <c r="J3" s="11">
         <f>T3*I3</f>
-        <v>152505.234</v>
+        <v>141841.818</v>
       </c>
       <c r="K3" s="11">
         <f>[1]Main!$C$7-[1]Main!$C$8</f>
@@ -6013,7 +6692,7 @@
       </c>
       <c r="L3" s="11">
         <f t="shared" ref="L3:L13" si="0">J3-K3</f>
-        <v>151514.234</v>
+        <v>140850.818</v>
       </c>
       <c r="M3" s="12">
         <f>[1]DCF!$AT$59</f>
@@ -6033,26 +6712,26 @@
       </c>
       <c r="Q3" s="13">
         <f>[1]WACC!$C$18</f>
-        <v>7.9644490125083622E-2</v>
+        <v>7.9122001050125471E-2</v>
       </c>
       <c r="R3" s="16">
         <v>1.48</v>
       </c>
       <c r="S3" s="35">
         <f>R3/T3</f>
-        <v>1.4868394615230058E-2</v>
+        <v>1.5986174119680275E-2</v>
       </c>
       <c r="T3" s="17" cm="1">
         <f t="array" ref="T3">_FV(B3,"Price")</f>
-        <v>99.54</v>
+        <v>92.58</v>
       </c>
       <c r="U3" s="17">
         <f>[1]DCF!$BB$65</f>
-        <v>65.335353207723571</v>
+        <v>65.754155843270169</v>
       </c>
       <c r="V3" s="13">
         <f t="shared" ref="V3:V13" si="1">U3/T3-1</f>
-        <v>-0.34362715282576284</v>
+        <v>-0.28975852405195324</v>
       </c>
       <c r="W3"/>
     </row>
@@ -6086,7 +6765,7 @@
       </c>
       <c r="J4" s="11">
         <f>T4*I4</f>
-        <v>7365.0376669799998</v>
+        <v>7549.7659836000003</v>
       </c>
       <c r="K4" s="11">
         <f>[2]Main!$C$7-[2]Main!$C$8</f>
@@ -6094,7 +6773,7 @@
       </c>
       <c r="L4" s="11">
         <f t="shared" si="0"/>
-        <v>9134.2376669799996</v>
+        <v>9318.965983600001</v>
       </c>
       <c r="M4" s="12">
         <f>[2]Model!$AL$45</f>
@@ -6122,11 +6801,11 @@
       </c>
       <c r="S4" s="35">
         <f t="shared" ref="S4:S13" si="2">R4/T4</f>
-        <v>2.6172300981461286E-2</v>
+        <v>2.553191489361702E-2</v>
       </c>
       <c r="T4" s="17" cm="1">
         <f t="array" ref="T4">_FV(B4,"Price")</f>
-        <v>18.34</v>
+        <v>18.8</v>
       </c>
       <c r="U4" s="17">
         <f>[2]Model!$AV$50</f>
@@ -6134,7 +6813,7 @@
       </c>
       <c r="V4" s="13">
         <f t="shared" si="1"/>
-        <v>-4.4152323648906644E-2</v>
+        <v>-6.7540085942603634E-2</v>
       </c>
       <c r="W4" s="18"/>
     </row>
@@ -6167,7 +6846,7 @@
       </c>
       <c r="J5" s="11">
         <f>I5*T5</f>
-        <v>8406.08</v>
+        <v>8528.16</v>
       </c>
       <c r="K5" s="11">
         <f>[3]Main!$C$7-[3]Main!$C$8</f>
@@ -6175,7 +6854,7 @@
       </c>
       <c r="L5" s="11">
         <f t="shared" si="0"/>
-        <v>9431.380000000001</v>
+        <v>9553.4599999999991</v>
       </c>
       <c r="M5" s="12">
         <f>[3]Model!$AO$30</f>
@@ -6206,7 +6885,7 @@
       </c>
       <c r="T5" s="17" cm="1">
         <f t="array" ref="T5">_FV(B5,"Price")</f>
-        <v>24.1</v>
+        <v>24.45</v>
       </c>
       <c r="U5" s="17">
         <f>[3]Main!$M$3</f>
@@ -6214,7 +6893,7 @@
       </c>
       <c r="V5" s="13">
         <f t="shared" si="1"/>
-        <v>-4.9150007844029453E-2</v>
+        <v>-6.2761357424994224E-2</v>
       </c>
       <c r="W5"/>
     </row>
@@ -6247,7 +6926,7 @@
       </c>
       <c r="J6" s="11">
         <f>I6*T6</f>
-        <v>2861.2999999999997</v>
+        <v>3147.43</v>
       </c>
       <c r="K6" s="11">
         <f>[4]Main!$C$7-[4]Main!$C$8</f>
@@ -6255,7 +6934,7 @@
       </c>
       <c r="L6" s="11">
         <f t="shared" si="0"/>
-        <v>4320.5</v>
+        <v>4606.63</v>
       </c>
       <c r="M6" s="12">
         <f>[4]Model!$AR$28</f>
@@ -6286,7 +6965,7 @@
       </c>
       <c r="T6" s="17" cm="1">
         <f t="array" ref="T6">_FV(B6,"Price")</f>
-        <v>14.2</v>
+        <v>15.62</v>
       </c>
       <c r="U6" s="17">
         <f>[4]Model!$AY$33</f>
@@ -6294,7 +6973,7 @@
       </c>
       <c r="V6" s="13">
         <f t="shared" si="1"/>
-        <v>-0.58861670379261688</v>
+        <v>-0.62601518526601529</v>
       </c>
       <c r="W6"/>
     </row>
@@ -6327,7 +7006,7 @@
       </c>
       <c r="J7" s="11">
         <f>T7*I7</f>
-        <v>160250.32999999999</v>
+        <v>163437.50999999998</v>
       </c>
       <c r="K7" s="11">
         <f>[5]Main!$C$7-[5]Main!$C$8</f>
@@ -6335,27 +7014,27 @@
       </c>
       <c r="L7" s="11">
         <f t="shared" si="0"/>
-        <v>190840.33</v>
+        <v>194027.50999999998</v>
       </c>
       <c r="M7" s="12">
-        <f>[5]Model!$AQ$58</f>
+        <f>[5]Model!$AT$54</f>
         <v>6.7280193590965709E-2</v>
       </c>
       <c r="N7" s="13">
-        <f>[5]Model!$AQ$66</f>
+        <f>[5]Model!$AT$62</f>
         <v>0.24140463839525986</v>
       </c>
       <c r="O7" s="13">
-        <f>[5]Model!$AQ$67</f>
+        <f>[5]Model!$AT$63</f>
         <v>3.3417908714208827E-2</v>
       </c>
       <c r="P7" s="13">
-        <f>[5]Model!$AQ$68</f>
+        <f>[5]Model!$AT$64</f>
         <v>0.33638928067700985</v>
       </c>
       <c r="Q7" s="13">
         <f>[5]WACC!$C$18</f>
-        <v>3.7900355013211547E-2</v>
+        <v>4.7269084447106452E-2</v>
       </c>
       <c r="R7" s="14">
         <f>0.21*4</f>
@@ -6363,19 +7042,19 @@
       </c>
       <c r="S7" s="35">
         <f t="shared" si="2"/>
-        <v>1.4158098769593798E-2</v>
+        <v>1.3882002974714923E-2</v>
       </c>
       <c r="T7" s="17" cm="1">
         <f t="array" ref="T7">_FV(B7,"Price")</f>
-        <v>59.33</v>
+        <v>60.51</v>
       </c>
       <c r="U7" s="17">
         <f>[5]Main!$M$3</f>
-        <v>246.53351366994207</v>
+        <v>204.31700834081138</v>
       </c>
       <c r="V7" s="13">
         <f t="shared" si="1"/>
-        <v>3.155292662564336</v>
+        <v>2.3765825209190448</v>
       </c>
       <c r="W7"/>
     </row>
@@ -6394,7 +7073,7 @@
       </c>
       <c r="F8" s="11" cm="1">
         <f t="array" ref="F8">_FV(B8,"Employees")</f>
-        <v>440000</v>
+        <v>415000</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>35</v>
@@ -6408,7 +7087,7 @@
       </c>
       <c r="J8" s="11">
         <f>T8*I8</f>
-        <v>69564.625</v>
+        <v>79846</v>
       </c>
       <c r="K8" s="11">
         <f>[6]Main!$C$7-[6]Main!$C$8</f>
@@ -6416,7 +7095,7 @@
       </c>
       <c r="L8" s="11">
         <f t="shared" si="0"/>
-        <v>85054.625</v>
+        <v>95336</v>
       </c>
       <c r="M8" s="12">
         <f>[6]DCF!$AN$32</f>
@@ -6444,11 +7123,11 @@
       </c>
       <c r="S8" s="35">
         <f t="shared" si="2"/>
-        <v>2.9253374110763914E-2</v>
+        <v>2.5486561631139947E-2</v>
       </c>
       <c r="T8" s="17" cm="1">
         <f t="array" ref="T8">_FV(B8,"Price")</f>
-        <v>150.41</v>
+        <v>172.64</v>
       </c>
       <c r="U8" s="17">
         <f>[6]Main!$M$3</f>
@@ -6456,7 +7135,7 @@
       </c>
       <c r="V8" s="13">
         <f t="shared" si="1"/>
-        <v>0.70231259041532335</v>
+        <v>0.48311420716154307</v>
       </c>
       <c r="W8"/>
     </row>
@@ -6489,7 +7168,7 @@
       </c>
       <c r="J9" s="11">
         <f>T9*I9</f>
-        <v>105459.87599999999</v>
+        <v>103064.61599999999</v>
       </c>
       <c r="K9" s="18">
         <f>[7]Main!$C$7-[7]Main!$C$8</f>
@@ -6497,7 +7176,7 @@
       </c>
       <c r="L9" s="11">
         <f>J9-K9</f>
-        <v>115990.77599999998</v>
+        <v>113595.51599999999</v>
       </c>
       <c r="M9" s="34">
         <f>[7]DCF!$AU$29</f>
@@ -6525,11 +7204,11 @@
       </c>
       <c r="S9" s="35">
         <f t="shared" si="2"/>
-        <v>2.4659312134977285E-2</v>
+        <v>2.5232403718459494E-2</v>
       </c>
       <c r="T9" s="27" cm="1">
         <f t="array" ref="T9">_FV(B9,"Price")</f>
-        <v>92.46</v>
+        <v>90.36</v>
       </c>
       <c r="U9" s="28">
         <f>[7]DCF!$BG$34</f>
@@ -6537,7 +7216,7 @@
       </c>
       <c r="V9" s="13">
         <f t="shared" si="1"/>
-        <v>-0.16260867251044275</v>
+        <v>-0.14314738667901217</v>
       </c>
       <c r="W9" s="26"/>
     </row>
@@ -6567,39 +7246,39 @@
       </c>
       <c r="I10" s="18">
         <f>[8]Main!$C$5</f>
-        <v>452.41699999999997</v>
+        <v>444.29199999999997</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" ref="J10:J18" si="3">T10*I10</f>
-        <v>278611.96110999997</v>
+        <v>279566.29807999998</v>
       </c>
       <c r="K10" s="18">
         <f>[8]Main!$C$7-[8]Main!$C$8</f>
-        <v>-6609.6240000000007</v>
+        <v>-7405.3749999999991</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" si="0"/>
-        <v>285221.58510999999</v>
+        <v>286971.67307999998</v>
       </c>
       <c r="M10" s="34">
-        <f>[8]Model!$AN$33</f>
+        <f>[8]Model!$AR$34</f>
         <v>6.45739131769969E-2</v>
       </c>
       <c r="N10" s="34">
-        <f>[8]Model!$AN$41</f>
-        <v>0.36098116662528418</v>
+        <f>[8]Model!$AR$42</f>
+        <v>0.39370705238403253</v>
       </c>
       <c r="O10" s="34">
-        <f>[8]Model!$AN$42</f>
-        <v>0.15701470104110174</v>
+        <f>[8]Model!$AR$43</f>
+        <v>0.17816647187855345</v>
       </c>
       <c r="P10" s="34">
-        <f>[8]Model!$AN$43</f>
-        <v>7.3344030182061384E-2</v>
+        <f>[8]Model!$AR$44</f>
+        <v>0.14665946292208726</v>
       </c>
       <c r="Q10" s="34">
         <f>[8]WACC!$C$18</f>
-        <v>6.4009731443713219E-2</v>
+        <v>8.5485106254227783E-2</v>
       </c>
       <c r="R10" s="28">
         <v>0</v>
@@ -6610,15 +7289,15 @@
       </c>
       <c r="T10" s="27" cm="1">
         <f t="array" ref="T10">_FV(B10,"Price")</f>
-        <v>615.83000000000004</v>
+        <v>629.24</v>
       </c>
       <c r="U10" s="28">
-        <f>[8]Model!$AU$40</f>
-        <v>132.73278748475823</v>
+        <f>[8]Model!$BF$40</f>
+        <v>210.62723063462789</v>
       </c>
       <c r="V10" s="13">
         <f t="shared" si="1"/>
-        <v>-0.78446521363889676</v>
+        <v>-0.66526725790695462</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6651,7 +7330,7 @@
       </c>
       <c r="J11" s="11">
         <f t="shared" si="3"/>
-        <v>2111320.4900000002</v>
+        <v>2292735.9700000002</v>
       </c>
       <c r="K11" s="18">
         <f>[9]Main!$C$8-[9]Main!$C$9</f>
@@ -6659,7 +7338,7 @@
       </c>
       <c r="L11" s="11">
         <f t="shared" si="0"/>
-        <v>2108977.4900000002</v>
+        <v>2290392.9700000002</v>
       </c>
       <c r="M11" s="34">
         <f>[9]Model!$AQ$19</f>
@@ -6687,11 +7366,11 @@
       </c>
       <c r="S11" s="35">
         <f t="shared" si="2"/>
-        <v>1.8771190914743598E-4</v>
+        <v>1.7285897948379989E-4</v>
       </c>
       <c r="T11" s="27" cm="1">
         <f t="array" ref="T11">_FV(B11,"Price")</f>
-        <v>852.37</v>
+        <v>925.61</v>
       </c>
       <c r="U11" s="28">
         <f>[9]Model!$AZ$25</f>
@@ -6699,7 +7378,7 @@
       </c>
       <c r="V11" s="13">
         <f t="shared" si="1"/>
-        <v>-0.90437625915063746</v>
+        <v>-0.91194260218907408</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6732,7 +7411,7 @@
       </c>
       <c r="J12" s="11">
         <f t="shared" si="3"/>
-        <v>148272.03</v>
+        <v>158007.93</v>
       </c>
       <c r="K12" s="18">
         <f>[10]Main!$C$8-[10]Main!$C$9</f>
@@ -6740,7 +7419,7 @@
       </c>
       <c r="L12" s="11">
         <f t="shared" si="0"/>
-        <v>164192.03</v>
+        <v>173927.93</v>
       </c>
       <c r="M12" s="34">
         <f>[10]Model!$AJ$20</f>
@@ -6768,11 +7447,11 @@
       </c>
       <c r="S12" s="35">
         <f t="shared" si="2"/>
-        <v>6.4889918887601386E-2</v>
+        <v>6.0891627401232329E-2</v>
       </c>
       <c r="T12" s="27" cm="1">
         <f t="array" ref="T12">_FV(B12,"Price")</f>
-        <v>25.89</v>
+        <v>27.59</v>
       </c>
       <c r="U12" s="28">
         <f>[10]Model!$AS$27</f>
@@ -6780,7 +7459,7 @@
       </c>
       <c r="V12" s="13">
         <f t="shared" si="1"/>
-        <v>2.7937711995124639</v>
+        <v>2.5600121912061504</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6809,19 +7488,19 @@
       </c>
       <c r="I13" s="18">
         <f>[11]Main!$C$6</f>
-        <v>95.1</v>
+        <v>94.4</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" si="3"/>
-        <v>1175.4359999999999</v>
+        <v>1095.04</v>
       </c>
       <c r="K13" s="18">
         <f>[11]Main!$C$8-[11]Main!$C$9</f>
-        <v>-138</v>
+        <v>-150</v>
       </c>
       <c r="L13" s="11">
         <f t="shared" si="0"/>
-        <v>1313.4359999999999</v>
+        <v>1245.04</v>
       </c>
       <c r="M13" s="34">
         <f>[11]Model!$AM$19</f>
@@ -6841,7 +7520,7 @@
       </c>
       <c r="Q13" s="34">
         <f>[11]WACC!$C$18</f>
-        <v>4.3864261049644818E-2</v>
+        <v>4.1769407639219235E-2</v>
       </c>
       <c r="R13" s="28">
         <f>0.12*4</f>
@@ -6849,11 +7528,11 @@
       </c>
       <c r="S13" s="35">
         <f t="shared" si="2"/>
-        <v>3.8834951456310683E-2</v>
+        <v>4.1379310344827586E-2</v>
       </c>
       <c r="T13" s="27" cm="1">
         <f t="array" ref="T13">_FV(B13,"Price")</f>
-        <v>12.36</v>
+        <v>11.6</v>
       </c>
       <c r="U13" s="28">
         <f>[12]Model!$AH$28</f>
@@ -6861,7 +7540,7 @@
       </c>
       <c r="V13" s="13">
         <f t="shared" si="1"/>
-        <v>-0.42962305444084758</v>
+        <v>-0.39225353042145483</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -6889,19 +7568,19 @@
       </c>
       <c r="I14" s="18">
         <f>[11]Main!$C$6</f>
-        <v>95.1</v>
+        <v>94.4</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" si="3"/>
-        <v>3224.8409999999994</v>
+        <v>2536.5280000000002</v>
       </c>
       <c r="K14" s="18">
         <f>[11]Main!$C$8-[11]Main!$C$9</f>
-        <v>-138</v>
+        <v>-150</v>
       </c>
       <c r="L14" s="11">
         <f>J14-K14</f>
-        <v>3362.8409999999994</v>
+        <v>2686.5280000000002</v>
       </c>
       <c r="M14" s="34">
         <f>[11]Model!$AM$19</f>
@@ -6921,7 +7600,7 @@
       </c>
       <c r="Q14" s="34">
         <f>[11]WACC!$C$18</f>
-        <v>4.3864261049644818E-2</v>
+        <v>4.1769407639219235E-2</v>
       </c>
       <c r="R14" s="28">
         <f>0.4*4</f>
@@ -6929,19 +7608,19 @@
       </c>
       <c r="S14" s="35">
         <f>R14/T14</f>
-        <v>4.7183721616042472E-2</v>
+        <v>5.9545962039449202E-2</v>
       </c>
       <c r="T14" s="28" cm="1">
         <f t="array" ref="T14">_FV(B14,"Price")</f>
-        <v>33.909999999999997</v>
+        <v>26.87</v>
       </c>
       <c r="U14" s="28">
         <f>[11]Model!$AV$26</f>
-        <v>43.891925490081036</v>
+        <v>99.79887531818369</v>
       </c>
       <c r="V14" s="13">
         <f t="shared" ref="V14:V19" si="4">U14/T14-1</f>
-        <v>0.29436524594753877</v>
+        <v>2.714137525797681</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -6960,7 +7639,7 @@
       </c>
       <c r="F15" s="11" cm="1">
         <f t="array" ref="F15">_FV(B15,"Employees")</f>
-        <v>90000</v>
+        <v>85000</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>29</v>
@@ -6974,7 +7653,7 @@
       </c>
       <c r="J15" s="11">
         <f t="shared" si="3"/>
-        <v>16926.982000000004</v>
+        <v>17477.098000000002</v>
       </c>
       <c r="K15" s="18">
         <f>[13]Main!$C$8-[13]Main!$C$9</f>
@@ -6982,7 +7661,7 @@
       </c>
       <c r="L15" s="11">
         <f>J15-K15</f>
-        <v>20319.982000000004</v>
+        <v>20870.098000000002</v>
       </c>
       <c r="M15" s="34">
         <f>[13]Model!$AO$17</f>
@@ -7010,11 +7689,11 @@
       </c>
       <c r="S15" s="35">
         <f>R15/T15</f>
-        <v>4.7459375806035591E-2</v>
+        <v>4.5965525855608293E-2</v>
       </c>
       <c r="T15" s="28" cm="1">
         <f t="array" ref="T15">_FV(B15,"Price")</f>
-        <v>77.540000000000006</v>
+        <v>80.06</v>
       </c>
       <c r="U15" s="28">
         <f>[13]Model!$BA$24</f>
@@ -7022,7 +7701,7 @@
       </c>
       <c r="V15" s="13">
         <f t="shared" si="4"/>
-        <v>-1.8305082292618957E-3</v>
+        <v>-3.3249283138857888E-2</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -7049,42 +7728,42 @@
         <v>111</v>
       </c>
       <c r="I16" s="18">
-        <f>[19]Main!$C$5</f>
+        <f>[14]Main!$C$5</f>
         <v>29.3</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="3"/>
-        <v>153.53200000000001</v>
+        <v>106.94499999999999</v>
       </c>
       <c r="K16" s="18">
-        <f>[14]Main!$C$7-[14]Main!$C$8</f>
+        <f>[15]Main!$C$7-[15]Main!$C$8</f>
         <v>3156</v>
       </c>
       <c r="L16" s="11">
         <f>J16-K16</f>
-        <v>-3002.4679999999998</v>
+        <v>-3049.0549999999998</v>
       </c>
       <c r="M16" s="34">
-        <f>[19]DCF!$AK$19</f>
+        <f>[14]DCF!$AK$19</f>
         <v>-0.1109279854349241</v>
       </c>
       <c r="N16" s="34">
-        <f>[19]DCF!$AK$26</f>
+        <f>[14]DCF!$AK$26</f>
         <v>0.34992408101268224</v>
       </c>
       <c r="O16" s="34">
-        <f>[19]DCF!$AK$27</f>
+        <f>[14]DCF!$AK$27</f>
         <v>-1.9502118471657514E-2</v>
       </c>
       <c r="P16" s="34">
-        <f>[19]DCF!$AK$28</f>
+        <f>[14]DCF!$AK$28</f>
         <v>0.36638617478095792</v>
       </c>
       <c r="Q16" s="34">
-        <f>[19]WACC!$C$18</f>
+        <f>[14]WACC!$C$18</f>
         <v>6.1315001319892676E-2</v>
       </c>
-      <c r="R16" s="43">
+      <c r="R16" s="42">
         <v>0</v>
       </c>
       <c r="S16" s="35">
@@ -7093,15 +7772,15 @@
       </c>
       <c r="T16" s="28" cm="1">
         <f t="array" ref="T16">_FV(B16,"Price")</f>
-        <v>5.24</v>
+        <v>3.65</v>
       </c>
       <c r="U16" s="28">
-        <f>[19]DCF!$AT$25</f>
+        <f>[14]DCF!$AT$25</f>
         <v>-119.74897291383805</v>
       </c>
       <c r="V16" s="13">
         <f t="shared" si="4"/>
-        <v>-23.852857426304968</v>
+        <v>-33.807937784613166</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
@@ -7128,42 +7807,42 @@
         <v>111</v>
       </c>
       <c r="I17" s="18">
-        <f>[15]Main!$C$5</f>
+        <f>[16]Main!$C$5</f>
         <v>10308</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="3"/>
-        <v>1830494.6400000001</v>
+        <v>1837916.4000000001</v>
       </c>
       <c r="K17" s="18">
-        <f>[15]Main!$C$7-[15]Main!$C$8</f>
+        <f>[16]Main!$C$7-[16]Main!$C$8</f>
         <v>37750</v>
       </c>
       <c r="L17" s="11">
         <f>J17-K17</f>
-        <v>1792744.6400000001</v>
+        <v>1800166.4000000001</v>
       </c>
       <c r="M17" s="34">
-        <f>[15]Model!$AU$27</f>
+        <f>[16]Model!$AU$27</f>
         <v>0.1182957412988368</v>
       </c>
       <c r="N17" s="34">
-        <f>[15]Model!$AU$34</f>
+        <f>[16]Model!$AU$34</f>
         <v>0.46982088955000567</v>
       </c>
       <c r="O17" s="34">
-        <f>[15]Model!$AU$35</f>
+        <f>[16]Model!$AU$35</f>
         <v>6.4114407996033296E-2</v>
       </c>
       <c r="P17" s="34">
-        <f>[15]Model!$AU$36</f>
+        <f>[16]Model!$AU$36</f>
         <v>0.18989802167372261</v>
       </c>
       <c r="Q17" s="34">
-        <f>[15]WACC!$C$18</f>
+        <f>[16]WACC!$C$18</f>
         <v>6.9881909557268029E-2</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="42">
         <v>0</v>
       </c>
       <c r="S17" s="35">
@@ -7172,15 +7851,15 @@
       </c>
       <c r="T17" s="28" cm="1">
         <f t="array" ref="T17">_FV(B17,"Price")</f>
-        <v>177.58</v>
+        <v>178.3</v>
       </c>
       <c r="U17" s="28">
-        <f>[15]Model!$BF$30</f>
+        <f>[16]Model!$BF$30</f>
         <v>111.83755001316251</v>
       </c>
       <c r="V17" s="13">
         <f t="shared" si="4"/>
-        <v>-0.3702131432978798</v>
+        <v>-0.37275630951675542</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
@@ -7207,39 +7886,39 @@
         <v>112</v>
       </c>
       <c r="I18" s="39">
-        <f>[16]Main!$C$5</f>
+        <f>[17]Main!$C$5</f>
         <v>15576.641</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="3"/>
-        <v>2727469.8391</v>
+        <v>2643511.7441099999</v>
       </c>
       <c r="K18" s="18">
-        <f>[16]Main!$C$7-[16]Main!$C$8</f>
+        <f>[17]Main!$C$7-[17]Main!$C$8</f>
         <v>-34940</v>
       </c>
       <c r="L18" s="11">
         <f t="shared" ref="L18:L23" si="5">J18-K18</f>
-        <v>2762409.8391</v>
+        <v>2678451.7441099999</v>
       </c>
       <c r="M18" s="34">
-        <f>[16]DCF!$AO$60</f>
+        <f>[17]DCF!$AO$60</f>
         <v>-2.800460530319937E-2</v>
       </c>
       <c r="N18" s="34">
-        <f>[16]DCF!$AO$51</f>
+        <f>[17]DCF!$AO$51</f>
         <v>0.44131129577207562</v>
       </c>
       <c r="O18" s="34">
-        <f>[16]DCF!$AO$52</f>
+        <f>[17]DCF!$AO$52</f>
         <v>0.29821412265024722</v>
       </c>
       <c r="P18" s="34">
-        <f>[16]DCF!$AO$54</f>
+        <f>[17]DCF!$AO$54</f>
         <v>0.14719174228036858</v>
       </c>
       <c r="Q18" s="34">
-        <f>[16]WACC!$C$18</f>
+        <f>[17]WACC!$C$18</f>
         <v>8.8789900307742461E-2</v>
       </c>
       <c r="R18" s="26">
@@ -7248,19 +7927,19 @@
       </c>
       <c r="S18" s="35">
         <f>R18/T18</f>
-        <v>5.4825813820673901E-3</v>
+        <v>5.6567085027399676E-3</v>
       </c>
       <c r="T18" s="28" cm="1">
         <f t="array" ref="T18">_FV(B18,"Price")</f>
-        <v>175.1</v>
+        <v>169.71</v>
       </c>
       <c r="U18" s="28">
-        <f>[16]DCF!$AZ$56</f>
+        <f>[17]DCF!$AZ$56</f>
         <v>82.423427496181077</v>
       </c>
       <c r="V18" s="13">
         <f t="shared" si="4"/>
-        <v>-0.52927796975339192</v>
+        <v>-0.51432780922643873</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
@@ -7287,42 +7966,42 @@
         <v>113</v>
       </c>
       <c r="I19" s="18">
-        <f>[17]Main!$C$6</f>
+        <f>[18]Main!$C$6</f>
         <v>49</v>
       </c>
       <c r="J19" s="11">
         <f>T19*I19</f>
-        <v>11013.730000000001</v>
+        <v>10948.56</v>
       </c>
       <c r="K19" s="18">
-        <f>[17]Main!$C$8-[17]Main!$C$9</f>
+        <f>[18]Main!$C$8-[18]Main!$C$9</f>
         <v>747.61</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" si="5"/>
-        <v>10266.120000000001</v>
+        <v>10200.949999999999</v>
       </c>
       <c r="M19" s="34">
-        <f>[17]Model!$X$37</f>
+        <f>[18]Model!$X$37</f>
         <v>0.43739157498748304</v>
       </c>
       <c r="N19" s="34">
-        <f>[17]Model!$X$44</f>
+        <f>[18]Model!$X$44</f>
         <v>0.7324372209847696</v>
       </c>
       <c r="O19" s="34">
-        <f>[17]Model!$X$45</f>
+        <f>[18]Model!$X$45</f>
         <v>-2.4964743583708725E-2</v>
       </c>
       <c r="P19" s="34">
-        <f>[17]Model!$X$46</f>
+        <f>[18]Model!$X$46</f>
         <v>9.6191708387241698E-2</v>
       </c>
       <c r="Q19" s="34">
-        <f>[17]WACC!$C$18</f>
+        <f>[18]WACC!$C$18</f>
         <v>6.2941209427912495E-2</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="42">
         <v>0</v>
       </c>
       <c r="S19" s="35">
@@ -7331,15 +8010,15 @@
       </c>
       <c r="T19" s="28" cm="1">
         <f t="array" ref="T19">_FV(B19,"Price")</f>
-        <v>224.77</v>
+        <v>223.44</v>
       </c>
       <c r="U19" s="28">
-        <f>[17]Model!$AJ$42</f>
+        <f>[18]Model!$AJ$42</f>
         <v>179.69406171187131</v>
       </c>
       <c r="V19" s="13">
         <f t="shared" si="4"/>
-        <v>-0.20054250250535521</v>
+        <v>-0.19578382692502994</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
@@ -7366,42 +8045,42 @@
         <v>114</v>
       </c>
       <c r="I20" s="18">
-        <f>[18]Main!$C$6</f>
+        <f>[19]Main!$C$6</f>
         <v>922.8</v>
       </c>
       <c r="J20" s="11">
         <f>T20*I20</f>
-        <v>11507.316000000001</v>
+        <v>10750.619999999999</v>
       </c>
       <c r="K20" s="18">
-        <f>[18]Main!$C$8-[18]Main!$C$9</f>
+        <f>[19]Main!$C$8-[19]Main!$C$9</f>
         <v>-3241.8</v>
       </c>
       <c r="L20" s="11">
         <f t="shared" si="5"/>
-        <v>14749.116000000002</v>
+        <v>13992.419999999998</v>
       </c>
       <c r="M20" s="34">
-        <f>[18]Model!$AQ$17</f>
+        <f>[19]Model!$AQ$17</f>
         <v>4.7074127139733024E-2</v>
       </c>
       <c r="N20" s="34">
-        <f>[18]Model!$AQ$24</f>
+        <f>[19]Model!$AQ$24</f>
         <v>0.6386813345096416</v>
       </c>
       <c r="O20" s="34">
-        <f>[18]Model!$AQ$25</f>
+        <f>[19]Model!$AQ$25</f>
         <v>0.13125438864982633</v>
       </c>
       <c r="P20" s="34">
-        <f>[18]Model!$AQ$26</f>
+        <f>[19]Model!$AQ$26</f>
         <v>0.20402201999775299</v>
       </c>
       <c r="Q20" s="34">
-        <f>[18]WACC!$C$18</f>
+        <f>[19]WACC!$C$18</f>
         <v>8.3341765758214809E-2</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="42">
         <v>0</v>
       </c>
       <c r="S20" s="35">
@@ -7410,23 +8089,23 @@
       </c>
       <c r="T20" s="28" cm="1">
         <f t="array" ref="T20">_FV(B20,"Price")</f>
-        <v>12.47</v>
+        <v>11.65</v>
       </c>
       <c r="U20" s="28">
-        <f>[18]Model!$AZ$24</f>
+        <f>[19]Model!$AZ$24</f>
         <v>9.4495128429675077</v>
       </c>
       <c r="V20" s="13">
         <f t="shared" ref="V20:V23" si="7">U20/T20-1</f>
-        <v>-0.24222030128568506</v>
+        <v>-0.18888301777102945</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" t="e" vm="19">
+      <c r="B21" s="21" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
       <c r="C21" s="26">
-        <v>1987</v>
+        <v>1933</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>137</v>
@@ -7434,44 +8113,222 @@
       <c r="E21" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="11" cm="1">
-        <f t="array" ref="F21">_FV(B21,"Employees")</f>
-        <v>51370</v>
+      <c r="F21" s="11">
+        <v>375235</v>
       </c>
       <c r="G21" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="18">
+        <f>[20]Main!$C$19</f>
+        <v>1375.573444643212</v>
+      </c>
+      <c r="J21" s="11">
+        <f>T21*I21</f>
+        <v>349010.49437487574</v>
+      </c>
+      <c r="K21" s="18">
+        <f>[20]Main!$C$21-[20]Main!$C$22</f>
+        <v>-179361.89319999999</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="5"/>
+        <v>528372.38757487573</v>
+      </c>
+      <c r="M21" s="34">
+        <f>[20]DCF!$AP$28</f>
+        <v>0.18403064777276446</v>
+      </c>
+      <c r="N21" s="34">
+        <f>[20]DCF!$AP$34</f>
+        <v>0.16991347811227653</v>
+      </c>
+      <c r="O21" s="34">
+        <f>[20]DCF!$AP$35</f>
+        <v>7.3343493126959369E-2</v>
+      </c>
+      <c r="P21" s="34">
+        <f>[20]DCF!$AP$36</f>
+        <v>0.32048257531959945</v>
+      </c>
+      <c r="Q21" s="34">
+        <f>[20]WACC!$C$18</f>
+        <v>3.9276503997873018E-2</v>
+      </c>
+      <c r="R21" s="26"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="28" cm="1">
+        <f t="array" ref="T21">_FV(B21,"Price")</f>
+        <v>253.72</v>
+      </c>
+      <c r="U21" s="28">
+        <f>[20]DCF!$BE$43</f>
+        <v>586.48012737999534</v>
+      </c>
+      <c r="V21" s="13">
+        <f t="shared" si="7"/>
+        <v>1.3115250172631066</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" s="26">
+        <v>1998</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="11">
+        <v>182502</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="18">
+        <f>[21]Main!$D$5</f>
+        <v>12602</v>
+      </c>
+      <c r="J22" s="11">
+        <f>T22*I22</f>
+        <v>1898743.3399999999</v>
+      </c>
+      <c r="K22" s="18">
+        <f>[21]Main!$D$7-[21]Main!$D$8</f>
+        <v>128671</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="5"/>
+        <v>1770072.3399999999</v>
+      </c>
+      <c r="M22" s="34">
+        <f>[21]DCF!$AU$19</f>
+        <v>8.6827702272695095E-2</v>
+      </c>
+      <c r="N22" s="34">
+        <f>[21]DCF!$AU$26</f>
+        <v>0.56625047984020505</v>
+      </c>
+      <c r="O22" s="34">
+        <f>[21]DCF!$AU$27</f>
+        <v>0.27421810445226646</v>
+      </c>
+      <c r="P22" s="34">
+        <f>[21]DCF!$AU$28</f>
+        <v>0.13908559562280529</v>
+      </c>
+      <c r="Q22" s="34">
+        <f>[21]WACC!$C$18</f>
+        <v>8.1008901743441414E-2</v>
+      </c>
+      <c r="R22" s="42">
+        <v>0</v>
+      </c>
+      <c r="S22" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="28" cm="1">
+        <f t="array" ref="T22">_FV(B22,"Price")</f>
+        <v>150.66999999999999</v>
+      </c>
+      <c r="U22" s="28">
+        <f>[21]DCF!$BH$24</f>
+        <v>87.041639870124285</v>
+      </c>
+      <c r="V22" s="13">
+        <f t="shared" si="7"/>
+        <v>-0.42230278177391456</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" s="26">
+        <v>1930</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="11">
+        <v>34000</v>
+      </c>
+      <c r="G23" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H23" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="Q21" s="40"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="28"/>
-      <c r="V21" s="13"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
-      <c r="F22" s="11"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="28"/>
-      <c r="V22" s="13"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C23" s="26"/>
-      <c r="F23" s="11"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="28"/>
-      <c r="V23" s="13"/>
+      <c r="I23" s="18">
+        <f>[22]Main!$C$5</f>
+        <v>915</v>
+      </c>
+      <c r="J23" s="11">
+        <f>T23*I23</f>
+        <v>153637.65</v>
+      </c>
+      <c r="K23" s="18">
+        <f>[22]Main!$C$7-[22]Main!$C$8</f>
+        <v>-2648</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" si="5"/>
+        <v>156285.65</v>
+      </c>
+      <c r="M23" s="34">
+        <f>[22]Model!$AV$23</f>
+        <v>-0.12527461553824648</v>
+      </c>
+      <c r="N23" s="34">
+        <f>[22]Model!$AV$31</f>
+        <v>0.62897425652149097</v>
+      </c>
+      <c r="O23" s="34">
+        <f>[22]Model!$AV$32</f>
+        <v>0.41845995776014611</v>
+      </c>
+      <c r="P23" s="34">
+        <f>[22]Model!$AV$33</f>
+        <v>0.12240496090590455</v>
+      </c>
+      <c r="Q23" s="34">
+        <f>[22]WACC!$C$18</f>
+        <v>7.7239621578546455E-2</v>
+      </c>
+      <c r="R23" s="28">
+        <f>[22]Model!$AV$19</f>
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="S23" s="35">
+        <f t="shared" si="6"/>
+        <v>2.9896968614138524E-2</v>
+      </c>
+      <c r="T23" s="28" cm="1">
+        <f t="array" ref="T23">_FV(B23,"Price")</f>
+        <v>167.91</v>
+      </c>
+      <c r="U23" s="28">
+        <f>[22]Model!$BH$28</f>
+        <v>126.13627883623619</v>
+      </c>
+      <c r="V23" s="13">
+        <f t="shared" si="7"/>
+        <v>-0.2487863805834305</v>
+      </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C24" s="26"/>
@@ -7481,7 +8338,16 @@
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C25" s="26"/>
     </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="26"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+    </row>
   </sheetData>
+  <autoFilter ref="B2:V22" xr:uid="{8C57CBD6-140C-4F1E-BA61-90A42EC2B8A9}"/>
   <conditionalFormatting sqref="V3:V23">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
@@ -7509,96 +8375,187 @@
     <hyperlink ref="B18" r:id="rId16" display="AAPL.xlsx" xr:uid="{F0813E7C-0769-4F03-82E2-470EC83B3577}"/>
     <hyperlink ref="B19" r:id="rId17" display="DUOL.xlsx" xr:uid="{AA72C6E4-304C-46AC-85D8-20B469630921}"/>
     <hyperlink ref="B20" r:id="rId18" display="COTY.xlsx" xr:uid="{BCF85E8D-3A96-41F7-96A9-57C75D61AF99}"/>
+    <hyperlink ref="B22" r:id="rId19" display="GOOGL.xlsx" xr:uid="{B14E25EB-BD9A-46E4-A64C-5D732F749CCC}"/>
+    <hyperlink ref="B21" r:id="rId20" display="TM.xlsx" xr:uid="{A9C43251-15F2-4E54-83A1-C629C893BBD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF2161C-EB06-4270-906F-2BDB5CA09CF5}">
-  <dimension ref="B2:H3"/>
+  <dimension ref="B2:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.19921875" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="e" vm="8">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="e" cm="1" vm="8">
+        <f t="array" ref="B3:V4">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Communication Services")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="18" cm="1">
-        <f t="array" ref="D3">_FV(B3,"Price")</f>
-        <v>615.83000000000004</v>
-      </c>
-      <c r="E3" s="18">
-        <f>All!I10</f>
-        <v>452.41699999999997</v>
+      <c r="C3" s="38">
+        <v>1997</v>
+      </c>
+      <c r="D3" s="18" t="str">
+        <v>Los Gatos, CA</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <v>Ted Sarandos &amp; Greg Peters</v>
       </c>
       <c r="F3" s="18">
-        <f>D3*E3</f>
-        <v>278611.96110999997</v>
-      </c>
-      <c r="G3" s="18">
-        <f>All!K10</f>
-        <v>-6609.6240000000007</v>
-      </c>
-      <c r="H3" s="18">
-        <f>F3-G3</f>
-        <v>285221.58510999999</v>
+        <v>13000</v>
+      </c>
+      <c r="G3" s="18" t="str">
+        <v>Communication Services</v>
+      </c>
+      <c r="H3" s="18" t="str">
+        <v>Entertainment</v>
+      </c>
+      <c r="I3" s="18">
+        <v>444.29199999999997</v>
+      </c>
+      <c r="J3" s="18">
+        <v>279566.29807999998</v>
+      </c>
+      <c r="K3" s="18">
+        <v>-7405.3749999999991</v>
+      </c>
+      <c r="L3" s="18">
+        <v>286971.67307999998</v>
+      </c>
+      <c r="M3" s="18">
+        <v>6.45739131769969E-2</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0.39370705238403253</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0.17816647187855345</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0.14665946292208726</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>8.5485106254227783E-2</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
+      <c r="T3" s="18">
+        <v>629.24</v>
+      </c>
+      <c r="U3" s="18">
+        <v>210.62723063462789</v>
+      </c>
+      <c r="V3" s="18">
+        <v>-0.66526725790695462</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" s="38">
+        <v>1998</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <v>Mountain View, California</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <v>Sundar Pichai</v>
+      </c>
+      <c r="F4" s="18">
+        <v>182502</v>
+      </c>
+      <c r="G4" s="18" t="str">
+        <v>Communication Services</v>
+      </c>
+      <c r="H4" s="18" t="str">
+        <v>Interactive Media and Services</v>
+      </c>
+      <c r="I4" s="18">
+        <v>12602</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1898743.3399999999</v>
+      </c>
+      <c r="K4" s="18">
+        <v>128671</v>
+      </c>
+      <c r="L4" s="18">
+        <v>1770072.3399999999</v>
+      </c>
+      <c r="M4" s="18">
+        <v>8.6827702272695095E-2</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0.56625047984020505</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0.27421810445226646</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0.13908559562280529</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>8.1008901743441414E-2</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <v>150.66999999999999</v>
+      </c>
+      <c r="U4" s="18">
+        <v>87.041639870124285</v>
+      </c>
+      <c r="V4" s="18">
+        <v>-0.42230278177391456</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="NFLX.xlsx" xr:uid="{4ECD65B1-9182-445B-97DF-782813528376}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F1013D-6197-4478-A967-8EEF762B7998}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7608,299 +8565,684 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.09765625" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="20.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="e" vm="1">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="e" cm="1" vm="1">
+        <f t="array" ref="B3:V12">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Consumer Discretionary")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="17" cm="1">
-        <f t="array" ref="D3">_FV(B3,"Price")</f>
-        <v>99.54</v>
-      </c>
-      <c r="E3" s="11">
-        <f>All!I3</f>
+      <c r="C3" s="9">
+        <v>1964</v>
+      </c>
+      <c r="D3" s="17" t="str">
+        <v>Beaverton, OR</v>
+      </c>
+      <c r="E3" s="11" t="str">
+        <v>John Donahoe II</v>
+      </c>
+      <c r="F3" s="11">
+        <v>83700</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <v>Consumer Discretionary</v>
+      </c>
+      <c r="H3" s="18" t="str">
+        <v>Textiles, Apparel and Luxury Goods</v>
+      </c>
+      <c r="I3">
         <v>1532.1</v>
       </c>
-      <c r="F3" s="11">
-        <f>D3*E3</f>
-        <v>152505.234</v>
-      </c>
-      <c r="G3" s="11">
-        <f>All!K3</f>
+      <c r="J3">
+        <v>141841.818</v>
+      </c>
+      <c r="K3">
         <v>991</v>
       </c>
-      <c r="H3" s="18">
-        <f>F3-G3</f>
-        <v>151514.234</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>140850.818</v>
+      </c>
+      <c r="M3">
+        <v>9.6488974523656568E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.43524610969014194</v>
+      </c>
+      <c r="O3">
+        <v>0.11548899779370131</v>
+      </c>
+      <c r="P3">
+        <v>0.18238993710691823</v>
+      </c>
+      <c r="Q3">
+        <v>7.9122001050125471E-2</v>
+      </c>
+      <c r="R3">
+        <v>1.48</v>
+      </c>
+      <c r="S3">
+        <v>1.5986174119680275E-2</v>
+      </c>
+      <c r="T3">
+        <v>92.58</v>
+      </c>
+      <c r="U3">
+        <v>65.754155843270169</v>
+      </c>
+      <c r="V3">
+        <v>-0.28975852405195324</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="17" cm="1">
-        <f t="array" ref="D4">_FV(B4,"Price")</f>
-        <v>18.34</v>
-      </c>
-      <c r="E4" s="11">
-        <f>All!I4</f>
+      <c r="C4" s="9">
+        <v>1853</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <v>San Francisco, CA</v>
+      </c>
+      <c r="E4" s="11" t="str">
+        <v>Michelle Gass</v>
+      </c>
+      <c r="F4" s="11">
+        <v>19100</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <v>Consumer Discretionary</v>
+      </c>
+      <c r="H4" s="18" t="str">
+        <v>Textiles, Apparel and Luxury Goods</v>
+      </c>
+      <c r="I4">
         <v>401.58329700000002</v>
       </c>
-      <c r="F4" s="11">
-        <f>D4*E4</f>
-        <v>7365.0376669799998</v>
-      </c>
-      <c r="G4" s="11">
-        <f>All!K4</f>
+      <c r="J4">
+        <v>7549.7659836000003</v>
+      </c>
+      <c r="K4">
         <v>-1769.2</v>
       </c>
-      <c r="H4" s="18">
-        <f t="shared" ref="H4:H11" si="0">F4-G4</f>
-        <v>9134.2376669799996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>9318.965983600001</v>
+      </c>
+      <c r="M4">
+        <v>1.685957915896541E-3</v>
+      </c>
+      <c r="N4">
+        <v>0.56897556238873603</v>
+      </c>
+      <c r="O4">
+        <v>7.1775368182553811E-2</v>
+      </c>
+      <c r="P4">
+        <v>4.4175576814856496E-2</v>
+      </c>
+      <c r="Q4">
+        <v>6.2908523021171267E-2</v>
+      </c>
+      <c r="R4">
+        <v>0.48</v>
+      </c>
+      <c r="S4">
+        <v>2.553191489361702E-2</v>
+      </c>
+      <c r="T4">
+        <v>18.8</v>
+      </c>
+      <c r="U4">
+        <v>17.530246384279053</v>
+      </c>
+      <c r="V4">
+        <v>-6.7540085942603634E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="17" cm="1">
-        <f t="array" ref="D5">_FV(B5,"Price")</f>
-        <v>14.2</v>
-      </c>
-      <c r="E5" s="11">
-        <f>All!I6</f>
+      <c r="C5" s="9">
+        <v>1982</v>
+      </c>
+      <c r="D5" s="17" t="str">
+        <v>Carlsbad, CA</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <v>Oliver Brewer III</v>
+      </c>
+      <c r="F5" s="11">
+        <v>32000</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <v>Consumer Discretionary</v>
+      </c>
+      <c r="H5" s="18" t="str">
+        <v>Leisure Products</v>
+      </c>
+      <c r="I5">
         <v>201.5</v>
       </c>
-      <c r="F5" s="11">
-        <f t="shared" ref="F5:F11" si="1">D5*E5</f>
-        <v>2861.2999999999997</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="J5">
+        <v>3147.43</v>
+      </c>
+      <c r="K5">
         <v>-1459.2</v>
       </c>
-      <c r="H5" s="18">
-        <f t="shared" si="0"/>
-        <v>4320.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>4606.63</v>
+      </c>
+      <c r="M5">
+        <v>0.2752023769820815</v>
+      </c>
+      <c r="N5">
+        <v>0.60342368045649075</v>
+      </c>
+      <c r="O5">
+        <v>6.4269089270966223E-2</v>
+      </c>
+      <c r="P5">
+        <v>-0.11275546159267111</v>
+      </c>
+      <c r="Q5">
+        <v>7.3356889927392671E-2</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>15.62</v>
+      </c>
+      <c r="U5">
+        <v>5.8416428061448409</v>
+      </c>
+      <c r="V5">
+        <v>-0.62601518526601529</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="17" cm="1">
-        <f t="array" ref="D6">_FV(B6,"Price")</f>
-        <v>92.46</v>
-      </c>
-      <c r="E6" s="18">
-        <f>All!I9</f>
+      <c r="C6" s="9">
+        <v>1971</v>
+      </c>
+      <c r="D6" s="17" t="str">
+        <v>Seattle, WA</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <v>Laxman Narasimhan</v>
+      </c>
+      <c r="F6" s="11">
+        <v>381000</v>
+      </c>
+      <c r="G6" s="18" t="str">
+        <v>Consumer Discretionary</v>
+      </c>
+      <c r="H6" s="18" t="str">
+        <v>Hotels, Restaurants and Leisure</v>
+      </c>
+      <c r="I6">
         <v>1140.5999999999999</v>
       </c>
-      <c r="F6" s="11">
-        <f t="shared" si="1"/>
-        <v>105459.87599999999</v>
-      </c>
-      <c r="G6" s="18">
-        <v>-12035.099999999999</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" si="0"/>
-        <v>117494.976</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>103064.61599999999</v>
+      </c>
+      <c r="K6">
+        <v>-10530.9</v>
+      </c>
+      <c r="L6">
+        <v>113595.51599999999</v>
+      </c>
+      <c r="M6">
+        <v>0.11551210376337573</v>
+      </c>
+      <c r="N6">
+        <v>0.68286282925093678</v>
+      </c>
+      <c r="O6">
+        <v>0.19912663027162861</v>
+      </c>
+      <c r="P6">
+        <v>0.19078416728902159</v>
+      </c>
+      <c r="Q6">
+        <v>7.3566822435085402E-2</v>
+      </c>
+      <c r="R6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="S6">
+        <v>2.5232403718459494E-2</v>
+      </c>
+      <c r="T6">
+        <v>90.36</v>
+      </c>
+      <c r="U6">
+        <v>77.425202139684458</v>
+      </c>
+      <c r="V6">
+        <v>-0.14314738667901217</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="17" cm="1">
-        <f t="array" ref="D7">_FV(B7,"Price")</f>
-        <v>33.909999999999997</v>
-      </c>
-      <c r="E7" s="18">
-        <f>All!I14</f>
-        <v>95.1</v>
+      <c r="C7" s="26">
+        <v>1879</v>
+      </c>
+      <c r="D7" s="17" t="str">
+        <v>New York, NY</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <v>Mary Dillon</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="1"/>
-        <v>3224.8409999999994</v>
-      </c>
-      <c r="G7" s="18">
-        <v>-138</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" si="0"/>
-        <v>3362.8409999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15200</v>
+      </c>
+      <c r="G7" s="18" t="str">
+        <v>Consumer Discretionary</v>
+      </c>
+      <c r="H7" s="18" t="str">
+        <v>Specialty Retail</v>
+      </c>
+      <c r="I7">
+        <v>94.4</v>
+      </c>
+      <c r="J7">
+        <v>2536.5280000000002</v>
+      </c>
+      <c r="K7">
+        <v>-150</v>
+      </c>
+      <c r="L7">
+        <v>2686.5280000000002</v>
+      </c>
+      <c r="M7">
+        <v>-2.3211695123312115E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.31966183022963557</v>
+      </c>
+      <c r="O7">
+        <v>0.10225065691762825</v>
+      </c>
+      <c r="P7">
+        <v>0.1965065502183406</v>
+      </c>
+      <c r="Q7">
+        <v>4.1769407639219235E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.6</v>
+      </c>
+      <c r="S7">
+        <v>5.9545962039449202E-2</v>
+      </c>
+      <c r="T7">
+        <v>26.87</v>
+      </c>
+      <c r="U7">
+        <v>99.79887531818369</v>
+      </c>
+      <c r="V7">
+        <v>2.714137525797681</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="17" cm="1">
-        <f t="array" ref="D8">_FV(B8,"Price")</f>
-        <v>77.540000000000006</v>
-      </c>
-      <c r="E8" s="18">
-        <f>All!I15</f>
+      <c r="C8" s="26">
+        <v>1966</v>
+      </c>
+      <c r="D8" s="17" t="str">
+        <v>Richfield, Minnesota</v>
+      </c>
+      <c r="E8" s="18" t="str">
+        <v>Corie Barry</v>
+      </c>
+      <c r="F8" s="11">
+        <v>85000</v>
+      </c>
+      <c r="G8" s="18" t="str">
+        <v>Consumer Discretionary</v>
+      </c>
+      <c r="H8" s="18" t="str">
+        <v>Specialty Retail</v>
+      </c>
+      <c r="I8">
         <v>218.3</v>
       </c>
-      <c r="F8" s="11">
-        <f t="shared" si="1"/>
-        <v>16926.982000000004</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="J8">
+        <v>17477.098000000002</v>
+      </c>
+      <c r="K8">
         <v>-3393</v>
       </c>
-      <c r="H8" s="18">
-        <f t="shared" si="0"/>
-        <v>20319.982000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>20870.098000000002</v>
+      </c>
+      <c r="M8">
+        <v>-0.10554278317652288</v>
+      </c>
+      <c r="N8">
+        <v>0.21409132143937104</v>
+      </c>
+      <c r="O8">
+        <v>4.1945656399844489E-2</v>
+      </c>
+      <c r="P8">
+        <v>0.19691325172964344</v>
+      </c>
+      <c r="Q8">
+        <v>6.0884162938071605E-2</v>
+      </c>
+      <c r="R8">
+        <v>3.68</v>
+      </c>
+      <c r="S8">
+        <v>4.5965525855608293E-2</v>
+      </c>
+      <c r="T8">
+        <v>80.06</v>
+      </c>
+      <c r="U8">
+        <v>77.398062391903039</v>
+      </c>
+      <c r="V8">
+        <v>-3.3249283138857888E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="17" cm="1">
-        <f t="array" ref="D9">_FV(B9,"Price")</f>
-        <v>5.24</v>
-      </c>
-      <c r="E9" s="26">
-        <f>All!I16</f>
+      <c r="C9" s="26">
+        <v>1967</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <v>Columbus, OH</v>
+      </c>
+      <c r="E9" s="26" t="str">
+        <v>Bruce Thorn</v>
+      </c>
+      <c r="F9" s="11">
+        <v>10200</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Consumer Discretionary</v>
+      </c>
+      <c r="H9" s="18" t="str">
+        <v>Broadline Retail</v>
+      </c>
+      <c r="I9">
         <v>29.3</v>
       </c>
-      <c r="F9" s="11">
-        <f t="shared" si="1"/>
-        <v>153.53200000000001</v>
-      </c>
-      <c r="H9" s="18">
-        <f t="shared" si="0"/>
-        <v>153.53200000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>106.94499999999999</v>
+      </c>
+      <c r="K9">
+        <v>3156</v>
+      </c>
+      <c r="L9">
+        <v>-3049.0549999999998</v>
+      </c>
+      <c r="M9">
+        <v>-0.1109279854349241</v>
+      </c>
+      <c r="N9">
+        <v>0.34992408101268224</v>
+      </c>
+      <c r="O9">
+        <v>-1.9502118471657514E-2</v>
+      </c>
+      <c r="P9">
+        <v>0.36638617478095792</v>
+      </c>
+      <c r="Q9">
+        <v>6.1315001319892676E-2</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>3.65</v>
+      </c>
+      <c r="U9">
+        <v>-119.74897291383805</v>
+      </c>
+      <c r="V9">
+        <v>-33.807937784613166</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="17" cm="1">
-        <f t="array" ref="D10">_FV(B10,"Price")</f>
-        <v>177.58</v>
-      </c>
-      <c r="E10" s="26">
-        <f>All!I17</f>
+      <c r="C10" s="26">
+        <v>1994</v>
+      </c>
+      <c r="D10" s="17" t="str">
+        <v>Seattle, WA</v>
+      </c>
+      <c r="E10" s="26" t="str">
+        <v>Andrew Jassy</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1525000</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Consumer Discretionary</v>
+      </c>
+      <c r="H10" s="18" t="str">
+        <v>Broadline Retail</v>
+      </c>
+      <c r="I10">
         <v>10308</v>
       </c>
-      <c r="F10" s="11">
-        <f t="shared" si="1"/>
-        <v>1830494.6400000001</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="0"/>
-        <v>1830494.6400000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1837916.4000000001</v>
+      </c>
+      <c r="K10">
+        <v>37750</v>
+      </c>
+      <c r="L10">
+        <v>1800166.4000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.1182957412988368</v>
+      </c>
+      <c r="N10">
+        <v>0.46982088955000567</v>
+      </c>
+      <c r="O10">
+        <v>6.4114407996033296E-2</v>
+      </c>
+      <c r="P10">
+        <v>0.18989802167372261</v>
+      </c>
+      <c r="Q10">
+        <v>6.9881909557268029E-2</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>178.3</v>
+      </c>
+      <c r="U10">
+        <v>111.83755001316251</v>
+      </c>
+      <c r="V10">
+        <v>-0.37275630951675542</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="17" cm="1">
-        <f t="array" ref="D11">_FV(B11,"Price")</f>
-        <v>224.77</v>
-      </c>
-      <c r="E11" s="18">
-        <f>All!I19</f>
+      <c r="C11" s="26">
+        <v>2011</v>
+      </c>
+      <c r="D11" s="17" t="str">
+        <v>Pittsburgh, PA</v>
+      </c>
+      <c r="E11" s="18" t="str">
+        <v>Dr. Luis Alfonso von Ahn</v>
+      </c>
+      <c r="F11" s="11">
+        <v>720</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Consumer Discretionary</v>
+      </c>
+      <c r="H11" s="18" t="str">
+        <v>Diversified Consumer Services</v>
+      </c>
+      <c r="I11">
         <v>49</v>
       </c>
-      <c r="F11" s="11">
-        <f t="shared" si="1"/>
-        <v>11013.730000000001</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" si="0"/>
-        <v>11013.730000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="J11">
+        <v>10948.56</v>
+      </c>
+      <c r="K11">
+        <v>747.61</v>
+      </c>
+      <c r="L11">
+        <v>10200.949999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.43739157498748304</v>
+      </c>
+      <c r="N11">
+        <v>0.7324372209847696</v>
+      </c>
+      <c r="O11">
+        <v>-2.4964743583708725E-2</v>
+      </c>
+      <c r="P11">
+        <v>9.6191708387241698E-2</v>
+      </c>
+      <c r="Q11">
+        <v>6.2941209427912495E-2</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>223.44</v>
+      </c>
+      <c r="U11">
+        <v>179.69406171187131</v>
+      </c>
+      <c r="V11">
+        <v>-0.19578382692502994</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1933</v>
+      </c>
+      <c r="D12" s="26" t="str">
+        <v>Toyota, Japan</v>
+      </c>
+      <c r="E12" s="18" t="str">
+        <v>Koji Sato</v>
+      </c>
+      <c r="F12" s="11">
+        <v>375235</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <v>Consumer Discretionary</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Automobiles</v>
+      </c>
+      <c r="I12">
+        <v>1375.573444643212</v>
+      </c>
+      <c r="J12">
+        <v>349010.49437487574</v>
+      </c>
+      <c r="K12">
+        <v>-179361.89319999999</v>
+      </c>
+      <c r="L12">
+        <v>528372.38757487573</v>
+      </c>
+      <c r="M12">
+        <v>0.18403064777276446</v>
+      </c>
+      <c r="N12">
+        <v>0.16991347811227653</v>
+      </c>
+      <c r="O12">
+        <v>7.3343493126959369E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.32048257531959945</v>
+      </c>
+      <c r="Q12">
+        <v>3.9276503997873018E-2</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>253.72</v>
+      </c>
+      <c r="U12">
+        <v>586.48012737999534</v>
+      </c>
+      <c r="V12">
+        <v>1.3115250172631066</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="NKE.xlsx" xr:uid="{590DA76B-94D5-4137-8819-A1442661ACB8}"/>
-    <hyperlink ref="B4" r:id="rId2" display="LEVI.xlsx" xr:uid="{172301EA-086E-4F0D-A5EF-38AED88C7F1B}"/>
-    <hyperlink ref="B5" r:id="rId3" display="ELY.xlsx" xr:uid="{2811435D-E915-432B-BB28-B02F469FE4F3}"/>
-    <hyperlink ref="B6" r:id="rId4" display="SBUX.xlsx" xr:uid="{7BC08114-27A4-49AA-AEBE-8997750C06D7}"/>
-    <hyperlink ref="B7" r:id="rId5" display="FL.xlsx" xr:uid="{CA889B75-D000-4D93-A798-4B66AF602F80}"/>
-    <hyperlink ref="B8" r:id="rId6" display="BBY.xlsx" xr:uid="{98CBDB40-1A39-432E-A626-6E95AC8ADA31}"/>
-    <hyperlink ref="B9" r:id="rId7" display="BIG.xlsx" xr:uid="{FBBCB749-10B1-44B1-A9E5-62D87E6B039A}"/>
-    <hyperlink ref="B10" r:id="rId8" display="AMZN.xlsx" xr:uid="{89517E3B-F3CF-4744-95D3-A5670FDE43B0}"/>
-    <hyperlink ref="B11" r:id="rId9" display="DUOL.xlsx" xr:uid="{99332235-17A6-4D9B-8CC9-EC601600B5A1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BD891D-9647-40A3-84D5-0F58CFCF2EC9}">
-  <dimension ref="B2:I5"/>
+  <dimension ref="B2:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7912,7 +9254,7 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
@@ -7935,90 +9277,213 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="e" vm="5">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="e" cm="1" vm="5">
+        <f t="array" ref="B3:V5">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Consumer Staples")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="17" cm="1">
-        <f t="array" ref="D3">_FV(B3,"Price")</f>
-        <v>59.33</v>
-      </c>
-      <c r="E3" s="41">
-        <f>All!I7</f>
+      <c r="C3" s="9" t="str">
+        <v>1945</v>
+      </c>
+      <c r="D3" s="17" t="str">
+        <v>Bentonville, AR</v>
+      </c>
+      <c r="E3" s="40" t="str">
+        <v>Douglas McMillon</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2100000</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <v>Consumer Staples</v>
+      </c>
+      <c r="H3" s="41" t="str">
+        <v>Consumer Staples Distribution &amp; Retail</v>
+      </c>
+      <c r="I3" s="9">
         <v>2701</v>
       </c>
-      <c r="F3" s="11">
-        <f>D3*E3</f>
-        <v>160250.32999999999</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>163437.50999999998</v>
+      </c>
+      <c r="K3">
+        <v>-30590</v>
+      </c>
+      <c r="L3">
+        <v>194027.50999999998</v>
+      </c>
+      <c r="M3">
+        <v>6.7280193590965709E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.24140463839525986</v>
+      </c>
+      <c r="O3">
+        <v>3.3417908714208827E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.33638928067700985</v>
+      </c>
+      <c r="Q3">
+        <v>4.7269084447106452E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.84</v>
+      </c>
+      <c r="S3">
+        <v>1.3882002974714923E-2</v>
+      </c>
+      <c r="T3">
+        <v>60.51</v>
+      </c>
+      <c r="U3">
+        <v>204.31700834081138</v>
+      </c>
+      <c r="V3">
+        <v>2.3765825209190448</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="17" cm="1">
-        <f t="array" ref="D4">_FV(B4,"Price")</f>
-        <v>150.41</v>
-      </c>
-      <c r="E4" s="41">
-        <f>All!I8</f>
+      <c r="C4" s="9" t="str">
+        <v>1902</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <v>Minneapolis, MN</v>
+      </c>
+      <c r="E4" s="40" t="str">
+        <v>Brian Cornell</v>
+      </c>
+      <c r="F4" s="11">
+        <v>415000</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <v>Consumer Staples</v>
+      </c>
+      <c r="H4" s="41" t="str">
+        <v>Consumer Staples Distribution &amp; Retail</v>
+      </c>
+      <c r="I4" s="26">
         <v>462.5</v>
       </c>
-      <c r="F4" s="11">
-        <f>D4*E4</f>
-        <v>69564.625</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>79846</v>
+      </c>
+      <c r="K4">
+        <v>-15490</v>
+      </c>
+      <c r="L4">
+        <v>95336</v>
+      </c>
+      <c r="M4">
+        <v>2.9385406348757082E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.24643511730205278</v>
+      </c>
+      <c r="O4">
+        <v>5.7120601173020528E-2</v>
+      </c>
+      <c r="P4">
+        <v>0.1099431328623126</v>
+      </c>
+      <c r="Q4">
+        <v>5.2633868912505821E-2</v>
+      </c>
+      <c r="R4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S4">
+        <v>2.5486561631139947E-2</v>
+      </c>
+      <c r="T4">
+        <v>172.64</v>
+      </c>
+      <c r="U4">
+        <v>256.04483672436879</v>
+      </c>
+      <c r="V4">
+        <v>0.48311420716154307</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="17" cm="1">
-        <f t="array" ref="D5">_FV(B5,"Price")</f>
-        <v>12.47</v>
-      </c>
-      <c r="E5" s="11">
-        <f>All!I20</f>
+      <c r="C5" s="26">
+        <v>1904</v>
+      </c>
+      <c r="D5" s="17" t="str">
+        <v>New York, NY</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <v>Sue Nabi</v>
+      </c>
+      <c r="F5" s="11">
+        <v>11350</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <v>Consumer Staples</v>
+      </c>
+      <c r="H5" s="39" t="str">
+        <v>Personal Care Products</v>
+      </c>
+      <c r="I5">
         <v>922.8</v>
       </c>
-      <c r="F5" s="11">
-        <f>D5*E5</f>
-        <v>11507.316000000001</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="39"/>
+      <c r="J5">
+        <v>10750.619999999999</v>
+      </c>
+      <c r="K5">
+        <v>-3241.8</v>
+      </c>
+      <c r="L5">
+        <v>13992.419999999998</v>
+      </c>
+      <c r="M5">
+        <v>4.7074127139733024E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.6386813345096416</v>
+      </c>
+      <c r="O5">
+        <v>0.13125438864982633</v>
+      </c>
+      <c r="P5">
+        <v>0.20402201999775299</v>
+      </c>
+      <c r="Q5">
+        <v>8.3341765758214809E-2</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>11.65</v>
+      </c>
+      <c r="U5">
+        <v>9.4495128429675077</v>
+      </c>
+      <c r="V5">
+        <v>-0.18888301777102945</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="WMT.xlsx" xr:uid="{D797B854-A9F5-4976-A936-E761F50FF579}"/>
-    <hyperlink ref="B4" r:id="rId2" display="TGT.xlsx" xr:uid="{DBD0987B-C2C4-4BAD-A5AD-42682A598BCD}"/>
-    <hyperlink ref="B5" r:id="rId3" display="COTY.xlsx" xr:uid="{1F32EEE9-618F-4D28-8801-5E0E97ACC4BF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A52939-D0BE-4CCC-9D25-FC7F57DBC1F1}">
-  <dimension ref="B2:H2"/>
+  <dimension ref="B2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8051,6 +9516,12 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="e" cm="1" vm="22">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Energy")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8058,10 +9529,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3956EFA0-072E-4407-BC87-9A231BF876CF}">
-  <dimension ref="B2:H2"/>
+  <dimension ref="B2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8094,6 +9565,12 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="e" cm="1" vm="22">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Financial Services")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8101,10 +9578,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE92CC0-09FC-4C10-9A80-8470DFF3838E}">
-  <dimension ref="B2:H4"/>
+  <dimension ref="B2:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8115,7 +9592,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
@@ -8138,37 +9615,148 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="e" vm="10">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="e" cm="1" vm="10">
+        <f t="array" ref="B3:V4">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Health Care")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="18">
+        <v>1849</v>
+      </c>
+      <c r="D3" t="str">
+        <v>New York, NY</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Dr. Albert Bourla</v>
+      </c>
+      <c r="F3">
+        <v>88000</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Health Care</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Pharmaceuticals</v>
+      </c>
+      <c r="I3">
+        <v>5727</v>
+      </c>
+      <c r="J3">
+        <v>158007.93</v>
+      </c>
+      <c r="K3">
+        <v>-15920</v>
+      </c>
+      <c r="L3">
+        <v>173927.93</v>
+      </c>
+      <c r="M3">
+        <v>0.23426582029327814</v>
+      </c>
+      <c r="N3">
+        <v>0.65770300305987184</v>
+      </c>
+      <c r="O3">
+        <v>0.3980026113564103</v>
+      </c>
+      <c r="P3">
+        <v>8.3797054009819974E-2</v>
+      </c>
+      <c r="Q3">
+        <v>4.6045983502813831E-2</v>
+      </c>
+      <c r="R3">
+        <v>1.68</v>
+      </c>
+      <c r="S3">
+        <v>6.0891627401232329E-2</v>
+      </c>
+      <c r="T3">
+        <v>27.59</v>
+      </c>
+      <c r="U3">
+        <v>98.220736355377696</v>
+      </c>
+      <c r="V3">
+        <v>2.5600121912061504</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>109</v>
+      <c r="C4" s="18">
+        <v>1961</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Canonsburg, PA</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Scott Smith</v>
+      </c>
+      <c r="F4">
+        <v>38000</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Health Care</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Pharmaceuticals</v>
+      </c>
+      <c r="I4">
+        <v>94.4</v>
+      </c>
+      <c r="J4">
+        <v>1095.04</v>
+      </c>
+      <c r="K4">
+        <v>-150</v>
+      </c>
+      <c r="L4">
+        <v>1245.04</v>
+      </c>
+      <c r="M4">
+        <v>-2.3211695123312115E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.31966183022963557</v>
+      </c>
+      <c r="O4">
+        <v>0.10225065691762825</v>
+      </c>
+      <c r="P4">
+        <v>0.1965065502183406</v>
+      </c>
+      <c r="Q4">
+        <v>4.1769407639219235E-2</v>
+      </c>
+      <c r="R4">
+        <v>0.48</v>
+      </c>
+      <c r="S4">
+        <v>4.1379310344827586E-2</v>
+      </c>
+      <c r="T4">
+        <v>11.6</v>
+      </c>
+      <c r="U4">
+        <v>7.0498590471111235</v>
+      </c>
+      <c r="V4">
+        <v>-0.39225353042145483</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="PFE.xlsx" xr:uid="{79872E94-45F8-48A0-8FCF-6E32C5AB6EF9}"/>
-    <hyperlink ref="B4" r:id="rId2" display="VTRS.xlsx" xr:uid="{6B55DE4C-2259-4EFD-A968-5803EAD6D648}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDAF246-CBE5-44B3-96A8-132D2AEC986E}">
-  <dimension ref="B2:H2"/>
+  <dimension ref="B2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8201,6 +9789,12 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="e" cm="1" vm="22">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Industrials")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00Dashboard.xlsx
+++ b/00Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlshe\Documents\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECC4D9B-0284-43DE-9107-B8AB741A8F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8185CBB3-E1C1-4824-A973-E06AAD778BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4588CD03-294E-421F-A4EF-704A3E6AC4BE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4588CD03-294E-421F-A4EF-704A3E6AC4BE}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Bond Yields" sheetId="2" r:id="rId1"/>
@@ -5593,7 +5593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78598AC-1488-4768-97DC-A6CDF693DFF7}">
   <dimension ref="B3:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -6564,11 +6564,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C57CBD6-140C-4F1E-BA61-90A42EC2B8A9}">
   <dimension ref="A2:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8252,7 +8252,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" t="e" vm="21">
+      <c r="B23" s="21" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
       <c r="C23" s="26">
@@ -8377,10 +8377,11 @@
     <hyperlink ref="B20" r:id="rId18" display="COTY.xlsx" xr:uid="{BCF85E8D-3A96-41F7-96A9-57C75D61AF99}"/>
     <hyperlink ref="B22" r:id="rId19" display="GOOGL.xlsx" xr:uid="{B14E25EB-BD9A-46E4-A64C-5D732F749CCC}"/>
     <hyperlink ref="B21" r:id="rId20" display="TM.xlsx" xr:uid="{A9C43251-15F2-4E54-83A1-C629C893BBD0}"/>
+    <hyperlink ref="B23" r:id="rId21" display="TXN.xlsx" xr:uid="{C9BF9B6C-43E9-4E95-BC3E-4165AEC1FF9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
-  <legacyDrawing r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/00Dashboard.xlsx
+++ b/00Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlshe\Documents\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8185CBB3-E1C1-4824-A973-E06AAD778BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6608093D-2624-4051-8CE0-95CADCA88E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4588CD03-294E-421F-A4EF-704A3E6AC4BE}"/>
   </bookViews>
@@ -2192,52 +2192,52 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="5">
-          <cell r="C5">
-            <v>1532.1</v>
+          <cell r="D5">
+            <v>12602</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="C7">
-            <v>9927</v>
+          <cell r="D7">
+            <v>141924</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="C8">
-            <v>8936</v>
+          <cell r="D8">
+            <v>13253</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="59">
-          <cell r="AT59">
-            <v>9.6488974523656568E-2</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="BB65">
-            <v>65.754155843270169</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="AT66">
-            <v>0.43524610969014194</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="AT67">
-            <v>0.11548899779370131</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="AT68">
-            <v>0.18238993710691823</v>
+        <row r="33">
+          <cell r="AU33">
+            <v>8.6827702272695095E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="BH38">
+            <v>157.50583148184953</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AU40">
+            <v>0.56625047984020505</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AU41">
+            <v>0.27421810445226646</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AU42">
+            <v>0.13908559562280529</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>7.9122001050125471E-2</v>
+            <v>8.100938506308529E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2261,49 +2261,49 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>5727</v>
+            <v>94.4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>19972</v>
+            <v>297</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>35892</v>
+            <v>447</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="20">
-          <cell r="AJ20">
-            <v>0.23426582029327814</v>
+        <row r="19">
+          <cell r="AM19">
+            <v>-2.3211695123312115E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AM26">
+            <v>0.31966183022963557</v>
+          </cell>
+          <cell r="AV26">
+            <v>99.79887531818369</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="AJ27">
-            <v>0.65770300305987184</v>
-          </cell>
-          <cell r="AS27">
-            <v>98.220736355377696</v>
+          <cell r="AM27">
+            <v>0.10225065691762825</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="AJ28">
-            <v>0.3980026113564103</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AJ29">
-            <v>8.3797054009819974E-2</v>
+          <cell r="AM28">
+            <v>0.1965065502183406</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>4.6045983502813831E-2</v>
+            <v>4.1769407639219235E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2325,51 +2325,53 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>94.4</v>
+        <row r="5">
+          <cell r="C5">
+            <v>401.58329700000002</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>398.8</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>297</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>447</v>
+            <v>2168</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="19">
-          <cell r="AM19">
-            <v>-2.3211695123312115E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AM26">
-            <v>0.31966183022963557</v>
-          </cell>
-          <cell r="AV26">
-            <v>99.79887531818369</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AM27">
-            <v>0.10225065691762825</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AM28">
-            <v>0.1965065502183406</v>
+        <row r="45">
+          <cell r="AL45">
+            <v>1.685957915896541E-3</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AV50">
+            <v>17.530246384279053</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AL52">
+            <v>0.56897556238873603</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AL53">
+            <v>7.1775368182553811E-2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="AL54">
+            <v>4.4175576814856496E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>4.1769407639219235E-2</v>
+            <v>6.2908523021171267E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2388,17 +2390,61 @@
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="WACC"/>
+      <sheetName val="Graphics"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>444.29199999999997</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>7137.8859999999995</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>14543.260999999999</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
-        <row r="28">
-          <cell r="AH28">
-            <v>7.0498590471111235</v>
+        <row r="34">
+          <cell r="AR34">
+            <v>6.45739131769969E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="BF40">
+            <v>210.62723063462789</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AR42">
+            <v>0.39370705238403253</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="AR43">
+            <v>0.17816647187855345</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="AR44">
+            <v>0.14665946292208726</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="18">
+          <cell r="C18">
+            <v>8.5485106254227783E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2412,56 +2458,58 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="DCF"/>
       <sheetName val="WACC"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>1532.1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>9927</v>
+          </cell>
+        </row>
         <row r="8">
           <cell r="C8">
-            <v>636</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>4029</v>
+            <v>8936</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="14">
-          <cell r="AC14">
-            <v>218.3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="AO17">
-            <v>-0.10554278317652288</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AO24">
-            <v>0.21409132143937104</v>
-          </cell>
-          <cell r="BA24">
-            <v>77.398062391903039</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AO25">
-            <v>4.1945656399844489E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AO26">
-            <v>0.19691325172964344</v>
+        <row r="59">
+          <cell r="AT59">
+            <v>9.6488974523656568E-2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="BB65">
+            <v>65.749359513050948</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="AT66">
+            <v>0.43524610969014194</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="AT67">
+            <v>0.11548899779370131</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="AT68">
+            <v>0.18238993710691823</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>6.0884162938071605E-2</v>
+            <v>7.9127949801735945E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2478,48 +2526,56 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="DCF"/>
+      <sheetName val="Model"/>
       <sheetName val="WACC"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="C5">
-            <v>29.3</v>
+        <row r="6">
+          <cell r="C6">
+            <v>2477</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>13296</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>10953</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="19">
-          <cell r="AK19">
-            <v>-0.1109279854349241</v>
+          <cell r="AQ19">
+            <v>2.2293230289069932E-3</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="AT25">
-            <v>-119.74897291383805</v>
+          <cell r="AQ25">
+            <v>0.56928894490991322</v>
+          </cell>
+          <cell r="AZ25">
+            <v>81.506807987771182</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="AK26">
-            <v>0.34992408101268224</v>
+          <cell r="AQ26">
+            <v>0.20679172536516646</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="AK27">
-            <v>-1.9502118471657514E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AK28">
-            <v>0.36638617478095792</v>
+          <cell r="AQ27">
+            <v>-3.3604336043360432E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>6.1315001319892676E-2</v>
+            <v>7.4473901113322444E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2536,24 +2592,59 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="DCF"/>
+      <sheetName val="Model"/>
       <sheetName val="WACC"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="7">
-          <cell r="C7">
-            <v>6083</v>
+        <row r="6">
+          <cell r="C6">
+            <v>5727</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>2927</v>
+            <v>19972</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>35892</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1">
+        <row r="20">
+          <cell r="AJ20">
+            <v>0.23426582029327814</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AJ27">
+            <v>0.65770300305987184</v>
+          </cell>
+          <cell r="AS27">
+            <v>98.220736355377696</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AJ28">
+            <v>0.3980026113564103</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AJ29">
+            <v>8.3797054009819974E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="18">
+          <cell r="C18">
+            <v>4.6045983502813831E-2</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2567,58 +2658,58 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="DCF"/>
       <sheetName val="WACC"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="5">
           <cell r="C5">
-            <v>10308</v>
+            <v>1140.5999999999999</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>53888</v>
+            <v>3383.4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>16138</v>
+            <v>13914.3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="29">
+          <cell r="AU29">
+            <v>0.11551210376337573</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="BG34">
+            <v>77.425202139684458</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AU35">
+            <v>0.68286282925093678</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AU36">
+            <v>0.19912663027162861</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AU37">
+            <v>0.19078416728902159</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>6.9881909557268029E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="27">
-          <cell r="AU27">
-            <v>0.1182957412988368</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="BF30">
-            <v>111.83755001316251</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="AU34">
-            <v>0.46982088955000567</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="AU35">
-            <v>6.4114407996033296E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="AU36">
-            <v>0.18989802167372261</v>
+            <v>7.3566822435085402E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2640,53 +2731,53 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>256.04483672436879</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="C5">
-            <v>15576.641</v>
+            <v>462.5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>73100</v>
+            <v>954</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>108040</v>
+            <v>16444</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="51">
-          <cell r="AO51">
-            <v>0.44131129577207562</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="AO52">
-            <v>0.29821412265024722</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="AO54">
-            <v>0.14719174228036858</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="AZ56">
-            <v>82.423427496181077</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="AO60">
-            <v>-2.800460530319937E-2</v>
+        <row r="32">
+          <cell r="AN32">
+            <v>2.9385406348757082E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="AN38">
+            <v>0.24643511730205278</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="AN39">
+            <v>5.7120601173020528E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AN40">
+            <v>0.1099431328623126</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>8.8789900307742461E-2</v>
+            <v>5.2633868912505821E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2708,53 +2799,58 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>49</v>
+        <row r="5">
+          <cell r="C5">
+            <v>915</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>8575</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>747.61</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>0</v>
+            <v>11223</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="37">
-          <cell r="X37">
-            <v>0.43739157498748304</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="AJ42">
-            <v>179.69406171187131</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="X44">
-            <v>0.7324372209847696</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="X45">
-            <v>-2.4964743583708725E-2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="X46">
-            <v>9.6191708387241698E-2</v>
+        <row r="19">
+          <cell r="AV19">
+            <v>5.0199999999999996</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AV23">
+            <v>-0.12527461553824648</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BH28">
+            <v>126.13627883623619</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AV31">
+            <v>0.62897425652149097</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AV32">
+            <v>0.41845995776014611</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AV33">
+            <v>0.12240496090590455</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>6.2941209427912495E-2</v>
+            <v>7.7239621578546455E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2776,51 +2872,53 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>922.8</v>
+        <row r="5">
+          <cell r="C5">
+            <v>201.5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>180.6</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>3691.8</v>
+            <v>1639.8</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="17">
-          <cell r="AQ17">
-            <v>4.7074127139733024E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AQ24">
-            <v>0.6386813345096416</v>
-          </cell>
-          <cell r="AZ24">
-            <v>9.4495128429675077</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AQ25">
-            <v>0.13125438864982633</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AQ26">
-            <v>0.20402201999775299</v>
+        <row r="28">
+          <cell r="AR28">
+            <v>0.2752023769820815</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AY33">
+            <v>5.8416428061448409</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AR36">
+            <v>0.60342368045649075</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AR37">
+            <v>6.4269089270966223E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="AR38">
+            <v>-0.11275546159267111</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>8.3341765758214809E-2</v>
+            <v>7.3356889927392671E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2837,58 +2935,58 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="WACC"/>
       <sheetName val="Model"/>
-      <sheetName val="WACC"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="5">
           <cell r="C5">
-            <v>401.58329700000002</v>
+            <v>10308</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>398.8</v>
+            <v>53888</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>2168</v>
+            <v>16138</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="45">
-          <cell r="AL45">
-            <v>1.685957915896541E-3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="AV50">
-            <v>17.530246384279053</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="AL52">
-            <v>0.56897556238873603</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="AL53">
-            <v>7.1775368182553811E-2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="AL54">
-            <v>4.4175576814856496E-2</v>
+        <row r="18">
+          <cell r="C18">
+            <v>6.9881909557268029E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="18">
-          <cell r="C18">
-            <v>6.2908523021171267E-2</v>
+        <row r="27">
+          <cell r="AU27">
+            <v>0.1182957412988368</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="BF30">
+            <v>111.83755001316251</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AU34">
+            <v>0.46982088955000567</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AU35">
+            <v>6.4114407996033296E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AU36">
+            <v>0.18989802167372261</v>
           </cell>
         </row>
       </sheetData>
@@ -2977,61 +3075,19 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="DCF"/>
+      <sheetName val="Model"/>
       <sheetName val="WACC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="D5">
-            <v>12602</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>141924</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>13253</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="28">
+          <cell r="AH28">
+            <v>7.0498590471111235</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="19">
-          <cell r="AU19">
-            <v>8.6827702272695095E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="BH24">
-            <v>87.041639870124285</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AU26">
-            <v>0.56625047984020505</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AU27">
-            <v>0.27421810445226646</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AU28">
-            <v>0.13908559562280529</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="18">
-          <cell r="C18">
-            <v>8.1008901743441414E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3047,64 +3103,61 @@
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="WACC"/>
+      <sheetName val="Ratios"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>68.105669446937128</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="C5">
-            <v>915</v>
+            <v>8103</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>8575</v>
+            <v>9867</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>11223</v>
+            <v>40457</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="19">
-          <cell r="AV19">
-            <v>5.0199999999999996</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AV23">
-            <v>-0.12527461553824648</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="BH28">
-            <v>126.13627883623619</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="AV31">
-            <v>0.62897425652149097</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="AV32">
-            <v>0.41845995776014611</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="AV33">
-            <v>0.12240496090590455</v>
+        <row r="54">
+          <cell r="AT54">
+            <v>6.7280193590965709E-2</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="AT62">
+            <v>0.24140463839525986</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="AT63">
+            <v>3.3417908714208827E-2</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="AT64">
+            <v>0.33638928067700985</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>7.7239621578546455E-2</v>
+            <v>4.4829601391657446E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3118,63 +3171,61 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="DCF"/>
       <sheetName val="WACC"/>
-      <sheetName val="Ratios"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>22.91548481095889</v>
-          </cell>
-        </row>
         <row r="5">
           <cell r="C5">
-            <v>348.8</v>
+            <v>15576.641</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1253.0999999999999</v>
+            <v>73100</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>2278.4</v>
+            <v>108040</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="30">
-          <cell r="AO30">
-            <v>7.7390055146206782E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="AO33">
-            <v>0.80893801883951988</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="AO34">
-            <v>0.15333992859907947</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="AO35">
-            <v>-0.97988583854308287</v>
+        <row r="51">
+          <cell r="AO51">
+            <v>0.44131129577207562</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AO52">
+            <v>0.29821412265024722</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="AO54">
+            <v>0.14719174228036858</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="AZ56">
+            <v>82.423427496181077</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="AO60">
+            <v>-2.800460530319937E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>5.1466680590457232E-2</v>
+            <v>8.8789900307742461E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3193,53 +3244,51 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="C5">
-            <v>201.5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>180.6</v>
-          </cell>
-        </row>
         <row r="8">
           <cell r="C8">
-            <v>1639.8</v>
+            <v>636</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>4029</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="28">
-          <cell r="AR28">
-            <v>0.2752023769820815</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="AY33">
-            <v>5.8416428061448409</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="AR36">
-            <v>0.60342368045649075</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="AR37">
-            <v>6.4269089270966223E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="AR38">
-            <v>-0.11275546159267111</v>
+        <row r="14">
+          <cell r="AC14">
+            <v>218.3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AO17">
+            <v>-0.10554278317652288</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AO24">
+            <v>0.21409132143937104</v>
+          </cell>
+          <cell r="BA24">
+            <v>77.398062391903039</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AO25">
+            <v>4.1945656399844489E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AO26">
+            <v>0.19691325172964344</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>7.3356889927392671E-2</v>
+            <v>6.0884162938071605E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3256,63 +3305,51 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="DCF"/>
       <sheetName val="WACC"/>
-      <sheetName val="Ratios"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>204.31700834081138</v>
-          </cell>
-        </row>
         <row r="5">
           <cell r="C5">
-            <v>2701</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>9867</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>40457</v>
+            <v>29.3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="54">
-          <cell r="AT54">
-            <v>6.7280193590965709E-2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="AT62">
-            <v>0.24140463839525986</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="AT63">
-            <v>3.3417908714208827E-2</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="AT64">
-            <v>0.33638928067700985</v>
+        <row r="19">
+          <cell r="AK19">
+            <v>-0.1109279854349241</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AT25">
+            <v>-119.74897291383805</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AK26">
+            <v>0.34992408101268224</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AK27">
+            <v>-1.9502118471657514E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AK28">
+            <v>0.36638617478095792</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>4.7269084447106452E-2</v>
+            <v>6.1315001319892676E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3331,56 +3368,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>256.04483672436879</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>462.5</v>
-          </cell>
-        </row>
         <row r="7">
           <cell r="C7">
-            <v>954</v>
+            <v>6083</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>16444</v>
+            <v>2927</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="AN32">
-            <v>2.9385406348757082E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="AN38">
-            <v>0.24643511730205278</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="AN39">
-            <v>5.7120601173020528E-2</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="AN40">
-            <v>0.1099431328623126</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="18">
-          <cell r="C18">
-            <v>5.2633868912505821E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3394,58 +3394,56 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="DCF"/>
+      <sheetName val="Model"/>
       <sheetName val="WACC"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="C5">
-            <v>1140.5999999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>3383.4</v>
+        <row r="6">
+          <cell r="C6">
+            <v>922.8</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>13914.3</v>
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>3691.8</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="29">
-          <cell r="AU29">
-            <v>0.11551210376337573</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="BG34">
-            <v>77.425202139684458</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="AU35">
-            <v>0.68286282925093678</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="AU36">
-            <v>0.19912663027162861</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="AU37">
-            <v>0.19078416728902159</v>
+        <row r="17">
+          <cell r="AQ17">
+            <v>4.7074127139733024E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AQ24">
+            <v>0.6386813345096416</v>
+          </cell>
+          <cell r="AZ24">
+            <v>9.4495128429675077</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AQ25">
+            <v>0.13125438864982633</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AQ26">
+            <v>0.20402201999775299</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>7.3566822435085402E-2</v>
+            <v>8.3341765758214809E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3464,57 +3462,57 @@
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="WACC"/>
-      <sheetName val="Graphics"/>
+      <sheetName val="Ratios"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>22.91548481095889</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="C5">
-            <v>444.29199999999997</v>
+            <v>348.8</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>7137.8859999999995</v>
+            <v>1253.0999999999999</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>14543.260999999999</v>
+            <v>2278.4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="30">
+          <cell r="AO30">
+            <v>7.7390055146206782E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AO33">
+            <v>0.80893801883951988</v>
+          </cell>
+        </row>
         <row r="34">
-          <cell r="AR34">
-            <v>6.45739131769969E-2</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="BF40">
-            <v>210.62723063462789</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="AR42">
-            <v>0.39370705238403253</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="AR43">
-            <v>0.17816647187855345</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="AR44">
-            <v>0.14665946292208726</v>
+          <cell r="AO34">
+            <v>0.15333992859907947</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AO35">
+            <v>-0.97988583854308287</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>8.5485106254227783E-2</v>
+            <v>5.1466680590457232E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3539,49 +3537,51 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>2477</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>13296</v>
+            <v>747.61</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>10953</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="19">
-          <cell r="AQ19">
-            <v>2.2293230289069932E-3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AQ25">
-            <v>0.56928894490991322</v>
-          </cell>
-          <cell r="AZ25">
-            <v>81.506807987771182</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AQ26">
-            <v>0.20679172536516646</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AQ27">
-            <v>-3.3604336043360432E-2</v>
+        <row r="37">
+          <cell r="X37">
+            <v>0.43739157498748304</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AJ42">
+            <v>179.69406171187131</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="X44">
+            <v>0.7324372209847696</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="X45">
+            <v>-2.4964743583708725E-2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="X46">
+            <v>9.6191708387241698E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>7.4473901113322444E-2</v>
+            <v>6.2941209427912495E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3702,112 +3702,327 @@
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="64">
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yjxm&amp;q=XNYS%3aNKE&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1u3rw&amp;q=XNAS%3aGOOGL&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
     <v>en-US</v>
-    <v>a1yjxm</v>
+    <v>a1u3rw</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
-    <v>NIKE, INC. (XNYS:NKE)</v>
+    <v>ALPHABET INC. (XNAS:GOOGL)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>128.68</v>
-    <v>88.66</v>
-    <v>1.0904</v>
-    <v>-1.17</v>
-    <v>1.2959999999999998E-3</v>
-    <v>-1.248E-2</v>
-    <v>0.12</v>
+    <v>153.78</v>
+    <v>99.74</v>
+    <v>1.0495000000000001</v>
+    <v>0.06</v>
+    <v>-1.0730000000000002E-3</v>
+    <v>3.9770000000000002E-4</v>
+    <v>-0.16189999999999999</v>
     <v>USD</v>
-    <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
-    <v>83700</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>93.86</v>
-    <v>Textiles &amp; Apparel</v>
+    <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
+    <v>182502</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
+    <v>151.43</v>
+    <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45377.999682221875</v>
+    <v>45379.999792673436</v>
     <v>0</v>
-    <v>92.41</v>
-    <v>140269994760</v>
-    <v>NIKE, INC.</v>
-    <v>NIKE, INC.</v>
-    <v>93.74</v>
-    <v>27.570900000000002</v>
-    <v>93.75</v>
-    <v>92.58</v>
-    <v>92.7</v>
-    <v>1515122000</v>
-    <v>NKE</v>
-    <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>10816947</v>
-    <v>10118137</v>
-    <v>1969</v>
+    <v>150.16999999999999</v>
+    <v>1884055000000</v>
+    <v>ALPHABET INC.</v>
+    <v>ALPHABET INC.</v>
+    <v>150.85</v>
+    <v>26.011600000000001</v>
+    <v>150.87</v>
+    <v>150.93</v>
+    <v>150.7681</v>
+    <v>12433000000</v>
+    <v>GOOGL</v>
+    <v>ALPHABET INC. (XNAS:GOOGL)</v>
+    <v>24485390</v>
+    <v>34444735</v>
+    <v>2015</v>
   </rv>
   <rv s="2">
     <v>1</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=bpipfr&amp;q=XNYS%3aLEVI&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nhlh&amp;q=XNAS%3aAMZN&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
     <v>en-US</v>
-    <v>bpipfr</v>
+    <v>a1nhlh</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
-    <v>LEVI STRAUSS &amp; CO. (XNYS:LEVI)</v>
+    <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>19.02</v>
-    <v>12.414999999999999</v>
-    <v>1.2051000000000001</v>
+    <v>181.7</v>
+    <v>96.29</v>
+    <v>1.1657999999999999</v>
+    <v>0.55000000000000004</v>
+    <v>-2.9940000000000001E-3</v>
+    <v>3.058E-3</v>
+    <v>-0.54</v>
+    <v>USD</v>
+    <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content it has purchased for resale and products offered by third-party sellers. The Company’s segments include North America, International and Amazon Web Services (AWS). It serves consumers through its online and physical stores and focuses on selection, price, and convenience. Customers access its offerings through its Websites, mobile apps, Alexa, devices, streaming, and physically visiting its stores. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, Ring, Blink, and eero, and it develops and produces media content. It serves developers and enterprises of all sizes, including start-ups, government agencies, and academic institutions, through AWS, which offers a broad set of on-demand technology services, including compute, storage, database, analytics, and machine learning, and other services.</v>
+    <v>1525000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
+    <v>181.7</v>
+    <v>Diversified Retail</v>
+    <v>Stock</v>
+    <v>45379.999988680465</v>
+    <v>3</v>
+    <v>179.26</v>
+    <v>1873675604400</v>
+    <v>AMAZON.COM, INC.</v>
+    <v>AMAZON.COM, INC.</v>
+    <v>180.17</v>
+    <v>62.238500000000002</v>
+    <v>179.83</v>
+    <v>180.38</v>
+    <v>179.84</v>
+    <v>10387380000</v>
+    <v>AMZN</v>
+    <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
+    <v>38051588</v>
+    <v>37464355</v>
+    <v>1996</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1mou2&amp;q=XNAS%3aAAPL&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1mou2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>APPLE INC. (XNAS:AAPL)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>199.62</v>
+    <v>155.97999999999999</v>
+    <v>1.2746999999999999</v>
+    <v>-1.83</v>
+    <v>-1.575E-3</v>
+    <v>-1.0559000000000001E-2</v>
+    <v>-0.27</v>
+    <v>USD</v>
+    <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. Its product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS, and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. Its products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, and others. It also provides DarwinAI, which specializes in visual quality inspection using its Explainable AI platform.</v>
+    <v>161000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
+    <v>172.23</v>
+    <v>Computers, Phones &amp; Household Electronics</v>
+    <v>Stock</v>
+    <v>45379.999997383595</v>
+    <v>6</v>
+    <v>170.51</v>
+    <v>2647974000000</v>
+    <v>APPLE INC.</v>
+    <v>APPLE INC.</v>
+    <v>171.75</v>
+    <v>26.966100000000001</v>
+    <v>173.31</v>
+    <v>171.48</v>
+    <v>171.21</v>
+    <v>15441880000</v>
+    <v>AAPL</v>
+    <v>APPLE INC. (XNAS:AAPL)</v>
+    <v>65672690</v>
+    <v>69828551</v>
+    <v>1977</v>
+  </rv>
+  <rv s="2">
+    <v>7</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1o9gh&amp;q=XNYS%3aBBY&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1o9gh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>Best Buy Co., Inc. (XNYS:BBY)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>86.11</v>
+    <v>62.3001</v>
+    <v>1.5053000000000001</v>
     <v>0.16</v>
-    <v>5.3189999999999997E-4</v>
-    <v>8.5840000000000014E-3</v>
-    <v>0.01</v>
+    <v>2.6819999999999999E-3</v>
+    <v>1.954E-3</v>
+    <v>0.22</v>
     <v>USD</v>
-    <v>Levi Strauss &amp; Co. is an apparel company. The Company designs and markets jeans, casual wear and related accessories for men, women and children under the Levi's, Signatureby Levi Strauss &amp; Co., Denizen, Dockers and Beyond Yoga brands. The Company operates through three geographical segments: Americas, Europe, and Asia. It designs, markets and sells directly or through third parties and licensee's products that include jeans, casual and dress pants, tops, shorts, skirts, dresses, jackets, footwear, and related accessories for men, women and children around the world. The Company’s products are sold in more than 110 countries worldwide through a combination of chain retailers, department stores, online sites, and a global footprint of approximately 3,200 retail stores and shop-in-shops. Outside the United States, department stores, specialty retailers, franchised or other brand-dedicated stores and shop-in-shops are its primary distribution channels.</v>
-    <v>19100</v>
+    <v>Best Buy Co., Inc. is engaged in personalizing and humanizing technology solutions. The Company operates through two segments: Domestic and International. Domestic segment is comprised of its operations in all states, districts and territories of the United States and its Best Buy Health business, and includes the brand names Best Buy, Best Buy Ads, Best Buy Business, Best Buy Health, CST, Current Health, Geek Squad, Lively, Magnolia, Pacific Kitchen and Home, TechLiquidators and Yardbird and the domain names bestbuy.com, currenthealth.com, lively.com, techliquidators.com and yardbird.com. International segment is comprised of all operations in Canada under the brand names Best Buy, Best Buy Mobile and Geek Squad and the domain name bestbuy.ca. Domestic and International segments product categories include Computing and Mobile Phones, Consumer Electronics, Appliances, Entertainment, Services and Other. Computing and Mobile Phones category includes computing, mobile phones, and others.</v>
+    <v>85000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>1155 Battery St, SAN FRANCISCO, CA, 94111 US</v>
-    <v>18.989999999999998</v>
-    <v>Textiles &amp; Apparel</v>
+    <v>7601 Penn Ave S, RICHFIELD, MN, 55423 US</v>
+    <v>82.959900000000005</v>
+    <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45377.973049860935</v>
-    <v>3</v>
-    <v>18.73</v>
-    <v>7482948960</v>
-    <v>LEVI STRAUSS &amp; CO.</v>
-    <v>LEVI STRAUSS &amp; CO.</v>
-    <v>18.82</v>
-    <v>29.815899999999999</v>
-    <v>18.64</v>
-    <v>18.8</v>
-    <v>18.809999999999999</v>
-    <v>398029200</v>
-    <v>LEVI</v>
-    <v>LEVI STRAUSS &amp; CO. (XNYS:LEVI)</v>
-    <v>1229937</v>
-    <v>1457211</v>
-    <v>1970</v>
+    <v>45379.99929829844</v>
+    <v>9</v>
+    <v>81.67</v>
+    <v>17667740000</v>
+    <v>Best Buy Co., Inc.</v>
+    <v>Best Buy Co., Inc.</v>
+    <v>82.07</v>
+    <v>14.4147</v>
+    <v>81.87</v>
+    <v>82.03</v>
+    <v>82.25</v>
+    <v>215381400</v>
+    <v>BBY</v>
+    <v>Best Buy Co., Inc. (XNYS:BBY)</v>
+    <v>2571276</v>
+    <v>3898944</v>
+    <v>1966</v>
   </rv>
   <rv s="2">
+    <v>10</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ohrw&amp;q=XNYS%3aBIG&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1ohrw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>BIG LOTS, INC. (XNYS:BIG)</v>
+    <v>2</v>
+    <v>6</v>
+    <v>Finance</v>
     <v>4</v>
+    <v>12.27</v>
+    <v>3.47</v>
+    <v>2.3317999999999999</v>
+    <v>0.21</v>
+    <v>-2.5403999999999999E-2</v>
+    <v>5.0971000000000002E-2</v>
+    <v>-0.11</v>
+    <v>USD</v>
+    <v>Big Lots, Inc. is a home discount retailer in the United States. It operates over 1,300 stores in 48 states and an ecommerce store. The Company's merchandise categories include Food; Consumables; Soft Home; Hard Home; Furniture; Seasonal; and Apparel, Electronics, &amp; Other. The Food category includes beverage and grocery, specialty foods and pet departments. The Consumables category includes health, beauty and cosmetics and chemical departments. The Soft Home category includes home organization, fashion bedding, utility bedding and area rugs departments. The Hard Home category includes small appliances, tabletop and toys departments. The Furniture category includes mattress, case goods, and home decor departments. The Seasonal category includes lawn and garden; summer; Christmas, and other holiday departments. The Apparel, Electronics, &amp; Other department includes apparel; electronics; jewelry; hosiery; and candy and snacks departments, and the assortments for the Lot and the Queue Line.</v>
+    <v>10200</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>4900 E Dublin Granville Rd, COLUMBUS, OH, 43081-7651 US</v>
+    <v>4.3849999999999998</v>
+    <v>Diversified Retail</v>
+    <v>Stock</v>
+    <v>45379.998751388281</v>
+    <v>12</v>
+    <v>4.13</v>
+    <v>126507700</v>
+    <v>BIG LOTS, INC.</v>
+    <v>BIG LOTS, INC.</v>
+    <v>4.13</v>
+    <v>4.12</v>
+    <v>4.33</v>
+    <v>4.22</v>
+    <v>29216560</v>
+    <v>BIG</v>
+    <v>BIG LOTS, INC. (XNYS:BIG)</v>
+    <v>1296340</v>
+    <v>1534769</v>
+    <v>2001</v>
+  </rv>
+  <rv s="2">
+    <v>13</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1q6sm&amp;q=XNYS%3aCOTY&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1q6sm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>COTY INC. (XNYS:COTY)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>13.46</v>
+    <v>9.0150000000000006</v>
+    <v>1.82</v>
+    <v>0.14000000000000001</v>
+    <v>-9.1970000000000003E-3</v>
+    <v>1.1843999999999999E-2</v>
+    <v>-0.11</v>
+    <v>USD</v>
+    <v>Coty Inc. is a beauty company with portfolio of brands across fragrance, color cosmetics, and skin and body care. The Company has a diverse portfolio of brands, which includes both owned and licensed. Its brand portfolio is classified into two segments: Consumer beauty and Prestige. Consumer beauty brand portfolio includes Adidas, Beckham, Biocolor, Bozzano, Bourjois, Bruno Banani, CoverGirl, Jovan, Mexx, Monange, Nautica, Paixao, Rimmel, Risque, Sally Hansen, 007 James Bond. Prestige includes Burberry, Bottega Veneta, Calvin Klein, Cavalli, Chloe, Davidoff, Escada, Gucci, Hugo Boss, Jil Sander, Kylie Jenner, Lancaster, Marc Jacobs, Miu Miu, Orveda, SKKN BY KIM, Tiffany &amp; Co. Its mass beauty brands are primarily sold through hypermarkets, supermarkets, drug stores and pharmacies, mid-tier department stores, traditional food and drug retailers, and dedicated e-commerce retailers. The Company serves consumers around the world in approximately 125 countries and territories.</v>
+    <v>11350</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>350 Fifth Avenue, NEW YORK, NY, 10118 US</v>
+    <v>11.99</v>
+    <v>Personal &amp; Household Products &amp; Services</v>
+    <v>Stock</v>
+    <v>45379.988064837496</v>
+    <v>15</v>
+    <v>11.701700000000001</v>
+    <v>10706220000</v>
+    <v>COTY INC.</v>
+    <v>COTY INC.</v>
+    <v>11.88</v>
+    <v>34.039900000000003</v>
+    <v>11.82</v>
+    <v>11.96</v>
+    <v>11.85</v>
+    <v>895168900</v>
+    <v>COTY</v>
+    <v>COTY INC. (XNYS:COTY)</v>
+    <v>3561449</v>
+    <v>3268131</v>
+    <v>1995</v>
+  </rv>
+  <rv s="2">
+    <v>16</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=azcrur&amp;q=XNAS%3aDBX&amp;form=skydnc</v>
@@ -3827,11 +4042,11 @@
     <v>4</v>
     <v>33.43</v>
     <v>19.545000000000002</v>
-    <v>0.71519999999999995</v>
-    <v>0.18</v>
-    <v>-1.1452E-2</v>
-    <v>7.417E-3</v>
-    <v>-0.28000000000000003</v>
+    <v>0.71460000000000001</v>
+    <v>-0.14000000000000001</v>
+    <v>-2.0579999999999999E-3</v>
+    <v>-5.7279999999999996E-3</v>
+    <v>-0.05</v>
     <v>USD</v>
     <v>Dropbox, Inc. provides tools to help distributed teams prioritize, get organized, and keep work moving securely from anywhere. Its products include Dropbox Passwords, Vault, Computer Backup, Dropbox Sign, DocSend, Dropbox Capture and FormSwift, among others. Dropbox Passwords allows users to sign into Websites and apps by creating and storing usernames and passwords across devices. Dropbox Vault helps secure and organize sensitive information in the cloud. Computer backup automatically syncs folders on a user's computer to the cloud. Dropbox Sign is an e-signature and document workflow platform that enables customers to easily sign, send and receive documents through its intuitive Web and mobile-based interfaces. DocSend is a secure document sharing and analytics platform. Dropbox Capture is an all-in-one visual communication tool that helps team members share their work and ideas asynchronously. Its customers include individuals, families, teams, and organizations of all sizes.</v>
     <v>2693</v>
@@ -3839,729 +4054,29 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1800 Owens Street, Suite 200, SAN FRANCISCO, CA, 94158 US</v>
-    <v>24.664999999999999</v>
+    <v>24.63</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45377.935575960153</v>
-    <v>6</v>
-    <v>24.27</v>
-    <v>8376015000</v>
+    <v>45379.98030655078</v>
+    <v>18</v>
+    <v>24.08</v>
+    <v>8358815000</v>
     <v>DROPBOX, INC.</v>
     <v>DROPBOX, INC.</v>
-    <v>24.27</v>
-    <v>18.196400000000001</v>
-    <v>24.27</v>
-    <v>24.45</v>
-    <v>24.17</v>
+    <v>24.37</v>
+    <v>18.323899999999998</v>
+    <v>24.44</v>
+    <v>24.3</v>
+    <v>24.25</v>
     <v>343984200</v>
     <v>DBX</v>
     <v>DROPBOX, INC. (XNAS:DBX)</v>
-    <v>3046664</v>
-    <v>5252153</v>
+    <v>3309588</v>
+    <v>4818498</v>
     <v>2007</v>
   </rv>
   <rv s="2">
-    <v>7</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1rvk2&amp;q=XNYS%3aELY&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1rvk2</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>0</v>
-    <v>TOPGOLF CALLAWAY BRANDS CORP. (XNYS:MODG)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>23.01</v>
-    <v>9.84</v>
-    <v>1.8674999999999999</v>
-    <v>0</v>
-    <v>3.7131999999999998E-2</v>
-    <v>0</v>
-    <v>0.57999999999999996</v>
-    <v>USD</v>
-    <v>Topgolf Callaway Brands Corp. is a golf and active lifestyle company. The Company provides golf entertainment experiences, designs, and manufactures golf equipment, and sells golf and active lifestyle apparel and other accessories through its family of brand names, which include Topgolf, Callaway Golf, Odyssey, TravisMathew, Jack Wolfskin, OGIO, Toptracer and World Golf Tour. Its segments include Topgolf, Golf Equipment, and Active Lifestyle. The Topgolf is a technology-enabled golf entertainment business. Its platform offers open-air golf and entertainment venues as well as its Toptracer ball-tracking technology and digital media platform. The Golf Equipment segment is engaged in designing, manufacturing, and selling a full line of golf equipment, which is comprised of the golf clubs and golf balls product groups. Under Active Lifestyle segment, the Company designs, develops and sells soft good products under the Callaway, TravisMathew, OGIO, and Jack Wolfskin brands.</v>
-    <v>32000</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>2180 RUTHERFORD RD, CARLSBAD, CA, 92008-8815 US</v>
-    <v>16.04</v>
-    <v>Leisure Products</v>
-    <v>Stock</v>
-    <v>45377.993036214844</v>
-    <v>9</v>
-    <v>15.58</v>
-    <v>2867800760</v>
-    <v>TOPGOLF CALLAWAY BRANDS CORP.</v>
-    <v>TOPGOLF CALLAWAY BRANDS CORP.</v>
-    <v>15.85</v>
-    <v>33.9101</v>
-    <v>15.62</v>
-    <v>15.62</v>
-    <v>16.2</v>
-    <v>183598000</v>
-    <v>MODG</v>
-    <v>TOPGOLF CALLAWAY BRANDS CORP. (XNYS:MODG)</v>
-    <v>1368624</v>
-    <v>2736406</v>
-    <v>1999</v>
-  </rv>
-  <rv s="2">
-    <v>10</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a25ya2&amp;q=XNYS%3aWMT&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a25ya2</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>0</v>
-    <v>WALMART INC. (XNYS:WMT)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>61.655000000000001</v>
-    <v>47.593299999999999</v>
-    <v>0.49969999999999998</v>
-    <v>-0.06</v>
-    <v>3.3050000000000001E-4</v>
-    <v>-9.905999999999999E-4</v>
-    <v>0.02</v>
-    <v>USD</v>
-    <v>Walmart Inc. is a technology-powered omnichannel retailer. The Company is engaged in the operation of retail and wholesale stores and clubs, as well as e-commerce websites and mobile applications, located throughout the United States, Africa, Canada, Central America, Chile, China, India and Mexico. It operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment includes the Company's mass merchant concept in the United States, as well as e-commerce, which includes omni-channel initiatives and certain other business offerings such as advertising services through Walmart Connect. It operates under the Walmart and Walmart Neighborhood Market brands. The Walmart International segment consists of the Company's operations outside of the United States, as well as e-commerce and omni-channel initiatives. The Sam's Club segment includes the warehouse membership clubs in the United States, as well as e-commerce and omni-channel initiatives.</v>
-    <v>2100000</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
-    <v>60.83</v>
-    <v>Food &amp; Drug Retailing</v>
-    <v>Stock</v>
-    <v>45377.999685937502</v>
-    <v>12</v>
-    <v>60.23</v>
-    <v>487592544990</v>
-    <v>WALMART INC.</v>
-    <v>WALMART INC.</v>
-    <v>60.46</v>
-    <v>41.453000000000003</v>
-    <v>60.57</v>
-    <v>60.51</v>
-    <v>60.53</v>
-    <v>8058049000</v>
-    <v>WMT</v>
-    <v>WALMART INC. (XNYS:WMT)</v>
-    <v>13738342</v>
-    <v>24163672</v>
-    <v>1969</v>
-  </rv>
-  <rv s="2">
-    <v>13</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a246z2&amp;q=XNYS%3aTGT&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a246z2</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>0</v>
-    <v>TARGET CORPORATION (XNYS:TGT)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>175.5299</v>
-    <v>102.93</v>
-    <v>1.131</v>
-    <v>-0.02</v>
-    <v>-2.8379999999999998E-3</v>
-    <v>-1.158E-4</v>
-    <v>-0.49</v>
-    <v>USD</v>
-    <v>Target Corporation is a general merchandise retailer selling products to its guests through its stores and digital channels. The Company serves guests at nearly 2,000 stores and at Target.com. It offers to its customers, referred to as guests, everyday essentials and fashionable, differentiated merchandise at discounted prices. The majority of its stores offer a wide assortment of general merchandise and food. Its merchandise categories include apparel and accessories, beauty and household essentials, food and beverage, hardlines, and home furnishings and decor. Most of its stores larger than 170,000 square feet offer a variety of general merchandise and a full line of food items comparable to traditional supermarkets. Its digital channels include a wide merchandise and food assortment, including many items found in its stores, along with a complementary assortment sold by the Company and third parties. Its brands include A New Day, Ava &amp; Viv, Cloud Island, Favorite Day, and others.</v>
-    <v>415000</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>1000 Nicollet Mall, MINNEAPOLIS, MN, 55403 US</v>
-    <v>174.2</v>
-    <v>Diversified Retail</v>
-    <v>Stock</v>
-    <v>45377.99993255781</v>
-    <v>15</v>
-    <v>172.16</v>
-    <v>79706196128</v>
-    <v>TARGET CORPORATION</v>
-    <v>TARGET CORPORATION</v>
-    <v>172.63</v>
-    <v>19.310500000000001</v>
-    <v>172.66</v>
-    <v>172.64</v>
-    <v>172.15</v>
-    <v>461690200</v>
-    <v>TGT</v>
-    <v>TARGET CORPORATION (XNYS:TGT)</v>
-    <v>3513108</v>
-    <v>4591102</v>
-    <v>1902</v>
-  </rv>
-  <rv s="2">
-    <v>16</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a22k9c&amp;q=XNAS%3aSBUX&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a22k9c</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>0</v>
-    <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>115.48</v>
-    <v>89.21</v>
-    <v>0.97389999999999999</v>
-    <v>-0.31</v>
-    <v>1.549E-3</v>
-    <v>-3.4189999999999997E-3</v>
-    <v>0.14000000000000001</v>
-    <v>USD</v>
-    <v>Starbucks Corporations is a coffee company, which roasts, markets and retails specialty coffee in the world. The Company operates in 86 markets and has approximately 38,000 stores worldwide. It has three segments: North America, International and Channel Development. North America segment includes the United States and Canada. International segment includes China, Japan, Asia Pacific, Europe, Middle East and Africa, Latin America and Caribbean. North America and International segments include both the Company-operated and licensed stores. Channel Development segment includes roasted whole bean and ground coffees, Starbucks- and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside the Company-operated and licensed stores. A large portion of its Channel Development business operates under a licensed model of the Global Coffee Alliance with Nestle.</v>
-    <v>381000</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>P O Box 34067, SEATTLE, WA, 98124-1067 US</v>
-    <v>91</v>
-    <v>Hotels &amp; Entertainment Services</v>
-    <v>Stock</v>
-    <v>45377.998570185155</v>
-    <v>18</v>
-    <v>90.23</v>
-    <v>102701900000</v>
-    <v>STARBUCKS CORPORATION</v>
-    <v>STARBUCKS CORPORATION</v>
-    <v>90.98</v>
-    <v>27.6678</v>
-    <v>90.67</v>
-    <v>90.36</v>
-    <v>90.5</v>
-    <v>1132200000</v>
-    <v>SBUX</v>
-    <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>6216108</v>
-    <v>7790142</v>
-    <v>1985</v>
-  </rv>
-  <rv s="2">
     <v>19</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ygoc&amp;q=XNAS%3aNFLX&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1ygoc</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>0</v>
-    <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>634.38990000000001</v>
-    <v>315.62</v>
-    <v>1.2202</v>
-    <v>1.78</v>
-    <v>3.4329999999999999E-3</v>
-    <v>2.8370000000000001E-3</v>
-    <v>2.16</v>
-    <v>USD</v>
-    <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
-    <v>13000</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>634.38990000000001</v>
-    <v>Software &amp; IT Services</v>
-    <v>Stock</v>
-    <v>45377.999554664064</v>
-    <v>21</v>
-    <v>619.18359999999996</v>
-    <v>271777300000</v>
-    <v>NETFLIX, INC.</v>
-    <v>NETFLIX, INC.</v>
-    <v>625.20000000000005</v>
-    <v>52.2072</v>
-    <v>627.46</v>
-    <v>629.24</v>
-    <v>631.4</v>
-    <v>432759600</v>
-    <v>NFLX</v>
-    <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>2804453</v>
-    <v>3022831</v>
-    <v>1997</v>
-  </rv>
-  <rv s="2">
-    <v>22</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yv52&amp;q=XNAS%3aNVDA&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1yv52</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>0</v>
-    <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>974</v>
-    <v>258.5</v>
-    <v>1.7306999999999999</v>
-    <v>-24.41</v>
-    <v>9.6150000000000001E-4</v>
-    <v>-2.5693999999999998E-2</v>
-    <v>0.89</v>
-    <v>USD</v>
-    <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company accelerates computing to help solve the computational problems. The Company’s segments include Compute &amp; Networking and Graphics. Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI), cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; NVIDIA AI Enterprise and other software. The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
-    <v>29600</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>963.75</v>
-    <v>Semiconductors &amp; Semiconductor Equipment</v>
-    <v>Stock</v>
-    <v>45377.999999154687</v>
-    <v>24</v>
-    <v>925.02</v>
-    <v>2357225000000</v>
-    <v>NVIDIA CORPORATION</v>
-    <v>NVIDIA CORPORATION</v>
-    <v>958.51</v>
-    <v>79.642300000000006</v>
-    <v>950.02</v>
-    <v>925.61</v>
-    <v>926.5</v>
-    <v>2500000000</v>
-    <v>NVDA</v>
-    <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>51364758</v>
-    <v>61999961</v>
-    <v>1998</v>
-  </rv>
-  <rv s="2">
-    <v>25</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1zqnm&amp;q=XNYS%3aPFE&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1zqnm</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>0</v>
-    <v>PFIZER INC. (XNYS:PFE)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>42.22</v>
-    <v>25.61</v>
-    <v>0.59470000000000001</v>
-    <v>0.16</v>
-    <v>2.1749999999999999E-3</v>
-    <v>5.8330000000000005E-3</v>
-    <v>0.06</v>
-    <v>USD</v>
-    <v>Pfizer Inc. is a research-based global biopharmaceutical company. The Company is engaged in the discovery, development, manufacture, marketing, sale and distribution of biopharmaceutical products worldwide. Its Biopharma segment is engaged in the science-based biopharmaceutical business. Its Biopharma segment includes the Pfizer Oncology Division, the Pfizer U.S. Commercial Division, and the Pfizer International Commercial Division. Its product categories include oncology, primary care and specialty care. Its Oncology products include Ibrance, Xtandi, Inlyta, Bosulif, Lorbrena, Braftovi, Mektovi, Padcev, Adcetris, Talzenna, Tukysa, Elrexfio and Tivdak. Its primary care products include Eliquis, Nurtec ODT/Vydura, Comirnaty, the Prevnar family, Abrysvo, FSME/IMMUN-TicoVac, Paxlovid and Lucira by Pfizer. Its specialty care products include Xeljanz, Enbrel (outside the U.S. and Canada), Inflectra, Cibinqo, Litfulo, Vyndaqel family, Genotropin, Sulperazon, Zavicefta, Medrol and Panzyga.</v>
-    <v>88000</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>66 HUDSON BOULEVARD EAST, NEW YORK, NY, 10001-2192 US</v>
-    <v>27.63</v>
-    <v>Pharmaceuticals</v>
-    <v>Stock</v>
-    <v>45377.999672476566</v>
-    <v>27</v>
-    <v>27.31</v>
-    <v>156229533780</v>
-    <v>PFIZER INC.</v>
-    <v>PFIZER INC.</v>
-    <v>27.45</v>
-    <v>76.353499999999997</v>
-    <v>27.43</v>
-    <v>27.59</v>
-    <v>27.65</v>
-    <v>5662542000</v>
-    <v>PFE</v>
-    <v>PFIZER INC. (XNYS:PFE)</v>
-    <v>38220263</v>
-    <v>44913136</v>
-    <v>1942</v>
-  </rv>
-  <rv s="2">
-    <v>28</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1y7rw&amp;q=XNAS%3aVTRS&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1y7rw</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>0</v>
-    <v>VIATRIS INC. (XNAS:VTRS)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>13.6175</v>
-    <v>8.74</v>
-    <v>1.1341000000000001</v>
-    <v>-0.23</v>
-    <v>8.6210000000000002E-3</v>
-    <v>-1.9442000000000001E-2</v>
-    <v>0.1</v>
-    <v>USD</v>
-    <v>Viatris Inc. (Viatris) is a global healthcare company. The Company's segments include Developed Markets, Greater China, JANZ, and Emerging Markets. Its Developed Markets segment comprises its operations primarily in North America and Europe. The Greater China segment includes its operations in mainland China, Taiwan and Hong Kong. The JANZ segment consists of its operations in Japan, Australia and New Zealand. The Emerging Markets segment encompasses its presence in more than 125 countries with developing markets and emerging economies, as well as the Company’s ARV franchise. Its portfolio comprises over 1,400 approved molecules across a range of key therapeutic areas, including key brands and complex generics. It operates around 40 manufacturing sites worldwide, which produce oral solid doses, injectables, complex dosage forms and active pharmaceutical ingredients. Its products include Lyrica, Lipitor, Creon, Influvac, Wixela Inhub, EpiPen Auto Injector, Fraxiparine and Yupelri.</v>
-    <v>38000</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>1000 Mylan Boulevard, CANONSBURG, PA, 15317 US</v>
-    <v>11.945</v>
-    <v>Pharmaceuticals</v>
-    <v>Stock</v>
-    <v>45377.963596168753</v>
-    <v>30</v>
-    <v>11.58</v>
-    <v>14060820000</v>
-    <v>VIATRIS INC.</v>
-    <v>VIATRIS INC.</v>
-    <v>11.88</v>
-    <v>279.4708</v>
-    <v>11.83</v>
-    <v>11.6</v>
-    <v>11.7</v>
-    <v>1187569000</v>
-    <v>VTRS</v>
-    <v>VIATRIS INC. (XNAS:VTRS)</v>
-    <v>8223459</v>
-    <v>10994079</v>
-    <v>2019</v>
-  </rv>
-  <rv s="2">
-    <v>31</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1sy77&amp;q=XNYS%3aFL&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="3">
-    <v>en-US</v>
-    <v>a1sy77</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>5</v>
-    <v>FOOT LOCKER, INC. (XNYS:FL)</v>
-    <v>2</v>
-    <v>6</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>42.79</v>
-    <v>14.84</v>
-    <v>1.4092</v>
-    <v>1</v>
-    <v>-3.7220000000000005E-4</v>
-    <v>3.8655000000000002E-2</v>
-    <v>-0.01</v>
-    <v>USD</v>
-    <v>Foot Locker, Inc. is a retailer of shoes and apparel. The Company operates through three operating segments: North America, Europe, Middle East, and Africa (EMEA), and Asia Pacific. The Company's portfolio of brands includes Foot Locker, Kids Foot Locker, Champs Sports, Sidestep, WSS, and atmos. The Company uses its omni-channel capabilities to bridge the digital world and physical stores, including order-in-store, buy online and pickup-in-store, and buy online and ship-from-store, as well as e-commerce. The Company operates approximately 2,714 stores in 29 countries across North America, Europe, Australia, New Zealand, and Asia, and a franchised store presence in the Middle East and Asia. The Kids Foot Locker offers athletic footwear, apparel, and accessories for children. Champs Sports is a primarily mall-based specialty athletic footwear and apparel retailer in North America. It also operates Community and Power Stores across the geographies in which it operates.</v>
-    <v>15200</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>330 West 34th Street, NEW YORK, NY, 10001 US</v>
-    <v>27.19</v>
-    <v>Specialty Retailers</v>
-    <v>Stock</v>
-    <v>45377.985586909374</v>
-    <v>33</v>
-    <v>26.175000000000001</v>
-    <v>2530127834</v>
-    <v>FOOT LOCKER, INC.</v>
-    <v>FOOT LOCKER, INC.</v>
-    <v>26.24</v>
-    <v>25.87</v>
-    <v>26.87</v>
-    <v>26.86</v>
-    <v>94161810</v>
-    <v>FL</v>
-    <v>FOOT LOCKER, INC. (XNYS:FL)</v>
-    <v>4247932</v>
-    <v>5319683</v>
-    <v>1989</v>
-  </rv>
-  <rv s="2">
-    <v>34</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1o9gh&amp;q=XNYS%3aBBY&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1o9gh</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>0</v>
-    <v>Best Buy Co., Inc. (XNYS:BBY)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>86.11</v>
-    <v>62.3001</v>
-    <v>1.5048999999999999</v>
-    <v>-0.66</v>
-    <v>-7.4940000000000011E-4</v>
-    <v>-8.1759999999999992E-3</v>
-    <v>-0.06</v>
-    <v>USD</v>
-    <v>Best Buy Co., Inc. is engaged in personalizing and humanizing technology solutions. The Company operates through two segments: Domestic and International. Domestic segment is comprised of its operations in all states, districts and territories of the United States and its Best Buy Health business, and includes the brand names Best Buy, Best Buy Ads, Best Buy Business, Best Buy Health, CST, Current Health, Geek Squad, Lively, Magnolia, Pacific Kitchen and Home, TechLiquidators and Yardbird and the domain names bestbuy.com, currenthealth.com, lively.com, techliquidators.com and yardbird.com. International segment is comprised of all operations in Canada under the brand names Best Buy, Best Buy Mobile and Geek Squad and the domain name bestbuy.ca. Domestic and International segments product categories include Computing and Mobile Phones, Consumer Electronics, Appliances, Entertainment, Services and Other. Computing and Mobile Phones category includes computing, mobile phones, and others.</v>
-    <v>85000</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>7601 Penn Ave S, RICHFIELD, MN, 55423 US</v>
-    <v>81.790000000000006</v>
-    <v>Specialty Retailers</v>
-    <v>Stock</v>
-    <v>45377.994657303127</v>
-    <v>36</v>
-    <v>80.004999999999995</v>
-    <v>17243434884</v>
-    <v>Best Buy Co., Inc.</v>
-    <v>Best Buy Co., Inc.</v>
-    <v>80.62</v>
-    <v>14.212199999999999</v>
-    <v>80.72</v>
-    <v>80.06</v>
-    <v>80</v>
-    <v>215381400</v>
-    <v>BBY</v>
-    <v>Best Buy Co., Inc. (XNYS:BBY)</v>
-    <v>2106669</v>
-    <v>3858472</v>
-    <v>1966</v>
-  </rv>
-  <rv s="2">
-    <v>37</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ohrw&amp;q=XNYS%3aBIG&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="3">
-    <v>en-US</v>
-    <v>a1ohrw</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>5</v>
-    <v>BIG LOTS, INC. (XNYS:BIG)</v>
-    <v>2</v>
-    <v>6</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>12.27</v>
-    <v>3.47</v>
-    <v>2.3309000000000002</v>
-    <v>-0.25</v>
-    <v>1.9178000000000001E-2</v>
-    <v>-6.4103000000000007E-2</v>
-    <v>7.0000000000000007E-2</v>
-    <v>USD</v>
-    <v>Big Lots, Inc. is a home discount retailer in the United States. It operates over 1,300 stores in 48 states and an ecommerce store. The Company's merchandise categories include Food; Consumables; Soft Home; Hard Home; Furniture; Seasonal; and Apparel, Electronics, &amp; Other. The Food category includes beverage and grocery, specialty foods and pet departments. The Consumables category includes health, beauty and cosmetics and chemical departments. The Soft Home category includes home organization, fashion bedding, utility bedding and area rugs departments. The Hard Home category includes small appliances, tabletop and toys departments. The Furniture category includes mattress, case goods, and home decor departments. The Seasonal category includes lawn and garden; summer; Christmas, and other holiday departments. The Apparel, Electronics, &amp; Other department includes apparel; electronics; jewelry; hosiery; and candy and snacks departments, and the assortments for the Lot and the Queue Line.</v>
-    <v>10200</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>4900 E Dublin Granville Rd, COLUMBUS, OH, 43081-7651 US</v>
-    <v>3.9950000000000001</v>
-    <v>Diversified Retail</v>
-    <v>Stock</v>
-    <v>45377.999872789063</v>
-    <v>39</v>
-    <v>3.65</v>
-    <v>106640444</v>
-    <v>BIG LOTS, INC.</v>
-    <v>BIG LOTS, INC.</v>
-    <v>3.95</v>
-    <v>3.9</v>
-    <v>3.65</v>
-    <v>3.72</v>
-    <v>29216560</v>
-    <v>BIG</v>
-    <v>BIG LOTS, INC. (XNYS:BIG)</v>
-    <v>1026161</v>
-    <v>1518091</v>
-    <v>2001</v>
-  </rv>
-  <rv s="2">
-    <v>40</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nhlh&amp;q=XNAS%3aAMZN&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1nhlh</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>0</v>
-    <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>181.41499999999999</v>
-    <v>96.29</v>
-    <v>1.1658999999999999</v>
-    <v>-1.41</v>
-    <v>4.4869999999999997E-3</v>
-    <v>-7.8459999999999988E-3</v>
-    <v>0.8</v>
-    <v>USD</v>
-    <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content it has purchased for resale and products offered by third-party sellers. The Company’s segments include North America, International and Amazon Web Services (AWS). It serves consumers through its online and physical stores and focuses on selection, price, and convenience. Customers access its offerings through its Websites, mobile apps, Alexa, devices, streaming, and physically visiting its stores. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, Ring, Blink, and eero, and it develops and produces media content. It serves developers and enterprises of all sizes, including start-ups, government agencies, and academic institutions, through AWS, which offers a broad set of on-demand technology services, including compute, storage, database, analytics, and machine learning, and other services.</v>
-    <v>1525000</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>180.45</v>
-    <v>Diversified Retail</v>
-    <v>Stock</v>
-    <v>45377.999980323439</v>
-    <v>42</v>
-    <v>177.95</v>
-    <v>1857991000000</v>
-    <v>AMAZON.COM, INC.</v>
-    <v>AMAZON.COM, INC.</v>
-    <v>180.15</v>
-    <v>62.196899999999999</v>
-    <v>179.71</v>
-    <v>178.3</v>
-    <v>179.1</v>
-    <v>10387380000</v>
-    <v>AMZN</v>
-    <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>29658982</v>
-    <v>38409332</v>
-    <v>1996</v>
-  </rv>
-  <rv s="2">
-    <v>43</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1mou2&amp;q=XNAS%3aAAPL&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1mou2</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>0</v>
-    <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>199.62</v>
-    <v>155.97999999999999</v>
-    <v>1.278</v>
-    <v>-1.1399999999999999</v>
-    <v>1.5319999999999999E-3</v>
-    <v>-6.6730000000000001E-3</v>
-    <v>0.26</v>
-    <v>USD</v>
-    <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. Its product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS, and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. Its products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, and others. It also provides DarwinAI, which specializes in visual quality inspection using its Explainable AI platform.</v>
-    <v>161000</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>171.42</v>
-    <v>Computers, Phones &amp; Household Electronics</v>
-    <v>Stock</v>
-    <v>45377.99998130781</v>
-    <v>45</v>
-    <v>169.58</v>
-    <v>2660327000000</v>
-    <v>APPLE INC.</v>
-    <v>APPLE INC.</v>
-    <v>170</v>
-    <v>26.583400000000001</v>
-    <v>170.85</v>
-    <v>169.71</v>
-    <v>169.97</v>
-    <v>15441880000</v>
-    <v>AAPL</v>
-    <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>57388449</v>
-    <v>68929891</v>
-    <v>1977</v>
-  </rv>
-  <rv s="2">
-    <v>46</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c2mtim&amp;q=XNAS%3aDUOL&amp;form=skydnc</v>
@@ -4582,10 +4097,10 @@
     <v>245.8699</v>
     <v>116.82</v>
     <v>1.252</v>
-    <v>-3.06</v>
-    <v>6.9820000000000004E-3</v>
-    <v>-1.3509999999999999E-2</v>
-    <v>1.56</v>
+    <v>-1.97</v>
+    <v>-2.6290000000000003E-3</v>
+    <v>-8.8520000000000005E-3</v>
+    <v>-0.57999999999999996</v>
     <v>USD</v>
     <v>Duolingo, Inc. is a technology company, which provides a mobile learning platform. The flagship application, Duolingo, is a language learning application. Duolingo is available in the education category on both Google Play and the Apple App Store. Duolingo offers courses in over 40 languages to more than 85 million monthly active users. Duolingo can also be accessed via desktop computers via a Web browser at https://duolingo.com. Both math and music courses are integrated into the Duolingo App and are available on iOS devices. Course content on Duolingo can be accessed for free. Its subscription offering, Super Duolingo, offers learners additional features to enhance their learning experience. It also launched a family plan, which includes up to six subscribers under one annual plan. The Duolingo English Test is an online English proficiency assessment. Anyone with a computer, webcam and Internet connection can take the test from anywhere, at any time.</v>
     <v>720</v>
@@ -4593,80 +4108,565 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5900 PENN AVE, SECOND FLOOR, PITTSBURGH, PA, 15206 US</v>
-    <v>229.01</v>
+    <v>225.4</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45377.981758286718</v>
-    <v>48</v>
-    <v>218.39</v>
-    <v>9951051000</v>
+    <v>45379.995602360941</v>
+    <v>21</v>
+    <v>217.61</v>
+    <v>9457550000</v>
     <v>DUOLINGO, INC.</v>
     <v>DUOLINGO, INC.</v>
-    <v>227.35</v>
-    <v>677.33249999999998</v>
-    <v>226.5</v>
-    <v>223.44</v>
-    <v>225</v>
+    <v>221.72</v>
+    <v>665.52030000000002</v>
+    <v>222.55</v>
+    <v>220.58</v>
+    <v>220</v>
     <v>42875830</v>
     <v>DUOL</v>
     <v>DUOLINGO, INC. (XNAS:DUOL)</v>
-    <v>599394</v>
-    <v>827814</v>
+    <v>566709</v>
+    <v>829765</v>
     <v>2011</v>
+  </rv>
+  <rv s="2">
+    <v>22</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1sy77&amp;q=XNYS%3aFL&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1sy77</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>FOOT LOCKER, INC. (XNYS:FL)</v>
+    <v>2</v>
+    <v>6</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>42.79</v>
+    <v>14.84</v>
+    <v>1.411</v>
+    <v>-0.01</v>
+    <v>3.5090000000000002E-4</v>
+    <v>-3.5080000000000002E-4</v>
+    <v>0.01</v>
+    <v>USD</v>
+    <v>Foot Locker, Inc. is a retailer of shoes and apparel. The Company operates through three segments: North America, Europe, Middle East, and Africa (EMEA), and Asia Pacific. The Company's portfolio of brands includes Foot Locker, Kids Foot Locker, Champs Sports, WSS, and atmos. It uses its omni-channel capabilities to bridge the digital world and physical stores, including order-in-store, buy online and pickup-in-store, and buy online and ship-from-store, as well as e-commerce. It operates websites and mobile apps aligned with the brand names of its store banners. The Company operates approximately 2,523 stores in 26 countries across North America, Europe, Australia, New Zealand, and Asia, and a franchised store presence in the Middle East and Asia. The Kids Foot Locker offers athletic footwear, apparel, and accessories for children. Champs Sports is a primarily mall-based specialty athletic footwear and apparel retailer. atmos is a digitally led, brand featuring sneakers and apparel.</v>
+    <v>14335</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>330 West 34th Street, NEW YORK, NY, 10001 US</v>
+    <v>28.63</v>
+    <v>Specialty Retailers</v>
+    <v>Stock</v>
+    <v>45379.998870231248</v>
+    <v>24</v>
+    <v>28.04</v>
+    <v>2683612000</v>
+    <v>FOOT LOCKER, INC.</v>
+    <v>FOOT LOCKER, INC.</v>
+    <v>28.4</v>
+    <v>28.51</v>
+    <v>28.5</v>
+    <v>28.51</v>
+    <v>94161810</v>
+    <v>FL</v>
+    <v>FOOT LOCKER, INC. (XNYS:FL)</v>
+    <v>3686855</v>
+    <v>5417355</v>
+    <v>1989</v>
+  </rv>
+  <rv s="2">
+    <v>25</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bpipfr&amp;q=XNYS%3aLEVI&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>bpipfr</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>LEVI STRAUSS &amp; CO. (XNYS:LEVI)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>20.02</v>
+    <v>12.414999999999999</v>
+    <v>1.2134</v>
+    <v>0.62</v>
+    <v>-1.5010000000000002E-3</v>
+    <v>3.2008000000000002E-2</v>
+    <v>-0.03</v>
+    <v>USD</v>
+    <v>Levi Strauss &amp; Co. is an apparel company. The Company designs and markets jeans, casual wear and related accessories for men, women and children under the Levi's, Signatureby Levi Strauss &amp; Co., Denizen, Dockers and Beyond Yoga brands. The Company operates through three geographical segments: Americas, Europe, and Asia. It designs, markets and sells directly or through third parties and licensee's products that include jeans, casual and dress pants, tops, shorts, skirts, dresses, jackets, footwear, and related accessories for men, women and children around the world. The Company’s products are sold in more than 110 countries worldwide through a combination of chain retailers, department stores, online sites, and a global footprint of approximately 3,200 retail stores and shop-in-shops. Outside the United States, department stores, specialty retailers, franchised or other brand-dedicated stores and shop-in-shops are its primary distribution channels.</v>
+    <v>19100</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1155 Battery St, SAN FRANCISCO, CA, 94111 US</v>
+    <v>20.02</v>
+    <v>Textiles &amp; Apparel</v>
+    <v>Stock</v>
+    <v>45379.986007279687</v>
+    <v>27</v>
+    <v>19.47</v>
+    <v>7956604000</v>
+    <v>LEVI STRAUSS &amp; CO.</v>
+    <v>LEVI STRAUSS &amp; CO.</v>
+    <v>19.559999999999999</v>
+    <v>30.983599999999999</v>
+    <v>19.37</v>
+    <v>19.989999999999998</v>
+    <v>19.96</v>
+    <v>398029200</v>
+    <v>LEVI</v>
+    <v>LEVI STRAUSS &amp; CO. (XNYS:LEVI)</v>
+    <v>2588093</v>
+    <v>1506493</v>
+    <v>1970</v>
+  </rv>
+  <rv s="2">
+    <v>28</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ygoc&amp;q=XNAS%3aNFLX&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1ygoc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>NETFLIX, INC. (XNAS:NFLX)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>634.38990000000001</v>
+    <v>315.62</v>
+    <v>1.2158</v>
+    <v>-6.2</v>
+    <v>-1.1360000000000001E-3</v>
+    <v>-1.0104999999999999E-2</v>
+    <v>-0.69</v>
+    <v>USD</v>
+    <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
+    <v>13000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
+    <v>615</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45379.999852568748</v>
+    <v>30</v>
+    <v>601.59</v>
+    <v>262827900000</v>
+    <v>NETFLIX, INC.</v>
+    <v>NETFLIX, INC.</v>
+    <v>614.99</v>
+    <v>51.048200000000001</v>
+    <v>613.53</v>
+    <v>607.33000000000004</v>
+    <v>606.64</v>
+    <v>432759600</v>
+    <v>NFLX</v>
+    <v>NETFLIX, INC. (XNAS:NFLX)</v>
+    <v>3708803</v>
+    <v>3023924</v>
+    <v>1997</v>
+  </rv>
+  <rv s="2">
+    <v>31</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yjxm&amp;q=XNYS%3aNKE&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1yjxm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>NIKE, INC. (XNYS:NKE)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>128.68</v>
+    <v>88.66</v>
+    <v>1.0872999999999999</v>
+    <v>-0.15</v>
+    <v>0</v>
+    <v>-1.5939999999999999E-3</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
+    <v>83700</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
+    <v>94.8142</v>
+    <v>Textiles &amp; Apparel</v>
+    <v>Stock</v>
+    <v>45379.999781423438</v>
+    <v>33</v>
+    <v>93.43</v>
+    <v>142391200000</v>
+    <v>NIKE, INC.</v>
+    <v>NIKE, INC.</v>
+    <v>94.37</v>
+    <v>27.682600000000001</v>
+    <v>94.13</v>
+    <v>93.98</v>
+    <v>93.98</v>
+    <v>1515122000</v>
+    <v>NKE</v>
+    <v>NIKE, INC. (XNYS:NKE)</v>
+    <v>11331676</v>
+    <v>10288522</v>
+    <v>1969</v>
+  </rv>
+  <rv s="2">
+    <v>34</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yv52&amp;q=XNAS%3aNVDA&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1yv52</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>974</v>
+    <v>258.5</v>
+    <v>1.7265999999999999</v>
+    <v>1.06</v>
+    <v>-2.3019999999999998E-3</v>
+    <v>1.1749999999999998E-3</v>
+    <v>-2.08</v>
+    <v>USD</v>
+    <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company accelerates computing to help solve the computational problems. The Company’s segments include Compute &amp; Networking and Graphics. Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI), cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; NVIDIA AI Enterprise and other software. The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
+    <v>29600</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
+    <v>913</v>
+    <v>Semiconductors &amp; Semiconductor Equipment</v>
+    <v>Stock</v>
+    <v>45379.999984212503</v>
+    <v>36</v>
+    <v>891.93</v>
+    <v>2258900000000</v>
+    <v>NVIDIA CORPORATION</v>
+    <v>NVIDIA CORPORATION</v>
+    <v>900</v>
+    <v>75.658600000000007</v>
+    <v>902.5</v>
+    <v>903.56</v>
+    <v>901.48</v>
+    <v>2500000000</v>
+    <v>NVDA</v>
+    <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
+    <v>43521227</v>
+    <v>60818295</v>
+    <v>1998</v>
+  </rv>
+  <rv s="2">
+    <v>37</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1zqnm&amp;q=XNYS%3aPFE&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1zqnm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>PFIZER INC. (XNYS:PFE)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>42.22</v>
+    <v>25.61</v>
+    <v>0.59650000000000003</v>
+    <v>-0.03</v>
+    <v>3.6040000000000003E-4</v>
+    <v>-1.08E-3</v>
+    <v>0.01</v>
+    <v>USD</v>
+    <v>Pfizer Inc. is a research-based global biopharmaceutical company. The Company is engaged in the discovery, development, manufacture, marketing, sale and distribution of biopharmaceutical products worldwide. Its Biopharma segment is engaged in the science-based biopharmaceutical business. Its Biopharma segment includes the Pfizer Oncology Division, the Pfizer U.S. Commercial Division, and the Pfizer International Commercial Division. Its product categories include oncology, primary care and specialty care. Its Oncology products include Ibrance, Xtandi, Inlyta, Bosulif, Lorbrena, Braftovi, Mektovi, Padcev, Adcetris, Talzenna, Tukysa, Elrexfio and Tivdak. Its primary care products include Eliquis, Nurtec ODT/Vydura, Comirnaty, the Prevnar family, Abrysvo, FSME/IMMUN-TicoVac, Paxlovid and Lucira by Pfizer. Its specialty care products include Xeljanz, Enbrel (outside the U.S. and Canada), Inflectra, Cibinqo, Litfulo, Vyndaqel family, Genotropin, Sulperazon, Zavicefta, Medrol and Panzyga.</v>
+    <v>88000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>66 HUDSON BOULEVARD EAST, NEW YORK, NY, 10001-2192 US</v>
+    <v>28.12</v>
+    <v>Pharmaceuticals</v>
+    <v>Stock</v>
+    <v>45379.999988691408</v>
+    <v>39</v>
+    <v>27.72</v>
+    <v>157135500000</v>
+    <v>PFIZER INC.</v>
+    <v>PFIZER INC.</v>
+    <v>27.82</v>
+    <v>77.327799999999996</v>
+    <v>27.78</v>
+    <v>27.75</v>
+    <v>27.76</v>
+    <v>5662542000</v>
+    <v>PFE</v>
+    <v>PFIZER INC. (XNYS:PFE)</v>
+    <v>40466657</v>
+    <v>45347744</v>
+    <v>1942</v>
+  </rv>
+  <rv s="2">
+    <v>40</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a22k9c&amp;q=XNAS%3aSBUX&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a22k9c</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>115.48</v>
+    <v>89.21</v>
+    <v>0.97270000000000001</v>
+    <v>-0.11</v>
+    <v>1.0939999999999999E-3</v>
+    <v>-1.2019999999999999E-3</v>
+    <v>0.1</v>
+    <v>USD</v>
+    <v>Starbucks Corporations is a coffee company, which roasts, markets and retails specialty coffee in the world. The Company operates in 86 markets and has approximately 38,000 stores worldwide. It has three segments: North America, International and Channel Development. North America segment includes the United States and Canada. International segment includes China, Japan, Asia Pacific, Europe, Middle East and Africa, Latin America and Caribbean. North America and International segments include both the Company-operated and licensed stores. Channel Development segment includes roasted whole bean and ground coffees, Starbucks- and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside the Company-operated and licensed stores. A large portion of its Channel Development business operates under a licensed model of the Global Coffee Alliance with Nestle.</v>
+    <v>381000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>P O Box 34067, SEATTLE, WA, 98124-1067 US</v>
+    <v>92.24</v>
+    <v>Hotels &amp; Entertainment Services</v>
+    <v>Stock</v>
+    <v>45379.999983506248</v>
+    <v>42</v>
+    <v>91.3</v>
+    <v>103471800000</v>
+    <v>STARBUCKS CORPORATION</v>
+    <v>STARBUCKS CORPORATION</v>
+    <v>91.79</v>
+    <v>27.920999999999999</v>
+    <v>91.5</v>
+    <v>91.39</v>
+    <v>91.49</v>
+    <v>1132200000</v>
+    <v>SBUX</v>
+    <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
+    <v>6784293</v>
+    <v>7588102</v>
+    <v>1985</v>
+  </rv>
+  <rv s="2">
+    <v>43</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a246z2&amp;q=XNYS%3aTGT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a246z2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>TARGET CORPORATION (XNYS:TGT)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>177.39500000000001</v>
+    <v>102.93</v>
+    <v>1.1361000000000001</v>
+    <v>2.54</v>
+    <v>-1.072E-3</v>
+    <v>1.4541999999999999E-2</v>
+    <v>-0.19</v>
+    <v>USD</v>
+    <v>Target Corporation is a general merchandise retailer selling products to its guests through its stores and digital channels. The Company serves guests at nearly 2,000 stores and at Target.com. It offers to its customers, referred to as guests, everyday essentials and fashionable, differentiated merchandise at discounted prices. The majority of its stores offer a wide assortment of general merchandise and food. Its merchandise categories include apparel and accessories, beauty and household essentials, food and beverage, hardlines, and home furnishings and decor. Most of its stores larger than 170,000 square feet offer a variety of general merchandise and a full line of food items comparable to traditional supermarkets. Its digital channels include a wide merchandise and food assortment, including many items found in its stores, along with a complementary assortment sold by the Company and third parties. Its brands include A New Day, Ava &amp; Viv, Cloud Island, Favorite Day, and others.</v>
+    <v>415000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1000 Nicollet Mall, MINNEAPOLIS, MN, 55403 US</v>
+    <v>177.39500000000001</v>
+    <v>Diversified Retail</v>
+    <v>Stock</v>
+    <v>45379.997429062503</v>
+    <v>45</v>
+    <v>174.685</v>
+    <v>81816130000</v>
+    <v>TARGET CORPORATION</v>
+    <v>TARGET CORPORATION</v>
+    <v>175</v>
+    <v>19.535299999999999</v>
+    <v>174.67</v>
+    <v>177.21</v>
+    <v>177.02</v>
+    <v>461690200</v>
+    <v>TGT</v>
+    <v>TARGET CORPORATION (XNYS:TGT)</v>
+    <v>3716230</v>
+    <v>4690237</v>
+    <v>1902</v>
+  </rv>
+  <rv s="2">
+    <v>46</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a24p1h&amp;q=XNAS%3aTXN&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a24p1h</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>188.12</v>
+    <v>139.47999999999999</v>
+    <v>1.0306999999999999</v>
+    <v>1.34</v>
+    <v>-2.64E-3</v>
+    <v>7.7510000000000001E-3</v>
+    <v>-0.46</v>
+    <v>USD</v>
+    <v>Texas Instruments Incorporated is a global semiconductor company. The Company designs, manufactures, tests, and sells analog and embedded processing chips for markets, such as industrial, automotive, personal electronics, communications equipment, and enterprise systems. The Company’s segments include Analog and Embedded Processing. The Analog segment includes product lines, such as Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Signal Chain includes products that sense, condition, and measure real-world signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs) and applications processors. The Company also offers DLP products (primarily used to project high-definition images), calculators and certain custom semiconductors known as application-specific integrated circuits (ASICs).</v>
+    <v>34000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
+    <v>175.85</v>
+    <v>Semiconductors &amp; Semiconductor Equipment</v>
+    <v>Stock</v>
+    <v>45379.988374756249</v>
+    <v>48</v>
+    <v>173.33</v>
+    <v>158407000000</v>
+    <v>TEXAS INSTRUMENTS INCORPORATED</v>
+    <v>TEXAS INSTRUMENTS INCORPORATED</v>
+    <v>173.47499999999999</v>
+    <v>24.451699999999999</v>
+    <v>172.87</v>
+    <v>174.21</v>
+    <v>173.75</v>
+    <v>909287700</v>
+    <v>TXN</v>
+    <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
+    <v>4417751</v>
+    <v>5489146</v>
+    <v>1938</v>
   </rv>
   <rv s="2">
     <v>49</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1q6sm&amp;q=XNYS%3aCOTY&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1rvk2&amp;q=XNYS%3aELY&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
     <v>en-US</v>
-    <v>a1q6sm</v>
+    <v>a1rvk2</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
-    <v>COTY INC. (XNYS:COTY)</v>
+    <v>TOPGOLF CALLAWAY BRANDS CORP. (XNYS:MODG)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>13.46</v>
-    <v>9.0150000000000006</v>
-    <v>1.8203</v>
-    <v>7.0000000000000007E-2</v>
-    <v>0</v>
-    <v>6.045E-3</v>
-    <v>0</v>
+    <v>23.01</v>
+    <v>9.84</v>
+    <v>1.8725000000000001</v>
+    <v>0.03</v>
+    <v>-4.3290000000000004E-3</v>
+    <v>1.8590000000000002E-3</v>
+    <v>-7.0000000000000007E-2</v>
     <v>USD</v>
-    <v>Coty Inc. is a beauty company with portfolio of brands across fragrance, color cosmetics, and skin and body care. The Company has a diverse portfolio of brands, which includes both owned and licensed. Its brand portfolio is classified into two segments: Consumer beauty and Prestige. Consumer beauty brand portfolio includes Adidas, Beckham, Biocolor, Bozzano, Bourjois, Bruno Banani, CoverGirl, Jovan, Mexx, Monange, Nautica, Paixao, Rimmel, Risque, Sally Hansen, 007 James Bond. Prestige includes Burberry, Bottega Veneta, Calvin Klein, Cavalli, Chloe, Davidoff, Escada, Gucci, Hugo Boss, Jil Sander, Kylie Jenner, Lancaster, Marc Jacobs, Miu Miu, Orveda, SKKN BY KIM, Tiffany &amp; Co. Its mass beauty brands are primarily sold through hypermarkets, supermarkets, drug stores and pharmacies, mid-tier department stores, traditional food and drug retailers, and dedicated e-commerce retailers. The Company serves consumers around the world in approximately 125 countries and territories.</v>
-    <v>11350</v>
+    <v>Topgolf Callaway Brands Corp. is a golf and active lifestyle company. The Company provides golf entertainment experiences, designs, and manufactures golf equipment, and sells golf and active lifestyle apparel and other accessories through its family of brand names, which include Topgolf, Callaway Golf, Odyssey, TravisMathew, Jack Wolfskin, OGIO, Toptracer and World Golf Tour. Its segments include Topgolf, Golf Equipment, and Active Lifestyle. The Topgolf is a technology-enabled golf entertainment business. Its platform offers open-air golf and entertainment venues as well as its Toptracer ball-tracking technology and digital media platform. The Golf Equipment segment is engaged in designing, manufacturing, and selling a full line of golf equipment, which is comprised of the golf clubs and golf balls product groups. Under Active Lifestyle segment, the Company designs, develops and sells soft good products under the Callaway, TravisMathew, OGIO, and Jack Wolfskin brands.</v>
+    <v>32000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>350 Fifth Avenue, NEW YORK, NY, 10118 US</v>
-    <v>11.82</v>
-    <v>Personal &amp; Household Products &amp; Services</v>
+    <v>2180 RUTHERFORD RD, CARLSBAD, CA, 92008-8815 US</v>
+    <v>16.385000000000002</v>
+    <v>Leisure Products</v>
     <v>Stock</v>
-    <v>45377.999347082812</v>
+    <v>45379.981891573436</v>
     <v>51</v>
-    <v>11.62</v>
-    <v>10366060000</v>
-    <v>COTY INC.</v>
-    <v>COTY INC.</v>
-    <v>11.72</v>
-    <v>33.348700000000001</v>
-    <v>11.58</v>
-    <v>11.65</v>
-    <v>11.65</v>
-    <v>895168900</v>
-    <v>COTY</v>
-    <v>COTY INC. (XNYS:COTY)</v>
-    <v>2689975</v>
-    <v>3555690</v>
-    <v>1995</v>
+    <v>16.077500000000001</v>
+    <v>2968780000</v>
+    <v>TOPGOLF CALLAWAY BRANDS CORP.</v>
+    <v>TOPGOLF CALLAWAY BRANDS CORP.</v>
+    <v>16.13</v>
+    <v>35.039000000000001</v>
+    <v>16.14</v>
+    <v>16.170000000000002</v>
+    <v>16.100000000000001</v>
+    <v>183598000</v>
+    <v>MODG</v>
+    <v>TOPGOLF CALLAWAY BRANDS CORP. (XNYS:MODG)</v>
+    <v>1945008</v>
+    <v>2725005</v>
+    <v>1999</v>
   </rv>
   <rv s="2">
     <v>52</v>
@@ -4689,11 +4689,11 @@
     <v>4</v>
     <v>255.23</v>
     <v>133.02000000000001</v>
-    <v>0.71830000000000005</v>
-    <v>1.31</v>
-    <v>4.2170000000000003E-3</v>
-    <v>5.1900000000000002E-3</v>
-    <v>1.07</v>
+    <v>0.71809999999999996</v>
+    <v>-0.47</v>
+    <v>-4.1720000000000004E-3</v>
+    <v>-1.8640000000000002E-3</v>
+    <v>-1.05</v>
     <v>USD</v>
     <v>Toyota Motor Corp is a Japan-based company engaged in the automobile business, finance business and other businesses. The Company operates in three business segments. The Automobile segment is engaged in the design, manufacture and sale of sedans, minivans, 2box, sports utility vehicles, trucks and related vehicles, as well as related parts and products. The Finance segment is engaged in finance and vehicle leasing business. The Other segment is engaged in the design, manufacture and sale of houses, as well as conduct information communication business. The Company is also engaged in the control of manufacturing and sales companies, as well as public relations and research activities business in North American and Europe. The Company also provides robots, basic research projects, marine and agribio business. The Company also provides electric vehicles and vehicles equipped with the new function Advanced Drive of driving support technology, driver assistance or connected cars services.</v>
     <v>375235</v>
@@ -4701,134 +4701,134 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1, Toyota-cho, TOYOTA-SHI, AICHI-KEN, 471-8571 JP</v>
-    <v>254.78989999999999</v>
+    <v>252.84889999999999</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45377.997856017966</v>
+    <v>45379.990759073436</v>
     <v>54</v>
-    <v>253.39</v>
-    <v>412669400000</v>
+    <v>251.14</v>
+    <v>408872100000</v>
     <v>TOYOTA MOTOR CORPORATION</v>
     <v>TOYOTA MOTOR CORPORATION</v>
-    <v>253.89</v>
-    <v>10.706899999999999</v>
-    <v>252.41</v>
-    <v>253.72</v>
-    <v>254.79</v>
+    <v>251.14</v>
+    <v>10.6959</v>
+    <v>252.15</v>
+    <v>251.68</v>
+    <v>250.63</v>
     <v>1631499000</v>
     <v>TM</v>
     <v>TOYOTA MOTOR CORPORATION (XNYS:TM)</v>
-    <v>214946</v>
-    <v>293773</v>
+    <v>124952</v>
+    <v>282917</v>
     <v>1937</v>
   </rv>
   <rv s="2">
     <v>55</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1u3rw&amp;q=XNAS%3aGOOGL&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1y7rw&amp;q=XNAS%3aVTRS&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
     <v>en-US</v>
-    <v>a1u3rw</v>
+    <v>a1y7rw</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
-    <v>ALPHABET INC. (XNAS:GOOGL)</v>
+    <v>VIATRIS INC. (XNAS:VTRS)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>153.78</v>
-    <v>99.74</v>
-    <v>1.0486</v>
-    <v>0.6</v>
-    <v>2.6550000000000002E-3</v>
-    <v>3.9979999999999998E-3</v>
-    <v>0.4</v>
+    <v>13.6175</v>
+    <v>8.74</v>
+    <v>1.1333</v>
+    <v>0.11</v>
+    <v>5.0249999999999991E-3</v>
+    <v>9.297999999999999E-3</v>
+    <v>0.06</v>
     <v>USD</v>
-    <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
-    <v>182502</v>
+    <v>Viatris Inc. (Viatris) is a global healthcare company. The Company's segments include Developed Markets, Greater China, JANZ, and Emerging Markets. Its Developed Markets segment comprises its operations primarily in North America and Europe. The Greater China segment includes its operations in mainland China, Taiwan and Hong Kong. The JANZ segment consists of its operations in Japan, Australia and New Zealand. The Emerging Markets segment encompasses its presence in more than 125 countries with developing markets and emerging economies, as well as the Company’s ARV franchise. Its portfolio comprises over 1,400 approved molecules across a range of key therapeutic areas, including key brands and complex generics. It operates around 40 manufacturing sites worldwide, which produce oral solid doses, injectables, complex dosage forms and active pharmaceutical ingredients. Its products include Lyrica, Lipitor, Creon, Influvac, Wixela Inhub, EpiPen Auto Injector, Fraxiparine and Yupelri.</v>
+    <v>38000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>152.256</v>
-    <v>Software &amp; IT Services</v>
+    <v>1000 Mylan Boulevard, CANONSBURG, PA, 15317 US</v>
+    <v>12.02</v>
+    <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45377.999997950785</v>
+    <v>45379.960031087503</v>
     <v>57</v>
-    <v>149.97999999999999</v>
-    <v>1880194000000</v>
-    <v>ALPHABET INC.</v>
-    <v>ALPHABET INC.</v>
-    <v>150.22</v>
-    <v>25.873699999999999</v>
-    <v>150.07</v>
-    <v>150.66999999999999</v>
-    <v>151.07</v>
-    <v>12433000000</v>
-    <v>GOOGL</v>
-    <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>22149137</v>
-    <v>34573658</v>
-    <v>2015</v>
+    <v>11.775</v>
+    <v>14179580000</v>
+    <v>VIATRIS INC.</v>
+    <v>VIATRIS INC.</v>
+    <v>11.81</v>
+    <v>279.4708</v>
+    <v>11.83</v>
+    <v>11.94</v>
+    <v>12</v>
+    <v>1187569000</v>
+    <v>VTRS</v>
+    <v>VIATRIS INC. (XNAS:VTRS)</v>
+    <v>11960078</v>
+    <v>10746764</v>
+    <v>2019</v>
   </rv>
   <rv s="2">
     <v>58</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a24p1h&amp;q=XNAS%3aTXN&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a25ya2&amp;q=XNYS%3aWMT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
     <v>en-US</v>
-    <v>a24p1h</v>
+    <v>a25ya2</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
-    <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
+    <v>WALMART INC. (XNYS:WMT)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>188.12</v>
-    <v>139.47999999999999</v>
-    <v>1.0299</v>
-    <v>-2.94</v>
-    <v>1.9650000000000002E-3</v>
-    <v>-1.7208000000000001E-2</v>
-    <v>0.33</v>
+    <v>61.655000000000001</v>
+    <v>47.683300000000003</v>
+    <v>0.499</v>
+    <v>-0.55000000000000004</v>
+    <v>1.662E-4</v>
+    <v>-9.0580000000000001E-3</v>
+    <v>0.01</v>
     <v>USD</v>
-    <v>Texas Instruments Incorporated is a global semiconductor company. The Company designs, manufactures, tests, and sells analog and embedded processing chips for markets, such as industrial, automotive, personal electronics, communications equipment, and enterprise systems. The Company’s segments include Analog and Embedded Processing. The Analog segment includes product lines, such as Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Signal Chain includes products that sense, condition, and measure real-world signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs) and applications processors. The Company also offers DLP products (primarily used to project high-definition images), calculators and certain custom semiconductors known as application-specific integrated circuits (ASICs).</v>
-    <v>34000</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>171.86</v>
-    <v>Semiconductors &amp; Semiconductor Equipment</v>
+    <v>Walmart Inc. is a technology-powered omnichannel retailer. The Company is engaged in the operation of retail and wholesale stores and clubs, as well as e-commerce websites and mobile applications, located throughout the United States, Africa, Canada, Central America, Chile, China, India and Mexico. It operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment includes the Company's mass merchant concept in the United States, as well as e-commerce, which includes omni-channel initiatives and certain other business offerings such as advertising services through Walmart Connect. It operates under the Walmart and Walmart Neighborhood Market brands. The Walmart International segment consists of the Company's operations outside of the United States, as well as e-commerce and omni-channel initiatives. The Sam's Club segment includes the warehouse membership clubs in the United States, as well as e-commerce and omni-channel initiatives.</v>
+    <v>2100000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
+    <v>60.77</v>
+    <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>45377.995970983597</v>
+    <v>45379.999660786722</v>
     <v>60</v>
-    <v>167.51</v>
-    <v>156833900000</v>
-    <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>171.44</v>
-    <v>24.166</v>
-    <v>170.85</v>
-    <v>167.91</v>
-    <v>168.24</v>
-    <v>909287700</v>
-    <v>TXN</v>
-    <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>5898325</v>
-    <v>5479921</v>
-    <v>1938</v>
+    <v>60.16</v>
+    <v>484852800000</v>
+    <v>WALMART INC.</v>
+    <v>WALMART INC.</v>
+    <v>60.66</v>
+    <v>41.555700000000002</v>
+    <v>60.72</v>
+    <v>60.17</v>
+    <v>60.18</v>
+    <v>8058049000</v>
+    <v>WMT</v>
+    <v>WALMART INC. (XNYS:WMT)</v>
+    <v>17535100</v>
+    <v>20794131</v>
+    <v>1969</v>
   </rv>
   <rv s="2">
     <v>61</v>
@@ -6021,199 +6021,199 @@
         <f t="array" ref="B3:V6">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Information Technology")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="9" t="str">
-        <v>2007</v>
+      <c r="C3" s="9">
+        <v>1976</v>
       </c>
       <c r="D3" s="32" t="str">
-        <v>San Francisco, CA</v>
+        <v>Cupertino, CA</v>
       </c>
       <c r="E3" s="32" t="str">
-        <v>Andrew Houston</v>
+        <v>Tim Cook</v>
       </c>
       <c r="F3" s="33">
-        <v>2693</v>
+        <v>161000</v>
       </c>
       <c r="G3" t="str">
         <v>Information Technology</v>
       </c>
       <c r="H3" t="str">
-        <v>Software</v>
+        <v>Technology, Hardware, Storage and Peripherals</v>
       </c>
       <c r="I3">
-        <v>348.8</v>
+        <v>15576.641</v>
       </c>
       <c r="J3">
-        <v>8528.16</v>
+        <v>2671082.3986799996</v>
       </c>
       <c r="K3">
-        <v>-1025.3000000000002</v>
+        <v>-34940</v>
       </c>
       <c r="L3">
-        <v>9553.4599999999991</v>
+        <v>2706022.3986799996</v>
       </c>
       <c r="M3">
-        <v>7.7390055146206782E-2</v>
+        <v>-2.800460530319937E-2</v>
       </c>
       <c r="N3">
-        <v>0.80893801883951988</v>
+        <v>0.44131129577207562</v>
       </c>
       <c r="O3">
-        <v>0.15333992859907947</v>
+        <v>0.29821412265024722</v>
       </c>
       <c r="P3">
-        <v>-0.97988583854308287</v>
+        <v>0.14719174228036858</v>
       </c>
       <c r="Q3">
-        <v>5.1466680590457232E-2</v>
+        <v>8.8789900307742461E-2</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5.5983205038488458E-3</v>
       </c>
       <c r="T3">
-        <v>24.45</v>
+        <v>171.48</v>
       </c>
       <c r="U3">
-        <v>22.91548481095889</v>
+        <v>82.423427496181077</v>
       </c>
       <c r="V3">
-        <v>-6.2761357424994224E-2</v>
+        <v>-0.51934087067774037</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="e" vm="9">
+      <c r="B4" s="21" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="18">
-        <v>1993</v>
+      <c r="C4" s="18" t="str">
+        <v>2007</v>
       </c>
       <c r="D4" s="10" t="str">
-        <v>Santa Clara, CA</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="E4" s="10" t="str">
-        <v>Jen-Hsun Huang</v>
+        <v>Andrew Houston</v>
       </c>
       <c r="F4" s="11">
-        <v>29600</v>
+        <v>2693</v>
       </c>
       <c r="G4" s="10" t="str">
         <v>Information Technology</v>
       </c>
       <c r="H4" t="str">
-        <v>Semiconductors and Semiconductor Equipment</v>
+        <v>Software</v>
       </c>
       <c r="I4">
-        <v>2477</v>
+        <v>348.8</v>
       </c>
       <c r="J4">
-        <v>2292735.9700000002</v>
+        <v>8475.84</v>
       </c>
       <c r="K4">
-        <v>2343</v>
+        <v>-1025.3000000000002</v>
       </c>
       <c r="L4">
-        <v>2290392.9700000002</v>
+        <v>9501.14</v>
       </c>
       <c r="M4">
-        <v>2.2293230289069932E-3</v>
+        <v>7.7390055146206782E-2</v>
       </c>
       <c r="N4">
-        <v>0.56928894490991322</v>
+        <v>0.80893801883951988</v>
       </c>
       <c r="O4">
-        <v>0.20679172536516646</v>
+        <v>0.15333992859907947</v>
       </c>
       <c r="P4">
-        <v>-3.3604336043360432E-2</v>
+        <v>-0.97988583854308287</v>
       </c>
       <c r="Q4">
-        <v>7.4473901113322444E-2</v>
+        <v>5.1466680590457232E-2</v>
       </c>
       <c r="R4">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.7285897948379989E-4</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>925.61</v>
+        <v>24.3</v>
       </c>
       <c r="U4">
-        <v>81.506807987771182</v>
+        <v>22.91548481095889</v>
       </c>
       <c r="V4">
-        <v>-0.91194260218907408</v>
+        <v>-5.6975933705395443E-2</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="e" vm="16">
+      <c r="B5" s="21" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="C5" s="26">
-        <v>1976</v>
+        <v>1993</v>
       </c>
       <c r="D5" s="26" t="str">
-        <v>Cupertino, CA</v>
+        <v>Santa Clara, CA</v>
       </c>
       <c r="E5" s="18" t="str">
-        <v>Tim Cook</v>
+        <v>Jen-Hsun Huang</v>
       </c>
       <c r="F5" s="11">
-        <v>161000</v>
+        <v>29600</v>
       </c>
       <c r="G5" s="10" t="str">
         <v>Information Technology</v>
       </c>
       <c r="H5" t="str">
-        <v>Technology, Hardware, Storage and Peripherals</v>
+        <v>Semiconductors and Semiconductor Equipment</v>
       </c>
       <c r="I5">
-        <v>15576.641</v>
+        <v>2477</v>
       </c>
       <c r="J5">
-        <v>2643511.7441099999</v>
+        <v>2238118.1199999996</v>
       </c>
       <c r="K5">
-        <v>-34940</v>
+        <v>2343</v>
       </c>
       <c r="L5">
-        <v>2678451.7441099999</v>
+        <v>2235775.1199999996</v>
       </c>
       <c r="M5">
-        <v>-2.800460530319937E-2</v>
+        <v>2.2293230289069932E-3</v>
       </c>
       <c r="N5">
-        <v>0.44131129577207562</v>
+        <v>0.56928894490991322</v>
       </c>
       <c r="O5">
-        <v>0.29821412265024722</v>
+        <v>0.20679172536516646</v>
       </c>
       <c r="P5">
-        <v>0.14719174228036858</v>
+        <v>-3.3604336043360432E-2</v>
       </c>
       <c r="Q5">
-        <v>8.8789900307742461E-2</v>
+        <v>7.4473901113322444E-2</v>
       </c>
       <c r="R5">
-        <v>0.96</v>
+        <v>0.16</v>
       </c>
       <c r="S5">
-        <v>5.6567085027399676E-3</v>
+        <v>1.7707733852760193E-4</v>
       </c>
       <c r="T5">
-        <v>169.71</v>
+        <v>903.56</v>
       </c>
       <c r="U5">
-        <v>82.423427496181077</v>
+        <v>81.506807987771182</v>
       </c>
       <c r="V5">
-        <v>-0.51432780922643873</v>
+        <v>-0.90979369606028249</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" t="e" vm="21">
+      <c r="B6" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
       <c r="C6" s="26">
@@ -6238,13 +6238,13 @@
         <v>915</v>
       </c>
       <c r="J6">
-        <v>153637.65</v>
+        <v>159402.15</v>
       </c>
       <c r="K6">
         <v>-2648</v>
       </c>
       <c r="L6">
-        <v>156285.65</v>
+        <v>162050.15</v>
       </c>
       <c r="M6">
         <v>-0.12527461553824648</v>
@@ -6265,16 +6265,16 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="S6">
-        <v>2.9896968614138524E-2</v>
+        <v>2.8815797026577116E-2</v>
       </c>
       <c r="T6">
-        <v>167.91</v>
+        <v>174.21</v>
       </c>
       <c r="U6">
         <v>126.13627883623619</v>
       </c>
       <c r="V6">
-        <v>-0.2487863805834305</v>
+        <v>-0.27595270744368183</v>
       </c>
     </row>
   </sheetData>
@@ -6568,7 +6568,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6656,567 +6656,564 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="e" vm="1">
+      <c r="B3" s="21" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="37">
-        <v>1964</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="11" cm="1">
-        <f t="array" ref="F3">_FV(B3,"Employees")</f>
-        <v>83700</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="11">
-        <f>[1]Main!$C$5</f>
-        <v>1532.1</v>
+      <c r="C3" s="26">
+        <v>1998</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="11">
+        <v>182502</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="18">
+        <f>[1]Main!$D$5</f>
+        <v>12602</v>
       </c>
       <c r="J3" s="11">
-        <f>T3*I3</f>
-        <v>141841.818</v>
-      </c>
-      <c r="K3" s="11">
-        <f>[1]Main!$C$7-[1]Main!$C$8</f>
-        <v>991</v>
+        <f t="shared" ref="J3:J8" si="0">T3*I3</f>
+        <v>1902019.86</v>
+      </c>
+      <c r="K3" s="18">
+        <f>[1]Main!$D$7-[1]Main!$D$8</f>
+        <v>128671</v>
       </c>
       <c r="L3" s="11">
-        <f t="shared" ref="L3:L13" si="0">J3-K3</f>
-        <v>140850.818</v>
-      </c>
-      <c r="M3" s="12">
-        <f>[1]DCF!$AT$59</f>
-        <v>9.6488974523656568E-2</v>
-      </c>
-      <c r="N3" s="13">
-        <f>[1]DCF!$AT$66</f>
-        <v>0.43524610969014194</v>
-      </c>
-      <c r="O3" s="13">
-        <f>[1]DCF!$AT$67</f>
-        <v>0.11548899779370131</v>
-      </c>
-      <c r="P3" s="13">
-        <f>[1]DCF!$AT$68</f>
-        <v>0.18238993710691823</v>
-      </c>
-      <c r="Q3" s="13">
+        <f t="shared" ref="L3:L23" si="1">J3-K3</f>
+        <v>1773348.86</v>
+      </c>
+      <c r="M3" s="34">
+        <f>[1]DCF!$AU$33</f>
+        <v>8.6827702272695095E-2</v>
+      </c>
+      <c r="N3" s="34">
+        <f>[1]DCF!$AU$40</f>
+        <v>0.56625047984020505</v>
+      </c>
+      <c r="O3" s="34">
+        <f>[1]DCF!$AU$41</f>
+        <v>0.27421810445226646</v>
+      </c>
+      <c r="P3" s="34">
+        <f>[1]DCF!$AU$42</f>
+        <v>0.13908559562280529</v>
+      </c>
+      <c r="Q3" s="34">
         <f>[1]WACC!$C$18</f>
-        <v>7.9122001050125471E-2</v>
-      </c>
-      <c r="R3" s="16">
-        <v>1.48</v>
+        <v>8.100938506308529E-2</v>
+      </c>
+      <c r="R3" s="42">
+        <v>0</v>
       </c>
       <c r="S3" s="35">
-        <f>R3/T3</f>
-        <v>1.5986174119680275E-2</v>
-      </c>
-      <c r="T3" s="17" cm="1">
+        <f t="shared" ref="S3:S20" si="2">R3/T3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="28" cm="1">
         <f t="array" ref="T3">_FV(B3,"Price")</f>
-        <v>92.58</v>
-      </c>
-      <c r="U3" s="17">
-        <f>[1]DCF!$BB$65</f>
-        <v>65.754155843270169</v>
+        <v>150.93</v>
+      </c>
+      <c r="U3" s="28">
+        <f>[1]DCF!$BH$38</f>
+        <v>157.50583148184953</v>
       </c>
       <c r="V3" s="13">
-        <f t="shared" ref="V3:V13" si="1">U3/T3-1</f>
-        <v>-0.28975852405195324</v>
+        <f t="shared" ref="V3:V23" si="3">U3/T3-1</f>
+        <v>4.3568750293841552E-2</v>
       </c>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4" s="19" t="e" vm="2">
+      <c r="B4" s="21" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="37">
-        <v>1853</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>95</v>
+      <c r="C4" s="26">
+        <v>1994</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="F4" s="11" cm="1">
         <f t="array" ref="F4">_FV(B4,"Employees")</f>
-        <v>19100</v>
-      </c>
-      <c r="G4" s="10" t="s">
+        <v>1525000</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="18">
         <f>[2]Main!$C$5</f>
-        <v>401.58329700000002</v>
+        <v>10308</v>
       </c>
       <c r="J4" s="11">
-        <f>T4*I4</f>
-        <v>7549.7659836000003</v>
-      </c>
-      <c r="K4" s="11">
+        <f t="shared" si="0"/>
+        <v>1859357.04</v>
+      </c>
+      <c r="K4" s="18">
         <f>[2]Main!$C$7-[2]Main!$C$8</f>
-        <v>-1769.2</v>
+        <v>37750</v>
       </c>
       <c r="L4" s="11">
-        <f t="shared" si="0"/>
-        <v>9318.965983600001</v>
-      </c>
-      <c r="M4" s="12">
-        <f>[2]Model!$AL$45</f>
-        <v>1.685957915896541E-3</v>
-      </c>
-      <c r="N4" s="13">
-        <f>[2]Model!$AL$52</f>
-        <v>0.56897556238873603</v>
-      </c>
-      <c r="O4" s="13">
-        <f>[2]Model!$AL$53</f>
-        <v>7.1775368182553811E-2</v>
-      </c>
-      <c r="P4" s="13">
-        <f>[2]Model!$AL$54</f>
-        <v>4.4175576814856496E-2</v>
-      </c>
-      <c r="Q4" s="13">
+        <f t="shared" si="1"/>
+        <v>1821607.04</v>
+      </c>
+      <c r="M4" s="34">
+        <f>[2]Model!$AU$27</f>
+        <v>0.1182957412988368</v>
+      </c>
+      <c r="N4" s="34">
+        <f>[2]Model!$AU$34</f>
+        <v>0.46982088955000567</v>
+      </c>
+      <c r="O4" s="34">
+        <f>[2]Model!$AU$35</f>
+        <v>6.4114407996033296E-2</v>
+      </c>
+      <c r="P4" s="34">
+        <f>[2]Model!$AU$36</f>
+        <v>0.18989802167372261</v>
+      </c>
+      <c r="Q4" s="34">
         <f>[2]WACC!$C$18</f>
-        <v>6.2908523021171267E-2</v>
-      </c>
-      <c r="R4" s="16">
-        <f>0.12*4</f>
-        <v>0.48</v>
+        <v>6.9881909557268029E-2</v>
+      </c>
+      <c r="R4" s="42">
+        <v>0</v>
       </c>
       <c r="S4" s="35">
-        <f t="shared" ref="S4:S13" si="2">R4/T4</f>
-        <v>2.553191489361702E-2</v>
-      </c>
-      <c r="T4" s="17" cm="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="28" cm="1">
         <f t="array" ref="T4">_FV(B4,"Price")</f>
-        <v>18.8</v>
-      </c>
-      <c r="U4" s="17">
-        <f>[2]Model!$AV$50</f>
-        <v>17.530246384279053</v>
+        <v>180.38</v>
+      </c>
+      <c r="U4" s="28">
+        <f>[2]Model!$BF$30</f>
+        <v>111.83755001316251</v>
       </c>
       <c r="V4" s="13">
-        <f t="shared" si="1"/>
-        <v>-6.7540085942603634E-2</v>
+        <f t="shared" si="3"/>
+        <v>-0.37998918941588578</v>
       </c>
       <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="e" vm="3">
+      <c r="B5" s="21" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>40</v>
+      <c r="C5" s="26">
+        <v>1976</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="F5" s="11" cm="1">
         <f t="array" ref="F5">_FV(B5,"Employees")</f>
-        <v>2693</v>
-      </c>
-      <c r="G5" s="10" t="s">
+        <v>161000</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="39">
         <f>[3]Main!$C$5</f>
-        <v>348.8</v>
+        <v>15576.641</v>
       </c>
       <c r="J5" s="11">
-        <f>I5*T5</f>
-        <v>8528.16</v>
-      </c>
-      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>2671082.3986799996</v>
+      </c>
+      <c r="K5" s="18">
         <f>[3]Main!$C$7-[3]Main!$C$8</f>
-        <v>-1025.3000000000002</v>
+        <v>-34940</v>
       </c>
       <c r="L5" s="11">
-        <f t="shared" si="0"/>
-        <v>9553.4599999999991</v>
-      </c>
-      <c r="M5" s="12">
-        <f>[3]Model!$AO$30</f>
-        <v>7.7390055146206782E-2</v>
-      </c>
-      <c r="N5" s="13">
-        <f>[3]Model!$AO$33</f>
-        <v>0.80893801883951988</v>
-      </c>
-      <c r="O5" s="13">
-        <f>[3]Model!$AO$34</f>
-        <v>0.15333992859907947</v>
-      </c>
-      <c r="P5" s="13">
-        <f>[3]Model!$AO$35</f>
-        <v>-0.97988583854308287</v>
-      </c>
-      <c r="Q5" s="13">
+        <f t="shared" si="1"/>
+        <v>2706022.3986799996</v>
+      </c>
+      <c r="M5" s="34">
+        <f>[3]DCF!$AO$60</f>
+        <v>-2.800460530319937E-2</v>
+      </c>
+      <c r="N5" s="34">
+        <f>[3]DCF!$AO$51</f>
+        <v>0.44131129577207562</v>
+      </c>
+      <c r="O5" s="34">
+        <f>[3]DCF!$AO$52</f>
+        <v>0.29821412265024722</v>
+      </c>
+      <c r="P5" s="34">
+        <f>[3]DCF!$AO$54</f>
+        <v>0.14719174228036858</v>
+      </c>
+      <c r="Q5" s="34">
         <f>[3]WACC!$C$18</f>
-        <v>5.1466680590457232E-2</v>
-      </c>
-      <c r="R5" s="14">
-        <v>0</v>
+        <v>8.8789900307742461E-2</v>
+      </c>
+      <c r="R5" s="26">
+        <f>0.24*4</f>
+        <v>0.96</v>
       </c>
       <c r="S5" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="17" cm="1">
+        <v>5.5983205038488458E-3</v>
+      </c>
+      <c r="T5" s="28" cm="1">
         <f t="array" ref="T5">_FV(B5,"Price")</f>
-        <v>24.45</v>
-      </c>
-      <c r="U5" s="17">
-        <f>[3]Main!$M$3</f>
-        <v>22.91548481095889</v>
+        <v>171.48</v>
+      </c>
+      <c r="U5" s="28">
+        <f>[3]DCF!$AZ$56</f>
+        <v>82.423427496181077</v>
       </c>
       <c r="V5" s="13">
-        <f t="shared" si="1"/>
-        <v>-6.2761357424994224E-2</v>
+        <f t="shared" si="3"/>
+        <v>-0.51934087067774037</v>
       </c>
       <c r="W5"/>
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="e" vm="4">
+      <c r="B6" s="21" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="C6" s="37">
-        <v>1982</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>39</v>
+      <c r="C6" s="26">
+        <v>1966</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="F6" s="11" cm="1">
         <f t="array" ref="F6">_FV(B6,"Employees")</f>
-        <v>32000</v>
-      </c>
-      <c r="G6" s="10" t="s">
+        <v>85000</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" s="11">
-        <f>[4]Main!$C$5</f>
-        <v>201.5</v>
+      <c r="H6" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="18">
+        <f>[4]Model!$AC$14</f>
+        <v>218.3</v>
       </c>
       <c r="J6" s="11">
-        <f>I6*T6</f>
-        <v>3147.43</v>
-      </c>
-      <c r="K6" s="11">
-        <f>[4]Main!$C$7-[4]Main!$C$8</f>
-        <v>-1459.2</v>
+        <f t="shared" si="0"/>
+        <v>17907.149000000001</v>
+      </c>
+      <c r="K6" s="18">
+        <f>[4]Main!$C$8-[4]Main!$C$9</f>
+        <v>-3393</v>
       </c>
       <c r="L6" s="11">
-        <f t="shared" si="0"/>
-        <v>4606.63</v>
-      </c>
-      <c r="M6" s="12">
-        <f>[4]Model!$AR$28</f>
-        <v>0.2752023769820815</v>
-      </c>
-      <c r="N6" s="13">
-        <f>[4]Model!$AR$36</f>
-        <v>0.60342368045649075</v>
-      </c>
-      <c r="O6" s="13">
-        <f>[4]Model!$AR$37</f>
-        <v>6.4269089270966223E-2</v>
-      </c>
-      <c r="P6" s="13">
-        <f>[4]Model!$AR$38</f>
-        <v>-0.11275546159267111</v>
-      </c>
-      <c r="Q6" s="13">
+        <f t="shared" si="1"/>
+        <v>21300.149000000001</v>
+      </c>
+      <c r="M6" s="34">
+        <f>[4]Model!$AO$17</f>
+        <v>-0.10554278317652288</v>
+      </c>
+      <c r="N6" s="34">
+        <f>[4]Model!$AO$24</f>
+        <v>0.21409132143937104</v>
+      </c>
+      <c r="O6" s="34">
+        <f>[4]Model!$AO$25</f>
+        <v>4.1945656399844489E-2</v>
+      </c>
+      <c r="P6" s="34">
+        <f>[4]Model!$AO$26</f>
+        <v>0.19691325172964344</v>
+      </c>
+      <c r="Q6" s="34">
         <f>[4]WACC!$C$18</f>
-        <v>7.3356889927392671E-2</v>
-      </c>
-      <c r="R6" s="14">
-        <v>0</v>
+        <v>6.0884162938071605E-2</v>
+      </c>
+      <c r="R6" s="26">
+        <f>0.92*4</f>
+        <v>3.68</v>
       </c>
       <c r="S6" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="17" cm="1">
+        <v>4.4861635986834084E-2</v>
+      </c>
+      <c r="T6" s="28" cm="1">
         <f t="array" ref="T6">_FV(B6,"Price")</f>
-        <v>15.62</v>
-      </c>
-      <c r="U6" s="17">
-        <f>[4]Model!$AY$33</f>
-        <v>5.8416428061448409</v>
+        <v>82.03</v>
+      </c>
+      <c r="U6" s="28">
+        <f>[4]Model!$BA$24</f>
+        <v>77.398062391903039</v>
       </c>
       <c r="V6" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.62601518526601529</v>
+        <f t="shared" si="3"/>
+        <v>-5.6466385567438326E-2</v>
       </c>
       <c r="W6"/>
     </row>
     <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="e" vm="5">
+      <c r="B7" s="21" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>34</v>
+      <c r="C7" s="38">
+        <v>1967</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="F7" s="11" cm="1">
         <f t="array" ref="F7">_FV(B7,"Employees")</f>
-        <v>2100000</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="11">
+        <v>10200</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="18">
         <f>[5]Main!$C$5</f>
-        <v>2701</v>
+        <v>29.3</v>
       </c>
       <c r="J7" s="11">
-        <f>T7*I7</f>
-        <v>163437.50999999998</v>
-      </c>
-      <c r="K7" s="11">
-        <f>[5]Main!$C$7-[5]Main!$C$8</f>
-        <v>-30590</v>
+        <f t="shared" si="0"/>
+        <v>126.869</v>
+      </c>
+      <c r="K7" s="18">
+        <f>[6]Main!$C$7-[6]Main!$C$8</f>
+        <v>3156</v>
       </c>
       <c r="L7" s="11">
-        <f t="shared" si="0"/>
-        <v>194027.50999999998</v>
-      </c>
-      <c r="M7" s="12">
-        <f>[5]Model!$AT$54</f>
-        <v>6.7280193590965709E-2</v>
-      </c>
-      <c r="N7" s="13">
-        <f>[5]Model!$AT$62</f>
-        <v>0.24140463839525986</v>
-      </c>
-      <c r="O7" s="13">
-        <f>[5]Model!$AT$63</f>
-        <v>3.3417908714208827E-2</v>
-      </c>
-      <c r="P7" s="13">
-        <f>[5]Model!$AT$64</f>
-        <v>0.33638928067700985</v>
-      </c>
-      <c r="Q7" s="13">
+        <f t="shared" si="1"/>
+        <v>-3029.1309999999999</v>
+      </c>
+      <c r="M7" s="34">
+        <f>[5]DCF!$AK$19</f>
+        <v>-0.1109279854349241</v>
+      </c>
+      <c r="N7" s="34">
+        <f>[5]DCF!$AK$26</f>
+        <v>0.34992408101268224</v>
+      </c>
+      <c r="O7" s="34">
+        <f>[5]DCF!$AK$27</f>
+        <v>-1.9502118471657514E-2</v>
+      </c>
+      <c r="P7" s="34">
+        <f>[5]DCF!$AK$28</f>
+        <v>0.36638617478095792</v>
+      </c>
+      <c r="Q7" s="34">
         <f>[5]WACC!$C$18</f>
-        <v>4.7269084447106452E-2</v>
-      </c>
-      <c r="R7" s="14">
-        <f>0.21*4</f>
-        <v>0.84</v>
+        <v>6.1315001319892676E-2</v>
+      </c>
+      <c r="R7" s="42">
+        <v>0</v>
       </c>
       <c r="S7" s="35">
         <f t="shared" si="2"/>
-        <v>1.3882002974714923E-2</v>
-      </c>
-      <c r="T7" s="17" cm="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="28" cm="1">
         <f t="array" ref="T7">_FV(B7,"Price")</f>
-        <v>60.51</v>
-      </c>
-      <c r="U7" s="17">
-        <f>[5]Main!$M$3</f>
-        <v>204.31700834081138</v>
+        <v>4.33</v>
+      </c>
+      <c r="U7" s="28">
+        <f>[5]DCF!$AT$25</f>
+        <v>-119.74897291383805</v>
       </c>
       <c r="V7" s="13">
-        <f t="shared" si="1"/>
-        <v>2.3765825209190448</v>
+        <f t="shared" si="3"/>
+        <v>-28.655651943149664</v>
       </c>
       <c r="W7"/>
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="e" vm="6">
+      <c r="B8" s="21" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>28</v>
+      <c r="C8" s="26">
+        <v>1904</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="F8" s="11" cm="1">
         <f t="array" ref="F8">_FV(B8,"Employees")</f>
-        <v>415000</v>
+        <v>11350</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="11">
-        <f>[6]Main!$C$5</f>
-        <v>462.5</v>
+      <c r="H8" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="18">
+        <f>[7]Main!$C$6</f>
+        <v>922.8</v>
       </c>
       <c r="J8" s="11">
-        <f>T8*I8</f>
-        <v>79846</v>
-      </c>
-      <c r="K8" s="11">
-        <f>[6]Main!$C$7-[6]Main!$C$8</f>
-        <v>-15490</v>
+        <f t="shared" si="0"/>
+        <v>11036.688</v>
+      </c>
+      <c r="K8" s="18">
+        <f>[7]Main!$C$8-[7]Main!$C$9</f>
+        <v>-3241.8</v>
       </c>
       <c r="L8" s="11">
-        <f t="shared" si="0"/>
-        <v>95336</v>
-      </c>
-      <c r="M8" s="12">
-        <f>[6]DCF!$AN$32</f>
-        <v>2.9385406348757082E-2</v>
-      </c>
-      <c r="N8" s="13">
-        <f>[6]DCF!$AN$38</f>
-        <v>0.24643511730205278</v>
-      </c>
-      <c r="O8" s="13">
-        <f>[6]DCF!$AN$39</f>
-        <v>5.7120601173020528E-2</v>
-      </c>
-      <c r="P8" s="13">
-        <f>[6]DCF!$AN$40</f>
-        <v>0.1099431328623126</v>
-      </c>
-      <c r="Q8" s="13">
-        <f>[6]WACC!$C$18</f>
-        <v>5.2633868912505821E-2</v>
-      </c>
-      <c r="R8" s="16">
-        <f>1.1*4</f>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="1"/>
+        <v>14278.488000000001</v>
+      </c>
+      <c r="M8" s="34">
+        <f>[7]Model!$AQ$17</f>
+        <v>4.7074127139733024E-2</v>
+      </c>
+      <c r="N8" s="34">
+        <f>[7]Model!$AQ$24</f>
+        <v>0.6386813345096416</v>
+      </c>
+      <c r="O8" s="34">
+        <f>[7]Model!$AQ$25</f>
+        <v>0.13125438864982633</v>
+      </c>
+      <c r="P8" s="34">
+        <f>[7]Model!$AQ$26</f>
+        <v>0.20402201999775299</v>
+      </c>
+      <c r="Q8" s="34">
+        <f>[7]WACC!$C$18</f>
+        <v>8.3341765758214809E-2</v>
+      </c>
+      <c r="R8" s="42">
+        <v>0</v>
       </c>
       <c r="S8" s="35">
         <f t="shared" si="2"/>
-        <v>2.5486561631139947E-2</v>
-      </c>
-      <c r="T8" s="17" cm="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="28" cm="1">
         <f t="array" ref="T8">_FV(B8,"Price")</f>
-        <v>172.64</v>
-      </c>
-      <c r="U8" s="17">
-        <f>[6]Main!$M$3</f>
-        <v>256.04483672436879</v>
+        <v>11.96</v>
+      </c>
+      <c r="U8" s="28">
+        <f>[7]Model!$AZ$24</f>
+        <v>9.4495128429675077</v>
       </c>
       <c r="V8" s="13">
-        <f t="shared" si="1"/>
-        <v>0.48311420716154307</v>
+        <f t="shared" si="3"/>
+        <v>-0.20990695292913819</v>
       </c>
       <c r="W8"/>
     </row>
     <row r="9" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="e" vm="7">
+      <c r="B9" s="20" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="C9" s="38">
-        <v>1971</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>75</v>
+      <c r="C9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="F9" s="11" cm="1">
         <f t="array" ref="F9">_FV(B9,"Employees")</f>
-        <v>381000</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>29</v>
+        <v>2693</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="18">
-        <f>[7]Main!$C$5</f>
-        <v>1140.5999999999999</v>
+        <v>104</v>
+      </c>
+      <c r="I9" s="11">
+        <f>[8]Main!$C$5</f>
+        <v>348.8</v>
       </c>
       <c r="J9" s="11">
-        <f>T9*I9</f>
-        <v>103064.61599999999</v>
-      </c>
-      <c r="K9" s="18">
-        <f>[7]Main!$C$7-[7]Main!$C$8</f>
-        <v>-10530.9</v>
+        <f>I9*T9</f>
+        <v>8475.84</v>
+      </c>
+      <c r="K9" s="11">
+        <f>[8]Main!$C$7-[8]Main!$C$8</f>
+        <v>-1025.3000000000002</v>
       </c>
       <c r="L9" s="11">
-        <f>J9-K9</f>
-        <v>113595.51599999999</v>
-      </c>
-      <c r="M9" s="34">
-        <f>[7]DCF!$AU$29</f>
-        <v>0.11551210376337573</v>
-      </c>
-      <c r="N9" s="34">
-        <f>[7]DCF!$AU$35</f>
-        <v>0.68286282925093678</v>
-      </c>
-      <c r="O9" s="34">
-        <f>[7]DCF!$AU$36</f>
-        <v>0.19912663027162861</v>
-      </c>
-      <c r="P9" s="34">
-        <f>[7]DCF!$AU$37</f>
-        <v>0.19078416728902159</v>
-      </c>
-      <c r="Q9" s="34">
-        <f>[7]WACC!$C$18</f>
-        <v>7.3566822435085402E-2</v>
-      </c>
-      <c r="R9" s="26">
-        <f>0.57*4</f>
-        <v>2.2799999999999998</v>
+        <f t="shared" si="1"/>
+        <v>9501.14</v>
+      </c>
+      <c r="M9" s="12">
+        <f>[8]Model!$AO$30</f>
+        <v>7.7390055146206782E-2</v>
+      </c>
+      <c r="N9" s="13">
+        <f>[8]Model!$AO$33</f>
+        <v>0.80893801883951988</v>
+      </c>
+      <c r="O9" s="13">
+        <f>[8]Model!$AO$34</f>
+        <v>0.15333992859907947</v>
+      </c>
+      <c r="P9" s="13">
+        <f>[8]Model!$AO$35</f>
+        <v>-0.97988583854308287</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>[8]WACC!$C$18</f>
+        <v>5.1466680590457232E-2</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
       </c>
       <c r="S9" s="35">
         <f t="shared" si="2"/>
-        <v>2.5232403718459494E-2</v>
-      </c>
-      <c r="T9" s="27" cm="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17" cm="1">
         <f t="array" ref="T9">_FV(B9,"Price")</f>
-        <v>90.36</v>
-      </c>
-      <c r="U9" s="28">
-        <f>[7]DCF!$BG$34</f>
-        <v>77.425202139684458</v>
+        <v>24.3</v>
+      </c>
+      <c r="U9" s="17">
+        <f>[8]Main!$M$3</f>
+        <v>22.91548481095889</v>
       </c>
       <c r="V9" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.14314738667901217</v>
+        <f t="shared" si="3"/>
+        <v>-5.6975933705395443E-2</v>
       </c>
       <c r="W9" s="26"/>
     </row>
@@ -7225,79 +7222,79 @@
       <c r="B10" s="21" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="C10" s="38">
-        <v>1997</v>
+      <c r="C10" s="26">
+        <v>2011</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F10" s="11" cm="1">
         <f t="array" ref="F10">_FV(B10,"Employees")</f>
-        <v>13000</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>107</v>
+        <v>720</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="I10" s="18">
-        <f>[8]Main!$C$5</f>
-        <v>444.29199999999997</v>
+        <f>[9]Main!$C$6</f>
+        <v>49</v>
       </c>
       <c r="J10" s="11">
-        <f t="shared" ref="J10:J18" si="3">T10*I10</f>
-        <v>279566.29807999998</v>
+        <f t="shared" ref="J10:J19" si="4">T10*I10</f>
+        <v>10808.42</v>
       </c>
       <c r="K10" s="18">
-        <f>[8]Main!$C$7-[8]Main!$C$8</f>
-        <v>-7405.3749999999991</v>
+        <f>[9]Main!$C$8-[9]Main!$C$9</f>
+        <v>747.61</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" si="0"/>
-        <v>286971.67307999998</v>
+        <f t="shared" si="1"/>
+        <v>10060.81</v>
       </c>
       <c r="M10" s="34">
-        <f>[8]Model!$AR$34</f>
-        <v>6.45739131769969E-2</v>
+        <f>[9]Model!$X$37</f>
+        <v>0.43739157498748304</v>
       </c>
       <c r="N10" s="34">
-        <f>[8]Model!$AR$42</f>
-        <v>0.39370705238403253</v>
+        <f>[9]Model!$X$44</f>
+        <v>0.7324372209847696</v>
       </c>
       <c r="O10" s="34">
-        <f>[8]Model!$AR$43</f>
-        <v>0.17816647187855345</v>
+        <f>[9]Model!$X$45</f>
+        <v>-2.4964743583708725E-2</v>
       </c>
       <c r="P10" s="34">
-        <f>[8]Model!$AR$44</f>
-        <v>0.14665946292208726</v>
+        <f>[9]Model!$X$46</f>
+        <v>9.6191708387241698E-2</v>
       </c>
       <c r="Q10" s="34">
-        <f>[8]WACC!$C$18</f>
-        <v>8.5485106254227783E-2</v>
-      </c>
-      <c r="R10" s="28">
+        <f>[9]WACC!$C$18</f>
+        <v>6.2941209427912495E-2</v>
+      </c>
+      <c r="R10" s="42">
         <v>0</v>
       </c>
       <c r="S10" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10" s="27" cm="1">
+      <c r="T10" s="28" cm="1">
         <f t="array" ref="T10">_FV(B10,"Price")</f>
-        <v>629.24</v>
+        <v>220.58</v>
       </c>
       <c r="U10" s="28">
-        <f>[8]Model!$BF$40</f>
-        <v>210.62723063462789</v>
+        <f>[9]Model!$AJ$42</f>
+        <v>179.69406171187131</v>
       </c>
       <c r="V10" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.66526725790695462</v>
+        <f t="shared" si="3"/>
+        <v>-0.18535650688244032</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7306,160 +7303,160 @@
         <v>#VALUE!</v>
       </c>
       <c r="C11" s="38">
-        <v>1993</v>
+        <v>1879</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F11" s="11" cm="1">
         <f t="array" ref="F11">_FV(B11,"Employees")</f>
-        <v>29600</v>
+        <v>14335</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>108</v>
+        <v>29</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="I11" s="18">
-        <f>[9]Main!$C$6</f>
-        <v>2477</v>
+        <f>[10]Main!$C$6</f>
+        <v>94.4</v>
       </c>
       <c r="J11" s="11">
-        <f t="shared" si="3"/>
-        <v>2292735.9700000002</v>
+        <f t="shared" si="4"/>
+        <v>2690.4</v>
       </c>
       <c r="K11" s="18">
-        <f>[9]Main!$C$8-[9]Main!$C$9</f>
-        <v>2343</v>
+        <f>[10]Main!$C$8-[10]Main!$C$9</f>
+        <v>-150</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" si="0"/>
-        <v>2290392.9700000002</v>
+        <f t="shared" si="1"/>
+        <v>2840.4</v>
       </c>
       <c r="M11" s="34">
-        <f>[9]Model!$AQ$19</f>
-        <v>2.2293230289069932E-3</v>
+        <f>[10]Model!$AM$19</f>
+        <v>-2.3211695123312115E-2</v>
       </c>
       <c r="N11" s="34">
-        <f>[9]Model!$AQ$25</f>
-        <v>0.56928894490991322</v>
+        <f>[10]Model!$AM$26</f>
+        <v>0.31966183022963557</v>
       </c>
       <c r="O11" s="34">
-        <f>[9]Model!$AQ$26</f>
-        <v>0.20679172536516646</v>
+        <f>[10]Model!$AM$27</f>
+        <v>0.10225065691762825</v>
       </c>
       <c r="P11" s="34">
-        <f>[9]Model!$AQ$27</f>
-        <v>-3.3604336043360432E-2</v>
+        <f>[10]Model!$AM$28</f>
+        <v>0.1965065502183406</v>
       </c>
       <c r="Q11" s="34">
-        <f>[9]WACC!$C$18</f>
-        <v>7.4473901113322444E-2</v>
+        <f>[10]WACC!$C$18</f>
+        <v>4.1769407639219235E-2</v>
       </c>
       <c r="R11" s="28">
-        <f>0.04*4</f>
-        <v>0.16</v>
+        <f>0.4*4</f>
+        <v>1.6</v>
       </c>
       <c r="S11" s="35">
         <f t="shared" si="2"/>
-        <v>1.7285897948379989E-4</v>
-      </c>
-      <c r="T11" s="27" cm="1">
+        <v>5.6140350877192984E-2</v>
+      </c>
+      <c r="T11" s="28" cm="1">
         <f t="array" ref="T11">_FV(B11,"Price")</f>
-        <v>925.61</v>
+        <v>28.5</v>
       </c>
       <c r="U11" s="28">
-        <f>[9]Model!$AZ$25</f>
-        <v>81.506807987771182</v>
+        <f>[10]Model!$AV$26</f>
+        <v>99.79887531818369</v>
       </c>
       <c r="V11" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.91194260218907408</v>
+        <f t="shared" si="3"/>
+        <v>2.5017149234450415</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
-      <c r="B12" s="21" t="e" vm="10">
+      <c r="B12" s="19" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="C12" s="38">
-        <v>1849</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>82</v>
+      <c r="C12" s="37">
+        <v>1853</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="F12" s="11" cm="1">
         <f t="array" ref="F12">_FV(B12,"Employees")</f>
-        <v>88000</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="18">
-        <f>[10]Main!$C$6</f>
-        <v>5727</v>
+        <v>19100</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="11">
+        <f>[11]Main!$C$5</f>
+        <v>401.58329700000002</v>
       </c>
       <c r="J12" s="11">
-        <f t="shared" si="3"/>
-        <v>158007.93</v>
-      </c>
-      <c r="K12" s="18">
-        <f>[10]Main!$C$8-[10]Main!$C$9</f>
-        <v>-15920</v>
+        <f t="shared" si="4"/>
+        <v>8027.6501070300001</v>
+      </c>
+      <c r="K12" s="11">
+        <f>[11]Main!$C$7-[11]Main!$C$8</f>
+        <v>-1769.2</v>
       </c>
       <c r="L12" s="11">
-        <f t="shared" si="0"/>
-        <v>173927.93</v>
-      </c>
-      <c r="M12" s="34">
-        <f>[10]Model!$AJ$20</f>
-        <v>0.23426582029327814</v>
-      </c>
-      <c r="N12" s="34">
-        <f>[10]Model!$AJ$27</f>
-        <v>0.65770300305987184</v>
-      </c>
-      <c r="O12" s="34">
-        <f>[10]Model!$AJ$28</f>
-        <v>0.3980026113564103</v>
-      </c>
-      <c r="P12" s="34">
-        <f>[10]Model!$AJ$29</f>
-        <v>8.3797054009819974E-2</v>
-      </c>
-      <c r="Q12" s="34">
-        <f>[10]WACC!$C$18</f>
-        <v>4.6045983502813831E-2</v>
-      </c>
-      <c r="R12" s="28">
-        <f>0.42*4</f>
-        <v>1.68</v>
+        <f t="shared" si="1"/>
+        <v>9796.8501070300008</v>
+      </c>
+      <c r="M12" s="12">
+        <f>[11]Model!$AL$45</f>
+        <v>1.685957915896541E-3</v>
+      </c>
+      <c r="N12" s="13">
+        <f>[11]Model!$AL$52</f>
+        <v>0.56897556238873603</v>
+      </c>
+      <c r="O12" s="13">
+        <f>[11]Model!$AL$53</f>
+        <v>7.1775368182553811E-2</v>
+      </c>
+      <c r="P12" s="13">
+        <f>[11]Model!$AL$54</f>
+        <v>4.4175576814856496E-2</v>
+      </c>
+      <c r="Q12" s="13">
+        <f>[11]WACC!$C$18</f>
+        <v>6.2908523021171267E-2</v>
+      </c>
+      <c r="R12" s="16">
+        <f>0.12*4</f>
+        <v>0.48</v>
       </c>
       <c r="S12" s="35">
         <f t="shared" si="2"/>
-        <v>6.0891627401232329E-2</v>
-      </c>
-      <c r="T12" s="27" cm="1">
+        <v>2.4012006003001501E-2</v>
+      </c>
+      <c r="T12" s="17" cm="1">
         <f t="array" ref="T12">_FV(B12,"Price")</f>
-        <v>27.59</v>
-      </c>
-      <c r="U12" s="28">
-        <f>[10]Model!$AS$27</f>
-        <v>98.220736355377696</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="U12" s="17">
+        <f>[11]Model!$AV$50</f>
+        <v>17.530246384279053</v>
       </c>
       <c r="V12" s="13">
-        <f t="shared" si="1"/>
-        <v>2.5600121912061504</v>
+        <f t="shared" si="3"/>
+        <v>-0.12304920538874164</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7468,159 +7465,157 @@
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="38">
-        <v>1961</v>
+        <v>1997</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F13" s="11" cm="1">
         <f t="array" ref="F13">_FV(B13,"Employees")</f>
-        <v>38000</v>
+        <v>13000</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I13" s="18">
-        <f>[11]Main!$C$6</f>
-        <v>94.4</v>
+        <f>[12]Main!$C$5</f>
+        <v>444.29199999999997</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" si="3"/>
-        <v>1095.04</v>
+        <f t="shared" si="4"/>
+        <v>269831.86035999999</v>
       </c>
       <c r="K13" s="18">
-        <f>[11]Main!$C$8-[11]Main!$C$9</f>
-        <v>-150</v>
+        <f>[12]Main!$C$7-[12]Main!$C$8</f>
+        <v>-7405.3749999999991</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="0"/>
-        <v>1245.04</v>
+        <f t="shared" si="1"/>
+        <v>277237.23535999999</v>
       </c>
       <c r="M13" s="34">
-        <f>[11]Model!$AM$19</f>
-        <v>-2.3211695123312115E-2</v>
+        <f>[12]Model!$AR$34</f>
+        <v>6.45739131769969E-2</v>
       </c>
       <c r="N13" s="34">
-        <f>[11]Model!$AM$26</f>
-        <v>0.31966183022963557</v>
+        <f>[12]Model!$AR$42</f>
+        <v>0.39370705238403253</v>
       </c>
       <c r="O13" s="34">
-        <f>[11]Model!$AM$27</f>
-        <v>0.10225065691762825</v>
+        <f>[12]Model!$AR$43</f>
+        <v>0.17816647187855345</v>
       </c>
       <c r="P13" s="34">
-        <f>[11]Model!$AM$28</f>
-        <v>0.1965065502183406</v>
+        <f>[12]Model!$AR$44</f>
+        <v>0.14665946292208726</v>
       </c>
       <c r="Q13" s="34">
-        <f>[11]WACC!$C$18</f>
-        <v>4.1769407639219235E-2</v>
+        <f>[12]WACC!$C$18</f>
+        <v>8.5485106254227783E-2</v>
       </c>
       <c r="R13" s="28">
-        <f>0.12*4</f>
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="S13" s="35">
         <f t="shared" si="2"/>
-        <v>4.1379310344827586E-2</v>
+        <v>0</v>
       </c>
       <c r="T13" s="27" cm="1">
         <f t="array" ref="T13">_FV(B13,"Price")</f>
-        <v>11.6</v>
+        <v>607.33000000000004</v>
       </c>
       <c r="U13" s="28">
-        <f>[12]Model!$AH$28</f>
-        <v>7.0498590471111235</v>
+        <f>[12]Model!$BF$40</f>
+        <v>210.62723063462789</v>
       </c>
       <c r="V13" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.39225353042145483</v>
+        <f t="shared" si="3"/>
+        <v>-0.6531914599400197</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="e" vm="12">
+      <c r="B14" s="19" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="C14" s="38">
-        <v>1879</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>88</v>
+      <c r="C14" s="37">
+        <v>1964</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F14" s="11" cm="1">
         <f t="array" ref="F14">_FV(B14,"Employees")</f>
-        <v>15200</v>
-      </c>
-      <c r="G14" s="18" t="s">
+        <v>83700</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="18">
-        <f>[11]Main!$C$6</f>
-        <v>94.4</v>
+      <c r="H14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="11">
+        <f>[13]Main!$C$5</f>
+        <v>1532.1</v>
       </c>
       <c r="J14" s="11">
+        <f t="shared" si="4"/>
+        <v>143986.758</v>
+      </c>
+      <c r="K14" s="11">
+        <f>[13]Main!$C$7-[13]Main!$C$8</f>
+        <v>991</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>142995.758</v>
+      </c>
+      <c r="M14" s="12">
+        <f>[13]DCF!$AT$59</f>
+        <v>9.6488974523656568E-2</v>
+      </c>
+      <c r="N14" s="13">
+        <f>[13]DCF!$AT$66</f>
+        <v>0.43524610969014194</v>
+      </c>
+      <c r="O14" s="13">
+        <f>[13]DCF!$AT$67</f>
+        <v>0.11548899779370131</v>
+      </c>
+      <c r="P14" s="13">
+        <f>[13]DCF!$AT$68</f>
+        <v>0.18238993710691823</v>
+      </c>
+      <c r="Q14" s="13">
+        <f>[13]WACC!$C$18</f>
+        <v>7.9127949801735945E-2</v>
+      </c>
+      <c r="R14" s="16">
+        <v>1.48</v>
+      </c>
+      <c r="S14" s="35">
+        <f t="shared" si="2"/>
+        <v>1.5748031496062992E-2</v>
+      </c>
+      <c r="T14" s="17" cm="1">
+        <f t="array" ref="T14">_FV(B14,"Price")</f>
+        <v>93.98</v>
+      </c>
+      <c r="U14" s="17">
+        <f>[13]DCF!$BB$65</f>
+        <v>65.749359513050948</v>
+      </c>
+      <c r="V14" s="13">
         <f t="shared" si="3"/>
-        <v>2536.5280000000002</v>
-      </c>
-      <c r="K14" s="18">
-        <f>[11]Main!$C$8-[11]Main!$C$9</f>
-        <v>-150</v>
-      </c>
-      <c r="L14" s="11">
-        <f>J14-K14</f>
-        <v>2686.5280000000002</v>
-      </c>
-      <c r="M14" s="34">
-        <f>[11]Model!$AM$19</f>
-        <v>-2.3211695123312115E-2</v>
-      </c>
-      <c r="N14" s="34">
-        <f>[11]Model!$AM$26</f>
-        <v>0.31966183022963557</v>
-      </c>
-      <c r="O14" s="34">
-        <f>[11]Model!$AM$27</f>
-        <v>0.10225065691762825</v>
-      </c>
-      <c r="P14" s="34">
-        <f>[11]Model!$AM$28</f>
-        <v>0.1965065502183406</v>
-      </c>
-      <c r="Q14" s="34">
-        <f>[11]WACC!$C$18</f>
-        <v>4.1769407639219235E-2</v>
-      </c>
-      <c r="R14" s="28">
-        <f>0.4*4</f>
-        <v>1.6</v>
-      </c>
-      <c r="S14" s="35">
-        <f>R14/T14</f>
-        <v>5.9545962039449202E-2</v>
-      </c>
-      <c r="T14" s="28" cm="1">
-        <f t="array" ref="T14">_FV(B14,"Price")</f>
-        <v>26.87</v>
-      </c>
-      <c r="U14" s="28">
-        <f>[11]Model!$AV$26</f>
-        <v>99.79887531818369</v>
-      </c>
-      <c r="V14" s="13">
-        <f t="shared" ref="V14:V19" si="4">U14/T14-1</f>
-        <v>2.714137525797681</v>
+        <v>-0.30038987536655726</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -7628,80 +7623,80 @@
       <c r="B15" s="21" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="C15" s="26">
-        <v>1966</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>86</v>
+      <c r="C15" s="38">
+        <v>1993</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="F15" s="11" cm="1">
         <f t="array" ref="F15">_FV(B15,"Employees")</f>
-        <v>85000</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>110</v>
+        <v>29600</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="I15" s="18">
-        <f>[13]Model!$AC$14</f>
-        <v>218.3</v>
+        <f>[14]Main!$C$6</f>
+        <v>2477</v>
       </c>
       <c r="J15" s="11">
+        <f t="shared" si="4"/>
+        <v>2238118.1199999996</v>
+      </c>
+      <c r="K15" s="18">
+        <f>[14]Main!$C$8-[14]Main!$C$9</f>
+        <v>2343</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="1"/>
+        <v>2235775.1199999996</v>
+      </c>
+      <c r="M15" s="34">
+        <f>[14]Model!$AQ$19</f>
+        <v>2.2293230289069932E-3</v>
+      </c>
+      <c r="N15" s="34">
+        <f>[14]Model!$AQ$25</f>
+        <v>0.56928894490991322</v>
+      </c>
+      <c r="O15" s="34">
+        <f>[14]Model!$AQ$26</f>
+        <v>0.20679172536516646</v>
+      </c>
+      <c r="P15" s="34">
+        <f>[14]Model!$AQ$27</f>
+        <v>-3.3604336043360432E-2</v>
+      </c>
+      <c r="Q15" s="34">
+        <f>[14]WACC!$C$18</f>
+        <v>7.4473901113322444E-2</v>
+      </c>
+      <c r="R15" s="28">
+        <f>0.04*4</f>
+        <v>0.16</v>
+      </c>
+      <c r="S15" s="35">
+        <f t="shared" si="2"/>
+        <v>1.7707733852760193E-4</v>
+      </c>
+      <c r="T15" s="27" cm="1">
+        <f t="array" ref="T15">_FV(B15,"Price")</f>
+        <v>903.56</v>
+      </c>
+      <c r="U15" s="28">
+        <f>[14]Model!$AZ$25</f>
+        <v>81.506807987771182</v>
+      </c>
+      <c r="V15" s="13">
         <f t="shared" si="3"/>
-        <v>17477.098000000002</v>
-      </c>
-      <c r="K15" s="18">
-        <f>[13]Main!$C$8-[13]Main!$C$9</f>
-        <v>-3393</v>
-      </c>
-      <c r="L15" s="11">
-        <f>J15-K15</f>
-        <v>20870.098000000002</v>
-      </c>
-      <c r="M15" s="34">
-        <f>[13]Model!$AO$17</f>
-        <v>-0.10554278317652288</v>
-      </c>
-      <c r="N15" s="34">
-        <f>[13]Model!$AO$24</f>
-        <v>0.21409132143937104</v>
-      </c>
-      <c r="O15" s="34">
-        <f>[13]Model!$AO$25</f>
-        <v>4.1945656399844489E-2</v>
-      </c>
-      <c r="P15" s="34">
-        <f>[13]Model!$AO$26</f>
-        <v>0.19691325172964344</v>
-      </c>
-      <c r="Q15" s="34">
-        <f>[13]WACC!$C$18</f>
-        <v>6.0884162938071605E-2</v>
-      </c>
-      <c r="R15" s="26">
-        <f>0.92*4</f>
-        <v>3.68</v>
-      </c>
-      <c r="S15" s="35">
-        <f>R15/T15</f>
-        <v>4.5965525855608293E-2</v>
-      </c>
-      <c r="T15" s="28" cm="1">
-        <f t="array" ref="T15">_FV(B15,"Price")</f>
-        <v>80.06</v>
-      </c>
-      <c r="U15" s="28">
-        <f>[13]Model!$BA$24</f>
-        <v>77.398062391903039</v>
-      </c>
-      <c r="V15" s="13">
-        <f t="shared" si="4"/>
-        <v>-3.3249283138857888E-2</v>
+        <v>-0.90979369606028249</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -7709,237 +7704,239 @@
         <v>#VALUE!</v>
       </c>
       <c r="C16" s="38">
-        <v>1967</v>
+        <v>1849</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F16" s="11" cm="1">
         <f t="array" ref="F16">_FV(B16,"Employees")</f>
-        <v>10200</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>111</v>
+        <v>88000</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="I16" s="18">
-        <f>[14]Main!$C$5</f>
-        <v>29.3</v>
+        <f>[15]Main!$C$6</f>
+        <v>5727</v>
       </c>
       <c r="J16" s="11">
+        <f t="shared" si="4"/>
+        <v>158924.25</v>
+      </c>
+      <c r="K16" s="18">
+        <f>[15]Main!$C$8-[15]Main!$C$9</f>
+        <v>-15920</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="1"/>
+        <v>174844.25</v>
+      </c>
+      <c r="M16" s="34">
+        <f>[15]Model!$AJ$20</f>
+        <v>0.23426582029327814</v>
+      </c>
+      <c r="N16" s="34">
+        <f>[15]Model!$AJ$27</f>
+        <v>0.65770300305987184</v>
+      </c>
+      <c r="O16" s="34">
+        <f>[15]Model!$AJ$28</f>
+        <v>0.3980026113564103</v>
+      </c>
+      <c r="P16" s="34">
+        <f>[15]Model!$AJ$29</f>
+        <v>8.3797054009819974E-2</v>
+      </c>
+      <c r="Q16" s="34">
+        <f>[15]WACC!$C$18</f>
+        <v>4.6045983502813831E-2</v>
+      </c>
+      <c r="R16" s="28">
+        <f>0.42*4</f>
+        <v>1.68</v>
+      </c>
+      <c r="S16" s="35">
+        <f t="shared" si="2"/>
+        <v>6.054054054054054E-2</v>
+      </c>
+      <c r="T16" s="27" cm="1">
+        <f t="array" ref="T16">_FV(B16,"Price")</f>
+        <v>27.75</v>
+      </c>
+      <c r="U16" s="28">
+        <f>[15]Model!$AS$27</f>
+        <v>98.220736355377696</v>
+      </c>
+      <c r="V16" s="13">
         <f t="shared" si="3"/>
-        <v>106.94499999999999</v>
-      </c>
-      <c r="K16" s="18">
-        <f>[15]Main!$C$7-[15]Main!$C$8</f>
-        <v>3156</v>
-      </c>
-      <c r="L16" s="11">
-        <f>J16-K16</f>
-        <v>-3049.0549999999998</v>
-      </c>
-      <c r="M16" s="34">
-        <f>[14]DCF!$AK$19</f>
-        <v>-0.1109279854349241</v>
-      </c>
-      <c r="N16" s="34">
-        <f>[14]DCF!$AK$26</f>
-        <v>0.34992408101268224</v>
-      </c>
-      <c r="O16" s="34">
-        <f>[14]DCF!$AK$27</f>
-        <v>-1.9502118471657514E-2</v>
-      </c>
-      <c r="P16" s="34">
-        <f>[14]DCF!$AK$28</f>
-        <v>0.36638617478095792</v>
-      </c>
-      <c r="Q16" s="34">
-        <f>[14]WACC!$C$18</f>
-        <v>6.1315001319892676E-2</v>
-      </c>
-      <c r="R16" s="42">
-        <v>0</v>
-      </c>
-      <c r="S16" s="35">
-        <f>R16/T16</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="28" cm="1">
-        <f t="array" ref="T16">_FV(B16,"Price")</f>
-        <v>3.65</v>
-      </c>
-      <c r="U16" s="28">
-        <f>[14]DCF!$AT$25</f>
-        <v>-119.74897291383805</v>
-      </c>
-      <c r="V16" s="13">
-        <f t="shared" si="4"/>
-        <v>-33.807937784613166</v>
+        <v>2.5394859947883854</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="C17" s="26">
-        <v>1994</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="38">
+        <v>1971</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>93</v>
+      <c r="E17" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="F17" s="11" cm="1">
         <f t="array" ref="F17">_FV(B17,"Employees")</f>
-        <v>1525000</v>
+        <v>381000</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>111</v>
+      <c r="H17" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="I17" s="18">
         <f>[16]Main!$C$5</f>
-        <v>10308</v>
+        <v>1140.5999999999999</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" si="3"/>
-        <v>1837916.4000000001</v>
+        <f t="shared" si="4"/>
+        <v>104239.43399999999</v>
       </c>
       <c r="K17" s="18">
         <f>[16]Main!$C$7-[16]Main!$C$8</f>
-        <v>37750</v>
+        <v>-10530.9</v>
       </c>
       <c r="L17" s="11">
-        <f>J17-K17</f>
-        <v>1800166.4000000001</v>
+        <f t="shared" si="1"/>
+        <v>114770.33399999999</v>
       </c>
       <c r="M17" s="34">
-        <f>[16]Model!$AU$27</f>
-        <v>0.1182957412988368</v>
+        <f>[16]DCF!$AU$29</f>
+        <v>0.11551210376337573</v>
       </c>
       <c r="N17" s="34">
-        <f>[16]Model!$AU$34</f>
-        <v>0.46982088955000567</v>
+        <f>[16]DCF!$AU$35</f>
+        <v>0.68286282925093678</v>
       </c>
       <c r="O17" s="34">
-        <f>[16]Model!$AU$35</f>
-        <v>6.4114407996033296E-2</v>
+        <f>[16]DCF!$AU$36</f>
+        <v>0.19912663027162861</v>
       </c>
       <c r="P17" s="34">
-        <f>[16]Model!$AU$36</f>
-        <v>0.18989802167372261</v>
+        <f>[16]DCF!$AU$37</f>
+        <v>0.19078416728902159</v>
       </c>
       <c r="Q17" s="34">
         <f>[16]WACC!$C$18</f>
-        <v>6.9881909557268029E-2</v>
-      </c>
-      <c r="R17" s="42">
-        <v>0</v>
+        <v>7.3566822435085402E-2</v>
+      </c>
+      <c r="R17" s="26">
+        <f>0.57*4</f>
+        <v>2.2799999999999998</v>
       </c>
       <c r="S17" s="35">
-        <f>R17/T17</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="28" cm="1">
+        <f t="shared" si="2"/>
+        <v>2.4948024948024946E-2</v>
+      </c>
+      <c r="T17" s="27" cm="1">
         <f t="array" ref="T17">_FV(B17,"Price")</f>
-        <v>178.3</v>
+        <v>91.39</v>
       </c>
       <c r="U17" s="28">
-        <f>[16]Model!$BF$30</f>
-        <v>111.83755001316251</v>
+        <f>[16]DCF!$BG$34</f>
+        <v>77.425202139684458</v>
       </c>
       <c r="V17" s="13">
-        <f t="shared" si="4"/>
-        <v>-0.37275630951675542</v>
+        <f t="shared" si="3"/>
+        <v>-0.15280444097073576</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="e" vm="16">
+      <c r="B18" s="20" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="C18" s="26">
-        <v>1976</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>98</v>
+      <c r="C18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F18" s="11" cm="1">
         <f t="array" ref="F18">_FV(B18,"Employees")</f>
-        <v>161000</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="39">
+        <v>415000</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="11">
         <f>[17]Main!$C$5</f>
-        <v>15576.641</v>
+        <v>462.5</v>
       </c>
       <c r="J18" s="11">
+        <f t="shared" si="4"/>
+        <v>81959.625</v>
+      </c>
+      <c r="K18" s="11">
+        <f>[17]Main!$C$7-[17]Main!$C$8</f>
+        <v>-15490</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="1"/>
+        <v>97449.625</v>
+      </c>
+      <c r="M18" s="12">
+        <f>[17]DCF!$AN$32</f>
+        <v>2.9385406348757082E-2</v>
+      </c>
+      <c r="N18" s="13">
+        <f>[17]DCF!$AN$38</f>
+        <v>0.24643511730205278</v>
+      </c>
+      <c r="O18" s="13">
+        <f>[17]DCF!$AN$39</f>
+        <v>5.7120601173020528E-2</v>
+      </c>
+      <c r="P18" s="13">
+        <f>[17]DCF!$AN$40</f>
+        <v>0.1099431328623126</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>[17]WACC!$C$18</f>
+        <v>5.2633868912505821E-2</v>
+      </c>
+      <c r="R18" s="16">
+        <f>1.1*4</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S18" s="35">
+        <f t="shared" si="2"/>
+        <v>2.4829298572315334E-2</v>
+      </c>
+      <c r="T18" s="17" cm="1">
+        <f t="array" ref="T18">_FV(B18,"Price")</f>
+        <v>177.21</v>
+      </c>
+      <c r="U18" s="17">
+        <f>[17]Main!$M$3</f>
+        <v>256.04483672436879</v>
+      </c>
+      <c r="V18" s="13">
         <f t="shared" si="3"/>
-        <v>2643511.7441099999</v>
-      </c>
-      <c r="K18" s="18">
-        <f>[17]Main!$C$7-[17]Main!$C$8</f>
-        <v>-34940</v>
-      </c>
-      <c r="L18" s="11">
-        <f t="shared" ref="L18:L23" si="5">J18-K18</f>
-        <v>2678451.7441099999</v>
-      </c>
-      <c r="M18" s="34">
-        <f>[17]DCF!$AO$60</f>
-        <v>-2.800460530319937E-2</v>
-      </c>
-      <c r="N18" s="34">
-        <f>[17]DCF!$AO$51</f>
-        <v>0.44131129577207562</v>
-      </c>
-      <c r="O18" s="34">
-        <f>[17]DCF!$AO$52</f>
-        <v>0.29821412265024722</v>
-      </c>
-      <c r="P18" s="34">
-        <f>[17]DCF!$AO$54</f>
-        <v>0.14719174228036858</v>
-      </c>
-      <c r="Q18" s="34">
-        <f>[17]WACC!$C$18</f>
-        <v>8.8789900307742461E-2</v>
-      </c>
-      <c r="R18" s="26">
-        <f>0.24*4</f>
-        <v>0.96</v>
-      </c>
-      <c r="S18" s="35">
-        <f>R18/T18</f>
-        <v>5.6567085027399676E-3</v>
-      </c>
-      <c r="T18" s="28" cm="1">
-        <f t="array" ref="T18">_FV(B18,"Price")</f>
-        <v>169.71</v>
-      </c>
-      <c r="U18" s="28">
-        <f>[17]DCF!$AZ$56</f>
-        <v>82.423427496181077</v>
-      </c>
-      <c r="V18" s="13">
-        <f t="shared" si="4"/>
-        <v>-0.51432780922643873</v>
+        <v>0.44486674975660967</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
@@ -7947,157 +7944,157 @@
         <v>#VALUE!</v>
       </c>
       <c r="C19" s="26">
-        <v>2011</v>
+        <v>1930</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="11" cm="1">
-        <f t="array" ref="F19">_FV(B19,"Employees")</f>
-        <v>720</v>
+        <v>144</v>
+      </c>
+      <c r="F19" s="11">
+        <v>34000</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I19" s="18">
-        <f>[18]Main!$C$6</f>
-        <v>49</v>
+        <f>[18]Main!$C$5</f>
+        <v>915</v>
       </c>
       <c r="J19" s="11">
-        <f>T19*I19</f>
-        <v>10948.56</v>
+        <f t="shared" si="4"/>
+        <v>159402.15</v>
       </c>
       <c r="K19" s="18">
-        <f>[18]Main!$C$8-[18]Main!$C$9</f>
-        <v>747.61</v>
+        <f>[18]Main!$C$7-[18]Main!$C$8</f>
+        <v>-2648</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="5"/>
-        <v>10200.949999999999</v>
+        <f t="shared" si="1"/>
+        <v>162050.15</v>
       </c>
       <c r="M19" s="34">
-        <f>[18]Model!$X$37</f>
-        <v>0.43739157498748304</v>
+        <f>[18]Model!$AV$23</f>
+        <v>-0.12527461553824648</v>
       </c>
       <c r="N19" s="34">
-        <f>[18]Model!$X$44</f>
-        <v>0.7324372209847696</v>
+        <f>[18]Model!$AV$31</f>
+        <v>0.62897425652149097</v>
       </c>
       <c r="O19" s="34">
-        <f>[18]Model!$X$45</f>
-        <v>-2.4964743583708725E-2</v>
+        <f>[18]Model!$AV$32</f>
+        <v>0.41845995776014611</v>
       </c>
       <c r="P19" s="34">
-        <f>[18]Model!$X$46</f>
-        <v>9.6191708387241698E-2</v>
+        <f>[18]Model!$AV$33</f>
+        <v>0.12240496090590455</v>
       </c>
       <c r="Q19" s="34">
         <f>[18]WACC!$C$18</f>
-        <v>6.2941209427912495E-2</v>
-      </c>
-      <c r="R19" s="42">
-        <v>0</v>
+        <v>7.7239621578546455E-2</v>
+      </c>
+      <c r="R19" s="28">
+        <f>[18]Model!$AV$19</f>
+        <v>5.0199999999999996</v>
       </c>
       <c r="S19" s="35">
-        <f t="shared" ref="S19:S23" si="6">R19/T19</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.8815797026577116E-2</v>
       </c>
       <c r="T19" s="28" cm="1">
         <f t="array" ref="T19">_FV(B19,"Price")</f>
-        <v>223.44</v>
+        <v>174.21</v>
       </c>
       <c r="U19" s="28">
-        <f>[18]Model!$AJ$42</f>
-        <v>179.69406171187131</v>
+        <f>[18]Model!$BH$28</f>
+        <v>126.13627883623619</v>
       </c>
       <c r="V19" s="13">
-        <f t="shared" si="4"/>
-        <v>-0.19578382692502994</v>
+        <f t="shared" si="3"/>
+        <v>-0.27595270744368183</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="e" vm="18">
+      <c r="B20" s="19" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="26">
-        <v>1904</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>101</v>
+      <c r="C20" s="37">
+        <v>1982</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="F20" s="11" cm="1">
         <f t="array" ref="F20">_FV(B20,"Employees")</f>
-        <v>11350</v>
+        <v>32000</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="18">
-        <f>[19]Main!$C$6</f>
-        <v>922.8</v>
+        <v>29</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="11">
+        <f>[19]Main!$C$5</f>
+        <v>201.5</v>
       </c>
       <c r="J20" s="11">
-        <f>T20*I20</f>
-        <v>10750.619999999999</v>
-      </c>
-      <c r="K20" s="18">
-        <f>[19]Main!$C$8-[19]Main!$C$9</f>
-        <v>-3241.8</v>
+        <f>I20*T20</f>
+        <v>3258.2550000000006</v>
+      </c>
+      <c r="K20" s="11">
+        <f>[19]Main!$C$7-[19]Main!$C$8</f>
+        <v>-1459.2</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="5"/>
-        <v>13992.419999999998</v>
-      </c>
-      <c r="M20" s="34">
-        <f>[19]Model!$AQ$17</f>
-        <v>4.7074127139733024E-2</v>
-      </c>
-      <c r="N20" s="34">
-        <f>[19]Model!$AQ$24</f>
-        <v>0.6386813345096416</v>
-      </c>
-      <c r="O20" s="34">
-        <f>[19]Model!$AQ$25</f>
-        <v>0.13125438864982633</v>
-      </c>
-      <c r="P20" s="34">
-        <f>[19]Model!$AQ$26</f>
-        <v>0.20402201999775299</v>
-      </c>
-      <c r="Q20" s="34">
+        <f t="shared" si="1"/>
+        <v>4717.4550000000008</v>
+      </c>
+      <c r="M20" s="12">
+        <f>[19]Model!$AR$28</f>
+        <v>0.2752023769820815</v>
+      </c>
+      <c r="N20" s="13">
+        <f>[19]Model!$AR$36</f>
+        <v>0.60342368045649075</v>
+      </c>
+      <c r="O20" s="13">
+        <f>[19]Model!$AR$37</f>
+        <v>6.4269089270966223E-2</v>
+      </c>
+      <c r="P20" s="13">
+        <f>[19]Model!$AR$38</f>
+        <v>-0.11275546159267111</v>
+      </c>
+      <c r="Q20" s="13">
         <f>[19]WACC!$C$18</f>
-        <v>8.3341765758214809E-2</v>
-      </c>
-      <c r="R20" s="42">
+        <v>7.3356889927392671E-2</v>
+      </c>
+      <c r="R20" s="14">
         <v>0</v>
       </c>
       <c r="S20" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T20" s="28" cm="1">
+      <c r="T20" s="17" cm="1">
         <f t="array" ref="T20">_FV(B20,"Price")</f>
-        <v>11.65</v>
-      </c>
-      <c r="U20" s="28">
-        <f>[19]Model!$AZ$24</f>
-        <v>9.4495128429675077</v>
+        <v>16.170000000000002</v>
+      </c>
+      <c r="U20" s="17">
+        <f>[19]Model!$AY$33</f>
+        <v>5.8416428061448409</v>
       </c>
       <c r="V20" s="13">
-        <f t="shared" ref="V20:V23" si="7">U20/T20-1</f>
-        <v>-0.18888301777102945</v>
+        <f t="shared" si="3"/>
+        <v>-0.63873575719574271</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
@@ -8128,15 +8125,15 @@
       </c>
       <c r="J21" s="11">
         <f>T21*I21</f>
-        <v>349010.49437487574</v>
+        <v>346204.32454780361</v>
       </c>
       <c r="K21" s="18">
         <f>[20]Main!$C$21-[20]Main!$C$22</f>
         <v>-179361.89319999999</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="5"/>
-        <v>528372.38757487573</v>
+        <f t="shared" si="1"/>
+        <v>525566.21774780354</v>
       </c>
       <c r="M21" s="34">
         <f>[20]DCF!$AP$28</f>
@@ -8162,172 +8159,175 @@
       <c r="S21" s="35"/>
       <c r="T21" s="28" cm="1">
         <f t="array" ref="T21">_FV(B21,"Price")</f>
-        <v>253.72</v>
+        <v>251.68</v>
       </c>
       <c r="U21" s="28">
         <f>[20]DCF!$BE$43</f>
         <v>586.48012737999534</v>
       </c>
       <c r="V21" s="13">
-        <f t="shared" si="7"/>
-        <v>1.3115250172631066</v>
+        <f t="shared" si="3"/>
+        <v>1.3302611545613292</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="C22" s="26">
-        <v>1998</v>
+      <c r="C22" s="38">
+        <v>1961</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="11">
-        <v>182502</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>142</v>
+        <v>84</v>
+      </c>
+      <c r="F22" s="11" cm="1">
+        <f t="array" ref="F22">_FV(B22,"Employees")</f>
+        <v>38000</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="I22" s="18">
-        <f>[21]Main!$D$5</f>
-        <v>12602</v>
+        <f>[10]Main!$C$6</f>
+        <v>94.4</v>
       </c>
       <c r="J22" s="11">
         <f>T22*I22</f>
-        <v>1898743.3399999999</v>
+        <v>1127.136</v>
       </c>
       <c r="K22" s="18">
-        <f>[21]Main!$D$7-[21]Main!$D$8</f>
-        <v>128671</v>
+        <f>[10]Main!$C$8-[10]Main!$C$9</f>
+        <v>-150</v>
       </c>
       <c r="L22" s="11">
-        <f t="shared" si="5"/>
-        <v>1770072.3399999999</v>
+        <f t="shared" si="1"/>
+        <v>1277.136</v>
       </c>
       <c r="M22" s="34">
-        <f>[21]DCF!$AU$19</f>
-        <v>8.6827702272695095E-2</v>
+        <f>[10]Model!$AM$19</f>
+        <v>-2.3211695123312115E-2</v>
       </c>
       <c r="N22" s="34">
-        <f>[21]DCF!$AU$26</f>
-        <v>0.56625047984020505</v>
+        <f>[10]Model!$AM$26</f>
+        <v>0.31966183022963557</v>
       </c>
       <c r="O22" s="34">
-        <f>[21]DCF!$AU$27</f>
-        <v>0.27421810445226646</v>
+        <f>[10]Model!$AM$27</f>
+        <v>0.10225065691762825</v>
       </c>
       <c r="P22" s="34">
-        <f>[21]DCF!$AU$28</f>
-        <v>0.13908559562280529</v>
+        <f>[10]Model!$AM$28</f>
+        <v>0.1965065502183406</v>
       </c>
       <c r="Q22" s="34">
-        <f>[21]WACC!$C$18</f>
-        <v>8.1008901743441414E-2</v>
-      </c>
-      <c r="R22" s="42">
-        <v>0</v>
+        <f>[10]WACC!$C$18</f>
+        <v>4.1769407639219235E-2</v>
+      </c>
+      <c r="R22" s="28">
+        <f>0.12*4</f>
+        <v>0.48</v>
       </c>
       <c r="S22" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="28" cm="1">
+        <f>R22/T22</f>
+        <v>4.0201005025125629E-2</v>
+      </c>
+      <c r="T22" s="27" cm="1">
         <f t="array" ref="T22">_FV(B22,"Price")</f>
-        <v>150.66999999999999</v>
+        <v>11.94</v>
       </c>
       <c r="U22" s="28">
-        <f>[21]DCF!$BH$24</f>
-        <v>87.041639870124285</v>
+        <f>[21]Model!$AH$28</f>
+        <v>7.0498590471111235</v>
       </c>
       <c r="V22" s="13">
-        <f t="shared" si="7"/>
-        <v>-0.42230278177391456</v>
+        <f t="shared" si="3"/>
+        <v>-0.40955954379303816</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="e" vm="21">
+      <c r="B23" s="20" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="C23" s="26">
-        <v>1930</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="11">
-        <v>34000</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="18">
+      <c r="C23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="11" cm="1">
+        <f t="array" ref="F23">_FV(B23,"Employees")</f>
+        <v>2100000</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="11">
         <f>[22]Main!$C$5</f>
-        <v>915</v>
+        <v>8103</v>
       </c>
       <c r="J23" s="11">
         <f>T23*I23</f>
-        <v>153637.65</v>
-      </c>
-      <c r="K23" s="18">
+        <v>487557.51</v>
+      </c>
+      <c r="K23" s="11">
         <f>[22]Main!$C$7-[22]Main!$C$8</f>
-        <v>-2648</v>
+        <v>-30590</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" si="5"/>
-        <v>156285.65</v>
-      </c>
-      <c r="M23" s="34">
-        <f>[22]Model!$AV$23</f>
-        <v>-0.12527461553824648</v>
-      </c>
-      <c r="N23" s="34">
-        <f>[22]Model!$AV$31</f>
-        <v>0.62897425652149097</v>
-      </c>
-      <c r="O23" s="34">
-        <f>[22]Model!$AV$32</f>
-        <v>0.41845995776014611</v>
-      </c>
-      <c r="P23" s="34">
-        <f>[22]Model!$AV$33</f>
-        <v>0.12240496090590455</v>
-      </c>
-      <c r="Q23" s="34">
+        <f t="shared" si="1"/>
+        <v>518147.51</v>
+      </c>
+      <c r="M23" s="12">
+        <f>[22]Model!$AT$54</f>
+        <v>6.7280193590965709E-2</v>
+      </c>
+      <c r="N23" s="13">
+        <f>[22]Model!$AT$62</f>
+        <v>0.24140463839525986</v>
+      </c>
+      <c r="O23" s="13">
+        <f>[22]Model!$AT$63</f>
+        <v>3.3417908714208827E-2</v>
+      </c>
+      <c r="P23" s="13">
+        <f>[22]Model!$AT$64</f>
+        <v>0.33638928067700985</v>
+      </c>
+      <c r="Q23" s="13">
         <f>[22]WACC!$C$18</f>
-        <v>7.7239621578546455E-2</v>
-      </c>
-      <c r="R23" s="28">
-        <f>[22]Model!$AV$19</f>
-        <v>5.0199999999999996</v>
+        <v>4.4829601391657446E-2</v>
+      </c>
+      <c r="R23" s="14">
+        <f>0.21*4</f>
+        <v>0.84</v>
       </c>
       <c r="S23" s="35">
-        <f t="shared" si="6"/>
-        <v>2.9896968614138524E-2</v>
-      </c>
-      <c r="T23" s="28" cm="1">
+        <f>R23/T23</f>
+        <v>1.396044540468672E-2</v>
+      </c>
+      <c r="T23" s="17" cm="1">
         <f t="array" ref="T23">_FV(B23,"Price")</f>
-        <v>167.91</v>
-      </c>
-      <c r="U23" s="28">
-        <f>[22]Model!$BH$28</f>
-        <v>126.13627883623619</v>
+        <v>60.17</v>
+      </c>
+      <c r="U23" s="17">
+        <f>[22]Main!$M$3</f>
+        <v>68.105669446937128</v>
       </c>
       <c r="V23" s="13">
-        <f t="shared" si="7"/>
-        <v>-0.2487863805834305</v>
+        <f t="shared" si="3"/>
+        <v>0.1318874762661979</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
@@ -8347,7 +8347,11 @@
       <c r="H30" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:V22" xr:uid="{8C57CBD6-140C-4F1E-BA61-90A42EC2B8A9}"/>
+  <autoFilter ref="B2:V22" xr:uid="{8C57CBD6-140C-4F1E-BA61-90A42EC2B8A9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:V23">
+      <sortCondition ref="B2:B22"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="V3:V23">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
@@ -8357,27 +8361,27 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="DBX.xlsx" xr:uid="{9A1EE43E-25FA-4BA1-AB49-BD345A366287}"/>
-    <hyperlink ref="B7" r:id="rId2" display="WMT.xlsx" xr:uid="{C31559EE-07FF-4A24-9DE6-BCD342EBDFE7}"/>
-    <hyperlink ref="B8" r:id="rId3" display="TGT.xlsx" xr:uid="{B3B49652-3DB5-45A2-B15F-38AF5A57C216}"/>
-    <hyperlink ref="B6" r:id="rId4" display="ELY.xlsx" xr:uid="{BEBB2ECC-5EA8-45FB-963D-5D71EFC0299F}"/>
-    <hyperlink ref="B4" r:id="rId5" display="LEVI.xlsx" xr:uid="{AB097870-8ADC-4D60-8EFB-6418132E7C49}"/>
-    <hyperlink ref="B3" r:id="rId6" display="NKE.xlsx" xr:uid="{F86DDB4F-7790-4995-8470-A4D770DDFF61}"/>
-    <hyperlink ref="B9" r:id="rId7" display="SBUX.xlsx" xr:uid="{2A82528C-EE07-42C9-9926-3F17DBBCF741}"/>
-    <hyperlink ref="B10" r:id="rId8" display="NFLX.xlsx" xr:uid="{E5AE7209-050B-46CB-95E3-201244BE4240}"/>
-    <hyperlink ref="B11" r:id="rId9" display="NVDA.xlsx" xr:uid="{93A03CBE-287E-401B-A222-C275BD2C23B0}"/>
-    <hyperlink ref="B12" r:id="rId10" display="PFE.xlsx" xr:uid="{89DFB3F4-D31E-464E-AA81-43D9B611C38A}"/>
-    <hyperlink ref="B13" r:id="rId11" display="VTRS.xlsx" xr:uid="{4FEBCDE5-EF8E-4030-BE8D-8514380EB83A}"/>
-    <hyperlink ref="B14" r:id="rId12" display="FL.xlsx" xr:uid="{E3D7D438-3B49-425C-916A-7EDDACB91245}"/>
-    <hyperlink ref="B16" r:id="rId13" display="BIG.xlsx" xr:uid="{1BE431AE-BA25-43A1-A83B-B85491C1A303}"/>
-    <hyperlink ref="B15" r:id="rId14" display="BBY.xlsx" xr:uid="{DA2125A1-2B57-4D2A-97F1-FF3C9F6D4923}"/>
-    <hyperlink ref="B17" r:id="rId15" display="AMZN.xlsx" xr:uid="{44E4BD95-3179-4544-BAB5-C940AA8D7BCF}"/>
-    <hyperlink ref="B18" r:id="rId16" display="AAPL.xlsx" xr:uid="{F0813E7C-0769-4F03-82E2-470EC83B3577}"/>
-    <hyperlink ref="B19" r:id="rId17" display="DUOL.xlsx" xr:uid="{AA72C6E4-304C-46AC-85D8-20B469630921}"/>
-    <hyperlink ref="B20" r:id="rId18" display="COTY.xlsx" xr:uid="{BCF85E8D-3A96-41F7-96A9-57C75D61AF99}"/>
-    <hyperlink ref="B22" r:id="rId19" display="GOOGL.xlsx" xr:uid="{B14E25EB-BD9A-46E4-A64C-5D732F749CCC}"/>
+    <hyperlink ref="B9" r:id="rId1" display="DBX.xlsx" xr:uid="{9A1EE43E-25FA-4BA1-AB49-BD345A366287}"/>
+    <hyperlink ref="B23" r:id="rId2" display="WMT.xlsx" xr:uid="{C31559EE-07FF-4A24-9DE6-BCD342EBDFE7}"/>
+    <hyperlink ref="B18" r:id="rId3" display="TGT.xlsx" xr:uid="{B3B49652-3DB5-45A2-B15F-38AF5A57C216}"/>
+    <hyperlink ref="B20" r:id="rId4" display="ELY.xlsx" xr:uid="{BEBB2ECC-5EA8-45FB-963D-5D71EFC0299F}"/>
+    <hyperlink ref="B12" r:id="rId5" display="LEVI.xlsx" xr:uid="{AB097870-8ADC-4D60-8EFB-6418132E7C49}"/>
+    <hyperlink ref="B14" r:id="rId6" display="NKE.xlsx" xr:uid="{F86DDB4F-7790-4995-8470-A4D770DDFF61}"/>
+    <hyperlink ref="B17" r:id="rId7" display="SBUX.xlsx" xr:uid="{2A82528C-EE07-42C9-9926-3F17DBBCF741}"/>
+    <hyperlink ref="B13" r:id="rId8" display="NFLX.xlsx" xr:uid="{E5AE7209-050B-46CB-95E3-201244BE4240}"/>
+    <hyperlink ref="B15" r:id="rId9" display="NVDA.xlsx" xr:uid="{93A03CBE-287E-401B-A222-C275BD2C23B0}"/>
+    <hyperlink ref="B16" r:id="rId10" display="PFE.xlsx" xr:uid="{89DFB3F4-D31E-464E-AA81-43D9B611C38A}"/>
+    <hyperlink ref="B22" r:id="rId11" display="VTRS.xlsx" xr:uid="{4FEBCDE5-EF8E-4030-BE8D-8514380EB83A}"/>
+    <hyperlink ref="B11" r:id="rId12" display="FL.xlsx" xr:uid="{E3D7D438-3B49-425C-916A-7EDDACB91245}"/>
+    <hyperlink ref="B7" r:id="rId13" display="BIG.xlsx" xr:uid="{1BE431AE-BA25-43A1-A83B-B85491C1A303}"/>
+    <hyperlink ref="B6" r:id="rId14" display="BBY.xlsx" xr:uid="{DA2125A1-2B57-4D2A-97F1-FF3C9F6D4923}"/>
+    <hyperlink ref="B4" r:id="rId15" display="AMZN.xlsx" xr:uid="{44E4BD95-3179-4544-BAB5-C940AA8D7BCF}"/>
+    <hyperlink ref="B5" r:id="rId16" display="AAPL.xlsx" xr:uid="{F0813E7C-0769-4F03-82E2-470EC83B3577}"/>
+    <hyperlink ref="B10" r:id="rId17" display="DUOL.xlsx" xr:uid="{AA72C6E4-304C-46AC-85D8-20B469630921}"/>
+    <hyperlink ref="B8" r:id="rId18" display="COTY.xlsx" xr:uid="{BCF85E8D-3A96-41F7-96A9-57C75D61AF99}"/>
+    <hyperlink ref="B3" r:id="rId19" display="GOOGL.xlsx" xr:uid="{B14E25EB-BD9A-46E4-A64C-5D732F749CCC}"/>
     <hyperlink ref="B21" r:id="rId20" display="TM.xlsx" xr:uid="{A9C43251-15F2-4E54-83A1-C629C893BBD0}"/>
-    <hyperlink ref="B23" r:id="rId21" display="TXN.xlsx" xr:uid="{C9BF9B6C-43E9-4E95-BC3E-4165AEC1FF9D}"/>
+    <hyperlink ref="B19" r:id="rId21" display="TXN.xlsx" xr:uid="{C9BF9B6C-43E9-4E95-BC3E-4165AEC1FF9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId22"/>
@@ -8416,54 +8420,54 @@
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="e" cm="1" vm="8">
+      <c r="B3" s="21" t="e" cm="1" vm="1">
         <f t="array" ref="B3:V4">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Communication Services")</f>
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="38">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D3" s="18" t="str">
-        <v>Los Gatos, CA</v>
+        <v>Mountain View, California</v>
       </c>
       <c r="E3" s="18" t="str">
-        <v>Ted Sarandos &amp; Greg Peters</v>
+        <v>Sundar Pichai</v>
       </c>
       <c r="F3" s="18">
-        <v>13000</v>
+        <v>182502</v>
       </c>
       <c r="G3" s="18" t="str">
         <v>Communication Services</v>
       </c>
       <c r="H3" s="18" t="str">
-        <v>Entertainment</v>
+        <v>Interactive Media and Services</v>
       </c>
       <c r="I3" s="18">
-        <v>444.29199999999997</v>
+        <v>12602</v>
       </c>
       <c r="J3" s="18">
-        <v>279566.29807999998</v>
+        <v>1902019.86</v>
       </c>
       <c r="K3" s="18">
-        <v>-7405.3749999999991</v>
+        <v>128671</v>
       </c>
       <c r="L3" s="18">
-        <v>286971.67307999998</v>
+        <v>1773348.86</v>
       </c>
       <c r="M3" s="18">
-        <v>6.45739131769969E-2</v>
+        <v>8.6827702272695095E-2</v>
       </c>
       <c r="N3" s="18">
-        <v>0.39370705238403253</v>
+        <v>0.56625047984020505</v>
       </c>
       <c r="O3" s="18">
-        <v>0.17816647187855345</v>
+        <v>0.27421810445226646</v>
       </c>
       <c r="P3" s="18">
-        <v>0.14665946292208726</v>
+        <v>0.13908559562280529</v>
       </c>
       <c r="Q3" s="18">
-        <v>8.5485106254227783E-2</v>
+        <v>8.100938506308529E-2</v>
       </c>
       <c r="R3" s="18">
         <v>0</v>
@@ -8472,63 +8476,63 @@
         <v>0</v>
       </c>
       <c r="T3" s="18">
-        <v>629.24</v>
+        <v>150.93</v>
       </c>
       <c r="U3" s="18">
-        <v>210.62723063462789</v>
+        <v>157.50583148184953</v>
       </c>
       <c r="V3" s="18">
-        <v>-0.66526725790695462</v>
+        <v>4.3568750293841552E-2</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" t="e" vm="20">
+      <c r="B4" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="C4" s="38">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D4" s="18" t="str">
-        <v>Mountain View, California</v>
+        <v>Los Gatos, CA</v>
       </c>
       <c r="E4" s="18" t="str">
-        <v>Sundar Pichai</v>
+        <v>Ted Sarandos &amp; Greg Peters</v>
       </c>
       <c r="F4" s="18">
-        <v>182502</v>
+        <v>13000</v>
       </c>
       <c r="G4" s="18" t="str">
         <v>Communication Services</v>
       </c>
       <c r="H4" s="18" t="str">
-        <v>Interactive Media and Services</v>
+        <v>Entertainment</v>
       </c>
       <c r="I4" s="18">
-        <v>12602</v>
+        <v>444.29199999999997</v>
       </c>
       <c r="J4" s="18">
-        <v>1898743.3399999999</v>
+        <v>269831.86035999999</v>
       </c>
       <c r="K4" s="18">
-        <v>128671</v>
+        <v>-7405.3749999999991</v>
       </c>
       <c r="L4" s="18">
-        <v>1770072.3399999999</v>
+        <v>277237.23535999999</v>
       </c>
       <c r="M4" s="18">
-        <v>8.6827702272695095E-2</v>
+        <v>6.45739131769969E-2</v>
       </c>
       <c r="N4" s="18">
-        <v>0.56625047984020505</v>
+        <v>0.39370705238403253</v>
       </c>
       <c r="O4" s="18">
-        <v>0.27421810445226646</v>
+        <v>0.17816647187855345</v>
       </c>
       <c r="P4" s="18">
-        <v>0.13908559562280529</v>
+        <v>0.14665946292208726</v>
       </c>
       <c r="Q4" s="18">
-        <v>8.1008901743441414E-2</v>
+        <v>8.5485106254227783E-2</v>
       </c>
       <c r="R4" s="18">
         <v>0</v>
@@ -8537,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="T4" s="18">
-        <v>150.66999999999999</v>
+        <v>607.33000000000004</v>
       </c>
       <c r="U4" s="18">
-        <v>87.041639870124285</v>
+        <v>210.62723063462789</v>
       </c>
       <c r="V4" s="18">
-        <v>-0.42230278177391456</v>
+        <v>-0.6531914599400197</v>
       </c>
     </row>
   </sheetData>
@@ -8582,184 +8586,184 @@
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="e" cm="1" vm="1">
+      <c r="B3" s="19" t="e" cm="1" vm="2">
         <f t="array" ref="B3:V12">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Consumer Discretionary")</f>
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="9">
-        <v>1964</v>
+        <v>1994</v>
       </c>
       <c r="D3" s="17" t="str">
-        <v>Beaverton, OR</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="E3" s="11" t="str">
-        <v>John Donahoe II</v>
+        <v>Andrew Jassy</v>
       </c>
       <c r="F3" s="11">
-        <v>83700</v>
+        <v>1525000</v>
       </c>
       <c r="G3" s="11" t="str">
         <v>Consumer Discretionary</v>
       </c>
       <c r="H3" s="18" t="str">
-        <v>Textiles, Apparel and Luxury Goods</v>
+        <v>Broadline Retail</v>
       </c>
       <c r="I3">
-        <v>1532.1</v>
+        <v>10308</v>
       </c>
       <c r="J3">
-        <v>141841.818</v>
+        <v>1859357.04</v>
       </c>
       <c r="K3">
-        <v>991</v>
+        <v>37750</v>
       </c>
       <c r="L3">
-        <v>140850.818</v>
+        <v>1821607.04</v>
       </c>
       <c r="M3">
-        <v>9.6488974523656568E-2</v>
+        <v>0.1182957412988368</v>
       </c>
       <c r="N3">
-        <v>0.43524610969014194</v>
+        <v>0.46982088955000567</v>
       </c>
       <c r="O3">
-        <v>0.11548899779370131</v>
+        <v>6.4114407996033296E-2</v>
       </c>
       <c r="P3">
-        <v>0.18238993710691823</v>
+        <v>0.18989802167372261</v>
       </c>
       <c r="Q3">
-        <v>7.9122001050125471E-2</v>
+        <v>6.9881909557268029E-2</v>
       </c>
       <c r="R3">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.5986174119680275E-2</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>92.58</v>
+        <v>180.38</v>
       </c>
       <c r="U3">
-        <v>65.754155843270169</v>
+        <v>111.83755001316251</v>
       </c>
       <c r="V3">
-        <v>-0.28975852405195324</v>
+        <v>-0.37998918941588578</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="e" vm="2">
+      <c r="B4" s="19" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C4" s="9">
-        <v>1853</v>
+        <v>1966</v>
       </c>
       <c r="D4" s="17" t="str">
-        <v>San Francisco, CA</v>
+        <v>Richfield, Minnesota</v>
       </c>
       <c r="E4" s="11" t="str">
-        <v>Michelle Gass</v>
+        <v>Corie Barry</v>
       </c>
       <c r="F4" s="11">
-        <v>19100</v>
+        <v>85000</v>
       </c>
       <c r="G4" s="11" t="str">
         <v>Consumer Discretionary</v>
       </c>
       <c r="H4" s="18" t="str">
-        <v>Textiles, Apparel and Luxury Goods</v>
+        <v>Specialty Retail</v>
       </c>
       <c r="I4">
-        <v>401.58329700000002</v>
+        <v>218.3</v>
       </c>
       <c r="J4">
-        <v>7549.7659836000003</v>
+        <v>17907.149000000001</v>
       </c>
       <c r="K4">
-        <v>-1769.2</v>
+        <v>-3393</v>
       </c>
       <c r="L4">
-        <v>9318.965983600001</v>
+        <v>21300.149000000001</v>
       </c>
       <c r="M4">
-        <v>1.685957915896541E-3</v>
+        <v>-0.10554278317652288</v>
       </c>
       <c r="N4">
-        <v>0.56897556238873603</v>
+        <v>0.21409132143937104</v>
       </c>
       <c r="O4">
-        <v>7.1775368182553811E-2</v>
+        <v>4.1945656399844489E-2</v>
       </c>
       <c r="P4">
-        <v>4.4175576814856496E-2</v>
+        <v>0.19691325172964344</v>
       </c>
       <c r="Q4">
-        <v>6.2908523021171267E-2</v>
+        <v>6.0884162938071605E-2</v>
       </c>
       <c r="R4">
-        <v>0.48</v>
+        <v>3.68</v>
       </c>
       <c r="S4">
-        <v>2.553191489361702E-2</v>
+        <v>4.4861635986834084E-2</v>
       </c>
       <c r="T4">
-        <v>18.8</v>
+        <v>82.03</v>
       </c>
       <c r="U4">
-        <v>17.530246384279053</v>
+        <v>77.398062391903039</v>
       </c>
       <c r="V4">
-        <v>-6.7540085942603634E-2</v>
+        <v>-5.6466385567438326E-2</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="e" vm="4">
+      <c r="B5" s="19" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="C5" s="9">
-        <v>1982</v>
+        <v>1967</v>
       </c>
       <c r="D5" s="17" t="str">
-        <v>Carlsbad, CA</v>
+        <v>Columbus, OH</v>
       </c>
       <c r="E5" s="11" t="str">
-        <v>Oliver Brewer III</v>
+        <v>Bruce Thorn</v>
       </c>
       <c r="F5" s="11">
-        <v>32000</v>
+        <v>10200</v>
       </c>
       <c r="G5" s="11" t="str">
         <v>Consumer Discretionary</v>
       </c>
       <c r="H5" s="18" t="str">
-        <v>Leisure Products</v>
+        <v>Broadline Retail</v>
       </c>
       <c r="I5">
-        <v>201.5</v>
+        <v>29.3</v>
       </c>
       <c r="J5">
-        <v>3147.43</v>
+        <v>126.869</v>
       </c>
       <c r="K5">
-        <v>-1459.2</v>
+        <v>3156</v>
       </c>
       <c r="L5">
-        <v>4606.63</v>
+        <v>-3029.1309999999999</v>
       </c>
       <c r="M5">
-        <v>0.2752023769820815</v>
+        <v>-0.1109279854349241</v>
       </c>
       <c r="N5">
-        <v>0.60342368045649075</v>
+        <v>0.34992408101268224</v>
       </c>
       <c r="O5">
-        <v>6.4269089270966223E-2</v>
+        <v>-1.9502118471657514E-2</v>
       </c>
       <c r="P5">
-        <v>-0.11275546159267111</v>
+        <v>0.36638617478095792</v>
       </c>
       <c r="Q5">
-        <v>7.3356889927392671E-2</v>
+        <v>6.1315001319892676E-2</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -8768,82 +8772,82 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>15.62</v>
+        <v>4.33</v>
       </c>
       <c r="U5">
-        <v>5.8416428061448409</v>
+        <v>-119.74897291383805</v>
       </c>
       <c r="V5">
-        <v>-0.62601518526601529</v>
+        <v>-28.655651943149664</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="e" vm="7">
+      <c r="B6" s="21" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="C6" s="9">
-        <v>1971</v>
+        <v>2011</v>
       </c>
       <c r="D6" s="17" t="str">
-        <v>Seattle, WA</v>
+        <v>Pittsburgh, PA</v>
       </c>
       <c r="E6" s="18" t="str">
-        <v>Laxman Narasimhan</v>
+        <v>Dr. Luis Alfonso von Ahn</v>
       </c>
       <c r="F6" s="11">
-        <v>381000</v>
+        <v>720</v>
       </c>
       <c r="G6" s="18" t="str">
         <v>Consumer Discretionary</v>
       </c>
       <c r="H6" s="18" t="str">
-        <v>Hotels, Restaurants and Leisure</v>
+        <v>Diversified Consumer Services</v>
       </c>
       <c r="I6">
-        <v>1140.5999999999999</v>
+        <v>49</v>
       </c>
       <c r="J6">
-        <v>103064.61599999999</v>
+        <v>10808.42</v>
       </c>
       <c r="K6">
-        <v>-10530.9</v>
+        <v>747.61</v>
       </c>
       <c r="L6">
-        <v>113595.51599999999</v>
+        <v>10060.81</v>
       </c>
       <c r="M6">
-        <v>0.11551210376337573</v>
+        <v>0.43739157498748304</v>
       </c>
       <c r="N6">
-        <v>0.68286282925093678</v>
+        <v>0.7324372209847696</v>
       </c>
       <c r="O6">
-        <v>0.19912663027162861</v>
+        <v>-2.4964743583708725E-2</v>
       </c>
       <c r="P6">
-        <v>0.19078416728902159</v>
+        <v>9.6191708387241698E-2</v>
       </c>
       <c r="Q6">
-        <v>7.3566822435085402E-2</v>
+        <v>6.2941209427912495E-2</v>
       </c>
       <c r="R6">
-        <v>2.2799999999999998</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>2.5232403718459494E-2</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>90.36</v>
+        <v>220.58</v>
       </c>
       <c r="U6">
-        <v>77.425202139684458</v>
+        <v>179.69406171187131</v>
       </c>
       <c r="V6">
-        <v>-0.14314738667901217</v>
+        <v>-0.18535650688244032</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="e" vm="12">
+      <c r="B7" s="21" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
       <c r="C7" s="26">
@@ -8856,7 +8860,7 @@
         <v>Mary Dillon</v>
       </c>
       <c r="F7" s="11">
-        <v>15200</v>
+        <v>14335</v>
       </c>
       <c r="G7" s="18" t="str">
         <v>Consumer Discretionary</v>
@@ -8868,13 +8872,13 @@
         <v>94.4</v>
       </c>
       <c r="J7">
-        <v>2536.5280000000002</v>
+        <v>2690.4</v>
       </c>
       <c r="K7">
         <v>-150</v>
       </c>
       <c r="L7">
-        <v>2686.5280000000002</v>
+        <v>2840.4</v>
       </c>
       <c r="M7">
         <v>-2.3211695123312115E-2</v>
@@ -8895,146 +8899,146 @@
         <v>1.6</v>
       </c>
       <c r="S7">
-        <v>5.9545962039449202E-2</v>
+        <v>5.6140350877192984E-2</v>
       </c>
       <c r="T7">
-        <v>26.87</v>
+        <v>28.5</v>
       </c>
       <c r="U7">
         <v>99.79887531818369</v>
       </c>
       <c r="V7">
-        <v>2.714137525797681</v>
+        <v>2.5017149234450415</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="e" vm="13">
+      <c r="B8" s="21" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C8" s="26">
-        <v>1966</v>
+        <v>1853</v>
       </c>
       <c r="D8" s="17" t="str">
-        <v>Richfield, Minnesota</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="E8" s="18" t="str">
-        <v>Corie Barry</v>
+        <v>Michelle Gass</v>
       </c>
       <c r="F8" s="11">
-        <v>85000</v>
+        <v>19100</v>
       </c>
       <c r="G8" s="18" t="str">
         <v>Consumer Discretionary</v>
       </c>
       <c r="H8" s="18" t="str">
-        <v>Specialty Retail</v>
+        <v>Textiles, Apparel and Luxury Goods</v>
       </c>
       <c r="I8">
-        <v>218.3</v>
+        <v>401.58329700000002</v>
       </c>
       <c r="J8">
-        <v>17477.098000000002</v>
+        <v>8027.6501070300001</v>
       </c>
       <c r="K8">
-        <v>-3393</v>
+        <v>-1769.2</v>
       </c>
       <c r="L8">
-        <v>20870.098000000002</v>
+        <v>9796.8501070300008</v>
       </c>
       <c r="M8">
-        <v>-0.10554278317652288</v>
+        <v>1.685957915896541E-3</v>
       </c>
       <c r="N8">
-        <v>0.21409132143937104</v>
+        <v>0.56897556238873603</v>
       </c>
       <c r="O8">
-        <v>4.1945656399844489E-2</v>
+        <v>7.1775368182553811E-2</v>
       </c>
       <c r="P8">
-        <v>0.19691325172964344</v>
+        <v>4.4175576814856496E-2</v>
       </c>
       <c r="Q8">
-        <v>6.0884162938071605E-2</v>
+        <v>6.2908523021171267E-2</v>
       </c>
       <c r="R8">
-        <v>3.68</v>
+        <v>0.48</v>
       </c>
       <c r="S8">
-        <v>4.5965525855608293E-2</v>
+        <v>2.4012006003001501E-2</v>
       </c>
       <c r="T8">
-        <v>80.06</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="U8">
-        <v>77.398062391903039</v>
+        <v>17.530246384279053</v>
       </c>
       <c r="V8">
-        <v>-3.3249283138857888E-2</v>
+        <v>-0.12304920538874164</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="e" vm="14">
+      <c r="B9" s="21" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="26">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="D9" s="17" t="str">
-        <v>Columbus, OH</v>
+        <v>Beaverton, OR</v>
       </c>
       <c r="E9" s="26" t="str">
-        <v>Bruce Thorn</v>
+        <v>John Donahoe II</v>
       </c>
       <c r="F9" s="11">
-        <v>10200</v>
+        <v>83700</v>
       </c>
       <c r="G9" t="str">
         <v>Consumer Discretionary</v>
       </c>
       <c r="H9" s="18" t="str">
-        <v>Broadline Retail</v>
+        <v>Textiles, Apparel and Luxury Goods</v>
       </c>
       <c r="I9">
-        <v>29.3</v>
+        <v>1532.1</v>
       </c>
       <c r="J9">
-        <v>106.94499999999999</v>
+        <v>143986.758</v>
       </c>
       <c r="K9">
-        <v>3156</v>
+        <v>991</v>
       </c>
       <c r="L9">
-        <v>-3049.0549999999998</v>
+        <v>142995.758</v>
       </c>
       <c r="M9">
-        <v>-0.1109279854349241</v>
+        <v>9.6488974523656568E-2</v>
       </c>
       <c r="N9">
-        <v>0.34992408101268224</v>
+        <v>0.43524610969014194</v>
       </c>
       <c r="O9">
-        <v>-1.9502118471657514E-2</v>
+        <v>0.11548899779370131</v>
       </c>
       <c r="P9">
-        <v>0.36638617478095792</v>
+        <v>0.18238993710691823</v>
       </c>
       <c r="Q9">
-        <v>6.1315001319892676E-2</v>
+        <v>7.9127949801735945E-2</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.5748031496062992E-2</v>
       </c>
       <c r="T9">
-        <v>3.65</v>
+        <v>93.98</v>
       </c>
       <c r="U9">
-        <v>-119.74897291383805</v>
+        <v>65.749359513050948</v>
       </c>
       <c r="V9">
-        <v>-33.807937784613166</v>
+        <v>-0.30038987536655726</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
@@ -9042,114 +9046,114 @@
         <v>#VALUE!</v>
       </c>
       <c r="C10" s="26">
-        <v>1994</v>
+        <v>1971</v>
       </c>
       <c r="D10" s="17" t="str">
         <v>Seattle, WA</v>
       </c>
       <c r="E10" s="26" t="str">
-        <v>Andrew Jassy</v>
+        <v>Laxman Narasimhan</v>
       </c>
       <c r="F10" s="11">
-        <v>1525000</v>
+        <v>381000</v>
       </c>
       <c r="G10" t="str">
         <v>Consumer Discretionary</v>
       </c>
       <c r="H10" s="18" t="str">
-        <v>Broadline Retail</v>
+        <v>Hotels, Restaurants and Leisure</v>
       </c>
       <c r="I10">
-        <v>10308</v>
+        <v>1140.5999999999999</v>
       </c>
       <c r="J10">
-        <v>1837916.4000000001</v>
+        <v>104239.43399999999</v>
       </c>
       <c r="K10">
-        <v>37750</v>
+        <v>-10530.9</v>
       </c>
       <c r="L10">
-        <v>1800166.4000000001</v>
+        <v>114770.33399999999</v>
       </c>
       <c r="M10">
-        <v>0.1182957412988368</v>
+        <v>0.11551210376337573</v>
       </c>
       <c r="N10">
-        <v>0.46982088955000567</v>
+        <v>0.68286282925093678</v>
       </c>
       <c r="O10">
-        <v>6.4114407996033296E-2</v>
+        <v>0.19912663027162861</v>
       </c>
       <c r="P10">
-        <v>0.18989802167372261</v>
+        <v>0.19078416728902159</v>
       </c>
       <c r="Q10">
-        <v>6.9881909557268029E-2</v>
+        <v>7.3566822435085402E-2</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.4948024948024946E-2</v>
       </c>
       <c r="T10">
-        <v>178.3</v>
+        <v>91.39</v>
       </c>
       <c r="U10">
-        <v>111.83755001316251</v>
+        <v>77.425202139684458</v>
       </c>
       <c r="V10">
-        <v>-0.37275630951675542</v>
+        <v>-0.15280444097073576</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="e" vm="17">
+      <c r="B11" s="21" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
       <c r="C11" s="26">
-        <v>2011</v>
+        <v>1982</v>
       </c>
       <c r="D11" s="17" t="str">
-        <v>Pittsburgh, PA</v>
+        <v>Carlsbad, CA</v>
       </c>
       <c r="E11" s="18" t="str">
-        <v>Dr. Luis Alfonso von Ahn</v>
+        <v>Oliver Brewer III</v>
       </c>
       <c r="F11" s="11">
-        <v>720</v>
+        <v>32000</v>
       </c>
       <c r="G11" t="str">
         <v>Consumer Discretionary</v>
       </c>
       <c r="H11" s="18" t="str">
-        <v>Diversified Consumer Services</v>
+        <v>Leisure Products</v>
       </c>
       <c r="I11">
-        <v>49</v>
+        <v>201.5</v>
       </c>
       <c r="J11">
-        <v>10948.56</v>
+        <v>3258.2550000000006</v>
       </c>
       <c r="K11">
-        <v>747.61</v>
+        <v>-1459.2</v>
       </c>
       <c r="L11">
-        <v>10200.949999999999</v>
+        <v>4717.4550000000008</v>
       </c>
       <c r="M11">
-        <v>0.43739157498748304</v>
+        <v>0.2752023769820815</v>
       </c>
       <c r="N11">
-        <v>0.7324372209847696</v>
+        <v>0.60342368045649075</v>
       </c>
       <c r="O11">
-        <v>-2.4964743583708725E-2</v>
+        <v>6.4269089270966223E-2</v>
       </c>
       <c r="P11">
-        <v>9.6191708387241698E-2</v>
+        <v>-0.11275546159267111</v>
       </c>
       <c r="Q11">
-        <v>6.2941209427912495E-2</v>
+        <v>7.3356889927392671E-2</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -9158,13 +9162,13 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>223.44</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="U11">
-        <v>179.69406171187131</v>
+        <v>5.8416428061448409</v>
       </c>
       <c r="V11">
-        <v>-0.19578382692502994</v>
+        <v>-0.63873575719574271</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
@@ -9193,13 +9197,13 @@
         <v>1375.573444643212</v>
       </c>
       <c r="J12">
-        <v>349010.49437487574</v>
+        <v>346204.32454780361</v>
       </c>
       <c r="K12">
         <v>-179361.89319999999</v>
       </c>
       <c r="L12">
-        <v>528372.38757487573</v>
+        <v>525566.21774780354</v>
       </c>
       <c r="M12">
         <v>0.18403064777276446</v>
@@ -9223,13 +9227,13 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>253.72</v>
+        <v>251.68</v>
       </c>
       <c r="U12">
         <v>586.48012737999534</v>
       </c>
       <c r="V12">
-        <v>1.3115250172631066</v>
+        <v>1.3302611545613292</v>
       </c>
     </row>
   </sheetData>
@@ -9279,73 +9283,73 @@
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="e" cm="1" vm="5">
+      <c r="B3" s="19" t="e" cm="1" vm="6">
         <f t="array" ref="B3:V5">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Consumer Staples")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="9" t="str">
-        <v>1945</v>
+      <c r="C3" s="9">
+        <v>1904</v>
       </c>
       <c r="D3" s="17" t="str">
-        <v>Bentonville, AR</v>
+        <v>New York, NY</v>
       </c>
       <c r="E3" s="40" t="str">
-        <v>Douglas McMillon</v>
+        <v>Sue Nabi</v>
       </c>
       <c r="F3" s="11">
-        <v>2100000</v>
+        <v>11350</v>
       </c>
       <c r="G3" s="11" t="str">
         <v>Consumer Staples</v>
       </c>
       <c r="H3" s="41" t="str">
-        <v>Consumer Staples Distribution &amp; Retail</v>
+        <v>Personal Care Products</v>
       </c>
       <c r="I3" s="9">
-        <v>2701</v>
+        <v>922.8</v>
       </c>
       <c r="J3">
-        <v>163437.50999999998</v>
+        <v>11036.688</v>
       </c>
       <c r="K3">
-        <v>-30590</v>
+        <v>-3241.8</v>
       </c>
       <c r="L3">
-        <v>194027.50999999998</v>
+        <v>14278.488000000001</v>
       </c>
       <c r="M3">
-        <v>6.7280193590965709E-2</v>
+        <v>4.7074127139733024E-2</v>
       </c>
       <c r="N3">
-        <v>0.24140463839525986</v>
+        <v>0.6386813345096416</v>
       </c>
       <c r="O3">
-        <v>3.3417908714208827E-2</v>
+        <v>0.13125438864982633</v>
       </c>
       <c r="P3">
-        <v>0.33638928067700985</v>
+        <v>0.20402201999775299</v>
       </c>
       <c r="Q3">
-        <v>4.7269084447106452E-2</v>
+        <v>8.3341765758214809E-2</v>
       </c>
       <c r="R3">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.3882002974714923E-2</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>60.51</v>
+        <v>11.96</v>
       </c>
       <c r="U3">
-        <v>204.31700834081138</v>
+        <v>9.4495128429675077</v>
       </c>
       <c r="V3">
-        <v>2.3765825209190448</v>
+        <v>-0.20990695292913819</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="e" vm="6">
+      <c r="B4" s="20" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="C4" s="9" t="str">
@@ -9370,13 +9374,13 @@
         <v>462.5</v>
       </c>
       <c r="J4">
-        <v>79846</v>
+        <v>81959.625</v>
       </c>
       <c r="K4">
         <v>-15490</v>
       </c>
       <c r="L4">
-        <v>95336</v>
+        <v>97449.625</v>
       </c>
       <c r="M4">
         <v>2.9385406348757082E-2</v>
@@ -9397,81 +9401,81 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="S4">
-        <v>2.5486561631139947E-2</v>
+        <v>2.4829298572315334E-2</v>
       </c>
       <c r="T4">
-        <v>172.64</v>
+        <v>177.21</v>
       </c>
       <c r="U4">
         <v>256.04483672436879</v>
       </c>
       <c r="V4">
-        <v>0.48311420716154307</v>
+        <v>0.44486674975660967</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="e" vm="18">
+      <c r="B5" s="21" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="C5" s="26">
-        <v>1904</v>
+      <c r="C5" s="26" t="str">
+        <v>1945</v>
       </c>
       <c r="D5" s="17" t="str">
-        <v>New York, NY</v>
+        <v>Bentonville, AR</v>
       </c>
       <c r="E5" s="11" t="str">
-        <v>Sue Nabi</v>
+        <v>Douglas McMillon</v>
       </c>
       <c r="F5" s="11">
-        <v>11350</v>
+        <v>2100000</v>
       </c>
       <c r="G5" s="11" t="str">
         <v>Consumer Staples</v>
       </c>
       <c r="H5" s="39" t="str">
-        <v>Personal Care Products</v>
+        <v>Consumer Staples Distribution &amp; Retail</v>
       </c>
       <c r="I5">
-        <v>922.8</v>
+        <v>8103</v>
       </c>
       <c r="J5">
-        <v>10750.619999999999</v>
+        <v>487557.51</v>
       </c>
       <c r="K5">
-        <v>-3241.8</v>
+        <v>-30590</v>
       </c>
       <c r="L5">
-        <v>13992.419999999998</v>
+        <v>518147.51</v>
       </c>
       <c r="M5">
-        <v>4.7074127139733024E-2</v>
+        <v>6.7280193590965709E-2</v>
       </c>
       <c r="N5">
-        <v>0.6386813345096416</v>
+        <v>0.24140463839525986</v>
       </c>
       <c r="O5">
-        <v>0.13125438864982633</v>
+        <v>3.3417908714208827E-2</v>
       </c>
       <c r="P5">
-        <v>0.20402201999775299</v>
+        <v>0.33638928067700985</v>
       </c>
       <c r="Q5">
-        <v>8.3341765758214809E-2</v>
+        <v>4.4829601391657446E-2</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.396044540468672E-2</v>
       </c>
       <c r="T5">
-        <v>11.65</v>
+        <v>60.17</v>
       </c>
       <c r="U5">
-        <v>9.4495128429675077</v>
+        <v>68.105669446937128</v>
       </c>
       <c r="V5">
-        <v>-0.18888301777102945</v>
+        <v>0.1318874762661979</v>
       </c>
     </row>
   </sheetData>
@@ -9617,7 +9621,7 @@
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="e" cm="1" vm="10">
+      <c r="B3" s="21" t="e" cm="1" vm="14">
         <f t="array" ref="B3:V4">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Health Care")</f>
         <v>#VALUE!</v>
       </c>
@@ -9643,13 +9647,13 @@
         <v>5727</v>
       </c>
       <c r="J3">
-        <v>158007.93</v>
+        <v>158924.25</v>
       </c>
       <c r="K3">
         <v>-15920</v>
       </c>
       <c r="L3">
-        <v>173927.93</v>
+        <v>174844.25</v>
       </c>
       <c r="M3">
         <v>0.23426582029327814</v>
@@ -9670,20 +9674,20 @@
         <v>1.68</v>
       </c>
       <c r="S3">
-        <v>6.0891627401232329E-2</v>
+        <v>6.054054054054054E-2</v>
       </c>
       <c r="T3">
-        <v>27.59</v>
+        <v>27.75</v>
       </c>
       <c r="U3">
         <v>98.220736355377696</v>
       </c>
       <c r="V3">
-        <v>2.5600121912061504</v>
+        <v>2.5394859947883854</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="e" vm="11">
+      <c r="B4" s="21" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
       <c r="C4" s="18">
@@ -9708,13 +9712,13 @@
         <v>94.4</v>
       </c>
       <c r="J4">
-        <v>1095.04</v>
+        <v>1127.136</v>
       </c>
       <c r="K4">
         <v>-150</v>
       </c>
       <c r="L4">
-        <v>1245.04</v>
+        <v>1277.136</v>
       </c>
       <c r="M4">
         <v>-2.3211695123312115E-2</v>
@@ -9735,16 +9739,16 @@
         <v>0.48</v>
       </c>
       <c r="S4">
-        <v>4.1379310344827586E-2</v>
+        <v>4.0201005025125629E-2</v>
       </c>
       <c r="T4">
-        <v>11.6</v>
+        <v>11.94</v>
       </c>
       <c r="U4">
         <v>7.0498590471111235</v>
       </c>
       <c r="V4">
-        <v>-0.39225353042145483</v>
+        <v>-0.40955954379303816</v>
       </c>
     </row>
   </sheetData>

--- a/00Dashboard.xlsx
+++ b/00Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlshe\Documents\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6608093D-2624-4051-8CE0-95CADCA88E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07269CD-0B39-4327-8E36-2DE0427CBFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4588CD03-294E-421F-A4EF-704A3E6AC4BE}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="16020" windowHeight="15585" activeTab="1" xr2:uid="{4588CD03-294E-421F-A4EF-704A3E6AC4BE}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Bond Yields" sheetId="2" r:id="rId1"/>
@@ -51,6 +51,7 @@
     <externalReference r:id="rId34"/>
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
+    <externalReference r:id="rId37"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">All!$B$2:$V$22</definedName>
@@ -161,7 +162,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="22">
+  <futureMetadata name="XLRICHVALUE" count="23">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -312,7 +313,14 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="63"/>
+          <xlrd:rvb i="65"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="66"/>
         </ext>
       </extLst>
     </bk>
@@ -322,7 +330,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="22">
+  <valueMetadata count="23">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -389,12 +397,15 @@
     <bk>
       <rc t="2" v="21"/>
     </bk>
+    <bk>
+      <rc t="2" v="22"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
   <si>
     <t>U.S. T-Bonds</t>
   </si>
@@ -829,6 +840,15 @@
   </si>
   <si>
     <t>Haviv Ilan</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Ground Transportation</t>
+  </si>
+  <si>
+    <t>Dara Khosrowshahi</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2235,7 @@
         </row>
         <row r="38">
           <cell r="BH38">
-            <v>157.50583148184953</v>
+            <v>157.49677374154334</v>
           </cell>
         </row>
         <row r="40">
@@ -2237,7 +2257,7 @@
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>8.100938506308529E-2</v>
+            <v>8.1014074204564746E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3049,19 +3069,19 @@
         </row>
         <row r="43">
           <cell r="BE43">
-            <v>586.48012737999534</v>
+            <v>567.86629485039839</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="18">
           <cell r="C18">
-            <v>3.9276503997873018E-2</v>
+            <v>3.9365584350273979E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3153,11 +3173,79 @@
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>4.4829601391657446E-2</v>
+            <v>4.4827908119862321E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="DCF"/>
+      <sheetName val="WACC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>2121.9290000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>18964</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>9265</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="40">
+          <cell r="AP40">
+            <v>0.16952661793769797</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="BB46">
+            <v>53.855858375008872</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="AP47">
+            <v>0.39762881896944824</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AP48">
+            <v>5.1849467557200719E-2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AP49">
+            <v>6.7748091603053437E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="18">
+          <cell r="C18">
+            <v>8.8117841621591059E-2</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3183,7 +3271,7 @@
         </row>
         <row r="7">
           <cell r="C7">
-            <v>73100</v>
+            <v>172575</v>
           </cell>
         </row>
         <row r="8">
@@ -3193,28 +3281,28 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="51">
-          <cell r="AO51">
-            <v>0.44131129577207562</v>
-          </cell>
-        </row>
         <row r="52">
           <cell r="AO52">
+            <v>0.44131129577207562</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AO53">
             <v>0.29821412265024722</v>
           </cell>
         </row>
-        <row r="54">
-          <cell r="AO54">
+        <row r="55">
+          <cell r="AO55">
             <v>0.14719174228036858</v>
           </cell>
         </row>
-        <row r="56">
-          <cell r="AZ56">
-            <v>82.423427496181077</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="AO60">
+        <row r="57">
+          <cell r="AZ57">
+            <v>89.414555445295747</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="AO61">
             <v>-2.800460530319937E-2</v>
           </cell>
         </row>
@@ -3222,7 +3310,7 @@
       <sheetData sheetId="2">
         <row r="18">
           <cell r="C18">
-            <v>8.8789900307742461E-2</v>
+            <v>8.8129924088975659E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3700,7 +3788,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="64">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="67">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1u3rw&amp;q=XNAS%3aGOOGL&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -3717,13 +3805,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>153.78</v>
-    <v>99.74</v>
-    <v>1.0495000000000001</v>
-    <v>0.06</v>
-    <v>-1.0730000000000002E-3</v>
-    <v>3.9770000000000002E-4</v>
-    <v>-0.16189999999999999</v>
+    <v>155.74</v>
+    <v>102.63</v>
+    <v>1.0528</v>
+    <v>1.97</v>
+    <v>-9.1800000000000009E-4</v>
+    <v>1.3087E-2</v>
+    <v>-0.14000000000000001</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
     <v>182502</v>
@@ -3731,25 +3819,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>151.43</v>
+    <v>153.41999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45379.999792673436</v>
+    <v>45387.99988320547</v>
     <v>0</v>
-    <v>150.16999999999999</v>
-    <v>1884055000000</v>
+    <v>149.6</v>
+    <v>1904199000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>150.85</v>
-    <v>26.011600000000001</v>
-    <v>150.87</v>
-    <v>150.93</v>
-    <v>150.7681</v>
+    <v>150.03</v>
+    <v>25.952999999999999</v>
+    <v>150.53</v>
+    <v>152.5</v>
+    <v>152.36000000000001</v>
     <v>12433000000</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>24485390</v>
-    <v>34444735</v>
+    <v>23459246</v>
+    <v>33223806</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -3771,13 +3859,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>181.7</v>
-    <v>96.29</v>
-    <v>1.1657999999999999</v>
-    <v>0.55000000000000004</v>
-    <v>-2.9940000000000001E-3</v>
-    <v>3.058E-3</v>
-    <v>-0.54</v>
+    <v>186.27</v>
+    <v>97.704999999999998</v>
+    <v>1.1557999999999999</v>
+    <v>5.07</v>
+    <v>7.0239999999999994E-4</v>
+    <v>2.8167000000000001E-2</v>
+    <v>0.13</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content it has purchased for resale and products offered by third-party sellers. The Company’s segments include North America, International and Amazon Web Services (AWS). It serves consumers through its online and physical stores and focuses on selection, price, and convenience. Customers access its offerings through its Websites, mobile apps, Alexa, devices, streaming, and physically visiting its stores. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, Ring, Blink, and eero, and it develops and produces media content. It serves developers and enterprises of all sizes, including start-ups, government agencies, and academic institutions, through AWS, which offers a broad set of on-demand technology services, including compute, storage, database, analytics, and machine learning, and other services.</v>
     <v>1525000</v>
@@ -3785,25 +3873,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>181.7</v>
+    <v>186.27</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45379.999988680465</v>
+    <v>45387.999993448437</v>
     <v>3</v>
-    <v>179.26</v>
-    <v>1873675604400</v>
+    <v>181.97</v>
+    <v>1922393000000</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>180.17</v>
-    <v>62.238500000000002</v>
-    <v>179.83</v>
-    <v>180.38</v>
-    <v>179.84</v>
+    <v>182.38</v>
+    <v>62.2973</v>
+    <v>180</v>
+    <v>185.07</v>
+    <v>185.2</v>
     <v>10387380000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>38051588</v>
-    <v>37464355</v>
+    <v>42373992</v>
+    <v>35612761</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -3826,12 +3914,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>199.62</v>
-    <v>155.97999999999999</v>
-    <v>1.2746999999999999</v>
-    <v>-1.83</v>
-    <v>-1.575E-3</v>
-    <v>-1.0559000000000001E-2</v>
-    <v>-0.27</v>
+    <v>159.78</v>
+    <v>1.2765</v>
+    <v>0.76</v>
+    <v>-3.8330000000000005E-4</v>
+    <v>4.5019999999999999E-3</v>
+    <v>-6.5000000000000002E-2</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. Its product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS, and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. Its products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, and others. It also provides DarwinAI, which specializes in visual quality inspection using its Explainable AI platform.</v>
     <v>161000</v>
@@ -3839,25 +3927,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>172.23</v>
+    <v>170.39</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45379.999997383595</v>
+    <v>45387.999990346878</v>
     <v>6</v>
-    <v>170.51</v>
-    <v>2647974000000</v>
+    <v>168.95</v>
+    <v>2618634000000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>171.75</v>
-    <v>26.966100000000001</v>
-    <v>173.31</v>
-    <v>171.48</v>
-    <v>171.21</v>
+    <v>169.59</v>
+    <v>26.267499999999998</v>
+    <v>168.82</v>
+    <v>169.58</v>
+    <v>169.51499999999999</v>
     <v>15441880000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>65672690</v>
-    <v>69828551</v>
+    <v>42104826</v>
+    <v>70672018</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -3881,11 +3969,11 @@
     <v>4</v>
     <v>86.11</v>
     <v>62.3001</v>
-    <v>1.5053000000000001</v>
-    <v>0.16</v>
-    <v>2.6819999999999999E-3</v>
-    <v>1.954E-3</v>
-    <v>0.22</v>
+    <v>1.5065</v>
+    <v>0.61</v>
+    <v>-1.382E-3</v>
+    <v>7.7219999999999997E-3</v>
+    <v>-0.11</v>
     <v>USD</v>
     <v>Best Buy Co., Inc. is engaged in personalizing and humanizing technology solutions. The Company operates through two segments: Domestic and International. Domestic segment is comprised of its operations in all states, districts and territories of the United States and its Best Buy Health business, and includes the brand names Best Buy, Best Buy Ads, Best Buy Business, Best Buy Health, CST, Current Health, Geek Squad, Lively, Magnolia, Pacific Kitchen and Home, TechLiquidators and Yardbird and the domain names bestbuy.com, currenthealth.com, lively.com, techliquidators.com and yardbird.com. International segment is comprised of all operations in Canada under the brand names Best Buy, Best Buy Mobile and Geek Squad and the domain name bestbuy.ca. Domestic and International segments product categories include Computing and Mobile Phones, Consumer Electronics, Appliances, Entertainment, Services and Other. Computing and Mobile Phones category includes computing, mobile phones, and others.</v>
     <v>85000</v>
@@ -3893,25 +3981,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7601 Penn Ave S, RICHFIELD, MN, 55423 US</v>
-    <v>82.959900000000005</v>
+    <v>79.851699999999994</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45379.99929829844</v>
+    <v>45387.997355057814</v>
     <v>9</v>
-    <v>81.67</v>
-    <v>17667740000</v>
+    <v>78.8</v>
+    <v>17146510000</v>
     <v>Best Buy Co., Inc.</v>
     <v>Best Buy Co., Inc.</v>
-    <v>82.07</v>
-    <v>14.4147</v>
-    <v>81.87</v>
-    <v>82.03</v>
-    <v>82.25</v>
+    <v>78.88</v>
+    <v>13.9094</v>
+    <v>79</v>
+    <v>79.61</v>
+    <v>79.5</v>
     <v>215381400</v>
     <v>BBY</v>
     <v>Best Buy Co., Inc. (XNYS:BBY)</v>
-    <v>2571276</v>
-    <v>3898944</v>
+    <v>1680105</v>
+    <v>3745696</v>
     <v>1966</v>
   </rv>
   <rv s="2">
@@ -3935,11 +4023,11 @@
     <v>4</v>
     <v>12.27</v>
     <v>3.47</v>
-    <v>2.3317999999999999</v>
-    <v>0.21</v>
-    <v>-2.5403999999999999E-2</v>
-    <v>5.0971000000000002E-2</v>
-    <v>-0.11</v>
+    <v>2.3536000000000001</v>
+    <v>0.12</v>
+    <v>1.0557E-2</v>
+    <v>3.2877000000000003E-2</v>
+    <v>3.9800000000000002E-2</v>
     <v>USD</v>
     <v>Big Lots, Inc. is a home discount retailer in the United States. It operates over 1,300 stores in 48 states and an ecommerce store. The Company's merchandise categories include Food; Consumables; Soft Home; Hard Home; Furniture; Seasonal; and Apparel, Electronics, &amp; Other. The Food category includes beverage and grocery, specialty foods and pet departments. The Consumables category includes health, beauty and cosmetics and chemical departments. The Soft Home category includes home organization, fashion bedding, utility bedding and area rugs departments. The Hard Home category includes small appliances, tabletop and toys departments. The Furniture category includes mattress, case goods, and home decor departments. The Seasonal category includes lawn and garden; summer; Christmas, and other holiday departments. The Apparel, Electronics, &amp; Other department includes apparel; electronics; jewelry; hosiery; and candy and snacks departments, and the assortments for the Lot and the Queue Line.</v>
     <v>10200</v>
@@ -3947,24 +4035,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>4900 E Dublin Granville Rd, COLUMBUS, OH, 43081-7651 US</v>
-    <v>4.3849999999999998</v>
+    <v>3.81</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45379.998751388281</v>
+    <v>45387.998605381254</v>
     <v>12</v>
-    <v>4.13</v>
-    <v>126507700</v>
+    <v>3.6</v>
+    <v>110146400</v>
     <v>BIG LOTS, INC.</v>
     <v>BIG LOTS, INC.</v>
-    <v>4.13</v>
-    <v>4.12</v>
-    <v>4.33</v>
-    <v>4.22</v>
+    <v>3.62</v>
+    <v>3.65</v>
+    <v>3.77</v>
+    <v>3.8098000000000001</v>
     <v>29216560</v>
     <v>BIG</v>
     <v>BIG LOTS, INC. (XNYS:BIG)</v>
-    <v>1296340</v>
-    <v>1534769</v>
+    <v>1046808</v>
+    <v>1459278</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -3988,11 +4076,11 @@
     <v>4</v>
     <v>13.46</v>
     <v>9.0150000000000006</v>
-    <v>1.82</v>
-    <v>0.14000000000000001</v>
-    <v>-9.1970000000000003E-3</v>
-    <v>1.1843999999999999E-2</v>
-    <v>-0.11</v>
+    <v>1.8495999999999999</v>
+    <v>-0.03</v>
+    <v>0</v>
+    <v>-2.712E-3</v>
+    <v>0</v>
     <v>USD</v>
     <v>Coty Inc. is a beauty company with portfolio of brands across fragrance, color cosmetics, and skin and body care. The Company has a diverse portfolio of brands, which includes both owned and licensed. Its brand portfolio is classified into two segments: Consumer beauty and Prestige. Consumer beauty brand portfolio includes Adidas, Beckham, Biocolor, Bozzano, Bourjois, Bruno Banani, CoverGirl, Jovan, Mexx, Monange, Nautica, Paixao, Rimmel, Risque, Sally Hansen, 007 James Bond. Prestige includes Burberry, Bottega Veneta, Calvin Klein, Cavalli, Chloe, Davidoff, Escada, Gucci, Hugo Boss, Jil Sander, Kylie Jenner, Lancaster, Marc Jacobs, Miu Miu, Orveda, SKKN BY KIM, Tiffany &amp; Co. Its mass beauty brands are primarily sold through hypermarkets, supermarkets, drug stores and pharmacies, mid-tier department stores, traditional food and drug retailers, and dedicated e-commerce retailers. The Company serves consumers around the world in approximately 125 countries and territories.</v>
     <v>11350</v>
@@ -4000,25 +4088,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>350 Fifth Avenue, NEW YORK, NY, 10118 US</v>
-    <v>11.99</v>
+    <v>11.08</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45379.988064837496</v>
+    <v>45387.994841631247</v>
     <v>15</v>
-    <v>11.701700000000001</v>
-    <v>10706220000</v>
+    <v>10.92</v>
+    <v>9873713000</v>
     <v>COTY INC.</v>
     <v>COTY INC.</v>
-    <v>11.88</v>
-    <v>34.039900000000003</v>
-    <v>11.82</v>
-    <v>11.96</v>
-    <v>11.85</v>
+    <v>11</v>
+    <v>31.851199999999999</v>
+    <v>11.06</v>
+    <v>11.03</v>
+    <v>11.03</v>
     <v>895168900</v>
     <v>COTY</v>
     <v>COTY INC. (XNYS:COTY)</v>
-    <v>3561449</v>
-    <v>3268131</v>
+    <v>3818507</v>
+    <v>3377305</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -4042,11 +4130,11 @@
     <v>4</v>
     <v>33.43</v>
     <v>19.545000000000002</v>
-    <v>0.71460000000000001</v>
-    <v>-0.14000000000000001</v>
-    <v>-2.0579999999999999E-3</v>
-    <v>-5.7279999999999996E-3</v>
-    <v>-0.05</v>
+    <v>0.70279999999999998</v>
+    <v>0.04</v>
+    <v>0</v>
+    <v>1.722E-3</v>
+    <v>0</v>
     <v>USD</v>
     <v>Dropbox, Inc. provides tools to help distributed teams prioritize, get organized, and keep work moving securely from anywhere. Its products include Dropbox Passwords, Vault, Computer Backup, Dropbox Sign, DocSend, Dropbox Capture and FormSwift, among others. Dropbox Passwords allows users to sign into Websites and apps by creating and storing usernames and passwords across devices. Dropbox Vault helps secure and organize sensitive information in the cloud. Computer backup automatically syncs folders on a user's computer to the cloud. Dropbox Sign is an e-signature and document workflow platform that enables customers to easily sign, send and receive documents through its intuitive Web and mobile-based interfaces. DocSend is a secure document sharing and analytics platform. Dropbox Capture is an all-in-one visual communication tool that helps team members share their work and ideas asynchronously. Its customers include individuals, families, teams, and organizations of all sizes.</v>
     <v>2693</v>
@@ -4054,25 +4142,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1800 Owens Street, Suite 200, SAN FRANCISCO, CA, 94158 US</v>
-    <v>24.63</v>
+    <v>23.46</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45379.98030655078</v>
+    <v>45387.985605983595</v>
     <v>18</v>
-    <v>24.08</v>
-    <v>8358815000</v>
+    <v>23.155000000000001</v>
+    <v>7874226000</v>
     <v>DROPBOX, INC.</v>
     <v>DROPBOX, INC.</v>
-    <v>24.37</v>
-    <v>18.323899999999998</v>
-    <v>24.44</v>
-    <v>24.3</v>
-    <v>24.25</v>
-    <v>343984200</v>
+    <v>23.25</v>
+    <v>17.416699999999999</v>
+    <v>23.23</v>
+    <v>23.27</v>
+    <v>23.27</v>
+    <v>338385300</v>
     <v>DBX</v>
     <v>DROPBOX, INC. (XNAS:DBX)</v>
-    <v>3309588</v>
-    <v>4818498</v>
+    <v>2939669</v>
+    <v>4366718</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -4096,11 +4184,11 @@
     <v>4</v>
     <v>245.8699</v>
     <v>116.82</v>
-    <v>1.252</v>
-    <v>-1.97</v>
-    <v>-2.6290000000000003E-3</v>
-    <v>-8.8520000000000005E-3</v>
-    <v>-0.57999999999999996</v>
+    <v>1.2609999999999999</v>
+    <v>-1.17</v>
+    <v>5.1159999999999997E-4</v>
+    <v>-5.4120000000000001E-3</v>
+    <v>0.11</v>
     <v>USD</v>
     <v>Duolingo, Inc. is a technology company, which provides a mobile learning platform. The flagship application, Duolingo, is a language learning application. Duolingo is available in the education category on both Google Play and the Apple App Store. Duolingo offers courses in over 40 languages to more than 85 million monthly active users. Duolingo can also be accessed via desktop computers via a Web browser at https://duolingo.com. Both math and music courses are integrated into the Duolingo App and are available on iOS devices. Course content on Duolingo can be accessed for free. Its subscription offering, Super Duolingo, offers learners additional features to enhance their learning experience. It also launched a family plan, which includes up to six subscribers under one annual plan. The Duolingo English Test is an online English proficiency assessment. Anyone with a computer, webcam and Internet connection can take the test from anywhere, at any time.</v>
     <v>720</v>
@@ -4108,25 +4196,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5900 PENN AVE, SECOND FLOOR, PITTSBURGH, PA, 15206 US</v>
-    <v>225.4</v>
+    <v>218.68</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45379.995602360941</v>
+    <v>45387.981841284374</v>
     <v>21</v>
-    <v>217.61</v>
-    <v>9457550000</v>
+    <v>211.92</v>
+    <v>9218731000</v>
     <v>DUOLINGO, INC.</v>
     <v>DUOLINGO, INC.</v>
-    <v>221.72</v>
-    <v>665.52030000000002</v>
-    <v>222.55</v>
-    <v>220.58</v>
-    <v>220</v>
+    <v>214.94</v>
+    <v>646.47130000000004</v>
+    <v>216.18</v>
+    <v>215.01</v>
+    <v>215.12</v>
     <v>42875830</v>
     <v>DUOL</v>
     <v>DUOLINGO, INC. (XNAS:DUOL)</v>
-    <v>566709</v>
-    <v>829765</v>
+    <v>392114</v>
+    <v>752919</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -4150,11 +4238,11 @@
     <v>4</v>
     <v>42.79</v>
     <v>14.84</v>
-    <v>1.411</v>
-    <v>-0.01</v>
-    <v>3.5090000000000002E-4</v>
-    <v>-3.5080000000000002E-4</v>
-    <v>0.01</v>
+    <v>1.4427000000000001</v>
+    <v>-0.25</v>
+    <v>1.66E-3</v>
+    <v>-1.0270999999999999E-2</v>
+    <v>0.04</v>
     <v>USD</v>
     <v>Foot Locker, Inc. is a retailer of shoes and apparel. The Company operates through three segments: North America, Europe, Middle East, and Africa (EMEA), and Asia Pacific. The Company's portfolio of brands includes Foot Locker, Kids Foot Locker, Champs Sports, WSS, and atmos. It uses its omni-channel capabilities to bridge the digital world and physical stores, including order-in-store, buy online and pickup-in-store, and buy online and ship-from-store, as well as e-commerce. It operates websites and mobile apps aligned with the brand names of its store banners. The Company operates approximately 2,523 stores in 26 countries across North America, Europe, Australia, New Zealand, and Asia, and a franchised store presence in the Middle East and Asia. The Kids Foot Locker offers athletic footwear, apparel, and accessories for children. Champs Sports is a primarily mall-based specialty athletic footwear and apparel retailer. atmos is a digitally led, brand featuring sneakers and apparel.</v>
     <v>14335</v>
@@ -4162,24 +4250,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>330 West 34th Street, NEW YORK, NY, 10001 US</v>
-    <v>28.63</v>
+    <v>24.762499999999999</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45379.998870231248</v>
+    <v>45387.999905138284</v>
     <v>24</v>
-    <v>28.04</v>
-    <v>2683612000</v>
+    <v>24.08</v>
+    <v>2276375000</v>
     <v>FOOT LOCKER, INC.</v>
     <v>FOOT LOCKER, INC.</v>
-    <v>28.4</v>
-    <v>28.51</v>
-    <v>28.5</v>
-    <v>28.51</v>
-    <v>94161810</v>
+    <v>24.13</v>
+    <v>24.34</v>
+    <v>24.09</v>
+    <v>24.13</v>
+    <v>94494580</v>
     <v>FL</v>
     <v>FOOT LOCKER, INC. (XNYS:FL)</v>
-    <v>3686855</v>
-    <v>5417355</v>
+    <v>2974990</v>
+    <v>5510198</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -4201,13 +4289,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>20.02</v>
+    <v>22.39</v>
     <v>12.414999999999999</v>
-    <v>1.2134</v>
-    <v>0.62</v>
-    <v>-1.5010000000000002E-3</v>
-    <v>3.2008000000000002E-2</v>
-    <v>-0.03</v>
+    <v>1.2216</v>
+    <v>-0.42</v>
+    <v>2.9199999999999999E-3</v>
+    <v>-2.0028999999999998E-2</v>
+    <v>0.06</v>
     <v>USD</v>
     <v>Levi Strauss &amp; Co. is an apparel company. The Company designs and markets jeans, casual wear and related accessories for men, women and children under the Levi's, Signatureby Levi Strauss &amp; Co., Denizen, Dockers and Beyond Yoga brands. The Company operates through three geographical segments: Americas, Europe, and Asia. It designs, markets and sells directly or through third parties and licensee's products that include jeans, casual and dress pants, tops, shorts, skirts, dresses, jackets, footwear, and related accessories for men, women and children around the world. The Company’s products are sold in more than 110 countries worldwide through a combination of chain retailers, department stores, online sites, and a global footprint of approximately 3,200 retail stores and shop-in-shops. Outside the United States, department stores, specialty retailers, franchised or other brand-dedicated stores and shop-in-shops are its primary distribution channels.</v>
     <v>19100</v>
@@ -4215,25 +4303,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1155 Battery St, SAN FRANCISCO, CA, 94111 US</v>
-    <v>20.02</v>
+    <v>21.01</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45379.986007279687</v>
+    <v>45387.999632638282</v>
     <v>27</v>
-    <v>19.47</v>
-    <v>7956604000</v>
+    <v>20.440000000000001</v>
+    <v>8179500000</v>
     <v>LEVI STRAUSS &amp; CO.</v>
     <v>LEVI STRAUSS &amp; CO.</v>
-    <v>19.559999999999999</v>
-    <v>30.983599999999999</v>
-    <v>19.37</v>
-    <v>19.989999999999998</v>
-    <v>19.96</v>
+    <v>21</v>
+    <v>67.951999999999998</v>
+    <v>20.97</v>
+    <v>20.55</v>
+    <v>20.61</v>
     <v>398029200</v>
     <v>LEVI</v>
     <v>LEVI STRAUSS &amp; CO. (XNYS:LEVI)</v>
-    <v>2588093</v>
-    <v>1506493</v>
+    <v>6679673</v>
+    <v>3193538</v>
     <v>1970</v>
   </rv>
   <rv s="2">
@@ -4255,13 +4343,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>634.38990000000001</v>
+    <v>638</v>
     <v>315.62</v>
-    <v>1.2158</v>
-    <v>-6.2</v>
-    <v>-1.1360000000000001E-3</v>
-    <v>-1.0104999999999999E-2</v>
-    <v>-0.69</v>
+    <v>1.2107000000000001</v>
+    <v>19.04</v>
+    <v>2.562E-3</v>
+    <v>3.0852000000000001E-2</v>
+    <v>1.63</v>
     <v>USD</v>
     <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
     <v>13000</v>
@@ -4269,25 +4357,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>615</v>
+    <v>637.91</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45379.999852568748</v>
+    <v>45387.99996107578</v>
     <v>30</v>
-    <v>601.59</v>
-    <v>262827900000</v>
+    <v>622.71</v>
+    <v>275313000000</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>614.99</v>
-    <v>51.048200000000001</v>
-    <v>613.53</v>
-    <v>607.33000000000004</v>
-    <v>606.64</v>
+    <v>624.91999999999996</v>
+    <v>51.348500000000001</v>
+    <v>617.14</v>
+    <v>636.17999999999995</v>
+    <v>637.80999999999995</v>
     <v>432759600</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>3708803</v>
-    <v>3023924</v>
+    <v>3378842</v>
+    <v>2954555</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -4311,11 +4399,11 @@
     <v>4</v>
     <v>128.68</v>
     <v>88.66</v>
-    <v>1.0872999999999999</v>
-    <v>-0.15</v>
-    <v>0</v>
-    <v>-1.5939999999999999E-3</v>
-    <v>0</v>
+    <v>1.0906</v>
+    <v>-0.23</v>
+    <v>5.6280000000000002E-4</v>
+    <v>-2.5819999999999997E-3</v>
+    <v>0.05</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
     <v>83700</v>
@@ -4323,25 +4411,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>94.8142</v>
+    <v>90.25</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45379.999781423438</v>
+    <v>45387.999975392966</v>
     <v>33</v>
-    <v>93.43</v>
-    <v>142391200000</v>
+    <v>88.8</v>
+    <v>134603400000</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>94.37</v>
-    <v>27.682600000000001</v>
-    <v>94.13</v>
-    <v>93.98</v>
-    <v>93.98</v>
+    <v>89.15</v>
+    <v>26.194500000000001</v>
+    <v>89.07</v>
+    <v>88.84</v>
+    <v>88.89</v>
     <v>1515122000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>11331676</v>
-    <v>10288522</v>
+    <v>9716682</v>
+    <v>11279096</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -4364,12 +4452,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>974</v>
-    <v>258.5</v>
-    <v>1.7265999999999999</v>
-    <v>1.06</v>
-    <v>-2.3019999999999998E-3</v>
-    <v>1.1749999999999998E-3</v>
-    <v>-2.08</v>
+    <v>262.2</v>
+    <v>1.7503</v>
+    <v>21.03</v>
+    <v>4.5449999999999999E-4</v>
+    <v>2.4481000000000003E-2</v>
+    <v>0.4</v>
     <v>USD</v>
     <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company accelerates computing to help solve the computational problems. The Company’s segments include Compute &amp; Networking and Graphics. Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI), cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; NVIDIA AI Enterprise and other software. The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>29600</v>
@@ -4377,25 +4465,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>913</v>
+    <v>884.81</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45379.999984212503</v>
+    <v>45387.999989351563</v>
     <v>36</v>
-    <v>891.93</v>
-    <v>2258900000000</v>
+    <v>859.26</v>
+    <v>2200200000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>900</v>
-    <v>75.658600000000007</v>
-    <v>902.5</v>
-    <v>903.56</v>
-    <v>901.48</v>
+    <v>868.66</v>
+    <v>72.016099999999994</v>
+    <v>859.05</v>
+    <v>880.08</v>
+    <v>880.48</v>
     <v>2500000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>43521227</v>
-    <v>60818295</v>
+    <v>39967846</v>
+    <v>57388185</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -4419,11 +4507,11 @@
     <v>4</v>
     <v>42.22</v>
     <v>25.61</v>
-    <v>0.59650000000000003</v>
-    <v>-0.03</v>
-    <v>3.6040000000000003E-4</v>
-    <v>-1.08E-3</v>
+    <v>0.60909999999999997</v>
     <v>0.01</v>
+    <v>1.1250000000000001E-3</v>
+    <v>3.7519999999999996E-4</v>
+    <v>0.03</v>
     <v>USD</v>
     <v>Pfizer Inc. is a research-based global biopharmaceutical company. The Company is engaged in the discovery, development, manufacture, marketing, sale and distribution of biopharmaceutical products worldwide. Its Biopharma segment is engaged in the science-based biopharmaceutical business. Its Biopharma segment includes the Pfizer Oncology Division, the Pfizer U.S. Commercial Division, and the Pfizer International Commercial Division. Its product categories include oncology, primary care and specialty care. Its Oncology products include Ibrance, Xtandi, Inlyta, Bosulif, Lorbrena, Braftovi, Mektovi, Padcev, Adcetris, Talzenna, Tukysa, Elrexfio and Tivdak. Its primary care products include Eliquis, Nurtec ODT/Vydura, Comirnaty, the Prevnar family, Abrysvo, FSME/IMMUN-TicoVac, Paxlovid and Lucira by Pfizer. Its specialty care products include Xeljanz, Enbrel (outside the U.S. and Canada), Inflectra, Cibinqo, Litfulo, Vyndaqel family, Genotropin, Sulperazon, Zavicefta, Medrol and Panzyga.</v>
     <v>88000</v>
@@ -4431,25 +4519,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>66 HUDSON BOULEVARD EAST, NEW YORK, NY, 10001-2192 US</v>
-    <v>28.12</v>
+    <v>26.7</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45379.999988691408</v>
+    <v>45387.999970485937</v>
     <v>39</v>
-    <v>27.72</v>
-    <v>157135500000</v>
+    <v>26.35</v>
+    <v>150963300000</v>
     <v>PFIZER INC.</v>
     <v>PFIZER INC.</v>
-    <v>27.82</v>
-    <v>77.327799999999996</v>
-    <v>27.78</v>
-    <v>27.75</v>
-    <v>27.76</v>
+    <v>26.56</v>
+    <v>74.182299999999998</v>
+    <v>26.65</v>
+    <v>26.66</v>
+    <v>26.69</v>
     <v>5662542000</v>
     <v>PFE</v>
     <v>PFIZER INC. (XNYS:PFE)</v>
-    <v>40466657</v>
-    <v>45347744</v>
+    <v>39880542</v>
+    <v>45261026</v>
     <v>1942</v>
   </rv>
   <rv s="2">
@@ -4472,12 +4560,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>115.48</v>
-    <v>89.21</v>
-    <v>0.97270000000000001</v>
-    <v>-0.11</v>
-    <v>1.0939999999999999E-3</v>
-    <v>-1.2019999999999999E-3</v>
-    <v>0.1</v>
+    <v>86.83</v>
+    <v>0.97509999999999997</v>
+    <v>-0.77</v>
+    <v>1.957E-3</v>
+    <v>-8.7880000000000007E-3</v>
+    <v>0.17</v>
     <v>USD</v>
     <v>Starbucks Corporations is a coffee company, which roasts, markets and retails specialty coffee in the world. The Company operates in 86 markets and has approximately 38,000 stores worldwide. It has three segments: North America, International and Channel Development. North America segment includes the United States and Canada. International segment includes China, Japan, Asia Pacific, Europe, Middle East and Africa, Latin America and Caribbean. North America and International segments include both the Company-operated and licensed stores. Channel Development segment includes roasted whole bean and ground coffees, Starbucks- and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside the Company-operated and licensed stores. A large portion of its Channel Development business operates under a licensed model of the Global Coffee Alliance with Nestle.</v>
     <v>381000</v>
@@ -4485,25 +4573,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P O Box 34067, SEATTLE, WA, 98124-1067 US</v>
-    <v>92.24</v>
+    <v>87.93</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45379.999983506248</v>
+    <v>45387.999940115624</v>
     <v>42</v>
-    <v>91.3</v>
-    <v>103471800000</v>
+    <v>86.83</v>
+    <v>98331570000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>91.79</v>
-    <v>27.920999999999999</v>
-    <v>91.5</v>
-    <v>91.39</v>
-    <v>91.49</v>
+    <v>87.9</v>
+    <v>26.737100000000002</v>
+    <v>87.62</v>
+    <v>86.85</v>
+    <v>87.02</v>
     <v>1132200000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>6784293</v>
-    <v>7588102</v>
+    <v>7161442</v>
+    <v>7645409</v>
     <v>1985</v>
   </rv>
   <rv s="2">
@@ -4525,13 +4613,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>177.39500000000001</v>
+    <v>181.86</v>
     <v>102.93</v>
-    <v>1.1361000000000001</v>
-    <v>2.54</v>
-    <v>-1.072E-3</v>
-    <v>1.4541999999999999E-2</v>
-    <v>-0.19</v>
+    <v>1.1538999999999999</v>
+    <v>-0.45</v>
+    <v>1.281E-3</v>
+    <v>-2.6129999999999999E-3</v>
+    <v>0.22</v>
     <v>USD</v>
     <v>Target Corporation is a general merchandise retailer selling products to its guests through its stores and digital channels. The Company serves guests at nearly 2,000 stores and at Target.com. It offers to its customers, referred to as guests, everyday essentials and fashionable, differentiated merchandise at discounted prices. The majority of its stores offer a wide assortment of general merchandise and food. Its merchandise categories include apparel and accessories, beauty and household essentials, food and beverage, hardlines, and home furnishings and decor. Most of its stores larger than 170,000 square feet offer a variety of general merchandise and a full line of food items comparable to traditional supermarkets. Its digital channels include a wide merchandise and food assortment, including many items found in its stores, along with a complementary assortment sold by the Company and third parties. Its brands include A New Day, Ava &amp; Viv, Cloud Island, Favorite Day, and others.</v>
     <v>415000</v>
@@ -4539,25 +4627,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Nicollet Mall, MINNEAPOLIS, MN, 55403 US</v>
-    <v>177.39500000000001</v>
+    <v>172.54</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45379.997429062503</v>
+    <v>45387.999979015622</v>
     <v>45</v>
-    <v>174.685</v>
-    <v>81816130000</v>
+    <v>170.03</v>
+    <v>79304520000</v>
     <v>TARGET CORPORATION</v>
     <v>TARGET CORPORATION</v>
-    <v>175</v>
-    <v>19.535299999999999</v>
-    <v>174.67</v>
-    <v>177.21</v>
-    <v>177.02</v>
+    <v>171.62</v>
+    <v>19.261299999999999</v>
+    <v>172.22</v>
+    <v>171.77</v>
+    <v>171.99</v>
     <v>461690200</v>
     <v>TGT</v>
     <v>TARGET CORPORATION (XNYS:TGT)</v>
-    <v>3716230</v>
-    <v>4690237</v>
+    <v>2333972</v>
+    <v>4781814</v>
     <v>1902</v>
   </rv>
   <rv s="2">
@@ -4581,11 +4669,11 @@
     <v>4</v>
     <v>188.12</v>
     <v>139.47999999999999</v>
-    <v>1.0306999999999999</v>
-    <v>1.34</v>
-    <v>-2.64E-3</v>
-    <v>7.7510000000000001E-3</v>
-    <v>-0.46</v>
+    <v>1.0218</v>
+    <v>-1.03</v>
+    <v>2.9249999999999996E-3</v>
+    <v>-6.1119999999999994E-3</v>
+    <v>0.49</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated is a global semiconductor company. The Company designs, manufactures, tests, and sells analog and embedded processing chips for markets, such as industrial, automotive, personal electronics, communications equipment, and enterprise systems. The Company’s segments include Analog and Embedded Processing. The Analog segment includes product lines, such as Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Signal Chain includes products that sense, condition, and measure real-world signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs) and applications processors. The Company also offers DLP products (primarily used to project high-definition images), calculators and certain custom semiconductors known as application-specific integrated circuits (ASICs).</v>
     <v>34000</v>
@@ -4593,25 +4681,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>175.85</v>
+    <v>169.25</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45379.988374756249</v>
+    <v>45387.996429745312</v>
     <v>48</v>
-    <v>173.33</v>
-    <v>158407000000</v>
+    <v>167.14</v>
+    <v>152305700000</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>173.47499999999999</v>
-    <v>24.451699999999999</v>
-    <v>172.87</v>
-    <v>174.21</v>
-    <v>173.75</v>
+    <v>168.57</v>
+    <v>23.837800000000001</v>
+    <v>168.53</v>
+    <v>167.5</v>
+    <v>167.99</v>
     <v>909287700</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>4417751</v>
-    <v>5489146</v>
+    <v>5012314</v>
+    <v>5538001</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -4635,11 +4723,11 @@
     <v>4</v>
     <v>23.01</v>
     <v>9.84</v>
-    <v>1.8725000000000001</v>
-    <v>0.03</v>
-    <v>-4.3290000000000004E-3</v>
-    <v>1.8590000000000002E-3</v>
-    <v>-7.0000000000000007E-2</v>
+    <v>1.8596999999999999</v>
+    <v>0.2</v>
+    <v>-1.2160000000000001E-3</v>
+    <v>1.2307999999999999E-2</v>
+    <v>-0.02</v>
     <v>USD</v>
     <v>Topgolf Callaway Brands Corp. is a golf and active lifestyle company. The Company provides golf entertainment experiences, designs, and manufactures golf equipment, and sells golf and active lifestyle apparel and other accessories through its family of brand names, which include Topgolf, Callaway Golf, Odyssey, TravisMathew, Jack Wolfskin, OGIO, Toptracer and World Golf Tour. Its segments include Topgolf, Golf Equipment, and Active Lifestyle. The Topgolf is a technology-enabled golf entertainment business. Its platform offers open-air golf and entertainment venues as well as its Toptracer ball-tracking technology and digital media platform. The Golf Equipment segment is engaged in designing, manufacturing, and selling a full line of golf equipment, which is comprised of the golf clubs and golf balls product groups. Under Active Lifestyle segment, the Company designs, develops and sells soft good products under the Callaway, TravisMathew, OGIO, and Jack Wolfskin brands.</v>
     <v>32000</v>
@@ -4647,25 +4735,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2180 RUTHERFORD RD, CARLSBAD, CA, 92008-8815 US</v>
-    <v>16.385000000000002</v>
+    <v>16.574999999999999</v>
     <v>Leisure Products</v>
     <v>Stock</v>
-    <v>45379.981891573436</v>
+    <v>45387.995347974218</v>
     <v>51</v>
-    <v>16.077500000000001</v>
-    <v>2968780000</v>
+    <v>16.16</v>
+    <v>3020187000</v>
     <v>TOPGOLF CALLAWAY BRANDS CORP.</v>
     <v>TOPGOLF CALLAWAY BRANDS CORP.</v>
-    <v>16.13</v>
-    <v>35.039000000000001</v>
-    <v>16.14</v>
-    <v>16.170000000000002</v>
-    <v>16.100000000000001</v>
+    <v>16.190000000000001</v>
+    <v>35.277799999999999</v>
+    <v>16.25</v>
+    <v>16.45</v>
+    <v>16.43</v>
     <v>183598000</v>
     <v>MODG</v>
     <v>TOPGOLF CALLAWAY BRANDS CORP. (XNYS:MODG)</v>
-    <v>1945008</v>
-    <v>2725005</v>
+    <v>2336800</v>
+    <v>2729411</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -4689,11 +4777,11 @@
     <v>4</v>
     <v>255.23</v>
     <v>133.02000000000001</v>
-    <v>0.71809999999999996</v>
-    <v>-0.47</v>
-    <v>-4.1720000000000004E-3</v>
-    <v>-1.8640000000000002E-3</v>
-    <v>-1.05</v>
+    <v>0.72130000000000005</v>
+    <v>1.58</v>
+    <v>2.1180000000000001E-3</v>
+    <v>6.6059999999999999E-3</v>
+    <v>0.51</v>
     <v>USD</v>
     <v>Toyota Motor Corp is a Japan-based company engaged in the automobile business, finance business and other businesses. The Company operates in three business segments. The Automobile segment is engaged in the design, manufacture and sale of sedans, minivans, 2box, sports utility vehicles, trucks and related vehicles, as well as related parts and products. The Finance segment is engaged in finance and vehicle leasing business. The Other segment is engaged in the design, manufacture and sale of houses, as well as conduct information communication business. The Company is also engaged in the control of manufacturing and sales companies, as well as public relations and research activities business in North American and Europe. The Company also provides robots, basic research projects, marine and agribio business. The Company also provides electric vehicles and vehicles equipped with the new function Advanced Drive of driving support technology, driver assistance or connected cars services.</v>
     <v>375235</v>
@@ -4701,25 +4789,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1, Toyota-cho, TOYOTA-SHI, AICHI-KEN, 471-8571 JP</v>
-    <v>252.84889999999999</v>
+    <v>241.83</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45379.990759073436</v>
+    <v>45387.995465867971</v>
     <v>54</v>
-    <v>251.14</v>
-    <v>408872100000</v>
+    <v>238.58</v>
+    <v>390166800000</v>
     <v>TOYOTA MOTOR CORPORATION</v>
     <v>TOYOTA MOTOR CORPORATION</v>
-    <v>251.14</v>
-    <v>10.6959</v>
-    <v>252.15</v>
-    <v>251.68</v>
-    <v>250.63</v>
+    <v>239</v>
+    <v>10.1449</v>
+    <v>239.16</v>
+    <v>240.74</v>
+    <v>241.25</v>
     <v>1631499000</v>
     <v>TM</v>
     <v>TOYOTA MOTOR CORPORATION (XNYS:TM)</v>
-    <v>124952</v>
-    <v>282917</v>
+    <v>191129</v>
+    <v>279317</v>
     <v>1937</v>
   </rv>
   <rv s="2">
@@ -4743,11 +4831,11 @@
     <v>4</v>
     <v>13.6175</v>
     <v>8.74</v>
-    <v>1.1333</v>
-    <v>0.11</v>
-    <v>5.0249999999999991E-3</v>
-    <v>9.297999999999999E-3</v>
-    <v>0.06</v>
+    <v>1.1429</v>
+    <v>0.04</v>
+    <v>7.6270000000000001E-3</v>
+    <v>3.4009999999999999E-3</v>
+    <v>0.09</v>
     <v>USD</v>
     <v>Viatris Inc. (Viatris) is a global healthcare company. The Company's segments include Developed Markets, Greater China, JANZ, and Emerging Markets. Its Developed Markets segment comprises its operations primarily in North America and Europe. The Greater China segment includes its operations in mainland China, Taiwan and Hong Kong. The JANZ segment consists of its operations in Japan, Australia and New Zealand. The Emerging Markets segment encompasses its presence in more than 125 countries with developing markets and emerging economies, as well as the Company’s ARV franchise. Its portfolio comprises over 1,400 approved molecules across a range of key therapeutic areas, including key brands and complex generics. It operates around 40 manufacturing sites worldwide, which produce oral solid doses, injectables, complex dosage forms and active pharmaceutical ingredients. Its products include Lyrica, Lipitor, Creon, Influvac, Wixela Inhub, EpiPen Auto Injector, Fraxiparine and Yupelri.</v>
     <v>38000</v>
@@ -4755,25 +4843,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Mylan Boulevard, CANONSBURG, PA, 15317 US</v>
-    <v>12.02</v>
+    <v>11.83</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45379.960031087503</v>
+    <v>45387.997206585154</v>
     <v>57</v>
-    <v>11.775</v>
-    <v>14179580000</v>
+    <v>11.634499999999999</v>
+    <v>14013320000</v>
     <v>VIATRIS INC.</v>
     <v>VIATRIS INC.</v>
-    <v>11.81</v>
-    <v>279.4708</v>
-    <v>11.83</v>
-    <v>11.94</v>
-    <v>12</v>
+    <v>11.72</v>
+    <v>277.81720000000001</v>
+    <v>11.76</v>
+    <v>11.8</v>
+    <v>11.89</v>
     <v>1187569000</v>
     <v>VTRS</v>
     <v>VIATRIS INC. (XNAS:VTRS)</v>
-    <v>11960078</v>
-    <v>10746764</v>
+    <v>5794024</v>
+    <v>9115806</v>
     <v>2019</v>
   </rv>
   <rv s="2">
@@ -4796,12 +4884,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>61.655000000000001</v>
-    <v>47.683300000000003</v>
-    <v>0.499</v>
-    <v>-0.55000000000000004</v>
-    <v>1.662E-4</v>
-    <v>-9.0580000000000001E-3</v>
-    <v>0.01</v>
+    <v>48.336599999999997</v>
+    <v>0.49480000000000002</v>
+    <v>0.35</v>
+    <v>0</v>
+    <v>5.8819999999999992E-3</v>
+    <v>0</v>
     <v>USD</v>
     <v>Walmart Inc. is a technology-powered omnichannel retailer. The Company is engaged in the operation of retail and wholesale stores and clubs, as well as e-commerce websites and mobile applications, located throughout the United States, Africa, Canada, Central America, Chile, China, India and Mexico. It operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment includes the Company's mass merchant concept in the United States, as well as e-commerce, which includes omni-channel initiatives and certain other business offerings such as advertising services through Walmart Connect. It operates under the Walmart and Walmart Neighborhood Market brands. The Walmart International segment consists of the Company's operations outside of the United States, as well as e-commerce and omni-channel initiatives. The Sam's Club segment includes the warehouse membership clubs in the United States, as well as e-commerce and omni-channel initiatives.</v>
     <v>2100000</v>
@@ -4809,29 +4897,83 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
-    <v>60.77</v>
+    <v>60.04</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>45379.999660786722</v>
+    <v>45387.998519490626</v>
     <v>60</v>
-    <v>60.16</v>
-    <v>484852800000</v>
+    <v>59.49</v>
+    <v>482274200000</v>
     <v>WALMART INC.</v>
     <v>WALMART INC.</v>
-    <v>60.66</v>
-    <v>41.555700000000002</v>
-    <v>60.72</v>
-    <v>60.17</v>
-    <v>60.18</v>
+    <v>59.55</v>
+    <v>40.720700000000001</v>
+    <v>59.5</v>
+    <v>59.85</v>
+    <v>59.85</v>
     <v>8058049000</v>
     <v>WMT</v>
     <v>WALMART INC. (XNYS:WMT)</v>
-    <v>17535100</v>
-    <v>20794131</v>
+    <v>10335909</v>
+    <v>17237509</v>
     <v>1969</v>
   </rv>
   <rv s="2">
     <v>61</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bptw77&amp;q=XNYS%3aUBER&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>bptw77</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>UBER TECHNOLOGIES, INC. (XNYS:UBER)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>82.14</v>
+    <v>29.22</v>
+    <v>1.3576999999999999</v>
+    <v>2.2400000000000002</v>
+    <v>-1.3478E-2</v>
+    <v>2.9898999999999998E-2</v>
+    <v>-1.04</v>
+    <v>USD</v>
+    <v>Uber Technologies, Inc. is a technology company, which develops and operates proprietary technology applications supporting a variety of offerings on its platform (Platform(s)). The Company connects consumers (Rider(s)) with independent providers of ride services (Mobility Driver(s)) for ride sharing services and connects Riders and other consumers (Eater(s)) with restaurants, grocers and other stores with delivery service providers (Couriers) for meal preparation, grocery and other delivery services. The Company also connects consumers with public transportation networks. It also connects shippers with carriers in the freight industry. It is also developing technologies designed to provide new solutions to solve everyday problems. Its technology is available in approximately 70 countries around the world, principally in the United States and Canada, Latin America, Europe (excluding Russia), the Middle East, Africa, and Asia (excluding China and Southeast Asia).</v>
+    <v>30400</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1725 3Rd Street, SAN FRANCISCO, CA, 94158 US</v>
+    <v>78.394999999999996</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45387.999968425778</v>
+    <v>63</v>
+    <v>74.92</v>
+    <v>160612000000</v>
+    <v>UBER TECHNOLOGIES, INC.</v>
+    <v>UBER TECHNOLOGIES, INC.</v>
+    <v>75.34</v>
+    <v>84.310500000000005</v>
+    <v>74.92</v>
+    <v>77.16</v>
+    <v>76.12</v>
+    <v>2081544000</v>
+    <v>UBER</v>
+    <v>UBER TECHNOLOGIES, INC. (XNYS:UBER)</v>
+    <v>21572026</v>
+    <v>15002503</v>
+    <v>2010</v>
+  </rv>
+  <rv s="2">
+    <v>64</v>
   </rv>
   <rv s="4">
     <v>13</v>
@@ -5916,7 +6058,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="e" cm="1" vm="22">
+      <c r="B3" s="21" t="e" cm="1" vm="23">
         <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Materials")</f>
         <v>#VALUE!</v>
       </c>
@@ -5965,7 +6107,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="e" cm="1" vm="22">
+      <c r="B3" s="21" t="e" cm="1" vm="23">
         <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Real Estate")</f>
         <v>#VALUE!</v>
       </c>
@@ -6043,13 +6185,13 @@
         <v>15576.641</v>
       </c>
       <c r="J3">
-        <v>2671082.3986799996</v>
+        <v>2641486.7807800001</v>
       </c>
       <c r="K3">
-        <v>-34940</v>
+        <v>64535</v>
       </c>
       <c r="L3">
-        <v>2706022.3986799996</v>
+        <v>2576951.7807800001</v>
       </c>
       <c r="M3">
         <v>-2.800460530319937E-2</v>
@@ -6064,22 +6206,22 @@
         <v>0.14719174228036858</v>
       </c>
       <c r="Q3">
-        <v>8.8789900307742461E-2</v>
+        <v>8.8129924088975659E-2</v>
       </c>
       <c r="R3">
         <v>0.96</v>
       </c>
       <c r="S3">
-        <v>5.5983205038488458E-3</v>
+        <v>5.6610449345441674E-3</v>
       </c>
       <c r="T3">
-        <v>171.48</v>
+        <v>169.58</v>
       </c>
       <c r="U3">
-        <v>82.423427496181077</v>
+        <v>89.414555445295747</v>
       </c>
       <c r="V3">
-        <v>-0.51934087067774037</v>
+        <v>-0.47272935814780193</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -6108,13 +6250,13 @@
         <v>348.8</v>
       </c>
       <c r="J4">
-        <v>8475.84</v>
+        <v>8116.576</v>
       </c>
       <c r="K4">
         <v>-1025.3000000000002</v>
       </c>
       <c r="L4">
-        <v>9501.14</v>
+        <v>9141.8760000000002</v>
       </c>
       <c r="M4">
         <v>7.7390055146206782E-2</v>
@@ -6138,13 +6280,13 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>24.3</v>
+        <v>23.27</v>
       </c>
       <c r="U4">
         <v>22.91548481095889</v>
       </c>
       <c r="V4">
-        <v>-5.6975933705395443E-2</v>
+        <v>-1.5234859864250549E-2</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
@@ -6173,13 +6315,13 @@
         <v>2477</v>
       </c>
       <c r="J5">
-        <v>2238118.1199999996</v>
+        <v>2179958.16</v>
       </c>
       <c r="K5">
         <v>2343</v>
       </c>
       <c r="L5">
-        <v>2235775.1199999996</v>
+        <v>2177615.16</v>
       </c>
       <c r="M5">
         <v>2.2293230289069932E-3</v>
@@ -6200,16 +6342,16 @@
         <v>0.16</v>
       </c>
       <c r="S5">
-        <v>1.7707733852760193E-4</v>
+        <v>1.8180165439505498E-4</v>
       </c>
       <c r="T5">
-        <v>903.56</v>
+        <v>880.08</v>
       </c>
       <c r="U5">
         <v>81.506807987771182</v>
       </c>
       <c r="V5">
-        <v>-0.90979369606028249</v>
+        <v>-0.90738704664601944</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
@@ -6238,13 +6380,13 @@
         <v>915</v>
       </c>
       <c r="J6">
-        <v>159402.15</v>
+        <v>153262.5</v>
       </c>
       <c r="K6">
         <v>-2648</v>
       </c>
       <c r="L6">
-        <v>162050.15</v>
+        <v>155910.5</v>
       </c>
       <c r="M6">
         <v>-0.12527461553824648</v>
@@ -6265,16 +6407,16 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="S6">
-        <v>2.8815797026577116E-2</v>
+        <v>2.997014925373134E-2</v>
       </c>
       <c r="T6">
-        <v>174.21</v>
+        <v>167.5</v>
       </c>
       <c r="U6">
         <v>126.13627883623619</v>
       </c>
       <c r="V6">
-        <v>-0.27595270744368183</v>
+        <v>-0.24694758903739589</v>
       </c>
     </row>
   </sheetData>
@@ -6322,7 +6464,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="e" cm="1" vm="22">
+      <c r="B3" s="21" t="e" cm="1" vm="23">
         <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Utilities")</f>
         <v>#VALUE!</v>
       </c>
@@ -6562,34 +6704,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C57CBD6-140C-4F1E-BA61-90A42EC2B8A9}">
-  <dimension ref="A2:W30"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.59765625" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.69921875" customWidth="1"/>
+    <col min="9" max="9" width="11.8984375" style="39" customWidth="1"/>
+    <col min="10" max="10" width="15.796875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" style="39" customWidth="1"/>
+    <col min="12" max="12" width="8.8984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.796875" customWidth="1"/>
+    <col min="14" max="14" width="9.796875" customWidth="1"/>
+    <col min="15" max="15" width="9.69921875" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="11.09765625" customWidth="1"/>
+    <col min="18" max="18" width="14.8984375" customWidth="1"/>
+    <col min="19" max="19" width="17.3984375" customWidth="1"/>
+    <col min="20" max="20" width="16.296875" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
     <col min="22" max="22" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>10</v>
@@ -6683,15 +6839,15 @@
       </c>
       <c r="J3" s="11">
         <f t="shared" ref="J3:J8" si="0">T3*I3</f>
-        <v>1902019.86</v>
+        <v>1921805</v>
       </c>
       <c r="K3" s="18">
         <f>[1]Main!$D$7-[1]Main!$D$8</f>
         <v>128671</v>
       </c>
       <c r="L3" s="11">
-        <f t="shared" ref="L3:L23" si="1">J3-K3</f>
-        <v>1773348.86</v>
+        <f t="shared" ref="L3:L24" si="1">J3-K3</f>
+        <v>1793134</v>
       </c>
       <c r="M3" s="34">
         <f>[1]DCF!$AU$33</f>
@@ -6711,26 +6867,26 @@
       </c>
       <c r="Q3" s="34">
         <f>[1]WACC!$C$18</f>
-        <v>8.100938506308529E-2</v>
+        <v>8.1014074204564746E-2</v>
       </c>
       <c r="R3" s="42">
         <v>0</v>
       </c>
       <c r="S3" s="35">
-        <f t="shared" ref="S3:S20" si="2">R3/T3</f>
+        <f t="shared" ref="S3:S21" si="2">R3/T3</f>
         <v>0</v>
       </c>
       <c r="T3" s="28" cm="1">
         <f t="array" ref="T3">_FV(B3,"Price")</f>
-        <v>150.93</v>
+        <v>152.5</v>
       </c>
       <c r="U3" s="28">
         <f>[1]DCF!$BH$38</f>
-        <v>157.50583148184953</v>
+        <v>157.49677374154334</v>
       </c>
       <c r="V3" s="13">
-        <f t="shared" ref="V3:V23" si="3">U3/T3-1</f>
-        <v>4.3568750293841552E-2</v>
+        <f t="shared" ref="V3:V24" si="3">U3/T3-1</f>
+        <v>3.2765729452743253E-2</v>
       </c>
       <c r="W3"/>
     </row>
@@ -6764,7 +6920,7 @@
       </c>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>1859357.04</v>
+        <v>1907701.5599999998</v>
       </c>
       <c r="K4" s="18">
         <f>[2]Main!$C$7-[2]Main!$C$8</f>
@@ -6772,7 +6928,7 @@
       </c>
       <c r="L4" s="11">
         <f t="shared" si="1"/>
-        <v>1821607.04</v>
+        <v>1869951.5599999998</v>
       </c>
       <c r="M4" s="34">
         <f>[2]Model!$AU$27</f>
@@ -6803,7 +6959,7 @@
       </c>
       <c r="T4" s="28" cm="1">
         <f t="array" ref="T4">_FV(B4,"Price")</f>
-        <v>180.38</v>
+        <v>185.07</v>
       </c>
       <c r="U4" s="28">
         <f>[2]Model!$BF$30</f>
@@ -6811,7 +6967,7 @@
       </c>
       <c r="V4" s="13">
         <f t="shared" si="3"/>
-        <v>-0.37998918941588578</v>
+        <v>-0.39570135617246172</v>
       </c>
       <c r="W4" s="18"/>
     </row>
@@ -6838,41 +6994,41 @@
       <c r="H5" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="18">
         <f>[3]Main!$C$5</f>
         <v>15576.641</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>2671082.3986799996</v>
+        <v>2641486.7807800001</v>
       </c>
       <c r="K5" s="18">
         <f>[3]Main!$C$7-[3]Main!$C$8</f>
-        <v>-34940</v>
+        <v>64535</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" si="1"/>
-        <v>2706022.3986799996</v>
+        <v>2576951.7807800001</v>
       </c>
       <c r="M5" s="34">
-        <f>[3]DCF!$AO$60</f>
+        <f>[3]DCF!$AO$61</f>
         <v>-2.800460530319937E-2</v>
       </c>
       <c r="N5" s="34">
-        <f>[3]DCF!$AO$51</f>
+        <f>[3]DCF!$AO$52</f>
         <v>0.44131129577207562</v>
       </c>
       <c r="O5" s="34">
-        <f>[3]DCF!$AO$52</f>
+        <f>[3]DCF!$AO$53</f>
         <v>0.29821412265024722</v>
       </c>
       <c r="P5" s="34">
-        <f>[3]DCF!$AO$54</f>
+        <f>[3]DCF!$AO$55</f>
         <v>0.14719174228036858</v>
       </c>
       <c r="Q5" s="34">
         <f>[3]WACC!$C$18</f>
-        <v>8.8789900307742461E-2</v>
+        <v>8.8129924088975659E-2</v>
       </c>
       <c r="R5" s="26">
         <f>0.24*4</f>
@@ -6880,19 +7036,19 @@
       </c>
       <c r="S5" s="35">
         <f t="shared" si="2"/>
-        <v>5.5983205038488458E-3</v>
+        <v>5.6610449345441674E-3</v>
       </c>
       <c r="T5" s="28" cm="1">
         <f t="array" ref="T5">_FV(B5,"Price")</f>
-        <v>171.48</v>
+        <v>169.58</v>
       </c>
       <c r="U5" s="28">
-        <f>[3]DCF!$AZ$56</f>
-        <v>82.423427496181077</v>
+        <f>[3]DCF!$AZ$57</f>
+        <v>89.414555445295747</v>
       </c>
       <c r="V5" s="13">
         <f t="shared" si="3"/>
-        <v>-0.51934087067774037</v>
+        <v>-0.47272935814780193</v>
       </c>
       <c r="W5"/>
     </row>
@@ -6925,7 +7081,7 @@
       </c>
       <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>17907.149000000001</v>
+        <v>17378.863000000001</v>
       </c>
       <c r="K6" s="18">
         <f>[4]Main!$C$8-[4]Main!$C$9</f>
@@ -6933,7 +7089,7 @@
       </c>
       <c r="L6" s="11">
         <f t="shared" si="1"/>
-        <v>21300.149000000001</v>
+        <v>20771.863000000001</v>
       </c>
       <c r="M6" s="34">
         <f>[4]Model!$AO$17</f>
@@ -6961,11 +7117,11 @@
       </c>
       <c r="S6" s="35">
         <f t="shared" si="2"/>
-        <v>4.4861635986834084E-2</v>
+        <v>4.6225348574299711E-2</v>
       </c>
       <c r="T6" s="28" cm="1">
         <f t="array" ref="T6">_FV(B6,"Price")</f>
-        <v>82.03</v>
+        <v>79.61</v>
       </c>
       <c r="U6" s="28">
         <f>[4]Model!$BA$24</f>
@@ -6973,7 +7129,7 @@
       </c>
       <c r="V6" s="13">
         <f t="shared" si="3"/>
-        <v>-5.6466385567438326E-2</v>
+        <v>-2.7784670369262132E-2</v>
       </c>
       <c r="W6"/>
     </row>
@@ -7006,7 +7162,7 @@
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>126.869</v>
+        <v>110.461</v>
       </c>
       <c r="K7" s="18">
         <f>[6]Main!$C$7-[6]Main!$C$8</f>
@@ -7014,7 +7170,7 @@
       </c>
       <c r="L7" s="11">
         <f t="shared" si="1"/>
-        <v>-3029.1309999999999</v>
+        <v>-3045.5390000000002</v>
       </c>
       <c r="M7" s="34">
         <f>[5]DCF!$AK$19</f>
@@ -7045,7 +7201,7 @@
       </c>
       <c r="T7" s="28" cm="1">
         <f t="array" ref="T7">_FV(B7,"Price")</f>
-        <v>4.33</v>
+        <v>3.77</v>
       </c>
       <c r="U7" s="28">
         <f>[5]DCF!$AT$25</f>
@@ -7053,7 +7209,7 @@
       </c>
       <c r="V7" s="13">
         <f t="shared" si="3"/>
-        <v>-28.655651943149664</v>
+        <v>-32.76365329279524</v>
       </c>
       <c r="W7"/>
     </row>
@@ -7086,7 +7242,7 @@
       </c>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>11036.688</v>
+        <v>10178.483999999999</v>
       </c>
       <c r="K8" s="18">
         <f>[7]Main!$C$8-[7]Main!$C$9</f>
@@ -7094,7 +7250,7 @@
       </c>
       <c r="L8" s="11">
         <f t="shared" si="1"/>
-        <v>14278.488000000001</v>
+        <v>13420.284</v>
       </c>
       <c r="M8" s="34">
         <f>[7]Model!$AQ$17</f>
@@ -7125,7 +7281,7 @@
       </c>
       <c r="T8" s="28" cm="1">
         <f t="array" ref="T8">_FV(B8,"Price")</f>
-        <v>11.96</v>
+        <v>11.03</v>
       </c>
       <c r="U8" s="28">
         <f>[7]Model!$AZ$24</f>
@@ -7133,7 +7289,7 @@
       </c>
       <c r="V8" s="13">
         <f t="shared" si="3"/>
-        <v>-0.20990695292913819</v>
+        <v>-0.14328986011173994</v>
       </c>
       <c r="W8"/>
     </row>
@@ -7166,7 +7322,7 @@
       </c>
       <c r="J9" s="11">
         <f>I9*T9</f>
-        <v>8475.84</v>
+        <v>8116.576</v>
       </c>
       <c r="K9" s="11">
         <f>[8]Main!$C$7-[8]Main!$C$8</f>
@@ -7174,7 +7330,7 @@
       </c>
       <c r="L9" s="11">
         <f t="shared" si="1"/>
-        <v>9501.14</v>
+        <v>9141.8760000000002</v>
       </c>
       <c r="M9" s="12">
         <f>[8]Model!$AO$30</f>
@@ -7205,7 +7361,7 @@
       </c>
       <c r="T9" s="17" cm="1">
         <f t="array" ref="T9">_FV(B9,"Price")</f>
-        <v>24.3</v>
+        <v>23.27</v>
       </c>
       <c r="U9" s="17">
         <f>[8]Main!$M$3</f>
@@ -7213,7 +7369,7 @@
       </c>
       <c r="V9" s="13">
         <f t="shared" si="3"/>
-        <v>-5.6975933705395443E-2</v>
+        <v>-1.5234859864250549E-2</v>
       </c>
       <c r="W9" s="26"/>
     </row>
@@ -7247,7 +7403,7 @@
       </c>
       <c r="J10" s="11">
         <f t="shared" ref="J10:J19" si="4">T10*I10</f>
-        <v>10808.42</v>
+        <v>10535.49</v>
       </c>
       <c r="K10" s="18">
         <f>[9]Main!$C$8-[9]Main!$C$9</f>
@@ -7255,7 +7411,7 @@
       </c>
       <c r="L10" s="11">
         <f t="shared" si="1"/>
-        <v>10060.81</v>
+        <v>9787.8799999999992</v>
       </c>
       <c r="M10" s="34">
         <f>[9]Model!$X$37</f>
@@ -7286,7 +7442,7 @@
       </c>
       <c r="T10" s="28" cm="1">
         <f t="array" ref="T10">_FV(B10,"Price")</f>
-        <v>220.58</v>
+        <v>215.01</v>
       </c>
       <c r="U10" s="28">
         <f>[9]Model!$AJ$42</f>
@@ -7294,7 +7450,7 @@
       </c>
       <c r="V10" s="13">
         <f t="shared" si="3"/>
-        <v>-0.18535650688244032</v>
+        <v>-0.16425253843136911</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7327,7 +7483,7 @@
       </c>
       <c r="J11" s="11">
         <f t="shared" si="4"/>
-        <v>2690.4</v>
+        <v>2274.096</v>
       </c>
       <c r="K11" s="18">
         <f>[10]Main!$C$8-[10]Main!$C$9</f>
@@ -7335,7 +7491,7 @@
       </c>
       <c r="L11" s="11">
         <f t="shared" si="1"/>
-        <v>2840.4</v>
+        <v>2424.096</v>
       </c>
       <c r="M11" s="34">
         <f>[10]Model!$AM$19</f>
@@ -7363,11 +7519,11 @@
       </c>
       <c r="S11" s="35">
         <f t="shared" si="2"/>
-        <v>5.6140350877192984E-2</v>
+        <v>6.6417600664176013E-2</v>
       </c>
       <c r="T11" s="28" cm="1">
         <f t="array" ref="T11">_FV(B11,"Price")</f>
-        <v>28.5</v>
+        <v>24.09</v>
       </c>
       <c r="U11" s="28">
         <f>[10]Model!$AV$26</f>
@@ -7375,7 +7531,7 @@
       </c>
       <c r="V11" s="13">
         <f t="shared" si="3"/>
-        <v>2.5017149234450415</v>
+        <v>3.142751154760635</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7408,7 +7564,7 @@
       </c>
       <c r="J12" s="11">
         <f t="shared" si="4"/>
-        <v>8027.6501070300001</v>
+        <v>8252.5367533500012</v>
       </c>
       <c r="K12" s="11">
         <f>[11]Main!$C$7-[11]Main!$C$8</f>
@@ -7416,7 +7572,7 @@
       </c>
       <c r="L12" s="11">
         <f t="shared" si="1"/>
-        <v>9796.8501070300008</v>
+        <v>10021.736753350002</v>
       </c>
       <c r="M12" s="12">
         <f>[11]Model!$AL$45</f>
@@ -7444,11 +7600,11 @@
       </c>
       <c r="S12" s="35">
         <f t="shared" si="2"/>
-        <v>2.4012006003001501E-2</v>
+        <v>2.3357664233576641E-2</v>
       </c>
       <c r="T12" s="17" cm="1">
         <f t="array" ref="T12">_FV(B12,"Price")</f>
-        <v>19.989999999999998</v>
+        <v>20.55</v>
       </c>
       <c r="U12" s="17">
         <f>[11]Model!$AV$50</f>
@@ -7456,7 +7612,7 @@
       </c>
       <c r="V12" s="13">
         <f t="shared" si="3"/>
-        <v>-0.12304920538874164</v>
+        <v>-0.14694664796695611</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7489,7 +7645,7 @@
       </c>
       <c r="J13" s="11">
         <f t="shared" si="4"/>
-        <v>269831.86035999999</v>
+        <v>282649.68455999997</v>
       </c>
       <c r="K13" s="18">
         <f>[12]Main!$C$7-[12]Main!$C$8</f>
@@ -7497,7 +7653,7 @@
       </c>
       <c r="L13" s="11">
         <f t="shared" si="1"/>
-        <v>277237.23535999999</v>
+        <v>290055.05955999997</v>
       </c>
       <c r="M13" s="34">
         <f>[12]Model!$AR$34</f>
@@ -7528,7 +7684,7 @@
       </c>
       <c r="T13" s="27" cm="1">
         <f t="array" ref="T13">_FV(B13,"Price")</f>
-        <v>607.33000000000004</v>
+        <v>636.17999999999995</v>
       </c>
       <c r="U13" s="28">
         <f>[12]Model!$BF$40</f>
@@ -7536,7 +7692,7 @@
       </c>
       <c r="V13" s="13">
         <f t="shared" si="3"/>
-        <v>-0.6531914599400197</v>
+        <v>-0.66891881128827069</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -7568,7 +7724,7 @@
       </c>
       <c r="J14" s="11">
         <f t="shared" si="4"/>
-        <v>143986.758</v>
+        <v>136111.764</v>
       </c>
       <c r="K14" s="11">
         <f>[13]Main!$C$7-[13]Main!$C$8</f>
@@ -7576,7 +7732,7 @@
       </c>
       <c r="L14" s="11">
         <f t="shared" si="1"/>
-        <v>142995.758</v>
+        <v>135120.764</v>
       </c>
       <c r="M14" s="12">
         <f>[13]DCF!$AT$59</f>
@@ -7603,11 +7759,11 @@
       </c>
       <c r="S14" s="35">
         <f t="shared" si="2"/>
-        <v>1.5748031496062992E-2</v>
+        <v>1.6659162539396668E-2</v>
       </c>
       <c r="T14" s="17" cm="1">
         <f t="array" ref="T14">_FV(B14,"Price")</f>
-        <v>93.98</v>
+        <v>88.84</v>
       </c>
       <c r="U14" s="17">
         <f>[13]DCF!$BB$65</f>
@@ -7615,7 +7771,7 @@
       </c>
       <c r="V14" s="13">
         <f t="shared" si="3"/>
-        <v>-0.30038987536655726</v>
+        <v>-0.25991265743976877</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -7648,7 +7804,7 @@
       </c>
       <c r="J15" s="11">
         <f t="shared" si="4"/>
-        <v>2238118.1199999996</v>
+        <v>2179958.16</v>
       </c>
       <c r="K15" s="18">
         <f>[14]Main!$C$8-[14]Main!$C$9</f>
@@ -7656,7 +7812,7 @@
       </c>
       <c r="L15" s="11">
         <f t="shared" si="1"/>
-        <v>2235775.1199999996</v>
+        <v>2177615.16</v>
       </c>
       <c r="M15" s="34">
         <f>[14]Model!$AQ$19</f>
@@ -7684,11 +7840,11 @@
       </c>
       <c r="S15" s="35">
         <f t="shared" si="2"/>
-        <v>1.7707733852760193E-4</v>
+        <v>1.8180165439505498E-4</v>
       </c>
       <c r="T15" s="27" cm="1">
         <f t="array" ref="T15">_FV(B15,"Price")</f>
-        <v>903.56</v>
+        <v>880.08</v>
       </c>
       <c r="U15" s="28">
         <f>[14]Model!$AZ$25</f>
@@ -7696,7 +7852,7 @@
       </c>
       <c r="V15" s="13">
         <f t="shared" si="3"/>
-        <v>-0.90979369606028249</v>
+        <v>-0.90738704664601944</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -7728,7 +7884,7 @@
       </c>
       <c r="J16" s="11">
         <f t="shared" si="4"/>
-        <v>158924.25</v>
+        <v>152681.82</v>
       </c>
       <c r="K16" s="18">
         <f>[15]Main!$C$8-[15]Main!$C$9</f>
@@ -7736,7 +7892,7 @@
       </c>
       <c r="L16" s="11">
         <f t="shared" si="1"/>
-        <v>174844.25</v>
+        <v>168601.82</v>
       </c>
       <c r="M16" s="34">
         <f>[15]Model!$AJ$20</f>
@@ -7764,11 +7920,11 @@
       </c>
       <c r="S16" s="35">
         <f t="shared" si="2"/>
-        <v>6.054054054054054E-2</v>
+        <v>6.3015753938484617E-2</v>
       </c>
       <c r="T16" s="27" cm="1">
         <f t="array" ref="T16">_FV(B16,"Price")</f>
-        <v>27.75</v>
+        <v>26.66</v>
       </c>
       <c r="U16" s="28">
         <f>[15]Model!$AS$27</f>
@@ -7776,7 +7932,7 @@
       </c>
       <c r="V16" s="13">
         <f t="shared" si="3"/>
-        <v>2.5394859947883854</v>
+        <v>2.6841986629924115</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
@@ -7808,7 +7964,7 @@
       </c>
       <c r="J17" s="11">
         <f t="shared" si="4"/>
-        <v>104239.43399999999</v>
+        <v>99061.109999999986</v>
       </c>
       <c r="K17" s="18">
         <f>[16]Main!$C$7-[16]Main!$C$8</f>
@@ -7816,7 +7972,7 @@
       </c>
       <c r="L17" s="11">
         <f t="shared" si="1"/>
-        <v>114770.33399999999</v>
+        <v>109592.00999999998</v>
       </c>
       <c r="M17" s="34">
         <f>[16]DCF!$AU$29</f>
@@ -7844,11 +8000,11 @@
       </c>
       <c r="S17" s="35">
         <f t="shared" si="2"/>
-        <v>2.4948024948024946E-2</v>
+        <v>2.6252158894645942E-2</v>
       </c>
       <c r="T17" s="27" cm="1">
         <f t="array" ref="T17">_FV(B17,"Price")</f>
-        <v>91.39</v>
+        <v>86.85</v>
       </c>
       <c r="U17" s="28">
         <f>[16]DCF!$BG$34</f>
@@ -7856,7 +8012,7 @@
       </c>
       <c r="V17" s="13">
         <f t="shared" si="3"/>
-        <v>-0.15280444097073576</v>
+        <v>-0.10851811007847478</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
@@ -7888,7 +8044,7 @@
       </c>
       <c r="J18" s="11">
         <f t="shared" si="4"/>
-        <v>81959.625</v>
+        <v>79443.625</v>
       </c>
       <c r="K18" s="11">
         <f>[17]Main!$C$7-[17]Main!$C$8</f>
@@ -7896,7 +8052,7 @@
       </c>
       <c r="L18" s="11">
         <f t="shared" si="1"/>
-        <v>97449.625</v>
+        <v>94933.625</v>
       </c>
       <c r="M18" s="12">
         <f>[17]DCF!$AN$32</f>
@@ -7924,11 +8080,11 @@
       </c>
       <c r="S18" s="35">
         <f t="shared" si="2"/>
-        <v>2.4829298572315334E-2</v>
+        <v>2.5615648832741457E-2</v>
       </c>
       <c r="T18" s="17" cm="1">
         <f t="array" ref="T18">_FV(B18,"Price")</f>
-        <v>177.21</v>
+        <v>171.77</v>
       </c>
       <c r="U18" s="17">
         <f>[17]Main!$M$3</f>
@@ -7936,7 +8092,7 @@
       </c>
       <c r="V18" s="13">
         <f t="shared" si="3"/>
-        <v>0.44486674975660967</v>
+        <v>0.49062605067455767</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
@@ -7967,7 +8123,7 @@
       </c>
       <c r="J19" s="11">
         <f t="shared" si="4"/>
-        <v>159402.15</v>
+        <v>153262.5</v>
       </c>
       <c r="K19" s="18">
         <f>[18]Main!$C$7-[18]Main!$C$8</f>
@@ -7975,7 +8131,7 @@
       </c>
       <c r="L19" s="11">
         <f t="shared" si="1"/>
-        <v>162050.15</v>
+        <v>155910.5</v>
       </c>
       <c r="M19" s="34">
         <f>[18]Model!$AV$23</f>
@@ -8003,11 +8159,11 @@
       </c>
       <c r="S19" s="35">
         <f t="shared" si="2"/>
-        <v>2.8815797026577116E-2</v>
+        <v>2.997014925373134E-2</v>
       </c>
       <c r="T19" s="28" cm="1">
         <f t="array" ref="T19">_FV(B19,"Price")</f>
-        <v>174.21</v>
+        <v>167.5</v>
       </c>
       <c r="U19" s="28">
         <f>[18]Model!$BH$28</f>
@@ -8015,7 +8171,7 @@
       </c>
       <c r="V19" s="13">
         <f t="shared" si="3"/>
-        <v>-0.27595270744368183</v>
+        <v>-0.24694758903739589</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
@@ -8047,7 +8203,7 @@
       </c>
       <c r="J20" s="11">
         <f>I20*T20</f>
-        <v>3258.2550000000006</v>
+        <v>3314.6749999999997</v>
       </c>
       <c r="K20" s="11">
         <f>[19]Main!$C$7-[19]Main!$C$8</f>
@@ -8055,7 +8211,7 @@
       </c>
       <c r="L20" s="11">
         <f t="shared" si="1"/>
-        <v>4717.4550000000008</v>
+        <v>4773.875</v>
       </c>
       <c r="M20" s="12">
         <f>[19]Model!$AR$28</f>
@@ -8086,7 +8242,7 @@
       </c>
       <c r="T20" s="17" cm="1">
         <f t="array" ref="T20">_FV(B20,"Price")</f>
-        <v>16.170000000000002</v>
+        <v>16.45</v>
       </c>
       <c r="U20" s="17">
         <f>[19]Model!$AY$33</f>
@@ -8094,7 +8250,7 @@
       </c>
       <c r="V20" s="13">
         <f t="shared" si="3"/>
-        <v>-0.63873575719574271</v>
+        <v>-0.64488493579666617</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
@@ -8125,7 +8281,7 @@
       </c>
       <c r="J21" s="11">
         <f>T21*I21</f>
-        <v>346204.32454780361</v>
+        <v>331155.55106340686</v>
       </c>
       <c r="K21" s="18">
         <f>[20]Main!$C$21-[20]Main!$C$22</f>
@@ -8133,7 +8289,7 @@
       </c>
       <c r="L21" s="11">
         <f t="shared" si="1"/>
-        <v>525566.21774780354</v>
+        <v>510517.44426340685</v>
       </c>
       <c r="M21" s="34">
         <f>[20]DCF!$AP$28</f>
@@ -8153,21 +8309,26 @@
       </c>
       <c r="Q21" s="34">
         <f>[20]WACC!$C$18</f>
-        <v>3.9276503997873018E-2</v>
-      </c>
-      <c r="R21" s="26"/>
-      <c r="S21" s="35"/>
+        <v>3.9365584350273979E-2</v>
+      </c>
+      <c r="R21" s="26">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="S21" s="35">
+        <f t="shared" si="2"/>
+        <v>1.877544238597657E-2</v>
+      </c>
       <c r="T21" s="28" cm="1">
         <f t="array" ref="T21">_FV(B21,"Price")</f>
-        <v>251.68</v>
+        <v>240.74</v>
       </c>
       <c r="U21" s="28">
         <f>[20]DCF!$BE$43</f>
-        <v>586.48012737999534</v>
+        <v>567.86629485039839</v>
       </c>
       <c r="V21" s="13">
         <f t="shared" si="3"/>
-        <v>1.3302611545613292</v>
+        <v>1.3588364827216015</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
@@ -8199,7 +8360,7 @@
       </c>
       <c r="J22" s="11">
         <f>T22*I22</f>
-        <v>1127.136</v>
+        <v>1113.92</v>
       </c>
       <c r="K22" s="18">
         <f>[10]Main!$C$8-[10]Main!$C$9</f>
@@ -8207,7 +8368,7 @@
       </c>
       <c r="L22" s="11">
         <f t="shared" si="1"/>
-        <v>1277.136</v>
+        <v>1263.92</v>
       </c>
       <c r="M22" s="34">
         <f>[10]Model!$AM$19</f>
@@ -8235,11 +8396,11 @@
       </c>
       <c r="S22" s="35">
         <f>R22/T22</f>
-        <v>4.0201005025125629E-2</v>
+        <v>4.0677966101694912E-2</v>
       </c>
       <c r="T22" s="27" cm="1">
         <f t="array" ref="T22">_FV(B22,"Price")</f>
-        <v>11.94</v>
+        <v>11.8</v>
       </c>
       <c r="U22" s="28">
         <f>[21]Model!$AH$28</f>
@@ -8247,7 +8408,7 @@
       </c>
       <c r="V22" s="13">
         <f t="shared" si="3"/>
-        <v>-0.40955954379303816</v>
+        <v>-0.40255431804143027</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
@@ -8279,7 +8440,7 @@
       </c>
       <c r="J23" s="11">
         <f>T23*I23</f>
-        <v>487557.51</v>
+        <v>484964.55</v>
       </c>
       <c r="K23" s="11">
         <f>[22]Main!$C$7-[22]Main!$C$8</f>
@@ -8287,7 +8448,7 @@
       </c>
       <c r="L23" s="11">
         <f t="shared" si="1"/>
-        <v>518147.51</v>
+        <v>515554.55</v>
       </c>
       <c r="M23" s="12">
         <f>[22]Model!$AT$54</f>
@@ -8307,7 +8468,7 @@
       </c>
       <c r="Q23" s="13">
         <f>[22]WACC!$C$18</f>
-        <v>4.4829601391657446E-2</v>
+        <v>4.4827908119862321E-2</v>
       </c>
       <c r="R23" s="14">
         <f>0.21*4</f>
@@ -8315,11 +8476,11 @@
       </c>
       <c r="S23" s="35">
         <f>R23/T23</f>
-        <v>1.396044540468672E-2</v>
+        <v>1.4035087719298244E-2</v>
       </c>
       <c r="T23" s="17" cm="1">
         <f t="array" ref="T23">_FV(B23,"Price")</f>
-        <v>60.17</v>
+        <v>59.85</v>
       </c>
       <c r="U23" s="17">
         <f>[22]Main!$M$3</f>
@@ -8327,13 +8488,86 @@
       </c>
       <c r="V23" s="13">
         <f t="shared" si="3"/>
-        <v>0.1318874762661979</v>
+        <v>0.13793933913011069</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="B24" s="21" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" s="26">
+        <v>2009</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="18">
+        <v>30400</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="18">
+        <f>[23]Main!$C$5</f>
+        <v>2121.9290000000001</v>
+      </c>
+      <c r="J24" s="11">
+        <f>T24*I24</f>
+        <v>163728.04164000001</v>
+      </c>
+      <c r="K24" s="18">
+        <f>[23]Main!$C$7-[23]Main!$C$8</f>
+        <v>9699</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="1"/>
+        <v>154029.04164000001</v>
+      </c>
+      <c r="M24" s="34">
+        <f>[23]DCF!$AP$40</f>
+        <v>0.16952661793769797</v>
+      </c>
+      <c r="N24" s="34">
+        <f>[23]DCF!$AP$47</f>
+        <v>0.39762881896944824</v>
+      </c>
+      <c r="O24" s="34">
+        <f>[23]DCF!$AP$48</f>
+        <v>5.1849467557200719E-2</v>
+      </c>
+      <c r="P24" s="34">
+        <f>[23]DCF!$AP$49</f>
+        <v>6.7748091603053437E-2</v>
+      </c>
+      <c r="Q24" s="34">
+        <f>[23]WACC!$C$18</f>
+        <v>8.8117841621591059E-2</v>
+      </c>
+      <c r="R24" s="42">
+        <v>0</v>
+      </c>
+      <c r="S24" s="35">
+        <f>R24/T24</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="28" cm="1">
+        <f t="array" ref="T24">_FV(B24,"Price")</f>
+        <v>77.16</v>
+      </c>
+      <c r="U24" s="28">
+        <f>[23]DCF!$BB$46</f>
+        <v>53.855858375008872</v>
+      </c>
+      <c r="V24" s="13">
+        <f t="shared" si="3"/>
+        <v>-0.30202360841097886</v>
+      </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C25" s="26"/>
@@ -8352,7 +8586,7 @@
       <sortCondition ref="B2:B22"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="V3:V23">
+  <conditionalFormatting sqref="V3:V24">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8382,10 +8616,11 @@
     <hyperlink ref="B3" r:id="rId19" display="GOOGL.xlsx" xr:uid="{B14E25EB-BD9A-46E4-A64C-5D732F749CCC}"/>
     <hyperlink ref="B21" r:id="rId20" display="TM.xlsx" xr:uid="{A9C43251-15F2-4E54-83A1-C629C893BBD0}"/>
     <hyperlink ref="B19" r:id="rId21" display="TXN.xlsx" xr:uid="{C9BF9B6C-43E9-4E95-BC3E-4165AEC1FF9D}"/>
+    <hyperlink ref="B24" r:id="rId22" display="UBER.xlsx" xr:uid="{6E49CC0F-F92C-41A5-A497-BD1FBF5B8577}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
-  <legacyDrawing r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -8446,13 +8681,13 @@
         <v>12602</v>
       </c>
       <c r="J3" s="18">
-        <v>1902019.86</v>
+        <v>1921805</v>
       </c>
       <c r="K3" s="18">
         <v>128671</v>
       </c>
       <c r="L3" s="18">
-        <v>1773348.86</v>
+        <v>1793134</v>
       </c>
       <c r="M3" s="18">
         <v>8.6827702272695095E-2</v>
@@ -8467,7 +8702,7 @@
         <v>0.13908559562280529</v>
       </c>
       <c r="Q3" s="18">
-        <v>8.100938506308529E-2</v>
+        <v>8.1014074204564746E-2</v>
       </c>
       <c r="R3" s="18">
         <v>0</v>
@@ -8476,13 +8711,13 @@
         <v>0</v>
       </c>
       <c r="T3" s="18">
-        <v>150.93</v>
+        <v>152.5</v>
       </c>
       <c r="U3" s="18">
-        <v>157.50583148184953</v>
+        <v>157.49677374154334</v>
       </c>
       <c r="V3" s="18">
-        <v>4.3568750293841552E-2</v>
+        <v>3.2765729452743253E-2</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -8511,13 +8746,13 @@
         <v>444.29199999999997</v>
       </c>
       <c r="J4" s="18">
-        <v>269831.86035999999</v>
+        <v>282649.68455999997</v>
       </c>
       <c r="K4" s="18">
         <v>-7405.3749999999991</v>
       </c>
       <c r="L4" s="18">
-        <v>277237.23535999999</v>
+        <v>290055.05955999997</v>
       </c>
       <c r="M4" s="18">
         <v>6.45739131769969E-2</v>
@@ -8541,13 +8776,13 @@
         <v>0</v>
       </c>
       <c r="T4" s="18">
-        <v>607.33000000000004</v>
+        <v>636.17999999999995</v>
       </c>
       <c r="U4" s="18">
         <v>210.62723063462789</v>
       </c>
       <c r="V4" s="18">
-        <v>-0.6531914599400197</v>
+        <v>-0.66891881128827069</v>
       </c>
     </row>
   </sheetData>
@@ -8612,13 +8847,13 @@
         <v>10308</v>
       </c>
       <c r="J3">
-        <v>1859357.04</v>
+        <v>1907701.5599999998</v>
       </c>
       <c r="K3">
         <v>37750</v>
       </c>
       <c r="L3">
-        <v>1821607.04</v>
+        <v>1869951.5599999998</v>
       </c>
       <c r="M3">
         <v>0.1182957412988368</v>
@@ -8642,13 +8877,13 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>180.38</v>
+        <v>185.07</v>
       </c>
       <c r="U3">
         <v>111.83755001316251</v>
       </c>
       <c r="V3">
-        <v>-0.37998918941588578</v>
+        <v>-0.39570135617246172</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -8677,13 +8912,13 @@
         <v>218.3</v>
       </c>
       <c r="J4">
-        <v>17907.149000000001</v>
+        <v>17378.863000000001</v>
       </c>
       <c r="K4">
         <v>-3393</v>
       </c>
       <c r="L4">
-        <v>21300.149000000001</v>
+        <v>20771.863000000001</v>
       </c>
       <c r="M4">
         <v>-0.10554278317652288</v>
@@ -8704,16 +8939,16 @@
         <v>3.68</v>
       </c>
       <c r="S4">
-        <v>4.4861635986834084E-2</v>
+        <v>4.6225348574299711E-2</v>
       </c>
       <c r="T4">
-        <v>82.03</v>
+        <v>79.61</v>
       </c>
       <c r="U4">
         <v>77.398062391903039</v>
       </c>
       <c r="V4">
-        <v>-5.6466385567438326E-2</v>
+        <v>-2.7784670369262132E-2</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
@@ -8742,13 +8977,13 @@
         <v>29.3</v>
       </c>
       <c r="J5">
-        <v>126.869</v>
+        <v>110.461</v>
       </c>
       <c r="K5">
         <v>3156</v>
       </c>
       <c r="L5">
-        <v>-3029.1309999999999</v>
+        <v>-3045.5390000000002</v>
       </c>
       <c r="M5">
         <v>-0.1109279854349241</v>
@@ -8772,13 +9007,13 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>4.33</v>
+        <v>3.77</v>
       </c>
       <c r="U5">
         <v>-119.74897291383805</v>
       </c>
       <c r="V5">
-        <v>-28.655651943149664</v>
+        <v>-32.76365329279524</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
@@ -8807,13 +9042,13 @@
         <v>49</v>
       </c>
       <c r="J6">
-        <v>10808.42</v>
+        <v>10535.49</v>
       </c>
       <c r="K6">
         <v>747.61</v>
       </c>
       <c r="L6">
-        <v>10060.81</v>
+        <v>9787.8799999999992</v>
       </c>
       <c r="M6">
         <v>0.43739157498748304</v>
@@ -8837,13 +9072,13 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>220.58</v>
+        <v>215.01</v>
       </c>
       <c r="U6">
         <v>179.69406171187131</v>
       </c>
       <c r="V6">
-        <v>-0.18535650688244032</v>
+        <v>-0.16425253843136911</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
@@ -8872,13 +9107,13 @@
         <v>94.4</v>
       </c>
       <c r="J7">
-        <v>2690.4</v>
+        <v>2274.096</v>
       </c>
       <c r="K7">
         <v>-150</v>
       </c>
       <c r="L7">
-        <v>2840.4</v>
+        <v>2424.096</v>
       </c>
       <c r="M7">
         <v>-2.3211695123312115E-2</v>
@@ -8899,16 +9134,16 @@
         <v>1.6</v>
       </c>
       <c r="S7">
-        <v>5.6140350877192984E-2</v>
+        <v>6.6417600664176013E-2</v>
       </c>
       <c r="T7">
-        <v>28.5</v>
+        <v>24.09</v>
       </c>
       <c r="U7">
         <v>99.79887531818369</v>
       </c>
       <c r="V7">
-        <v>2.5017149234450415</v>
+        <v>3.142751154760635</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
@@ -8937,13 +9172,13 @@
         <v>401.58329700000002</v>
       </c>
       <c r="J8">
-        <v>8027.6501070300001</v>
+        <v>8252.5367533500012</v>
       </c>
       <c r="K8">
         <v>-1769.2</v>
       </c>
       <c r="L8">
-        <v>9796.8501070300008</v>
+        <v>10021.736753350002</v>
       </c>
       <c r="M8">
         <v>1.685957915896541E-3</v>
@@ -8964,16 +9199,16 @@
         <v>0.48</v>
       </c>
       <c r="S8">
-        <v>2.4012006003001501E-2</v>
+        <v>2.3357664233576641E-2</v>
       </c>
       <c r="T8">
-        <v>19.989999999999998</v>
+        <v>20.55</v>
       </c>
       <c r="U8">
         <v>17.530246384279053</v>
       </c>
       <c r="V8">
-        <v>-0.12304920538874164</v>
+        <v>-0.14694664796695611</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
@@ -9002,13 +9237,13 @@
         <v>1532.1</v>
       </c>
       <c r="J9">
-        <v>143986.758</v>
+        <v>136111.764</v>
       </c>
       <c r="K9">
         <v>991</v>
       </c>
       <c r="L9">
-        <v>142995.758</v>
+        <v>135120.764</v>
       </c>
       <c r="M9">
         <v>9.6488974523656568E-2</v>
@@ -9029,16 +9264,16 @@
         <v>1.48</v>
       </c>
       <c r="S9">
-        <v>1.5748031496062992E-2</v>
+        <v>1.6659162539396668E-2</v>
       </c>
       <c r="T9">
-        <v>93.98</v>
+        <v>88.84</v>
       </c>
       <c r="U9">
         <v>65.749359513050948</v>
       </c>
       <c r="V9">
-        <v>-0.30038987536655726</v>
+        <v>-0.25991265743976877</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
@@ -9067,13 +9302,13 @@
         <v>1140.5999999999999</v>
       </c>
       <c r="J10">
-        <v>104239.43399999999</v>
+        <v>99061.109999999986</v>
       </c>
       <c r="K10">
         <v>-10530.9</v>
       </c>
       <c r="L10">
-        <v>114770.33399999999</v>
+        <v>109592.00999999998</v>
       </c>
       <c r="M10">
         <v>0.11551210376337573</v>
@@ -9094,16 +9329,16 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="S10">
-        <v>2.4948024948024946E-2</v>
+        <v>2.6252158894645942E-2</v>
       </c>
       <c r="T10">
-        <v>91.39</v>
+        <v>86.85</v>
       </c>
       <c r="U10">
         <v>77.425202139684458</v>
       </c>
       <c r="V10">
-        <v>-0.15280444097073576</v>
+        <v>-0.10851811007847478</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
@@ -9132,13 +9367,13 @@
         <v>201.5</v>
       </c>
       <c r="J11">
-        <v>3258.2550000000006</v>
+        <v>3314.6749999999997</v>
       </c>
       <c r="K11">
         <v>-1459.2</v>
       </c>
       <c r="L11">
-        <v>4717.4550000000008</v>
+        <v>4773.875</v>
       </c>
       <c r="M11">
         <v>0.2752023769820815</v>
@@ -9162,13 +9397,13 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>16.170000000000002</v>
+        <v>16.45</v>
       </c>
       <c r="U11">
         <v>5.8416428061448409</v>
       </c>
       <c r="V11">
-        <v>-0.63873575719574271</v>
+        <v>-0.64488493579666617</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
@@ -9197,13 +9432,13 @@
         <v>1375.573444643212</v>
       </c>
       <c r="J12">
-        <v>346204.32454780361</v>
+        <v>331155.55106340686</v>
       </c>
       <c r="K12">
         <v>-179361.89319999999</v>
       </c>
       <c r="L12">
-        <v>525566.21774780354</v>
+        <v>510517.44426340685</v>
       </c>
       <c r="M12">
         <v>0.18403064777276446</v>
@@ -9218,22 +9453,22 @@
         <v>0.32048257531959945</v>
       </c>
       <c r="Q12">
-        <v>3.9276503997873018E-2</v>
+        <v>3.9365584350273979E-2</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.877544238597657E-2</v>
       </c>
       <c r="T12">
-        <v>251.68</v>
+        <v>240.74</v>
       </c>
       <c r="U12">
-        <v>586.48012737999534</v>
+        <v>567.86629485039839</v>
       </c>
       <c r="V12">
-        <v>1.3302611545613292</v>
+        <v>1.3588364827216015</v>
       </c>
     </row>
   </sheetData>
@@ -9309,13 +9544,13 @@
         <v>922.8</v>
       </c>
       <c r="J3">
-        <v>11036.688</v>
+        <v>10178.483999999999</v>
       </c>
       <c r="K3">
         <v>-3241.8</v>
       </c>
       <c r="L3">
-        <v>14278.488000000001</v>
+        <v>13420.284</v>
       </c>
       <c r="M3">
         <v>4.7074127139733024E-2</v>
@@ -9339,13 +9574,13 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>11.96</v>
+        <v>11.03</v>
       </c>
       <c r="U3">
         <v>9.4495128429675077</v>
       </c>
       <c r="V3">
-        <v>-0.20990695292913819</v>
+        <v>-0.14328986011173994</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9374,13 +9609,13 @@
         <v>462.5</v>
       </c>
       <c r="J4">
-        <v>81959.625</v>
+        <v>79443.625</v>
       </c>
       <c r="K4">
         <v>-15490</v>
       </c>
       <c r="L4">
-        <v>97449.625</v>
+        <v>94933.625</v>
       </c>
       <c r="M4">
         <v>2.9385406348757082E-2</v>
@@ -9401,16 +9636,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="S4">
-        <v>2.4829298572315334E-2</v>
+        <v>2.5615648832741457E-2</v>
       </c>
       <c r="T4">
-        <v>177.21</v>
+        <v>171.77</v>
       </c>
       <c r="U4">
         <v>256.04483672436879</v>
       </c>
       <c r="V4">
-        <v>0.44486674975660967</v>
+        <v>0.49062605067455767</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
@@ -9439,13 +9674,13 @@
         <v>8103</v>
       </c>
       <c r="J5">
-        <v>487557.51</v>
+        <v>484964.55</v>
       </c>
       <c r="K5">
         <v>-30590</v>
       </c>
       <c r="L5">
-        <v>518147.51</v>
+        <v>515554.55</v>
       </c>
       <c r="M5">
         <v>6.7280193590965709E-2</v>
@@ -9460,22 +9695,22 @@
         <v>0.33638928067700985</v>
       </c>
       <c r="Q5">
-        <v>4.4829601391657446E-2</v>
+        <v>4.4827908119862321E-2</v>
       </c>
       <c r="R5">
         <v>0.84</v>
       </c>
       <c r="S5">
-        <v>1.396044540468672E-2</v>
+        <v>1.4035087719298244E-2</v>
       </c>
       <c r="T5">
-        <v>60.17</v>
+        <v>59.85</v>
       </c>
       <c r="U5">
         <v>68.105669446937128</v>
       </c>
       <c r="V5">
-        <v>0.1318874762661979</v>
+        <v>0.13793933913011069</v>
       </c>
     </row>
   </sheetData>
@@ -9522,7 +9757,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="e" cm="1" vm="22">
+      <c r="B3" s="19" t="e" cm="1" vm="23">
         <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Energy")</f>
         <v>#VALUE!</v>
       </c>
@@ -9571,7 +9806,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="e" cm="1" vm="22">
+      <c r="B3" s="21" t="e" cm="1" vm="23">
         <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Financial Services")</f>
         <v>#VALUE!</v>
       </c>
@@ -9647,13 +9882,13 @@
         <v>5727</v>
       </c>
       <c r="J3">
-        <v>158924.25</v>
+        <v>152681.82</v>
       </c>
       <c r="K3">
         <v>-15920</v>
       </c>
       <c r="L3">
-        <v>174844.25</v>
+        <v>168601.82</v>
       </c>
       <c r="M3">
         <v>0.23426582029327814</v>
@@ -9674,16 +9909,16 @@
         <v>1.68</v>
       </c>
       <c r="S3">
-        <v>6.054054054054054E-2</v>
+        <v>6.3015753938484617E-2</v>
       </c>
       <c r="T3">
-        <v>27.75</v>
+        <v>26.66</v>
       </c>
       <c r="U3">
         <v>98.220736355377696</v>
       </c>
       <c r="V3">
-        <v>2.5394859947883854</v>
+        <v>2.6841986629924115</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9712,13 +9947,13 @@
         <v>94.4</v>
       </c>
       <c r="J4">
-        <v>1127.136</v>
+        <v>1113.92</v>
       </c>
       <c r="K4">
         <v>-150</v>
       </c>
       <c r="L4">
-        <v>1277.136</v>
+        <v>1263.92</v>
       </c>
       <c r="M4">
         <v>-2.3211695123312115E-2</v>
@@ -9739,16 +9974,16 @@
         <v>0.48</v>
       </c>
       <c r="S4">
-        <v>4.0201005025125629E-2</v>
+        <v>4.0677966101694912E-2</v>
       </c>
       <c r="T4">
-        <v>11.94</v>
+        <v>11.8</v>
       </c>
       <c r="U4">
         <v>7.0498590471111235</v>
       </c>
       <c r="V4">
-        <v>-0.40955954379303816</v>
+        <v>-0.40255431804143027</v>
       </c>
     </row>
   </sheetData>
@@ -9758,7 +9993,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDAF246-CBE5-44B3-96A8-132D2AEC986E}">
-  <dimension ref="B2:H3"/>
+  <dimension ref="B2:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -9771,7 +10006,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
@@ -9794,10 +10029,70 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="e" cm="1" vm="22">
-        <f t="array" ref="B3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Industrials")</f>
+        <f t="array" ref="B3:V3">_xlfn._xlws.FILTER(All!$B$2:$V$1048576, All!$G$2:$G$1048576="Industrials")</f>
         <v>#VALUE!</v>
+      </c>
+      <c r="C3">
+        <v>2009</v>
+      </c>
+      <c r="D3" t="str">
+        <v>San Francisco, CA</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Dara Khosrowshahi</v>
+      </c>
+      <c r="F3">
+        <v>30400</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Industrials</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Ground Transportation</v>
+      </c>
+      <c r="I3">
+        <v>2121.9290000000001</v>
+      </c>
+      <c r="J3">
+        <v>163728.04164000001</v>
+      </c>
+      <c r="K3">
+        <v>9699</v>
+      </c>
+      <c r="L3">
+        <v>154029.04164000001</v>
+      </c>
+      <c r="M3">
+        <v>0.16952661793769797</v>
+      </c>
+      <c r="N3">
+        <v>0.39762881896944824</v>
+      </c>
+      <c r="O3">
+        <v>5.1849467557200719E-2</v>
+      </c>
+      <c r="P3">
+        <v>6.7748091603053437E-2</v>
+      </c>
+      <c r="Q3">
+        <v>8.8117841621591059E-2</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>77.16</v>
+      </c>
+      <c r="U3">
+        <v>53.855858375008872</v>
+      </c>
+      <c r="V3">
+        <v>-0.30202360841097886</v>
       </c>
     </row>
   </sheetData>
